--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R882"/>
+  <dimension ref="A1:R889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49405,7 +49405,7 @@
         <v>37</v>
       </c>
       <c r="O874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P874" t="n">
         <v>0</v>
@@ -49461,7 +49461,7 @@
         <v>37</v>
       </c>
       <c r="O875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P875" t="n">
         <v>0</v>
@@ -49525,7 +49525,9 @@
       <c r="Q876" t="n">
         <v>0</v>
       </c>
-      <c r="R876" t="inlineStr"/>
+      <c r="R876" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
@@ -49579,7 +49581,9 @@
       <c r="Q877" t="n">
         <v>0</v>
       </c>
-      <c r="R877" t="inlineStr"/>
+      <c r="R877" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
@@ -49633,7 +49637,9 @@
       <c r="Q878" t="n">
         <v>0</v>
       </c>
-      <c r="R878" t="inlineStr"/>
+      <c r="R878" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
@@ -49687,7 +49693,9 @@
       <c r="Q879" t="n">
         <v>0</v>
       </c>
-      <c r="R879" t="inlineStr"/>
+      <c r="R879" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
@@ -49741,7 +49749,9 @@
       <c r="Q880" t="n">
         <v>0</v>
       </c>
-      <c r="R880" t="inlineStr"/>
+      <c r="R880" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
@@ -49795,7 +49805,9 @@
       <c r="Q881" t="n">
         <v>0</v>
       </c>
-      <c r="R881" t="inlineStr"/>
+      <c r="R881" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
@@ -49849,7 +49861,387 @@
       <c r="Q882" t="n">
         <v>0</v>
       </c>
-      <c r="R882" t="inlineStr"/>
+      <c r="R882" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>45546.38541666666</v>
+      </c>
+      <c r="B883" t="n">
+        <v>357.8999938964844</v>
+      </c>
+      <c r="C883" t="n">
+        <v>365</v>
+      </c>
+      <c r="D883" t="n">
+        <v>350.2000122070312</v>
+      </c>
+      <c r="E883" t="n">
+        <v>364.3500061035156</v>
+      </c>
+      <c r="F883" t="n">
+        <v>364.3500061035156</v>
+      </c>
+      <c r="G883" t="n">
+        <v>0</v>
+      </c>
+      <c r="H883" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I883" t="n">
+        <v>9</v>
+      </c>
+      <c r="J883" t="n">
+        <v>11</v>
+      </c>
+      <c r="K883" t="n">
+        <v>9</v>
+      </c>
+      <c r="L883" t="n">
+        <v>15</v>
+      </c>
+      <c r="M883" t="n">
+        <v>0</v>
+      </c>
+      <c r="N883" t="n">
+        <v>37</v>
+      </c>
+      <c r="O883" t="n">
+        <v>0</v>
+      </c>
+      <c r="P883" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q883" t="n">
+        <v>0</v>
+      </c>
+      <c r="R883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>45546.42708333334</v>
+      </c>
+      <c r="B884" t="n">
+        <v>364.5</v>
+      </c>
+      <c r="C884" t="n">
+        <v>365.2000122070312</v>
+      </c>
+      <c r="D884" t="n">
+        <v>363.5499877929688</v>
+      </c>
+      <c r="E884" t="n">
+        <v>365.2000122070312</v>
+      </c>
+      <c r="F884" t="n">
+        <v>365.2000122070312</v>
+      </c>
+      <c r="G884" t="n">
+        <v>75792</v>
+      </c>
+      <c r="H884" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I884" t="n">
+        <v>9</v>
+      </c>
+      <c r="J884" t="n">
+        <v>11</v>
+      </c>
+      <c r="K884" t="n">
+        <v>10</v>
+      </c>
+      <c r="L884" t="n">
+        <v>15</v>
+      </c>
+      <c r="M884" t="n">
+        <v>0</v>
+      </c>
+      <c r="N884" t="n">
+        <v>37</v>
+      </c>
+      <c r="O884" t="n">
+        <v>0</v>
+      </c>
+      <c r="P884" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q884" t="n">
+        <v>0</v>
+      </c>
+      <c r="R884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>45546.46875</v>
+      </c>
+      <c r="B885" t="n">
+        <v>365.2000122070312</v>
+      </c>
+      <c r="C885" t="n">
+        <v>365.2000122070312</v>
+      </c>
+      <c r="D885" t="n">
+        <v>364</v>
+      </c>
+      <c r="E885" t="n">
+        <v>365.2000122070312</v>
+      </c>
+      <c r="F885" t="n">
+        <v>365.2000122070312</v>
+      </c>
+      <c r="G885" t="n">
+        <v>39954</v>
+      </c>
+      <c r="H885" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I885" t="n">
+        <v>9</v>
+      </c>
+      <c r="J885" t="n">
+        <v>11</v>
+      </c>
+      <c r="K885" t="n">
+        <v>11</v>
+      </c>
+      <c r="L885" t="n">
+        <v>15</v>
+      </c>
+      <c r="M885" t="n">
+        <v>0</v>
+      </c>
+      <c r="N885" t="n">
+        <v>37</v>
+      </c>
+      <c r="O885" t="n">
+        <v>0</v>
+      </c>
+      <c r="P885" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q885" t="n">
+        <v>1</v>
+      </c>
+      <c r="R885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>45546.51041666666</v>
+      </c>
+      <c r="B886" t="n">
+        <v>365.2000122070312</v>
+      </c>
+      <c r="C886" t="n">
+        <v>365.2000122070312</v>
+      </c>
+      <c r="D886" t="n">
+        <v>357</v>
+      </c>
+      <c r="E886" t="n">
+        <v>358.9500122070312</v>
+      </c>
+      <c r="F886" t="n">
+        <v>358.9500122070312</v>
+      </c>
+      <c r="G886" t="n">
+        <v>44487</v>
+      </c>
+      <c r="H886" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I886" t="n">
+        <v>9</v>
+      </c>
+      <c r="J886" t="n">
+        <v>11</v>
+      </c>
+      <c r="K886" t="n">
+        <v>12</v>
+      </c>
+      <c r="L886" t="n">
+        <v>15</v>
+      </c>
+      <c r="M886" t="n">
+        <v>0</v>
+      </c>
+      <c r="N886" t="n">
+        <v>37</v>
+      </c>
+      <c r="O886" t="n">
+        <v>0</v>
+      </c>
+      <c r="P886" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q886" t="n">
+        <v>1</v>
+      </c>
+      <c r="R886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>45546.55208333334</v>
+      </c>
+      <c r="B887" t="n">
+        <v>358.9500122070312</v>
+      </c>
+      <c r="C887" t="n">
+        <v>359</v>
+      </c>
+      <c r="D887" t="n">
+        <v>354.75</v>
+      </c>
+      <c r="E887" t="n">
+        <v>354.75</v>
+      </c>
+      <c r="F887" t="n">
+        <v>354.75</v>
+      </c>
+      <c r="G887" t="n">
+        <v>34185</v>
+      </c>
+      <c r="H887" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I887" t="n">
+        <v>9</v>
+      </c>
+      <c r="J887" t="n">
+        <v>11</v>
+      </c>
+      <c r="K887" t="n">
+        <v>13</v>
+      </c>
+      <c r="L887" t="n">
+        <v>15</v>
+      </c>
+      <c r="M887" t="n">
+        <v>0</v>
+      </c>
+      <c r="N887" t="n">
+        <v>37</v>
+      </c>
+      <c r="O887" t="n">
+        <v>0</v>
+      </c>
+      <c r="P887" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q887" t="n">
+        <v>0</v>
+      </c>
+      <c r="R887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>45546.59375</v>
+      </c>
+      <c r="B888" t="n">
+        <v>354.75</v>
+      </c>
+      <c r="C888" t="n">
+        <v>354.7999877929688</v>
+      </c>
+      <c r="D888" t="n">
+        <v>348</v>
+      </c>
+      <c r="E888" t="n">
+        <v>349</v>
+      </c>
+      <c r="F888" t="n">
+        <v>349</v>
+      </c>
+      <c r="G888" t="n">
+        <v>83906</v>
+      </c>
+      <c r="H888" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I888" t="n">
+        <v>9</v>
+      </c>
+      <c r="J888" t="n">
+        <v>11</v>
+      </c>
+      <c r="K888" t="n">
+        <v>14</v>
+      </c>
+      <c r="L888" t="n">
+        <v>15</v>
+      </c>
+      <c r="M888" t="n">
+        <v>0</v>
+      </c>
+      <c r="N888" t="n">
+        <v>37</v>
+      </c>
+      <c r="O888" t="n">
+        <v>0</v>
+      </c>
+      <c r="P888" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q888" t="n">
+        <v>0</v>
+      </c>
+      <c r="R888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>45546.63541666666</v>
+      </c>
+      <c r="B889" t="n">
+        <v>349</v>
+      </c>
+      <c r="C889" t="n">
+        <v>357</v>
+      </c>
+      <c r="D889" t="n">
+        <v>348.75</v>
+      </c>
+      <c r="E889" t="n">
+        <v>357</v>
+      </c>
+      <c r="F889" t="n">
+        <v>357</v>
+      </c>
+      <c r="G889" t="n">
+        <v>33028</v>
+      </c>
+      <c r="H889" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I889" t="n">
+        <v>9</v>
+      </c>
+      <c r="J889" t="n">
+        <v>11</v>
+      </c>
+      <c r="K889" t="n">
+        <v>15</v>
+      </c>
+      <c r="L889" t="n">
+        <v>15</v>
+      </c>
+      <c r="M889" t="n">
+        <v>0</v>
+      </c>
+      <c r="N889" t="n">
+        <v>37</v>
+      </c>
+      <c r="O889" t="n">
+        <v>0</v>
+      </c>
+      <c r="P889" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q889" t="n">
+        <v>0</v>
+      </c>
+      <c r="R889" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R889"/>
+  <dimension ref="A1:R896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49917,7 +49917,9 @@
       <c r="Q883" t="n">
         <v>0</v>
       </c>
-      <c r="R883" t="inlineStr"/>
+      <c r="R883" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
@@ -49963,7 +49965,7 @@
         <v>37</v>
       </c>
       <c r="O884" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P884" t="n">
         <v>0</v>
@@ -49971,7 +49973,9 @@
       <c r="Q884" t="n">
         <v>0</v>
       </c>
-      <c r="R884" t="inlineStr"/>
+      <c r="R884" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
@@ -50017,7 +50021,7 @@
         <v>37</v>
       </c>
       <c r="O885" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P885" t="n">
         <v>1</v>
@@ -50025,7 +50029,9 @@
       <c r="Q885" t="n">
         <v>1</v>
       </c>
-      <c r="R885" t="inlineStr"/>
+      <c r="R885" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
@@ -50071,7 +50077,7 @@
         <v>37</v>
       </c>
       <c r="O886" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P886" t="n">
         <v>1</v>
@@ -50079,7 +50085,9 @@
       <c r="Q886" t="n">
         <v>1</v>
       </c>
-      <c r="R886" t="inlineStr"/>
+      <c r="R886" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
@@ -50133,7 +50141,9 @@
       <c r="Q887" t="n">
         <v>0</v>
       </c>
-      <c r="R887" t="inlineStr"/>
+      <c r="R887" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
@@ -50187,7 +50197,9 @@
       <c r="Q888" t="n">
         <v>0</v>
       </c>
-      <c r="R888" t="inlineStr"/>
+      <c r="R888" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
@@ -50241,7 +50253,387 @@
       <c r="Q889" t="n">
         <v>0</v>
       </c>
-      <c r="R889" t="inlineStr"/>
+      <c r="R889" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
+        <v>45547.38541666666</v>
+      </c>
+      <c r="B890" t="n">
+        <v>363</v>
+      </c>
+      <c r="C890" t="n">
+        <v>365.0499877929688</v>
+      </c>
+      <c r="D890" t="n">
+        <v>356.5</v>
+      </c>
+      <c r="E890" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="F890" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="G890" t="n">
+        <v>0</v>
+      </c>
+      <c r="H890" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I890" t="n">
+        <v>9</v>
+      </c>
+      <c r="J890" t="n">
+        <v>12</v>
+      </c>
+      <c r="K890" t="n">
+        <v>9</v>
+      </c>
+      <c r="L890" t="n">
+        <v>15</v>
+      </c>
+      <c r="M890" t="n">
+        <v>0</v>
+      </c>
+      <c r="N890" t="n">
+        <v>37</v>
+      </c>
+      <c r="O890" t="n">
+        <v>0</v>
+      </c>
+      <c r="P890" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q890" t="n">
+        <v>0</v>
+      </c>
+      <c r="R890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="n">
+        <v>45547.42708333334</v>
+      </c>
+      <c r="B891" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="C891" t="n">
+        <v>360.9500122070312</v>
+      </c>
+      <c r="D891" t="n">
+        <v>359</v>
+      </c>
+      <c r="E891" t="n">
+        <v>360.25</v>
+      </c>
+      <c r="F891" t="n">
+        <v>360.25</v>
+      </c>
+      <c r="G891" t="n">
+        <v>18511</v>
+      </c>
+      <c r="H891" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I891" t="n">
+        <v>9</v>
+      </c>
+      <c r="J891" t="n">
+        <v>12</v>
+      </c>
+      <c r="K891" t="n">
+        <v>10</v>
+      </c>
+      <c r="L891" t="n">
+        <v>15</v>
+      </c>
+      <c r="M891" t="n">
+        <v>0</v>
+      </c>
+      <c r="N891" t="n">
+        <v>37</v>
+      </c>
+      <c r="O891" t="n">
+        <v>0</v>
+      </c>
+      <c r="P891" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q891" t="n">
+        <v>0</v>
+      </c>
+      <c r="R891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="2" t="n">
+        <v>45547.46875</v>
+      </c>
+      <c r="B892" t="n">
+        <v>359</v>
+      </c>
+      <c r="C892" t="n">
+        <v>360</v>
+      </c>
+      <c r="D892" t="n">
+        <v>356</v>
+      </c>
+      <c r="E892" t="n">
+        <v>359</v>
+      </c>
+      <c r="F892" t="n">
+        <v>359</v>
+      </c>
+      <c r="G892" t="n">
+        <v>15824</v>
+      </c>
+      <c r="H892" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I892" t="n">
+        <v>9</v>
+      </c>
+      <c r="J892" t="n">
+        <v>12</v>
+      </c>
+      <c r="K892" t="n">
+        <v>11</v>
+      </c>
+      <c r="L892" t="n">
+        <v>15</v>
+      </c>
+      <c r="M892" t="n">
+        <v>0</v>
+      </c>
+      <c r="N892" t="n">
+        <v>37</v>
+      </c>
+      <c r="O892" t="n">
+        <v>0</v>
+      </c>
+      <c r="P892" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q892" t="n">
+        <v>0</v>
+      </c>
+      <c r="R892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="2" t="n">
+        <v>45547.51041666666</v>
+      </c>
+      <c r="B893" t="n">
+        <v>359.4500122070312</v>
+      </c>
+      <c r="C893" t="n">
+        <v>361</v>
+      </c>
+      <c r="D893" t="n">
+        <v>358.5</v>
+      </c>
+      <c r="E893" t="n">
+        <v>360</v>
+      </c>
+      <c r="F893" t="n">
+        <v>360</v>
+      </c>
+      <c r="G893" t="n">
+        <v>14824</v>
+      </c>
+      <c r="H893" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I893" t="n">
+        <v>9</v>
+      </c>
+      <c r="J893" t="n">
+        <v>12</v>
+      </c>
+      <c r="K893" t="n">
+        <v>12</v>
+      </c>
+      <c r="L893" t="n">
+        <v>15</v>
+      </c>
+      <c r="M893" t="n">
+        <v>0</v>
+      </c>
+      <c r="N893" t="n">
+        <v>37</v>
+      </c>
+      <c r="O893" t="n">
+        <v>0</v>
+      </c>
+      <c r="P893" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q893" t="n">
+        <v>0</v>
+      </c>
+      <c r="R893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="2" t="n">
+        <v>45547.55208333334</v>
+      </c>
+      <c r="B894" t="n">
+        <v>360</v>
+      </c>
+      <c r="C894" t="n">
+        <v>360</v>
+      </c>
+      <c r="D894" t="n">
+        <v>357</v>
+      </c>
+      <c r="E894" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="F894" t="n">
+        <v>359.5</v>
+      </c>
+      <c r="G894" t="n">
+        <v>13150</v>
+      </c>
+      <c r="H894" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I894" t="n">
+        <v>9</v>
+      </c>
+      <c r="J894" t="n">
+        <v>12</v>
+      </c>
+      <c r="K894" t="n">
+        <v>13</v>
+      </c>
+      <c r="L894" t="n">
+        <v>15</v>
+      </c>
+      <c r="M894" t="n">
+        <v>0</v>
+      </c>
+      <c r="N894" t="n">
+        <v>37</v>
+      </c>
+      <c r="O894" t="n">
+        <v>0</v>
+      </c>
+      <c r="P894" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q894" t="n">
+        <v>0</v>
+      </c>
+      <c r="R894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="2" t="n">
+        <v>45547.59375</v>
+      </c>
+      <c r="B895" t="n">
+        <v>359</v>
+      </c>
+      <c r="C895" t="n">
+        <v>360</v>
+      </c>
+      <c r="D895" t="n">
+        <v>354.1000061035156</v>
+      </c>
+      <c r="E895" t="n">
+        <v>355</v>
+      </c>
+      <c r="F895" t="n">
+        <v>355</v>
+      </c>
+      <c r="G895" t="n">
+        <v>38131</v>
+      </c>
+      <c r="H895" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I895" t="n">
+        <v>9</v>
+      </c>
+      <c r="J895" t="n">
+        <v>12</v>
+      </c>
+      <c r="K895" t="n">
+        <v>14</v>
+      </c>
+      <c r="L895" t="n">
+        <v>15</v>
+      </c>
+      <c r="M895" t="n">
+        <v>0</v>
+      </c>
+      <c r="N895" t="n">
+        <v>37</v>
+      </c>
+      <c r="O895" t="n">
+        <v>0</v>
+      </c>
+      <c r="P895" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q895" t="n">
+        <v>2</v>
+      </c>
+      <c r="R895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="2" t="n">
+        <v>45547.63541666666</v>
+      </c>
+      <c r="B896" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="C896" t="n">
+        <v>359.7000122070312</v>
+      </c>
+      <c r="D896" t="n">
+        <v>354.5</v>
+      </c>
+      <c r="E896" t="n">
+        <v>356</v>
+      </c>
+      <c r="F896" t="n">
+        <v>356</v>
+      </c>
+      <c r="G896" t="n">
+        <v>27403</v>
+      </c>
+      <c r="H896" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I896" t="n">
+        <v>9</v>
+      </c>
+      <c r="J896" t="n">
+        <v>12</v>
+      </c>
+      <c r="K896" t="n">
+        <v>15</v>
+      </c>
+      <c r="L896" t="n">
+        <v>15</v>
+      </c>
+      <c r="M896" t="n">
+        <v>0</v>
+      </c>
+      <c r="N896" t="n">
+        <v>37</v>
+      </c>
+      <c r="O896" t="n">
+        <v>0</v>
+      </c>
+      <c r="P896" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q896" t="n">
+        <v>2</v>
+      </c>
+      <c r="R896" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R896"/>
+  <dimension ref="A1:R903"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50309,7 +50309,9 @@
       <c r="Q890" t="n">
         <v>0</v>
       </c>
-      <c r="R890" t="inlineStr"/>
+      <c r="R890" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
@@ -50363,7 +50365,9 @@
       <c r="Q891" t="n">
         <v>0</v>
       </c>
-      <c r="R891" t="inlineStr"/>
+      <c r="R891" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
@@ -50417,7 +50421,9 @@
       <c r="Q892" t="n">
         <v>0</v>
       </c>
-      <c r="R892" t="inlineStr"/>
+      <c r="R892" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
@@ -50471,7 +50477,9 @@
       <c r="Q893" t="n">
         <v>0</v>
       </c>
-      <c r="R893" t="inlineStr"/>
+      <c r="R893" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
@@ -50525,7 +50533,9 @@
       <c r="Q894" t="n">
         <v>0</v>
       </c>
-      <c r="R894" t="inlineStr"/>
+      <c r="R894" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
@@ -50579,7 +50589,9 @@
       <c r="Q895" t="n">
         <v>2</v>
       </c>
-      <c r="R895" t="inlineStr"/>
+      <c r="R895" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
@@ -50633,7 +50645,387 @@
       <c r="Q896" t="n">
         <v>2</v>
       </c>
-      <c r="R896" t="inlineStr"/>
+      <c r="R896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="2" t="n">
+        <v>45548.38541666666</v>
+      </c>
+      <c r="B897" t="n">
+        <v>357.7999877929688</v>
+      </c>
+      <c r="C897" t="n">
+        <v>360</v>
+      </c>
+      <c r="D897" t="n">
+        <v>355</v>
+      </c>
+      <c r="E897" t="n">
+        <v>356</v>
+      </c>
+      <c r="F897" t="n">
+        <v>356</v>
+      </c>
+      <c r="G897" t="n">
+        <v>57476</v>
+      </c>
+      <c r="H897" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I897" t="n">
+        <v>9</v>
+      </c>
+      <c r="J897" t="n">
+        <v>13</v>
+      </c>
+      <c r="K897" t="n">
+        <v>9</v>
+      </c>
+      <c r="L897" t="n">
+        <v>15</v>
+      </c>
+      <c r="M897" t="n">
+        <v>0</v>
+      </c>
+      <c r="N897" t="n">
+        <v>37</v>
+      </c>
+      <c r="O897" t="n">
+        <v>0</v>
+      </c>
+      <c r="P897" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q897" t="n">
+        <v>2</v>
+      </c>
+      <c r="R897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="2" t="n">
+        <v>45548.42708333334</v>
+      </c>
+      <c r="B898" t="n">
+        <v>357.7999877929688</v>
+      </c>
+      <c r="C898" t="n">
+        <v>358.5499877929688</v>
+      </c>
+      <c r="D898" t="n">
+        <v>352</v>
+      </c>
+      <c r="E898" t="n">
+        <v>354</v>
+      </c>
+      <c r="F898" t="n">
+        <v>354</v>
+      </c>
+      <c r="G898" t="n">
+        <v>41520</v>
+      </c>
+      <c r="H898" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I898" t="n">
+        <v>9</v>
+      </c>
+      <c r="J898" t="n">
+        <v>13</v>
+      </c>
+      <c r="K898" t="n">
+        <v>10</v>
+      </c>
+      <c r="L898" t="n">
+        <v>15</v>
+      </c>
+      <c r="M898" t="n">
+        <v>0</v>
+      </c>
+      <c r="N898" t="n">
+        <v>37</v>
+      </c>
+      <c r="O898" t="n">
+        <v>0</v>
+      </c>
+      <c r="P898" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q898" t="n">
+        <v>0</v>
+      </c>
+      <c r="R898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="2" t="n">
+        <v>45548.46875</v>
+      </c>
+      <c r="B899" t="n">
+        <v>354.8999938964844</v>
+      </c>
+      <c r="C899" t="n">
+        <v>354.9500122070312</v>
+      </c>
+      <c r="D899" t="n">
+        <v>352</v>
+      </c>
+      <c r="E899" t="n">
+        <v>352.2000122070312</v>
+      </c>
+      <c r="F899" t="n">
+        <v>352.2000122070312</v>
+      </c>
+      <c r="G899" t="n">
+        <v>16907</v>
+      </c>
+      <c r="H899" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I899" t="n">
+        <v>9</v>
+      </c>
+      <c r="J899" t="n">
+        <v>13</v>
+      </c>
+      <c r="K899" t="n">
+        <v>11</v>
+      </c>
+      <c r="L899" t="n">
+        <v>15</v>
+      </c>
+      <c r="M899" t="n">
+        <v>0</v>
+      </c>
+      <c r="N899" t="n">
+        <v>37</v>
+      </c>
+      <c r="O899" t="n">
+        <v>0</v>
+      </c>
+      <c r="P899" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q899" t="n">
+        <v>0</v>
+      </c>
+      <c r="R899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="2" t="n">
+        <v>45548.51041666666</v>
+      </c>
+      <c r="B900" t="n">
+        <v>352.25</v>
+      </c>
+      <c r="C900" t="n">
+        <v>354</v>
+      </c>
+      <c r="D900" t="n">
+        <v>352</v>
+      </c>
+      <c r="E900" t="n">
+        <v>352</v>
+      </c>
+      <c r="F900" t="n">
+        <v>352</v>
+      </c>
+      <c r="G900" t="n">
+        <v>20417</v>
+      </c>
+      <c r="H900" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I900" t="n">
+        <v>9</v>
+      </c>
+      <c r="J900" t="n">
+        <v>13</v>
+      </c>
+      <c r="K900" t="n">
+        <v>12</v>
+      </c>
+      <c r="L900" t="n">
+        <v>15</v>
+      </c>
+      <c r="M900" t="n">
+        <v>0</v>
+      </c>
+      <c r="N900" t="n">
+        <v>37</v>
+      </c>
+      <c r="O900" t="n">
+        <v>0</v>
+      </c>
+      <c r="P900" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q900" t="n">
+        <v>0</v>
+      </c>
+      <c r="R900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="2" t="n">
+        <v>45548.55208333334</v>
+      </c>
+      <c r="B901" t="n">
+        <v>352</v>
+      </c>
+      <c r="C901" t="n">
+        <v>355</v>
+      </c>
+      <c r="D901" t="n">
+        <v>350.2999877929688</v>
+      </c>
+      <c r="E901" t="n">
+        <v>351.2000122070312</v>
+      </c>
+      <c r="F901" t="n">
+        <v>351.2000122070312</v>
+      </c>
+      <c r="G901" t="n">
+        <v>28159</v>
+      </c>
+      <c r="H901" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I901" t="n">
+        <v>9</v>
+      </c>
+      <c r="J901" t="n">
+        <v>13</v>
+      </c>
+      <c r="K901" t="n">
+        <v>13</v>
+      </c>
+      <c r="L901" t="n">
+        <v>15</v>
+      </c>
+      <c r="M901" t="n">
+        <v>0</v>
+      </c>
+      <c r="N901" t="n">
+        <v>37</v>
+      </c>
+      <c r="O901" t="n">
+        <v>0</v>
+      </c>
+      <c r="P901" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q901" t="n">
+        <v>0</v>
+      </c>
+      <c r="R901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="2" t="n">
+        <v>45548.59375</v>
+      </c>
+      <c r="B902" t="n">
+        <v>352</v>
+      </c>
+      <c r="C902" t="n">
+        <v>353</v>
+      </c>
+      <c r="D902" t="n">
+        <v>346.6000061035156</v>
+      </c>
+      <c r="E902" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="F902" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="G902" t="n">
+        <v>54952</v>
+      </c>
+      <c r="H902" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I902" t="n">
+        <v>9</v>
+      </c>
+      <c r="J902" t="n">
+        <v>13</v>
+      </c>
+      <c r="K902" t="n">
+        <v>14</v>
+      </c>
+      <c r="L902" t="n">
+        <v>15</v>
+      </c>
+      <c r="M902" t="n">
+        <v>0</v>
+      </c>
+      <c r="N902" t="n">
+        <v>37</v>
+      </c>
+      <c r="O902" t="n">
+        <v>0</v>
+      </c>
+      <c r="P902" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q902" t="n">
+        <v>0</v>
+      </c>
+      <c r="R902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="2" t="n">
+        <v>45548.63541666666</v>
+      </c>
+      <c r="B903" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="C903" t="n">
+        <v>348</v>
+      </c>
+      <c r="D903" t="n">
+        <v>345</v>
+      </c>
+      <c r="E903" t="n">
+        <v>345</v>
+      </c>
+      <c r="F903" t="n">
+        <v>345</v>
+      </c>
+      <c r="G903" t="n">
+        <v>55240</v>
+      </c>
+      <c r="H903" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I903" t="n">
+        <v>9</v>
+      </c>
+      <c r="J903" t="n">
+        <v>13</v>
+      </c>
+      <c r="K903" t="n">
+        <v>15</v>
+      </c>
+      <c r="L903" t="n">
+        <v>15</v>
+      </c>
+      <c r="M903" t="n">
+        <v>0</v>
+      </c>
+      <c r="N903" t="n">
+        <v>37</v>
+      </c>
+      <c r="O903" t="n">
+        <v>0</v>
+      </c>
+      <c r="P903" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q903" t="n">
+        <v>0</v>
+      </c>
+      <c r="R903" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R903"/>
+  <dimension ref="A1:R910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50701,7 +50701,9 @@
       <c r="Q897" t="n">
         <v>2</v>
       </c>
-      <c r="R897" t="inlineStr"/>
+      <c r="R897" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
@@ -50755,7 +50757,9 @@
       <c r="Q898" t="n">
         <v>0</v>
       </c>
-      <c r="R898" t="inlineStr"/>
+      <c r="R898" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
@@ -50809,7 +50813,9 @@
       <c r="Q899" t="n">
         <v>0</v>
       </c>
-      <c r="R899" t="inlineStr"/>
+      <c r="R899" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
@@ -50863,7 +50869,9 @@
       <c r="Q900" t="n">
         <v>0</v>
       </c>
-      <c r="R900" t="inlineStr"/>
+      <c r="R900" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
@@ -50917,7 +50925,9 @@
       <c r="Q901" t="n">
         <v>0</v>
       </c>
-      <c r="R901" t="inlineStr"/>
+      <c r="R901" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
@@ -50971,7 +50981,9 @@
       <c r="Q902" t="n">
         <v>0</v>
       </c>
-      <c r="R902" t="inlineStr"/>
+      <c r="R902" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
@@ -51025,7 +51037,387 @@
       <c r="Q903" t="n">
         <v>0</v>
       </c>
-      <c r="R903" t="inlineStr"/>
+      <c r="R903" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="2" t="n">
+        <v>45551.38541666666</v>
+      </c>
+      <c r="B904" t="n">
+        <v>351</v>
+      </c>
+      <c r="C904" t="n">
+        <v>351.7000122070312</v>
+      </c>
+      <c r="D904" t="n">
+        <v>342</v>
+      </c>
+      <c r="E904" t="n">
+        <v>345</v>
+      </c>
+      <c r="F904" t="n">
+        <v>345</v>
+      </c>
+      <c r="G904" t="n">
+        <v>0</v>
+      </c>
+      <c r="H904" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I904" t="n">
+        <v>9</v>
+      </c>
+      <c r="J904" t="n">
+        <v>16</v>
+      </c>
+      <c r="K904" t="n">
+        <v>9</v>
+      </c>
+      <c r="L904" t="n">
+        <v>15</v>
+      </c>
+      <c r="M904" t="n">
+        <v>0</v>
+      </c>
+      <c r="N904" t="n">
+        <v>38</v>
+      </c>
+      <c r="O904" t="n">
+        <v>0</v>
+      </c>
+      <c r="P904" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q904" t="n">
+        <v>0</v>
+      </c>
+      <c r="R904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="2" t="n">
+        <v>45551.42708333334</v>
+      </c>
+      <c r="B905" t="n">
+        <v>345</v>
+      </c>
+      <c r="C905" t="n">
+        <v>345</v>
+      </c>
+      <c r="D905" t="n">
+        <v>339.1000061035156</v>
+      </c>
+      <c r="E905" t="n">
+        <v>340.5</v>
+      </c>
+      <c r="F905" t="n">
+        <v>340.5</v>
+      </c>
+      <c r="G905" t="n">
+        <v>45359</v>
+      </c>
+      <c r="H905" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I905" t="n">
+        <v>9</v>
+      </c>
+      <c r="J905" t="n">
+        <v>16</v>
+      </c>
+      <c r="K905" t="n">
+        <v>10</v>
+      </c>
+      <c r="L905" t="n">
+        <v>15</v>
+      </c>
+      <c r="M905" t="n">
+        <v>0</v>
+      </c>
+      <c r="N905" t="n">
+        <v>38</v>
+      </c>
+      <c r="O905" t="n">
+        <v>0</v>
+      </c>
+      <c r="P905" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q905" t="n">
+        <v>0</v>
+      </c>
+      <c r="R905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="2" t="n">
+        <v>45551.46875</v>
+      </c>
+      <c r="B906" t="n">
+        <v>342</v>
+      </c>
+      <c r="C906" t="n">
+        <v>343.0499877929688</v>
+      </c>
+      <c r="D906" t="n">
+        <v>339.5</v>
+      </c>
+      <c r="E906" t="n">
+        <v>340</v>
+      </c>
+      <c r="F906" t="n">
+        <v>340</v>
+      </c>
+      <c r="G906" t="n">
+        <v>21676</v>
+      </c>
+      <c r="H906" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I906" t="n">
+        <v>9</v>
+      </c>
+      <c r="J906" t="n">
+        <v>16</v>
+      </c>
+      <c r="K906" t="n">
+        <v>11</v>
+      </c>
+      <c r="L906" t="n">
+        <v>15</v>
+      </c>
+      <c r="M906" t="n">
+        <v>0</v>
+      </c>
+      <c r="N906" t="n">
+        <v>38</v>
+      </c>
+      <c r="O906" t="n">
+        <v>0</v>
+      </c>
+      <c r="P906" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q906" t="n">
+        <v>0</v>
+      </c>
+      <c r="R906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="2" t="n">
+        <v>45551.51041666666</v>
+      </c>
+      <c r="B907" t="n">
+        <v>339.7000122070312</v>
+      </c>
+      <c r="C907" t="n">
+        <v>342</v>
+      </c>
+      <c r="D907" t="n">
+        <v>329.25</v>
+      </c>
+      <c r="E907" t="n">
+        <v>329.25</v>
+      </c>
+      <c r="F907" t="n">
+        <v>329.25</v>
+      </c>
+      <c r="G907" t="n">
+        <v>135010</v>
+      </c>
+      <c r="H907" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I907" t="n">
+        <v>9</v>
+      </c>
+      <c r="J907" t="n">
+        <v>16</v>
+      </c>
+      <c r="K907" t="n">
+        <v>12</v>
+      </c>
+      <c r="L907" t="n">
+        <v>15</v>
+      </c>
+      <c r="M907" t="n">
+        <v>0</v>
+      </c>
+      <c r="N907" t="n">
+        <v>38</v>
+      </c>
+      <c r="O907" t="n">
+        <v>0</v>
+      </c>
+      <c r="P907" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q907" t="n">
+        <v>0</v>
+      </c>
+      <c r="R907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="2" t="n">
+        <v>45551.55208333334</v>
+      </c>
+      <c r="B908" t="n">
+        <v>329.25</v>
+      </c>
+      <c r="C908" t="n">
+        <v>341</v>
+      </c>
+      <c r="D908" t="n">
+        <v>329.25</v>
+      </c>
+      <c r="E908" t="n">
+        <v>340.9500122070312</v>
+      </c>
+      <c r="F908" t="n">
+        <v>340.9500122070312</v>
+      </c>
+      <c r="G908" t="n">
+        <v>208012</v>
+      </c>
+      <c r="H908" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I908" t="n">
+        <v>9</v>
+      </c>
+      <c r="J908" t="n">
+        <v>16</v>
+      </c>
+      <c r="K908" t="n">
+        <v>13</v>
+      </c>
+      <c r="L908" t="n">
+        <v>15</v>
+      </c>
+      <c r="M908" t="n">
+        <v>0</v>
+      </c>
+      <c r="N908" t="n">
+        <v>38</v>
+      </c>
+      <c r="O908" t="n">
+        <v>0</v>
+      </c>
+      <c r="P908" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q908" t="n">
+        <v>0</v>
+      </c>
+      <c r="R908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="2" t="n">
+        <v>45551.59375</v>
+      </c>
+      <c r="B909" t="n">
+        <v>340.9500122070312</v>
+      </c>
+      <c r="C909" t="n">
+        <v>341.7999877929688</v>
+      </c>
+      <c r="D909" t="n">
+        <v>331.3500061035156</v>
+      </c>
+      <c r="E909" t="n">
+        <v>336</v>
+      </c>
+      <c r="F909" t="n">
+        <v>336</v>
+      </c>
+      <c r="G909" t="n">
+        <v>33910</v>
+      </c>
+      <c r="H909" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I909" t="n">
+        <v>9</v>
+      </c>
+      <c r="J909" t="n">
+        <v>16</v>
+      </c>
+      <c r="K909" t="n">
+        <v>14</v>
+      </c>
+      <c r="L909" t="n">
+        <v>15</v>
+      </c>
+      <c r="M909" t="n">
+        <v>0</v>
+      </c>
+      <c r="N909" t="n">
+        <v>38</v>
+      </c>
+      <c r="O909" t="n">
+        <v>0</v>
+      </c>
+      <c r="P909" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q909" t="n">
+        <v>0</v>
+      </c>
+      <c r="R909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="2" t="n">
+        <v>45551.63541666666</v>
+      </c>
+      <c r="B910" t="n">
+        <v>340</v>
+      </c>
+      <c r="C910" t="n">
+        <v>340</v>
+      </c>
+      <c r="D910" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="E910" t="n">
+        <v>338.1000061035156</v>
+      </c>
+      <c r="F910" t="n">
+        <v>338.1000061035156</v>
+      </c>
+      <c r="G910" t="n">
+        <v>17202</v>
+      </c>
+      <c r="H910" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I910" t="n">
+        <v>9</v>
+      </c>
+      <c r="J910" t="n">
+        <v>16</v>
+      </c>
+      <c r="K910" t="n">
+        <v>15</v>
+      </c>
+      <c r="L910" t="n">
+        <v>15</v>
+      </c>
+      <c r="M910" t="n">
+        <v>0</v>
+      </c>
+      <c r="N910" t="n">
+        <v>38</v>
+      </c>
+      <c r="O910" t="n">
+        <v>0</v>
+      </c>
+      <c r="P910" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q910" t="n">
+        <v>0</v>
+      </c>
+      <c r="R910" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R910"/>
+  <dimension ref="A1:R924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51093,7 +51093,9 @@
       <c r="Q904" t="n">
         <v>0</v>
       </c>
-      <c r="R904" t="inlineStr"/>
+      <c r="R904" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
@@ -51147,7 +51149,9 @@
       <c r="Q905" t="n">
         <v>0</v>
       </c>
-      <c r="R905" t="inlineStr"/>
+      <c r="R905" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
@@ -51201,7 +51205,9 @@
       <c r="Q906" t="n">
         <v>0</v>
       </c>
-      <c r="R906" t="inlineStr"/>
+      <c r="R906" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
@@ -51247,7 +51253,7 @@
         <v>38</v>
       </c>
       <c r="O907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P907" t="n">
         <v>0</v>
@@ -51255,7 +51261,9 @@
       <c r="Q907" t="n">
         <v>0</v>
       </c>
-      <c r="R907" t="inlineStr"/>
+      <c r="R907" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
@@ -51301,7 +51309,7 @@
         <v>38</v>
       </c>
       <c r="O908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P908" t="n">
         <v>0</v>
@@ -51309,7 +51317,9 @@
       <c r="Q908" t="n">
         <v>0</v>
       </c>
-      <c r="R908" t="inlineStr"/>
+      <c r="R908" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
@@ -51363,7 +51373,9 @@
       <c r="Q909" t="n">
         <v>0</v>
       </c>
-      <c r="R909" t="inlineStr"/>
+      <c r="R909" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
@@ -51417,7 +51429,765 @@
       <c r="Q910" t="n">
         <v>0</v>
       </c>
-      <c r="R910" t="inlineStr"/>
+      <c r="R910" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="n">
+        <v>45552.38541666666</v>
+      </c>
+      <c r="B911" t="n">
+        <v>337.6000061035156</v>
+      </c>
+      <c r="C911" t="n">
+        <v>338.8999938964844</v>
+      </c>
+      <c r="D911" t="n">
+        <v>331.1000061035156</v>
+      </c>
+      <c r="E911" t="n">
+        <v>332.8999938964844</v>
+      </c>
+      <c r="F911" t="n">
+        <v>332.8999938964844</v>
+      </c>
+      <c r="G911" t="n">
+        <v>78442</v>
+      </c>
+      <c r="H911" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I911" t="n">
+        <v>9</v>
+      </c>
+      <c r="J911" t="n">
+        <v>17</v>
+      </c>
+      <c r="K911" t="n">
+        <v>9</v>
+      </c>
+      <c r="L911" t="n">
+        <v>15</v>
+      </c>
+      <c r="M911" t="n">
+        <v>0</v>
+      </c>
+      <c r="N911" t="n">
+        <v>38</v>
+      </c>
+      <c r="O911" t="n">
+        <v>0</v>
+      </c>
+      <c r="P911" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q911" t="n">
+        <v>0</v>
+      </c>
+      <c r="R911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>45552.42708333334</v>
+      </c>
+      <c r="B912" t="n">
+        <v>332.8999938964844</v>
+      </c>
+      <c r="C912" t="n">
+        <v>335</v>
+      </c>
+      <c r="D912" t="n">
+        <v>331.0499877929688</v>
+      </c>
+      <c r="E912" t="n">
+        <v>331.3999938964844</v>
+      </c>
+      <c r="F912" t="n">
+        <v>331.3999938964844</v>
+      </c>
+      <c r="G912" t="n">
+        <v>55691</v>
+      </c>
+      <c r="H912" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I912" t="n">
+        <v>9</v>
+      </c>
+      <c r="J912" t="n">
+        <v>17</v>
+      </c>
+      <c r="K912" t="n">
+        <v>10</v>
+      </c>
+      <c r="L912" t="n">
+        <v>15</v>
+      </c>
+      <c r="M912" t="n">
+        <v>0</v>
+      </c>
+      <c r="N912" t="n">
+        <v>38</v>
+      </c>
+      <c r="O912" t="n">
+        <v>0</v>
+      </c>
+      <c r="P912" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q912" t="n">
+        <v>0</v>
+      </c>
+      <c r="R912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>45552.46875</v>
+      </c>
+      <c r="B913" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="C913" t="n">
+        <v>334.5499877929688</v>
+      </c>
+      <c r="D913" t="n">
+        <v>331.2000122070312</v>
+      </c>
+      <c r="E913" t="n">
+        <v>331.3500061035156</v>
+      </c>
+      <c r="F913" t="n">
+        <v>331.3500061035156</v>
+      </c>
+      <c r="G913" t="n">
+        <v>39766</v>
+      </c>
+      <c r="H913" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I913" t="n">
+        <v>9</v>
+      </c>
+      <c r="J913" t="n">
+        <v>17</v>
+      </c>
+      <c r="K913" t="n">
+        <v>11</v>
+      </c>
+      <c r="L913" t="n">
+        <v>15</v>
+      </c>
+      <c r="M913" t="n">
+        <v>0</v>
+      </c>
+      <c r="N913" t="n">
+        <v>38</v>
+      </c>
+      <c r="O913" t="n">
+        <v>0</v>
+      </c>
+      <c r="P913" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q913" t="n">
+        <v>0</v>
+      </c>
+      <c r="R913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>45552.51041666666</v>
+      </c>
+      <c r="B914" t="n">
+        <v>331.3500061035156</v>
+      </c>
+      <c r="C914" t="n">
+        <v>331.75</v>
+      </c>
+      <c r="D914" t="n">
+        <v>331.0499877929688</v>
+      </c>
+      <c r="E914" t="n">
+        <v>331.2999877929688</v>
+      </c>
+      <c r="F914" t="n">
+        <v>331.2999877929688</v>
+      </c>
+      <c r="G914" t="n">
+        <v>45217</v>
+      </c>
+      <c r="H914" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I914" t="n">
+        <v>9</v>
+      </c>
+      <c r="J914" t="n">
+        <v>17</v>
+      </c>
+      <c r="K914" t="n">
+        <v>12</v>
+      </c>
+      <c r="L914" t="n">
+        <v>15</v>
+      </c>
+      <c r="M914" t="n">
+        <v>0</v>
+      </c>
+      <c r="N914" t="n">
+        <v>38</v>
+      </c>
+      <c r="O914" t="n">
+        <v>0</v>
+      </c>
+      <c r="P914" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q914" t="n">
+        <v>0</v>
+      </c>
+      <c r="R914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>45552.55208333334</v>
+      </c>
+      <c r="B915" t="n">
+        <v>331.3500061035156</v>
+      </c>
+      <c r="C915" t="n">
+        <v>337</v>
+      </c>
+      <c r="D915" t="n">
+        <v>331</v>
+      </c>
+      <c r="E915" t="n">
+        <v>336.9500122070312</v>
+      </c>
+      <c r="F915" t="n">
+        <v>336.9500122070312</v>
+      </c>
+      <c r="G915" t="n">
+        <v>28189</v>
+      </c>
+      <c r="H915" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I915" t="n">
+        <v>9</v>
+      </c>
+      <c r="J915" t="n">
+        <v>17</v>
+      </c>
+      <c r="K915" t="n">
+        <v>13</v>
+      </c>
+      <c r="L915" t="n">
+        <v>15</v>
+      </c>
+      <c r="M915" t="n">
+        <v>0</v>
+      </c>
+      <c r="N915" t="n">
+        <v>38</v>
+      </c>
+      <c r="O915" t="n">
+        <v>0</v>
+      </c>
+      <c r="P915" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q915" t="n">
+        <v>0</v>
+      </c>
+      <c r="R915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>45552.59375</v>
+      </c>
+      <c r="B916" t="n">
+        <v>337</v>
+      </c>
+      <c r="C916" t="n">
+        <v>338</v>
+      </c>
+      <c r="D916" t="n">
+        <v>333.1000061035156</v>
+      </c>
+      <c r="E916" t="n">
+        <v>335</v>
+      </c>
+      <c r="F916" t="n">
+        <v>335</v>
+      </c>
+      <c r="G916" t="n">
+        <v>28961</v>
+      </c>
+      <c r="H916" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I916" t="n">
+        <v>9</v>
+      </c>
+      <c r="J916" t="n">
+        <v>17</v>
+      </c>
+      <c r="K916" t="n">
+        <v>14</v>
+      </c>
+      <c r="L916" t="n">
+        <v>15</v>
+      </c>
+      <c r="M916" t="n">
+        <v>0</v>
+      </c>
+      <c r="N916" t="n">
+        <v>38</v>
+      </c>
+      <c r="O916" t="n">
+        <v>0</v>
+      </c>
+      <c r="P916" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q916" t="n">
+        <v>0</v>
+      </c>
+      <c r="R916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>45552.63541666666</v>
+      </c>
+      <c r="B917" t="n">
+        <v>335.3500061035156</v>
+      </c>
+      <c r="C917" t="n">
+        <v>337.3999938964844</v>
+      </c>
+      <c r="D917" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="E917" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="F917" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="G917" t="n">
+        <v>9383</v>
+      </c>
+      <c r="H917" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I917" t="n">
+        <v>9</v>
+      </c>
+      <c r="J917" t="n">
+        <v>17</v>
+      </c>
+      <c r="K917" t="n">
+        <v>15</v>
+      </c>
+      <c r="L917" t="n">
+        <v>15</v>
+      </c>
+      <c r="M917" t="n">
+        <v>0</v>
+      </c>
+      <c r="N917" t="n">
+        <v>38</v>
+      </c>
+      <c r="O917" t="n">
+        <v>0</v>
+      </c>
+      <c r="P917" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q917" t="n">
+        <v>0</v>
+      </c>
+      <c r="R917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="2" t="n">
+        <v>45553.38541666666</v>
+      </c>
+      <c r="B918" t="n">
+        <v>335</v>
+      </c>
+      <c r="C918" t="n">
+        <v>338</v>
+      </c>
+      <c r="D918" t="n">
+        <v>332</v>
+      </c>
+      <c r="E918" t="n">
+        <v>335</v>
+      </c>
+      <c r="F918" t="n">
+        <v>335</v>
+      </c>
+      <c r="G918" t="n">
+        <v>0</v>
+      </c>
+      <c r="H918" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I918" t="n">
+        <v>9</v>
+      </c>
+      <c r="J918" t="n">
+        <v>18</v>
+      </c>
+      <c r="K918" t="n">
+        <v>9</v>
+      </c>
+      <c r="L918" t="n">
+        <v>15</v>
+      </c>
+      <c r="M918" t="n">
+        <v>0</v>
+      </c>
+      <c r="N918" t="n">
+        <v>38</v>
+      </c>
+      <c r="O918" t="n">
+        <v>0</v>
+      </c>
+      <c r="P918" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q918" t="n">
+        <v>1</v>
+      </c>
+      <c r="R918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>45553.42708333334</v>
+      </c>
+      <c r="B919" t="n">
+        <v>334.8999938964844</v>
+      </c>
+      <c r="C919" t="n">
+        <v>336</v>
+      </c>
+      <c r="D919" t="n">
+        <v>332</v>
+      </c>
+      <c r="E919" t="n">
+        <v>332</v>
+      </c>
+      <c r="F919" t="n">
+        <v>332</v>
+      </c>
+      <c r="G919" t="n">
+        <v>33583</v>
+      </c>
+      <c r="H919" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I919" t="n">
+        <v>9</v>
+      </c>
+      <c r="J919" t="n">
+        <v>18</v>
+      </c>
+      <c r="K919" t="n">
+        <v>10</v>
+      </c>
+      <c r="L919" t="n">
+        <v>15</v>
+      </c>
+      <c r="M919" t="n">
+        <v>0</v>
+      </c>
+      <c r="N919" t="n">
+        <v>38</v>
+      </c>
+      <c r="O919" t="n">
+        <v>0</v>
+      </c>
+      <c r="P919" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q919" t="n">
+        <v>1</v>
+      </c>
+      <c r="R919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="n">
+        <v>45553.46875</v>
+      </c>
+      <c r="B920" t="n">
+        <v>335</v>
+      </c>
+      <c r="C920" t="n">
+        <v>335</v>
+      </c>
+      <c r="D920" t="n">
+        <v>332.0499877929688</v>
+      </c>
+      <c r="E920" t="n">
+        <v>335</v>
+      </c>
+      <c r="F920" t="n">
+        <v>335</v>
+      </c>
+      <c r="G920" t="n">
+        <v>21672</v>
+      </c>
+      <c r="H920" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I920" t="n">
+        <v>9</v>
+      </c>
+      <c r="J920" t="n">
+        <v>18</v>
+      </c>
+      <c r="K920" t="n">
+        <v>11</v>
+      </c>
+      <c r="L920" t="n">
+        <v>15</v>
+      </c>
+      <c r="M920" t="n">
+        <v>0</v>
+      </c>
+      <c r="N920" t="n">
+        <v>38</v>
+      </c>
+      <c r="O920" t="n">
+        <v>0</v>
+      </c>
+      <c r="P920" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q920" t="n">
+        <v>0</v>
+      </c>
+      <c r="R920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="2" t="n">
+        <v>45553.51041666666</v>
+      </c>
+      <c r="B921" t="n">
+        <v>335</v>
+      </c>
+      <c r="C921" t="n">
+        <v>335</v>
+      </c>
+      <c r="D921" t="n">
+        <v>332</v>
+      </c>
+      <c r="E921" t="n">
+        <v>332</v>
+      </c>
+      <c r="F921" t="n">
+        <v>332</v>
+      </c>
+      <c r="G921" t="n">
+        <v>19320</v>
+      </c>
+      <c r="H921" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I921" t="n">
+        <v>9</v>
+      </c>
+      <c r="J921" t="n">
+        <v>18</v>
+      </c>
+      <c r="K921" t="n">
+        <v>12</v>
+      </c>
+      <c r="L921" t="n">
+        <v>15</v>
+      </c>
+      <c r="M921" t="n">
+        <v>0</v>
+      </c>
+      <c r="N921" t="n">
+        <v>38</v>
+      </c>
+      <c r="O921" t="n">
+        <v>0</v>
+      </c>
+      <c r="P921" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q921" t="n">
+        <v>0</v>
+      </c>
+      <c r="R921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="2" t="n">
+        <v>45553.55208333334</v>
+      </c>
+      <c r="B922" t="n">
+        <v>333</v>
+      </c>
+      <c r="C922" t="n">
+        <v>333</v>
+      </c>
+      <c r="D922" t="n">
+        <v>328</v>
+      </c>
+      <c r="E922" t="n">
+        <v>328.75</v>
+      </c>
+      <c r="F922" t="n">
+        <v>328.75</v>
+      </c>
+      <c r="G922" t="n">
+        <v>50085</v>
+      </c>
+      <c r="H922" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I922" t="n">
+        <v>9</v>
+      </c>
+      <c r="J922" t="n">
+        <v>18</v>
+      </c>
+      <c r="K922" t="n">
+        <v>13</v>
+      </c>
+      <c r="L922" t="n">
+        <v>15</v>
+      </c>
+      <c r="M922" t="n">
+        <v>0</v>
+      </c>
+      <c r="N922" t="n">
+        <v>38</v>
+      </c>
+      <c r="O922" t="n">
+        <v>0</v>
+      </c>
+      <c r="P922" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q922" t="n">
+        <v>0</v>
+      </c>
+      <c r="R922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="2" t="n">
+        <v>45553.59375</v>
+      </c>
+      <c r="B923" t="n">
+        <v>328.9500122070312</v>
+      </c>
+      <c r="C923" t="n">
+        <v>330</v>
+      </c>
+      <c r="D923" t="n">
+        <v>327</v>
+      </c>
+      <c r="E923" t="n">
+        <v>329.9500122070312</v>
+      </c>
+      <c r="F923" t="n">
+        <v>329.9500122070312</v>
+      </c>
+      <c r="G923" t="n">
+        <v>43536</v>
+      </c>
+      <c r="H923" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I923" t="n">
+        <v>9</v>
+      </c>
+      <c r="J923" t="n">
+        <v>18</v>
+      </c>
+      <c r="K923" t="n">
+        <v>14</v>
+      </c>
+      <c r="L923" t="n">
+        <v>15</v>
+      </c>
+      <c r="M923" t="n">
+        <v>0</v>
+      </c>
+      <c r="N923" t="n">
+        <v>38</v>
+      </c>
+      <c r="O923" t="n">
+        <v>0</v>
+      </c>
+      <c r="P923" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q923" t="n">
+        <v>0</v>
+      </c>
+      <c r="R923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="2" t="n">
+        <v>45553.63541666666</v>
+      </c>
+      <c r="B924" t="n">
+        <v>329.9500122070312</v>
+      </c>
+      <c r="C924" t="n">
+        <v>329.9500122070312</v>
+      </c>
+      <c r="D924" t="n">
+        <v>328</v>
+      </c>
+      <c r="E924" t="n">
+        <v>329.3999938964844</v>
+      </c>
+      <c r="F924" t="n">
+        <v>329.3999938964844</v>
+      </c>
+      <c r="G924" t="n">
+        <v>15618</v>
+      </c>
+      <c r="H924" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I924" t="n">
+        <v>9</v>
+      </c>
+      <c r="J924" t="n">
+        <v>18</v>
+      </c>
+      <c r="K924" t="n">
+        <v>15</v>
+      </c>
+      <c r="L924" t="n">
+        <v>15</v>
+      </c>
+      <c r="M924" t="n">
+        <v>0</v>
+      </c>
+      <c r="N924" t="n">
+        <v>38</v>
+      </c>
+      <c r="O924" t="n">
+        <v>0</v>
+      </c>
+      <c r="P924" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q924" t="n">
+        <v>0</v>
+      </c>
+      <c r="R924" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R924"/>
+  <dimension ref="A1:R931"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51485,7 +51485,9 @@
       <c r="Q911" t="n">
         <v>0</v>
       </c>
-      <c r="R911" t="inlineStr"/>
+      <c r="R911" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
@@ -51539,7 +51541,9 @@
       <c r="Q912" t="n">
         <v>0</v>
       </c>
-      <c r="R912" t="inlineStr"/>
+      <c r="R912" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
@@ -51593,7 +51597,9 @@
       <c r="Q913" t="n">
         <v>0</v>
       </c>
-      <c r="R913" t="inlineStr"/>
+      <c r="R913" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
@@ -51647,7 +51653,9 @@
       <c r="Q914" t="n">
         <v>0</v>
       </c>
-      <c r="R914" t="inlineStr"/>
+      <c r="R914" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
@@ -51701,7 +51709,9 @@
       <c r="Q915" t="n">
         <v>0</v>
       </c>
-      <c r="R915" t="inlineStr"/>
+      <c r="R915" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
@@ -51755,7 +51765,9 @@
       <c r="Q916" t="n">
         <v>0</v>
       </c>
-      <c r="R916" t="inlineStr"/>
+      <c r="R916" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
@@ -51809,7 +51821,9 @@
       <c r="Q917" t="n">
         <v>0</v>
       </c>
-      <c r="R917" t="inlineStr"/>
+      <c r="R917" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
@@ -51863,7 +51877,9 @@
       <c r="Q918" t="n">
         <v>1</v>
       </c>
-      <c r="R918" t="inlineStr"/>
+      <c r="R918" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
@@ -51917,7 +51933,9 @@
       <c r="Q919" t="n">
         <v>1</v>
       </c>
-      <c r="R919" t="inlineStr"/>
+      <c r="R919" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
@@ -51971,7 +51989,9 @@
       <c r="Q920" t="n">
         <v>0</v>
       </c>
-      <c r="R920" t="inlineStr"/>
+      <c r="R920" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
@@ -52025,7 +52045,9 @@
       <c r="Q921" t="n">
         <v>0</v>
       </c>
-      <c r="R921" t="inlineStr"/>
+      <c r="R921" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
@@ -52079,7 +52101,9 @@
       <c r="Q922" t="n">
         <v>0</v>
       </c>
-      <c r="R922" t="inlineStr"/>
+      <c r="R922" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
@@ -52133,7 +52157,9 @@
       <c r="Q923" t="n">
         <v>0</v>
       </c>
-      <c r="R923" t="inlineStr"/>
+      <c r="R923" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
@@ -52187,7 +52213,387 @@
       <c r="Q924" t="n">
         <v>0</v>
       </c>
-      <c r="R924" t="inlineStr"/>
+      <c r="R924" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="2" t="n">
+        <v>45554.38541666666</v>
+      </c>
+      <c r="B925" t="n">
+        <v>332.7999877929688</v>
+      </c>
+      <c r="C925" t="n">
+        <v>335.6499938964844</v>
+      </c>
+      <c r="D925" t="n">
+        <v>322</v>
+      </c>
+      <c r="E925" t="n">
+        <v>325.9500122070312</v>
+      </c>
+      <c r="F925" t="n">
+        <v>325.9500122070312</v>
+      </c>
+      <c r="G925" t="n">
+        <v>60097</v>
+      </c>
+      <c r="H925" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I925" t="n">
+        <v>9</v>
+      </c>
+      <c r="J925" t="n">
+        <v>19</v>
+      </c>
+      <c r="K925" t="n">
+        <v>9</v>
+      </c>
+      <c r="L925" t="n">
+        <v>15</v>
+      </c>
+      <c r="M925" t="n">
+        <v>0</v>
+      </c>
+      <c r="N925" t="n">
+        <v>38</v>
+      </c>
+      <c r="O925" t="n">
+        <v>0</v>
+      </c>
+      <c r="P925" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q925" t="n">
+        <v>0</v>
+      </c>
+      <c r="R925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="2" t="n">
+        <v>45554.42708333334</v>
+      </c>
+      <c r="B926" t="n">
+        <v>326</v>
+      </c>
+      <c r="C926" t="n">
+        <v>326</v>
+      </c>
+      <c r="D926" t="n">
+        <v>314.8999938964844</v>
+      </c>
+      <c r="E926" t="n">
+        <v>318.4500122070312</v>
+      </c>
+      <c r="F926" t="n">
+        <v>318.4500122070312</v>
+      </c>
+      <c r="G926" t="n">
+        <v>206150</v>
+      </c>
+      <c r="H926" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I926" t="n">
+        <v>9</v>
+      </c>
+      <c r="J926" t="n">
+        <v>19</v>
+      </c>
+      <c r="K926" t="n">
+        <v>10</v>
+      </c>
+      <c r="L926" t="n">
+        <v>15</v>
+      </c>
+      <c r="M926" t="n">
+        <v>0</v>
+      </c>
+      <c r="N926" t="n">
+        <v>38</v>
+      </c>
+      <c r="O926" t="n">
+        <v>0</v>
+      </c>
+      <c r="P926" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q926" t="n">
+        <v>0</v>
+      </c>
+      <c r="R926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="2" t="n">
+        <v>45554.46875</v>
+      </c>
+      <c r="B927" t="n">
+        <v>318.4500122070312</v>
+      </c>
+      <c r="C927" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="D927" t="n">
+        <v>314</v>
+      </c>
+      <c r="E927" t="n">
+        <v>318</v>
+      </c>
+      <c r="F927" t="n">
+        <v>318</v>
+      </c>
+      <c r="G927" t="n">
+        <v>60850</v>
+      </c>
+      <c r="H927" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I927" t="n">
+        <v>9</v>
+      </c>
+      <c r="J927" t="n">
+        <v>19</v>
+      </c>
+      <c r="K927" t="n">
+        <v>11</v>
+      </c>
+      <c r="L927" t="n">
+        <v>15</v>
+      </c>
+      <c r="M927" t="n">
+        <v>0</v>
+      </c>
+      <c r="N927" t="n">
+        <v>38</v>
+      </c>
+      <c r="O927" t="n">
+        <v>0</v>
+      </c>
+      <c r="P927" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q927" t="n">
+        <v>0</v>
+      </c>
+      <c r="R927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="2" t="n">
+        <v>45554.51041666666</v>
+      </c>
+      <c r="B928" t="n">
+        <v>318</v>
+      </c>
+      <c r="C928" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="D928" t="n">
+        <v>316</v>
+      </c>
+      <c r="E928" t="n">
+        <v>319</v>
+      </c>
+      <c r="F928" t="n">
+        <v>319</v>
+      </c>
+      <c r="G928" t="n">
+        <v>47786</v>
+      </c>
+      <c r="H928" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I928" t="n">
+        <v>9</v>
+      </c>
+      <c r="J928" t="n">
+        <v>19</v>
+      </c>
+      <c r="K928" t="n">
+        <v>12</v>
+      </c>
+      <c r="L928" t="n">
+        <v>15</v>
+      </c>
+      <c r="M928" t="n">
+        <v>0</v>
+      </c>
+      <c r="N928" t="n">
+        <v>38</v>
+      </c>
+      <c r="O928" t="n">
+        <v>0</v>
+      </c>
+      <c r="P928" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q928" t="n">
+        <v>0</v>
+      </c>
+      <c r="R928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
+        <v>45554.55208333334</v>
+      </c>
+      <c r="B929" t="n">
+        <v>319</v>
+      </c>
+      <c r="C929" t="n">
+        <v>322.7999877929688</v>
+      </c>
+      <c r="D929" t="n">
+        <v>315.7999877929688</v>
+      </c>
+      <c r="E929" t="n">
+        <v>315.7999877929688</v>
+      </c>
+      <c r="F929" t="n">
+        <v>315.7999877929688</v>
+      </c>
+      <c r="G929" t="n">
+        <v>29031</v>
+      </c>
+      <c r="H929" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I929" t="n">
+        <v>9</v>
+      </c>
+      <c r="J929" t="n">
+        <v>19</v>
+      </c>
+      <c r="K929" t="n">
+        <v>13</v>
+      </c>
+      <c r="L929" t="n">
+        <v>15</v>
+      </c>
+      <c r="M929" t="n">
+        <v>0</v>
+      </c>
+      <c r="N929" t="n">
+        <v>38</v>
+      </c>
+      <c r="O929" t="n">
+        <v>0</v>
+      </c>
+      <c r="P929" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q929" t="n">
+        <v>0</v>
+      </c>
+      <c r="R929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="2" t="n">
+        <v>45554.59375</v>
+      </c>
+      <c r="B930" t="n">
+        <v>316</v>
+      </c>
+      <c r="C930" t="n">
+        <v>322.8999938964844</v>
+      </c>
+      <c r="D930" t="n">
+        <v>315.6499938964844</v>
+      </c>
+      <c r="E930" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="F930" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="G930" t="n">
+        <v>30835</v>
+      </c>
+      <c r="H930" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I930" t="n">
+        <v>9</v>
+      </c>
+      <c r="J930" t="n">
+        <v>19</v>
+      </c>
+      <c r="K930" t="n">
+        <v>14</v>
+      </c>
+      <c r="L930" t="n">
+        <v>15</v>
+      </c>
+      <c r="M930" t="n">
+        <v>0</v>
+      </c>
+      <c r="N930" t="n">
+        <v>38</v>
+      </c>
+      <c r="O930" t="n">
+        <v>0</v>
+      </c>
+      <c r="P930" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q930" t="n">
+        <v>0</v>
+      </c>
+      <c r="R930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="2" t="n">
+        <v>45554.63541666666</v>
+      </c>
+      <c r="B931" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="C931" t="n">
+        <v>325.5</v>
+      </c>
+      <c r="D931" t="n">
+        <v>320</v>
+      </c>
+      <c r="E931" t="n">
+        <v>325.0499877929688</v>
+      </c>
+      <c r="F931" t="n">
+        <v>325.0499877929688</v>
+      </c>
+      <c r="G931" t="n">
+        <v>13707</v>
+      </c>
+      <c r="H931" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I931" t="n">
+        <v>9</v>
+      </c>
+      <c r="J931" t="n">
+        <v>19</v>
+      </c>
+      <c r="K931" t="n">
+        <v>15</v>
+      </c>
+      <c r="L931" t="n">
+        <v>15</v>
+      </c>
+      <c r="M931" t="n">
+        <v>0</v>
+      </c>
+      <c r="N931" t="n">
+        <v>38</v>
+      </c>
+      <c r="O931" t="n">
+        <v>0</v>
+      </c>
+      <c r="P931" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q931" t="n">
+        <v>0</v>
+      </c>
+      <c r="R931" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R931"/>
+  <dimension ref="A1:R938"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52269,7 +52269,9 @@
       <c r="Q925" t="n">
         <v>0</v>
       </c>
-      <c r="R925" t="inlineStr"/>
+      <c r="R925" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
@@ -52323,7 +52325,9 @@
       <c r="Q926" t="n">
         <v>0</v>
       </c>
-      <c r="R926" t="inlineStr"/>
+      <c r="R926" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
@@ -52369,7 +52373,7 @@
         <v>38</v>
       </c>
       <c r="O927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P927" t="n">
         <v>0</v>
@@ -52377,7 +52381,9 @@
       <c r="Q927" t="n">
         <v>0</v>
       </c>
-      <c r="R927" t="inlineStr"/>
+      <c r="R927" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
@@ -52431,7 +52437,9 @@
       <c r="Q928" t="n">
         <v>0</v>
       </c>
-      <c r="R928" t="inlineStr"/>
+      <c r="R928" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
@@ -52485,7 +52493,9 @@
       <c r="Q929" t="n">
         <v>0</v>
       </c>
-      <c r="R929" t="inlineStr"/>
+      <c r="R929" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
@@ -52539,7 +52549,9 @@
       <c r="Q930" t="n">
         <v>0</v>
       </c>
-      <c r="R930" t="inlineStr"/>
+      <c r="R930" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
@@ -52593,7 +52605,387 @@
       <c r="Q931" t="n">
         <v>0</v>
       </c>
-      <c r="R931" t="inlineStr"/>
+      <c r="R931" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="2" t="n">
+        <v>45555.38541666666</v>
+      </c>
+      <c r="B932" t="n">
+        <v>326</v>
+      </c>
+      <c r="C932" t="n">
+        <v>337.8999938964844</v>
+      </c>
+      <c r="D932" t="n">
+        <v>320</v>
+      </c>
+      <c r="E932" t="n">
+        <v>330</v>
+      </c>
+      <c r="F932" t="n">
+        <v>330</v>
+      </c>
+      <c r="G932" t="n">
+        <v>103426</v>
+      </c>
+      <c r="H932" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I932" t="n">
+        <v>9</v>
+      </c>
+      <c r="J932" t="n">
+        <v>20</v>
+      </c>
+      <c r="K932" t="n">
+        <v>9</v>
+      </c>
+      <c r="L932" t="n">
+        <v>15</v>
+      </c>
+      <c r="M932" t="n">
+        <v>0</v>
+      </c>
+      <c r="N932" t="n">
+        <v>38</v>
+      </c>
+      <c r="O932" t="n">
+        <v>0</v>
+      </c>
+      <c r="P932" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q932" t="n">
+        <v>0</v>
+      </c>
+      <c r="R932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="2" t="n">
+        <v>45555.42708333334</v>
+      </c>
+      <c r="B933" t="n">
+        <v>330</v>
+      </c>
+      <c r="C933" t="n">
+        <v>334</v>
+      </c>
+      <c r="D933" t="n">
+        <v>326.6499938964844</v>
+      </c>
+      <c r="E933" t="n">
+        <v>328.9500122070312</v>
+      </c>
+      <c r="F933" t="n">
+        <v>328.9500122070312</v>
+      </c>
+      <c r="G933" t="n">
+        <v>46424</v>
+      </c>
+      <c r="H933" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I933" t="n">
+        <v>9</v>
+      </c>
+      <c r="J933" t="n">
+        <v>20</v>
+      </c>
+      <c r="K933" t="n">
+        <v>10</v>
+      </c>
+      <c r="L933" t="n">
+        <v>15</v>
+      </c>
+      <c r="M933" t="n">
+        <v>0</v>
+      </c>
+      <c r="N933" t="n">
+        <v>38</v>
+      </c>
+      <c r="O933" t="n">
+        <v>0</v>
+      </c>
+      <c r="P933" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q933" t="n">
+        <v>0</v>
+      </c>
+      <c r="R933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="2" t="n">
+        <v>45555.46875</v>
+      </c>
+      <c r="B934" t="n">
+        <v>329</v>
+      </c>
+      <c r="C934" t="n">
+        <v>334</v>
+      </c>
+      <c r="D934" t="n">
+        <v>326.3999938964844</v>
+      </c>
+      <c r="E934" t="n">
+        <v>326.3999938964844</v>
+      </c>
+      <c r="F934" t="n">
+        <v>326.3999938964844</v>
+      </c>
+      <c r="G934" t="n">
+        <v>33919</v>
+      </c>
+      <c r="H934" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I934" t="n">
+        <v>9</v>
+      </c>
+      <c r="J934" t="n">
+        <v>20</v>
+      </c>
+      <c r="K934" t="n">
+        <v>11</v>
+      </c>
+      <c r="L934" t="n">
+        <v>15</v>
+      </c>
+      <c r="M934" t="n">
+        <v>0</v>
+      </c>
+      <c r="N934" t="n">
+        <v>38</v>
+      </c>
+      <c r="O934" t="n">
+        <v>0</v>
+      </c>
+      <c r="P934" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q934" t="n">
+        <v>0</v>
+      </c>
+      <c r="R934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="2" t="n">
+        <v>45555.51041666666</v>
+      </c>
+      <c r="B935" t="n">
+        <v>326.7999877929688</v>
+      </c>
+      <c r="C935" t="n">
+        <v>329</v>
+      </c>
+      <c r="D935" t="n">
+        <v>324.7999877929688</v>
+      </c>
+      <c r="E935" t="n">
+        <v>326</v>
+      </c>
+      <c r="F935" t="n">
+        <v>326</v>
+      </c>
+      <c r="G935" t="n">
+        <v>28996</v>
+      </c>
+      <c r="H935" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I935" t="n">
+        <v>9</v>
+      </c>
+      <c r="J935" t="n">
+        <v>20</v>
+      </c>
+      <c r="K935" t="n">
+        <v>12</v>
+      </c>
+      <c r="L935" t="n">
+        <v>15</v>
+      </c>
+      <c r="M935" t="n">
+        <v>0</v>
+      </c>
+      <c r="N935" t="n">
+        <v>38</v>
+      </c>
+      <c r="O935" t="n">
+        <v>0</v>
+      </c>
+      <c r="P935" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q935" t="n">
+        <v>0</v>
+      </c>
+      <c r="R935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="2" t="n">
+        <v>45555.55208333334</v>
+      </c>
+      <c r="B936" t="n">
+        <v>324.9500122070312</v>
+      </c>
+      <c r="C936" t="n">
+        <v>330</v>
+      </c>
+      <c r="D936" t="n">
+        <v>323.1000061035156</v>
+      </c>
+      <c r="E936" t="n">
+        <v>323.5</v>
+      </c>
+      <c r="F936" t="n">
+        <v>323.5</v>
+      </c>
+      <c r="G936" t="n">
+        <v>23809</v>
+      </c>
+      <c r="H936" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I936" t="n">
+        <v>9</v>
+      </c>
+      <c r="J936" t="n">
+        <v>20</v>
+      </c>
+      <c r="K936" t="n">
+        <v>13</v>
+      </c>
+      <c r="L936" t="n">
+        <v>15</v>
+      </c>
+      <c r="M936" t="n">
+        <v>0</v>
+      </c>
+      <c r="N936" t="n">
+        <v>38</v>
+      </c>
+      <c r="O936" t="n">
+        <v>0</v>
+      </c>
+      <c r="P936" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q936" t="n">
+        <v>0</v>
+      </c>
+      <c r="R936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="2" t="n">
+        <v>45555.59375</v>
+      </c>
+      <c r="B937" t="n">
+        <v>324</v>
+      </c>
+      <c r="C937" t="n">
+        <v>334.9500122070312</v>
+      </c>
+      <c r="D937" t="n">
+        <v>322</v>
+      </c>
+      <c r="E937" t="n">
+        <v>328</v>
+      </c>
+      <c r="F937" t="n">
+        <v>328</v>
+      </c>
+      <c r="G937" t="n">
+        <v>43447</v>
+      </c>
+      <c r="H937" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I937" t="n">
+        <v>9</v>
+      </c>
+      <c r="J937" t="n">
+        <v>20</v>
+      </c>
+      <c r="K937" t="n">
+        <v>14</v>
+      </c>
+      <c r="L937" t="n">
+        <v>15</v>
+      </c>
+      <c r="M937" t="n">
+        <v>0</v>
+      </c>
+      <c r="N937" t="n">
+        <v>38</v>
+      </c>
+      <c r="O937" t="n">
+        <v>0</v>
+      </c>
+      <c r="P937" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q937" t="n">
+        <v>0</v>
+      </c>
+      <c r="R937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="2" t="n">
+        <v>45555.63541666666</v>
+      </c>
+      <c r="B938" t="n">
+        <v>328</v>
+      </c>
+      <c r="C938" t="n">
+        <v>335</v>
+      </c>
+      <c r="D938" t="n">
+        <v>324</v>
+      </c>
+      <c r="E938" t="n">
+        <v>333</v>
+      </c>
+      <c r="F938" t="n">
+        <v>333</v>
+      </c>
+      <c r="G938" t="n">
+        <v>31626</v>
+      </c>
+      <c r="H938" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I938" t="n">
+        <v>9</v>
+      </c>
+      <c r="J938" t="n">
+        <v>20</v>
+      </c>
+      <c r="K938" t="n">
+        <v>15</v>
+      </c>
+      <c r="L938" t="n">
+        <v>15</v>
+      </c>
+      <c r="M938" t="n">
+        <v>0</v>
+      </c>
+      <c r="N938" t="n">
+        <v>38</v>
+      </c>
+      <c r="O938" t="n">
+        <v>0</v>
+      </c>
+      <c r="P938" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q938" t="n">
+        <v>1</v>
+      </c>
+      <c r="R938" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R938"/>
+  <dimension ref="A1:R945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52661,7 +52661,9 @@
       <c r="Q932" t="n">
         <v>0</v>
       </c>
-      <c r="R932" t="inlineStr"/>
+      <c r="R932" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
@@ -52715,7 +52717,9 @@
       <c r="Q933" t="n">
         <v>0</v>
       </c>
-      <c r="R933" t="inlineStr"/>
+      <c r="R933" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
@@ -52769,7 +52773,9 @@
       <c r="Q934" t="n">
         <v>0</v>
       </c>
-      <c r="R934" t="inlineStr"/>
+      <c r="R934" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
@@ -52823,7 +52829,9 @@
       <c r="Q935" t="n">
         <v>0</v>
       </c>
-      <c r="R935" t="inlineStr"/>
+      <c r="R935" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
@@ -52877,7 +52885,9 @@
       <c r="Q936" t="n">
         <v>0</v>
       </c>
-      <c r="R936" t="inlineStr"/>
+      <c r="R936" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
@@ -52931,7 +52941,9 @@
       <c r="Q937" t="n">
         <v>0</v>
       </c>
-      <c r="R937" t="inlineStr"/>
+      <c r="R937" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
@@ -52985,7 +52997,387 @@
       <c r="Q938" t="n">
         <v>1</v>
       </c>
-      <c r="R938" t="inlineStr"/>
+      <c r="R938" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="2" t="n">
+        <v>45558.38541666666</v>
+      </c>
+      <c r="B939" t="n">
+        <v>330.7000122070312</v>
+      </c>
+      <c r="C939" t="n">
+        <v>338</v>
+      </c>
+      <c r="D939" t="n">
+        <v>330</v>
+      </c>
+      <c r="E939" t="n">
+        <v>331.6499938964844</v>
+      </c>
+      <c r="F939" t="n">
+        <v>331.6499938964844</v>
+      </c>
+      <c r="G939" t="n">
+        <v>0</v>
+      </c>
+      <c r="H939" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I939" t="n">
+        <v>9</v>
+      </c>
+      <c r="J939" t="n">
+        <v>23</v>
+      </c>
+      <c r="K939" t="n">
+        <v>9</v>
+      </c>
+      <c r="L939" t="n">
+        <v>15</v>
+      </c>
+      <c r="M939" t="n">
+        <v>0</v>
+      </c>
+      <c r="N939" t="n">
+        <v>39</v>
+      </c>
+      <c r="O939" t="n">
+        <v>0</v>
+      </c>
+      <c r="P939" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q939" t="n">
+        <v>0</v>
+      </c>
+      <c r="R939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="2" t="n">
+        <v>45558.42708333334</v>
+      </c>
+      <c r="B940" t="n">
+        <v>331.3999938964844</v>
+      </c>
+      <c r="C940" t="n">
+        <v>335</v>
+      </c>
+      <c r="D940" t="n">
+        <v>329</v>
+      </c>
+      <c r="E940" t="n">
+        <v>332</v>
+      </c>
+      <c r="F940" t="n">
+        <v>332</v>
+      </c>
+      <c r="G940" t="n">
+        <v>38833</v>
+      </c>
+      <c r="H940" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I940" t="n">
+        <v>9</v>
+      </c>
+      <c r="J940" t="n">
+        <v>23</v>
+      </c>
+      <c r="K940" t="n">
+        <v>10</v>
+      </c>
+      <c r="L940" t="n">
+        <v>15</v>
+      </c>
+      <c r="M940" t="n">
+        <v>0</v>
+      </c>
+      <c r="N940" t="n">
+        <v>39</v>
+      </c>
+      <c r="O940" t="n">
+        <v>0</v>
+      </c>
+      <c r="P940" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q940" t="n">
+        <v>0</v>
+      </c>
+      <c r="R940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="2" t="n">
+        <v>45558.46875</v>
+      </c>
+      <c r="B941" t="n">
+        <v>332</v>
+      </c>
+      <c r="C941" t="n">
+        <v>335.9500122070312</v>
+      </c>
+      <c r="D941" t="n">
+        <v>331.5</v>
+      </c>
+      <c r="E941" t="n">
+        <v>332.2000122070312</v>
+      </c>
+      <c r="F941" t="n">
+        <v>332.2000122070312</v>
+      </c>
+      <c r="G941" t="n">
+        <v>33039</v>
+      </c>
+      <c r="H941" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I941" t="n">
+        <v>9</v>
+      </c>
+      <c r="J941" t="n">
+        <v>23</v>
+      </c>
+      <c r="K941" t="n">
+        <v>11</v>
+      </c>
+      <c r="L941" t="n">
+        <v>15</v>
+      </c>
+      <c r="M941" t="n">
+        <v>0</v>
+      </c>
+      <c r="N941" t="n">
+        <v>39</v>
+      </c>
+      <c r="O941" t="n">
+        <v>0</v>
+      </c>
+      <c r="P941" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q941" t="n">
+        <v>0</v>
+      </c>
+      <c r="R941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="2" t="n">
+        <v>45558.51041666666</v>
+      </c>
+      <c r="B942" t="n">
+        <v>333</v>
+      </c>
+      <c r="C942" t="n">
+        <v>337</v>
+      </c>
+      <c r="D942" t="n">
+        <v>332.2000122070312</v>
+      </c>
+      <c r="E942" t="n">
+        <v>336</v>
+      </c>
+      <c r="F942" t="n">
+        <v>336</v>
+      </c>
+      <c r="G942" t="n">
+        <v>27241</v>
+      </c>
+      <c r="H942" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I942" t="n">
+        <v>9</v>
+      </c>
+      <c r="J942" t="n">
+        <v>23</v>
+      </c>
+      <c r="K942" t="n">
+        <v>12</v>
+      </c>
+      <c r="L942" t="n">
+        <v>15</v>
+      </c>
+      <c r="M942" t="n">
+        <v>0</v>
+      </c>
+      <c r="N942" t="n">
+        <v>39</v>
+      </c>
+      <c r="O942" t="n">
+        <v>0</v>
+      </c>
+      <c r="P942" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q942" t="n">
+        <v>0</v>
+      </c>
+      <c r="R942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="2" t="n">
+        <v>45558.55208333334</v>
+      </c>
+      <c r="B943" t="n">
+        <v>336</v>
+      </c>
+      <c r="C943" t="n">
+        <v>336.8999938964844</v>
+      </c>
+      <c r="D943" t="n">
+        <v>334.7999877929688</v>
+      </c>
+      <c r="E943" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="F943" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="G943" t="n">
+        <v>23528</v>
+      </c>
+      <c r="H943" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I943" t="n">
+        <v>9</v>
+      </c>
+      <c r="J943" t="n">
+        <v>23</v>
+      </c>
+      <c r="K943" t="n">
+        <v>13</v>
+      </c>
+      <c r="L943" t="n">
+        <v>15</v>
+      </c>
+      <c r="M943" t="n">
+        <v>0</v>
+      </c>
+      <c r="N943" t="n">
+        <v>39</v>
+      </c>
+      <c r="O943" t="n">
+        <v>0</v>
+      </c>
+      <c r="P943" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q943" t="n">
+        <v>0</v>
+      </c>
+      <c r="R943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="2" t="n">
+        <v>45558.59375</v>
+      </c>
+      <c r="B944" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="C944" t="n">
+        <v>338</v>
+      </c>
+      <c r="D944" t="n">
+        <v>332</v>
+      </c>
+      <c r="E944" t="n">
+        <v>335.75</v>
+      </c>
+      <c r="F944" t="n">
+        <v>335.75</v>
+      </c>
+      <c r="G944" t="n">
+        <v>35087</v>
+      </c>
+      <c r="H944" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I944" t="n">
+        <v>9</v>
+      </c>
+      <c r="J944" t="n">
+        <v>23</v>
+      </c>
+      <c r="K944" t="n">
+        <v>14</v>
+      </c>
+      <c r="L944" t="n">
+        <v>15</v>
+      </c>
+      <c r="M944" t="n">
+        <v>0</v>
+      </c>
+      <c r="N944" t="n">
+        <v>39</v>
+      </c>
+      <c r="O944" t="n">
+        <v>0</v>
+      </c>
+      <c r="P944" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q944" t="n">
+        <v>0</v>
+      </c>
+      <c r="R944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="2" t="n">
+        <v>45558.63541666666</v>
+      </c>
+      <c r="B945" t="n">
+        <v>335.75</v>
+      </c>
+      <c r="C945" t="n">
+        <v>336</v>
+      </c>
+      <c r="D945" t="n">
+        <v>329.4500122070312</v>
+      </c>
+      <c r="E945" t="n">
+        <v>334</v>
+      </c>
+      <c r="F945" t="n">
+        <v>334</v>
+      </c>
+      <c r="G945" t="n">
+        <v>46300</v>
+      </c>
+      <c r="H945" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I945" t="n">
+        <v>9</v>
+      </c>
+      <c r="J945" t="n">
+        <v>23</v>
+      </c>
+      <c r="K945" t="n">
+        <v>15</v>
+      </c>
+      <c r="L945" t="n">
+        <v>15</v>
+      </c>
+      <c r="M945" t="n">
+        <v>0</v>
+      </c>
+      <c r="N945" t="n">
+        <v>39</v>
+      </c>
+      <c r="O945" t="n">
+        <v>0</v>
+      </c>
+      <c r="P945" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q945" t="n">
+        <v>0</v>
+      </c>
+      <c r="R945" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R945"/>
+  <dimension ref="A1:R952"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53045,7 +53045,7 @@
         <v>39</v>
       </c>
       <c r="O939" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P939" t="n">
         <v>0</v>
@@ -53053,7 +53053,9 @@
       <c r="Q939" t="n">
         <v>0</v>
       </c>
-      <c r="R939" t="inlineStr"/>
+      <c r="R939" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
@@ -53107,7 +53109,9 @@
       <c r="Q940" t="n">
         <v>0</v>
       </c>
-      <c r="R940" t="inlineStr"/>
+      <c r="R940" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
@@ -53161,7 +53165,9 @@
       <c r="Q941" t="n">
         <v>0</v>
       </c>
-      <c r="R941" t="inlineStr"/>
+      <c r="R941" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
@@ -53215,7 +53221,9 @@
       <c r="Q942" t="n">
         <v>0</v>
       </c>
-      <c r="R942" t="inlineStr"/>
+      <c r="R942" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
@@ -53269,7 +53277,9 @@
       <c r="Q943" t="n">
         <v>0</v>
       </c>
-      <c r="R943" t="inlineStr"/>
+      <c r="R943" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
@@ -53323,7 +53333,9 @@
       <c r="Q944" t="n">
         <v>0</v>
       </c>
-      <c r="R944" t="inlineStr"/>
+      <c r="R944" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
@@ -53377,7 +53389,387 @@
       <c r="Q945" t="n">
         <v>0</v>
       </c>
-      <c r="R945" t="inlineStr"/>
+      <c r="R945" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="2" t="n">
+        <v>45559.38541666666</v>
+      </c>
+      <c r="B946" t="n">
+        <v>337</v>
+      </c>
+      <c r="C946" t="n">
+        <v>337.7000122070312</v>
+      </c>
+      <c r="D946" t="n">
+        <v>329.0499877929688</v>
+      </c>
+      <c r="E946" t="n">
+        <v>329.5499877929688</v>
+      </c>
+      <c r="F946" t="n">
+        <v>329.5499877929688</v>
+      </c>
+      <c r="G946" t="n">
+        <v>57264</v>
+      </c>
+      <c r="H946" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I946" t="n">
+        <v>9</v>
+      </c>
+      <c r="J946" t="n">
+        <v>24</v>
+      </c>
+      <c r="K946" t="n">
+        <v>9</v>
+      </c>
+      <c r="L946" t="n">
+        <v>15</v>
+      </c>
+      <c r="M946" t="n">
+        <v>0</v>
+      </c>
+      <c r="N946" t="n">
+        <v>39</v>
+      </c>
+      <c r="O946" t="n">
+        <v>0</v>
+      </c>
+      <c r="P946" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q946" t="n">
+        <v>0</v>
+      </c>
+      <c r="R946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="2" t="n">
+        <v>45559.42708333334</v>
+      </c>
+      <c r="B947" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="C947" t="n">
+        <v>329.8999938964844</v>
+      </c>
+      <c r="D947" t="n">
+        <v>325.0499877929688</v>
+      </c>
+      <c r="E947" t="n">
+        <v>326.7000122070312</v>
+      </c>
+      <c r="F947" t="n">
+        <v>326.7000122070312</v>
+      </c>
+      <c r="G947" t="n">
+        <v>44383</v>
+      </c>
+      <c r="H947" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I947" t="n">
+        <v>9</v>
+      </c>
+      <c r="J947" t="n">
+        <v>24</v>
+      </c>
+      <c r="K947" t="n">
+        <v>10</v>
+      </c>
+      <c r="L947" t="n">
+        <v>15</v>
+      </c>
+      <c r="M947" t="n">
+        <v>0</v>
+      </c>
+      <c r="N947" t="n">
+        <v>39</v>
+      </c>
+      <c r="O947" t="n">
+        <v>0</v>
+      </c>
+      <c r="P947" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q947" t="n">
+        <v>0</v>
+      </c>
+      <c r="R947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="2" t="n">
+        <v>45559.46875</v>
+      </c>
+      <c r="B948" t="n">
+        <v>326.7000122070312</v>
+      </c>
+      <c r="C948" t="n">
+        <v>331.8999938964844</v>
+      </c>
+      <c r="D948" t="n">
+        <v>325.6000061035156</v>
+      </c>
+      <c r="E948" t="n">
+        <v>326.3500061035156</v>
+      </c>
+      <c r="F948" t="n">
+        <v>326.3500061035156</v>
+      </c>
+      <c r="G948" t="n">
+        <v>24080</v>
+      </c>
+      <c r="H948" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I948" t="n">
+        <v>9</v>
+      </c>
+      <c r="J948" t="n">
+        <v>24</v>
+      </c>
+      <c r="K948" t="n">
+        <v>11</v>
+      </c>
+      <c r="L948" t="n">
+        <v>15</v>
+      </c>
+      <c r="M948" t="n">
+        <v>0</v>
+      </c>
+      <c r="N948" t="n">
+        <v>39</v>
+      </c>
+      <c r="O948" t="n">
+        <v>0</v>
+      </c>
+      <c r="P948" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q948" t="n">
+        <v>0</v>
+      </c>
+      <c r="R948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="2" t="n">
+        <v>45559.51041666666</v>
+      </c>
+      <c r="B949" t="n">
+        <v>327.8999938964844</v>
+      </c>
+      <c r="C949" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="D949" t="n">
+        <v>326</v>
+      </c>
+      <c r="E949" t="n">
+        <v>327</v>
+      </c>
+      <c r="F949" t="n">
+        <v>327</v>
+      </c>
+      <c r="G949" t="n">
+        <v>17477</v>
+      </c>
+      <c r="H949" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I949" t="n">
+        <v>9</v>
+      </c>
+      <c r="J949" t="n">
+        <v>24</v>
+      </c>
+      <c r="K949" t="n">
+        <v>12</v>
+      </c>
+      <c r="L949" t="n">
+        <v>15</v>
+      </c>
+      <c r="M949" t="n">
+        <v>0</v>
+      </c>
+      <c r="N949" t="n">
+        <v>39</v>
+      </c>
+      <c r="O949" t="n">
+        <v>0</v>
+      </c>
+      <c r="P949" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q949" t="n">
+        <v>0</v>
+      </c>
+      <c r="R949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="2" t="n">
+        <v>45559.55208333334</v>
+      </c>
+      <c r="B950" t="n">
+        <v>326.75</v>
+      </c>
+      <c r="C950" t="n">
+        <v>330</v>
+      </c>
+      <c r="D950" t="n">
+        <v>326.6499938964844</v>
+      </c>
+      <c r="E950" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="F950" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="G950" t="n">
+        <v>11754</v>
+      </c>
+      <c r="H950" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I950" t="n">
+        <v>9</v>
+      </c>
+      <c r="J950" t="n">
+        <v>24</v>
+      </c>
+      <c r="K950" t="n">
+        <v>13</v>
+      </c>
+      <c r="L950" t="n">
+        <v>15</v>
+      </c>
+      <c r="M950" t="n">
+        <v>0</v>
+      </c>
+      <c r="N950" t="n">
+        <v>39</v>
+      </c>
+      <c r="O950" t="n">
+        <v>0</v>
+      </c>
+      <c r="P950" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q950" t="n">
+        <v>2</v>
+      </c>
+      <c r="R950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="2" t="n">
+        <v>45559.59375</v>
+      </c>
+      <c r="B951" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="C951" t="n">
+        <v>330</v>
+      </c>
+      <c r="D951" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="E951" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="F951" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="G951" t="n">
+        <v>52452</v>
+      </c>
+      <c r="H951" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I951" t="n">
+        <v>9</v>
+      </c>
+      <c r="J951" t="n">
+        <v>24</v>
+      </c>
+      <c r="K951" t="n">
+        <v>14</v>
+      </c>
+      <c r="L951" t="n">
+        <v>15</v>
+      </c>
+      <c r="M951" t="n">
+        <v>0</v>
+      </c>
+      <c r="N951" t="n">
+        <v>39</v>
+      </c>
+      <c r="O951" t="n">
+        <v>0</v>
+      </c>
+      <c r="P951" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q951" t="n">
+        <v>0</v>
+      </c>
+      <c r="R951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="2" t="n">
+        <v>45559.63541666666</v>
+      </c>
+      <c r="B952" t="n">
+        <v>324.9500122070312</v>
+      </c>
+      <c r="C952" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="D952" t="n">
+        <v>323</v>
+      </c>
+      <c r="E952" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="F952" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="G952" t="n">
+        <v>23089</v>
+      </c>
+      <c r="H952" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I952" t="n">
+        <v>9</v>
+      </c>
+      <c r="J952" t="n">
+        <v>24</v>
+      </c>
+      <c r="K952" t="n">
+        <v>15</v>
+      </c>
+      <c r="L952" t="n">
+        <v>15</v>
+      </c>
+      <c r="M952" t="n">
+        <v>0</v>
+      </c>
+      <c r="N952" t="n">
+        <v>39</v>
+      </c>
+      <c r="O952" t="n">
+        <v>0</v>
+      </c>
+      <c r="P952" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q952" t="n">
+        <v>0</v>
+      </c>
+      <c r="R952" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R952"/>
+  <dimension ref="A1:R959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53325,7 +53325,7 @@
         <v>39</v>
       </c>
       <c r="O944" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P944" t="n">
         <v>0</v>
@@ -53445,7 +53445,9 @@
       <c r="Q946" t="n">
         <v>0</v>
       </c>
-      <c r="R946" t="inlineStr"/>
+      <c r="R946" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
@@ -53499,7 +53501,9 @@
       <c r="Q947" t="n">
         <v>0</v>
       </c>
-      <c r="R947" t="inlineStr"/>
+      <c r="R947" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
@@ -53553,7 +53557,9 @@
       <c r="Q948" t="n">
         <v>0</v>
       </c>
-      <c r="R948" t="inlineStr"/>
+      <c r="R948" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="949">
       <c r="A949" s="2" t="n">
@@ -53607,7 +53613,9 @@
       <c r="Q949" t="n">
         <v>0</v>
       </c>
-      <c r="R949" t="inlineStr"/>
+      <c r="R949" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
@@ -53661,7 +53669,9 @@
       <c r="Q950" t="n">
         <v>2</v>
       </c>
-      <c r="R950" t="inlineStr"/>
+      <c r="R950" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
@@ -53715,7 +53725,9 @@
       <c r="Q951" t="n">
         <v>0</v>
       </c>
-      <c r="R951" t="inlineStr"/>
+      <c r="R951" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
@@ -53769,7 +53781,387 @@
       <c r="Q952" t="n">
         <v>0</v>
       </c>
-      <c r="R952" t="inlineStr"/>
+      <c r="R952" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="2" t="n">
+        <v>45560.38541666666</v>
+      </c>
+      <c r="B953" t="n">
+        <v>328.2000122070312</v>
+      </c>
+      <c r="C953" t="n">
+        <v>330</v>
+      </c>
+      <c r="D953" t="n">
+        <v>321</v>
+      </c>
+      <c r="E953" t="n">
+        <v>322</v>
+      </c>
+      <c r="F953" t="n">
+        <v>322</v>
+      </c>
+      <c r="G953" t="n">
+        <v>0</v>
+      </c>
+      <c r="H953" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I953" t="n">
+        <v>9</v>
+      </c>
+      <c r="J953" t="n">
+        <v>25</v>
+      </c>
+      <c r="K953" t="n">
+        <v>9</v>
+      </c>
+      <c r="L953" t="n">
+        <v>15</v>
+      </c>
+      <c r="M953" t="n">
+        <v>0</v>
+      </c>
+      <c r="N953" t="n">
+        <v>39</v>
+      </c>
+      <c r="O953" t="n">
+        <v>0</v>
+      </c>
+      <c r="P953" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q953" t="n">
+        <v>0</v>
+      </c>
+      <c r="R953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="2" t="n">
+        <v>45560.42708333334</v>
+      </c>
+      <c r="B954" t="n">
+        <v>321.1000061035156</v>
+      </c>
+      <c r="C954" t="n">
+        <v>322</v>
+      </c>
+      <c r="D954" t="n">
+        <v>319</v>
+      </c>
+      <c r="E954" t="n">
+        <v>320</v>
+      </c>
+      <c r="F954" t="n">
+        <v>320</v>
+      </c>
+      <c r="G954" t="n">
+        <v>56290</v>
+      </c>
+      <c r="H954" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I954" t="n">
+        <v>9</v>
+      </c>
+      <c r="J954" t="n">
+        <v>25</v>
+      </c>
+      <c r="K954" t="n">
+        <v>10</v>
+      </c>
+      <c r="L954" t="n">
+        <v>15</v>
+      </c>
+      <c r="M954" t="n">
+        <v>0</v>
+      </c>
+      <c r="N954" t="n">
+        <v>39</v>
+      </c>
+      <c r="O954" t="n">
+        <v>0</v>
+      </c>
+      <c r="P954" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q954" t="n">
+        <v>0</v>
+      </c>
+      <c r="R954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="2" t="n">
+        <v>45560.46875</v>
+      </c>
+      <c r="B955" t="n">
+        <v>320</v>
+      </c>
+      <c r="C955" t="n">
+        <v>323</v>
+      </c>
+      <c r="D955" t="n">
+        <v>319.1000061035156</v>
+      </c>
+      <c r="E955" t="n">
+        <v>321</v>
+      </c>
+      <c r="F955" t="n">
+        <v>321</v>
+      </c>
+      <c r="G955" t="n">
+        <v>38043</v>
+      </c>
+      <c r="H955" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I955" t="n">
+        <v>9</v>
+      </c>
+      <c r="J955" t="n">
+        <v>25</v>
+      </c>
+      <c r="K955" t="n">
+        <v>11</v>
+      </c>
+      <c r="L955" t="n">
+        <v>15</v>
+      </c>
+      <c r="M955" t="n">
+        <v>0</v>
+      </c>
+      <c r="N955" t="n">
+        <v>39</v>
+      </c>
+      <c r="O955" t="n">
+        <v>0</v>
+      </c>
+      <c r="P955" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q955" t="n">
+        <v>2</v>
+      </c>
+      <c r="R955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="2" t="n">
+        <v>45560.51041666666</v>
+      </c>
+      <c r="B956" t="n">
+        <v>322</v>
+      </c>
+      <c r="C956" t="n">
+        <v>322</v>
+      </c>
+      <c r="D956" t="n">
+        <v>320.2999877929688</v>
+      </c>
+      <c r="E956" t="n">
+        <v>322</v>
+      </c>
+      <c r="F956" t="n">
+        <v>322</v>
+      </c>
+      <c r="G956" t="n">
+        <v>23233</v>
+      </c>
+      <c r="H956" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I956" t="n">
+        <v>9</v>
+      </c>
+      <c r="J956" t="n">
+        <v>25</v>
+      </c>
+      <c r="K956" t="n">
+        <v>12</v>
+      </c>
+      <c r="L956" t="n">
+        <v>15</v>
+      </c>
+      <c r="M956" t="n">
+        <v>0</v>
+      </c>
+      <c r="N956" t="n">
+        <v>39</v>
+      </c>
+      <c r="O956" t="n">
+        <v>0</v>
+      </c>
+      <c r="P956" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q956" t="n">
+        <v>0</v>
+      </c>
+      <c r="R956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="2" t="n">
+        <v>45560.55208333334</v>
+      </c>
+      <c r="B957" t="n">
+        <v>321.1000061035156</v>
+      </c>
+      <c r="C957" t="n">
+        <v>322</v>
+      </c>
+      <c r="D957" t="n">
+        <v>319.1000061035156</v>
+      </c>
+      <c r="E957" t="n">
+        <v>320</v>
+      </c>
+      <c r="F957" t="n">
+        <v>320</v>
+      </c>
+      <c r="G957" t="n">
+        <v>55051</v>
+      </c>
+      <c r="H957" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I957" t="n">
+        <v>9</v>
+      </c>
+      <c r="J957" t="n">
+        <v>25</v>
+      </c>
+      <c r="K957" t="n">
+        <v>13</v>
+      </c>
+      <c r="L957" t="n">
+        <v>15</v>
+      </c>
+      <c r="M957" t="n">
+        <v>0</v>
+      </c>
+      <c r="N957" t="n">
+        <v>39</v>
+      </c>
+      <c r="O957" t="n">
+        <v>0</v>
+      </c>
+      <c r="P957" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q957" t="n">
+        <v>0</v>
+      </c>
+      <c r="R957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="2" t="n">
+        <v>45560.59375</v>
+      </c>
+      <c r="B958" t="n">
+        <v>319.9500122070312</v>
+      </c>
+      <c r="C958" t="n">
+        <v>320</v>
+      </c>
+      <c r="D958" t="n">
+        <v>319.2000122070312</v>
+      </c>
+      <c r="E958" t="n">
+        <v>320</v>
+      </c>
+      <c r="F958" t="n">
+        <v>320</v>
+      </c>
+      <c r="G958" t="n">
+        <v>35651</v>
+      </c>
+      <c r="H958" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I958" t="n">
+        <v>9</v>
+      </c>
+      <c r="J958" t="n">
+        <v>25</v>
+      </c>
+      <c r="K958" t="n">
+        <v>14</v>
+      </c>
+      <c r="L958" t="n">
+        <v>15</v>
+      </c>
+      <c r="M958" t="n">
+        <v>0</v>
+      </c>
+      <c r="N958" t="n">
+        <v>39</v>
+      </c>
+      <c r="O958" t="n">
+        <v>0</v>
+      </c>
+      <c r="P958" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q958" t="n">
+        <v>0</v>
+      </c>
+      <c r="R958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="2" t="n">
+        <v>45560.63541666666</v>
+      </c>
+      <c r="B959" t="n">
+        <v>320</v>
+      </c>
+      <c r="C959" t="n">
+        <v>320</v>
+      </c>
+      <c r="D959" t="n">
+        <v>319.75</v>
+      </c>
+      <c r="E959" t="n">
+        <v>320</v>
+      </c>
+      <c r="F959" t="n">
+        <v>320</v>
+      </c>
+      <c r="G959" t="n">
+        <v>26567</v>
+      </c>
+      <c r="H959" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I959" t="n">
+        <v>9</v>
+      </c>
+      <c r="J959" t="n">
+        <v>25</v>
+      </c>
+      <c r="K959" t="n">
+        <v>15</v>
+      </c>
+      <c r="L959" t="n">
+        <v>15</v>
+      </c>
+      <c r="M959" t="n">
+        <v>0</v>
+      </c>
+      <c r="N959" t="n">
+        <v>39</v>
+      </c>
+      <c r="O959" t="n">
+        <v>0</v>
+      </c>
+      <c r="P959" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q959" t="n">
+        <v>0</v>
+      </c>
+      <c r="R959" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R959"/>
+  <dimension ref="A1:R966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53837,7 +53837,9 @@
       <c r="Q953" t="n">
         <v>0</v>
       </c>
-      <c r="R953" t="inlineStr"/>
+      <c r="R953" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="954">
       <c r="A954" s="2" t="n">
@@ -53883,7 +53885,7 @@
         <v>39</v>
       </c>
       <c r="O954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P954" t="n">
         <v>0</v>
@@ -53891,7 +53893,9 @@
       <c r="Q954" t="n">
         <v>0</v>
       </c>
-      <c r="R954" t="inlineStr"/>
+      <c r="R954" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
@@ -53945,7 +53949,9 @@
       <c r="Q955" t="n">
         <v>2</v>
       </c>
-      <c r="R955" t="inlineStr"/>
+      <c r="R955" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
@@ -53999,7 +54005,9 @@
       <c r="Q956" t="n">
         <v>0</v>
       </c>
-      <c r="R956" t="inlineStr"/>
+      <c r="R956" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
@@ -54053,7 +54061,9 @@
       <c r="Q957" t="n">
         <v>0</v>
       </c>
-      <c r="R957" t="inlineStr"/>
+      <c r="R957" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
@@ -54107,7 +54117,9 @@
       <c r="Q958" t="n">
         <v>0</v>
       </c>
-      <c r="R958" t="inlineStr"/>
+      <c r="R958" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
@@ -54161,7 +54173,387 @@
       <c r="Q959" t="n">
         <v>0</v>
       </c>
-      <c r="R959" t="inlineStr"/>
+      <c r="R959" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="2" t="n">
+        <v>45561.38541666666</v>
+      </c>
+      <c r="B960" t="n">
+        <v>324</v>
+      </c>
+      <c r="C960" t="n">
+        <v>324.9500122070312</v>
+      </c>
+      <c r="D960" t="n">
+        <v>319</v>
+      </c>
+      <c r="E960" t="n">
+        <v>321.5</v>
+      </c>
+      <c r="F960" t="n">
+        <v>321.5</v>
+      </c>
+      <c r="G960" t="n">
+        <v>0</v>
+      </c>
+      <c r="H960" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I960" t="n">
+        <v>9</v>
+      </c>
+      <c r="J960" t="n">
+        <v>26</v>
+      </c>
+      <c r="K960" t="n">
+        <v>9</v>
+      </c>
+      <c r="L960" t="n">
+        <v>15</v>
+      </c>
+      <c r="M960" t="n">
+        <v>0</v>
+      </c>
+      <c r="N960" t="n">
+        <v>39</v>
+      </c>
+      <c r="O960" t="n">
+        <v>0</v>
+      </c>
+      <c r="P960" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q960" t="n">
+        <v>0</v>
+      </c>
+      <c r="R960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="2" t="n">
+        <v>45561.42708333334</v>
+      </c>
+      <c r="B961" t="n">
+        <v>321.5</v>
+      </c>
+      <c r="C961" t="n">
+        <v>323.8500061035156</v>
+      </c>
+      <c r="D961" t="n">
+        <v>320</v>
+      </c>
+      <c r="E961" t="n">
+        <v>320.3500061035156</v>
+      </c>
+      <c r="F961" t="n">
+        <v>320.3500061035156</v>
+      </c>
+      <c r="G961" t="n">
+        <v>18948</v>
+      </c>
+      <c r="H961" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I961" t="n">
+        <v>9</v>
+      </c>
+      <c r="J961" t="n">
+        <v>26</v>
+      </c>
+      <c r="K961" t="n">
+        <v>10</v>
+      </c>
+      <c r="L961" t="n">
+        <v>15</v>
+      </c>
+      <c r="M961" t="n">
+        <v>0</v>
+      </c>
+      <c r="N961" t="n">
+        <v>39</v>
+      </c>
+      <c r="O961" t="n">
+        <v>0</v>
+      </c>
+      <c r="P961" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q961" t="n">
+        <v>0</v>
+      </c>
+      <c r="R961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="2" t="n">
+        <v>45561.46875</v>
+      </c>
+      <c r="B962" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="C962" t="n">
+        <v>324</v>
+      </c>
+      <c r="D962" t="n">
+        <v>321</v>
+      </c>
+      <c r="E962" t="n">
+        <v>322</v>
+      </c>
+      <c r="F962" t="n">
+        <v>322</v>
+      </c>
+      <c r="G962" t="n">
+        <v>27359</v>
+      </c>
+      <c r="H962" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I962" t="n">
+        <v>9</v>
+      </c>
+      <c r="J962" t="n">
+        <v>26</v>
+      </c>
+      <c r="K962" t="n">
+        <v>11</v>
+      </c>
+      <c r="L962" t="n">
+        <v>15</v>
+      </c>
+      <c r="M962" t="n">
+        <v>0</v>
+      </c>
+      <c r="N962" t="n">
+        <v>39</v>
+      </c>
+      <c r="O962" t="n">
+        <v>0</v>
+      </c>
+      <c r="P962" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q962" t="n">
+        <v>0</v>
+      </c>
+      <c r="R962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="2" t="n">
+        <v>45561.51041666666</v>
+      </c>
+      <c r="B963" t="n">
+        <v>322</v>
+      </c>
+      <c r="C963" t="n">
+        <v>323.9500122070312</v>
+      </c>
+      <c r="D963" t="n">
+        <v>320</v>
+      </c>
+      <c r="E963" t="n">
+        <v>323.2000122070312</v>
+      </c>
+      <c r="F963" t="n">
+        <v>323.2000122070312</v>
+      </c>
+      <c r="G963" t="n">
+        <v>15752</v>
+      </c>
+      <c r="H963" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I963" t="n">
+        <v>9</v>
+      </c>
+      <c r="J963" t="n">
+        <v>26</v>
+      </c>
+      <c r="K963" t="n">
+        <v>12</v>
+      </c>
+      <c r="L963" t="n">
+        <v>15</v>
+      </c>
+      <c r="M963" t="n">
+        <v>0</v>
+      </c>
+      <c r="N963" t="n">
+        <v>39</v>
+      </c>
+      <c r="O963" t="n">
+        <v>0</v>
+      </c>
+      <c r="P963" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q963" t="n">
+        <v>0</v>
+      </c>
+      <c r="R963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="2" t="n">
+        <v>45561.55208333334</v>
+      </c>
+      <c r="B964" t="n">
+        <v>323.2000122070312</v>
+      </c>
+      <c r="C964" t="n">
+        <v>323.4500122070312</v>
+      </c>
+      <c r="D964" t="n">
+        <v>320</v>
+      </c>
+      <c r="E964" t="n">
+        <v>322</v>
+      </c>
+      <c r="F964" t="n">
+        <v>322</v>
+      </c>
+      <c r="G964" t="n">
+        <v>12199</v>
+      </c>
+      <c r="H964" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I964" t="n">
+        <v>9</v>
+      </c>
+      <c r="J964" t="n">
+        <v>26</v>
+      </c>
+      <c r="K964" t="n">
+        <v>13</v>
+      </c>
+      <c r="L964" t="n">
+        <v>15</v>
+      </c>
+      <c r="M964" t="n">
+        <v>0</v>
+      </c>
+      <c r="N964" t="n">
+        <v>39</v>
+      </c>
+      <c r="O964" t="n">
+        <v>0</v>
+      </c>
+      <c r="P964" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q964" t="n">
+        <v>0</v>
+      </c>
+      <c r="R964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="2" t="n">
+        <v>45561.59375</v>
+      </c>
+      <c r="B965" t="n">
+        <v>321.8999938964844</v>
+      </c>
+      <c r="C965" t="n">
+        <v>322.9500122070312</v>
+      </c>
+      <c r="D965" t="n">
+        <v>319.0499877929688</v>
+      </c>
+      <c r="E965" t="n">
+        <v>322.7000122070312</v>
+      </c>
+      <c r="F965" t="n">
+        <v>322.7000122070312</v>
+      </c>
+      <c r="G965" t="n">
+        <v>25456</v>
+      </c>
+      <c r="H965" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I965" t="n">
+        <v>9</v>
+      </c>
+      <c r="J965" t="n">
+        <v>26</v>
+      </c>
+      <c r="K965" t="n">
+        <v>14</v>
+      </c>
+      <c r="L965" t="n">
+        <v>15</v>
+      </c>
+      <c r="M965" t="n">
+        <v>0</v>
+      </c>
+      <c r="N965" t="n">
+        <v>39</v>
+      </c>
+      <c r="O965" t="n">
+        <v>0</v>
+      </c>
+      <c r="P965" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q965" t="n">
+        <v>1</v>
+      </c>
+      <c r="R965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="2" t="n">
+        <v>45561.63541666666</v>
+      </c>
+      <c r="B966" t="n">
+        <v>322.7000122070312</v>
+      </c>
+      <c r="C966" t="n">
+        <v>322.7000122070312</v>
+      </c>
+      <c r="D966" t="n">
+        <v>319.0499877929688</v>
+      </c>
+      <c r="E966" t="n">
+        <v>320.8500061035156</v>
+      </c>
+      <c r="F966" t="n">
+        <v>320.8500061035156</v>
+      </c>
+      <c r="G966" t="n">
+        <v>8105</v>
+      </c>
+      <c r="H966" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I966" t="n">
+        <v>9</v>
+      </c>
+      <c r="J966" t="n">
+        <v>26</v>
+      </c>
+      <c r="K966" t="n">
+        <v>15</v>
+      </c>
+      <c r="L966" t="n">
+        <v>15</v>
+      </c>
+      <c r="M966" t="n">
+        <v>0</v>
+      </c>
+      <c r="N966" t="n">
+        <v>39</v>
+      </c>
+      <c r="O966" t="n">
+        <v>0</v>
+      </c>
+      <c r="P966" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q966" t="n">
+        <v>0</v>
+      </c>
+      <c r="R966" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R966"/>
+  <dimension ref="A1:R973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54229,7 +54229,9 @@
       <c r="Q960" t="n">
         <v>0</v>
       </c>
-      <c r="R960" t="inlineStr"/>
+      <c r="R960" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
@@ -54283,7 +54285,9 @@
       <c r="Q961" t="n">
         <v>0</v>
       </c>
-      <c r="R961" t="inlineStr"/>
+      <c r="R961" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
@@ -54337,7 +54341,9 @@
       <c r="Q962" t="n">
         <v>0</v>
       </c>
-      <c r="R962" t="inlineStr"/>
+      <c r="R962" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="963">
       <c r="A963" s="2" t="n">
@@ -54391,7 +54397,9 @@
       <c r="Q963" t="n">
         <v>0</v>
       </c>
-      <c r="R963" t="inlineStr"/>
+      <c r="R963" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
@@ -54445,7 +54453,9 @@
       <c r="Q964" t="n">
         <v>0</v>
       </c>
-      <c r="R964" t="inlineStr"/>
+      <c r="R964" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="965">
       <c r="A965" s="2" t="n">
@@ -54499,7 +54509,9 @@
       <c r="Q965" t="n">
         <v>1</v>
       </c>
-      <c r="R965" t="inlineStr"/>
+      <c r="R965" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
@@ -54553,7 +54565,387 @@
       <c r="Q966" t="n">
         <v>0</v>
       </c>
-      <c r="R966" t="inlineStr"/>
+      <c r="R966" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="2" t="n">
+        <v>45562.38541666666</v>
+      </c>
+      <c r="B967" t="n">
+        <v>323.8999938964844</v>
+      </c>
+      <c r="C967" t="n">
+        <v>325</v>
+      </c>
+      <c r="D967" t="n">
+        <v>320</v>
+      </c>
+      <c r="E967" t="n">
+        <v>321</v>
+      </c>
+      <c r="F967" t="n">
+        <v>321</v>
+      </c>
+      <c r="G967" t="n">
+        <v>36765</v>
+      </c>
+      <c r="H967" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I967" t="n">
+        <v>9</v>
+      </c>
+      <c r="J967" t="n">
+        <v>27</v>
+      </c>
+      <c r="K967" t="n">
+        <v>9</v>
+      </c>
+      <c r="L967" t="n">
+        <v>15</v>
+      </c>
+      <c r="M967" t="n">
+        <v>0</v>
+      </c>
+      <c r="N967" t="n">
+        <v>39</v>
+      </c>
+      <c r="O967" t="n">
+        <v>0</v>
+      </c>
+      <c r="P967" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q967" t="n">
+        <v>0</v>
+      </c>
+      <c r="R967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="2" t="n">
+        <v>45562.42708333334</v>
+      </c>
+      <c r="B968" t="n">
+        <v>320.1000061035156</v>
+      </c>
+      <c r="C968" t="n">
+        <v>321</v>
+      </c>
+      <c r="D968" t="n">
+        <v>318.8999938964844</v>
+      </c>
+      <c r="E968" t="n">
+        <v>318.8999938964844</v>
+      </c>
+      <c r="F968" t="n">
+        <v>318.8999938964844</v>
+      </c>
+      <c r="G968" t="n">
+        <v>32448</v>
+      </c>
+      <c r="H968" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I968" t="n">
+        <v>9</v>
+      </c>
+      <c r="J968" t="n">
+        <v>27</v>
+      </c>
+      <c r="K968" t="n">
+        <v>10</v>
+      </c>
+      <c r="L968" t="n">
+        <v>15</v>
+      </c>
+      <c r="M968" t="n">
+        <v>0</v>
+      </c>
+      <c r="N968" t="n">
+        <v>39</v>
+      </c>
+      <c r="O968" t="n">
+        <v>0</v>
+      </c>
+      <c r="P968" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q968" t="n">
+        <v>0</v>
+      </c>
+      <c r="R968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="2" t="n">
+        <v>45562.46875</v>
+      </c>
+      <c r="B969" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="C969" t="n">
+        <v>319.8999938964844</v>
+      </c>
+      <c r="D969" t="n">
+        <v>315</v>
+      </c>
+      <c r="E969" t="n">
+        <v>317.6000061035156</v>
+      </c>
+      <c r="F969" t="n">
+        <v>317.6000061035156</v>
+      </c>
+      <c r="G969" t="n">
+        <v>37061</v>
+      </c>
+      <c r="H969" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I969" t="n">
+        <v>9</v>
+      </c>
+      <c r="J969" t="n">
+        <v>27</v>
+      </c>
+      <c r="K969" t="n">
+        <v>11</v>
+      </c>
+      <c r="L969" t="n">
+        <v>15</v>
+      </c>
+      <c r="M969" t="n">
+        <v>0</v>
+      </c>
+      <c r="N969" t="n">
+        <v>39</v>
+      </c>
+      <c r="O969" t="n">
+        <v>0</v>
+      </c>
+      <c r="P969" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q969" t="n">
+        <v>0</v>
+      </c>
+      <c r="R969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="2" t="n">
+        <v>45562.51041666666</v>
+      </c>
+      <c r="B970" t="n">
+        <v>317</v>
+      </c>
+      <c r="C970" t="n">
+        <v>320</v>
+      </c>
+      <c r="D970" t="n">
+        <v>316</v>
+      </c>
+      <c r="E970" t="n">
+        <v>318</v>
+      </c>
+      <c r="F970" t="n">
+        <v>318</v>
+      </c>
+      <c r="G970" t="n">
+        <v>17835</v>
+      </c>
+      <c r="H970" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I970" t="n">
+        <v>9</v>
+      </c>
+      <c r="J970" t="n">
+        <v>27</v>
+      </c>
+      <c r="K970" t="n">
+        <v>12</v>
+      </c>
+      <c r="L970" t="n">
+        <v>15</v>
+      </c>
+      <c r="M970" t="n">
+        <v>0</v>
+      </c>
+      <c r="N970" t="n">
+        <v>39</v>
+      </c>
+      <c r="O970" t="n">
+        <v>0</v>
+      </c>
+      <c r="P970" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q970" t="n">
+        <v>0</v>
+      </c>
+      <c r="R970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="2" t="n">
+        <v>45562.55208333334</v>
+      </c>
+      <c r="B971" t="n">
+        <v>318</v>
+      </c>
+      <c r="C971" t="n">
+        <v>319.3999938964844</v>
+      </c>
+      <c r="D971" t="n">
+        <v>316.7999877929688</v>
+      </c>
+      <c r="E971" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="F971" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="G971" t="n">
+        <v>39592</v>
+      </c>
+      <c r="H971" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I971" t="n">
+        <v>9</v>
+      </c>
+      <c r="J971" t="n">
+        <v>27</v>
+      </c>
+      <c r="K971" t="n">
+        <v>13</v>
+      </c>
+      <c r="L971" t="n">
+        <v>15</v>
+      </c>
+      <c r="M971" t="n">
+        <v>0</v>
+      </c>
+      <c r="N971" t="n">
+        <v>39</v>
+      </c>
+      <c r="O971" t="n">
+        <v>0</v>
+      </c>
+      <c r="P971" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q971" t="n">
+        <v>0</v>
+      </c>
+      <c r="R971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="2" t="n">
+        <v>45562.59375</v>
+      </c>
+      <c r="B972" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="C972" t="n">
+        <v>318</v>
+      </c>
+      <c r="D972" t="n">
+        <v>316.1499938964844</v>
+      </c>
+      <c r="E972" t="n">
+        <v>317</v>
+      </c>
+      <c r="F972" t="n">
+        <v>317</v>
+      </c>
+      <c r="G972" t="n">
+        <v>21533</v>
+      </c>
+      <c r="H972" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I972" t="n">
+        <v>9</v>
+      </c>
+      <c r="J972" t="n">
+        <v>27</v>
+      </c>
+      <c r="K972" t="n">
+        <v>14</v>
+      </c>
+      <c r="L972" t="n">
+        <v>15</v>
+      </c>
+      <c r="M972" t="n">
+        <v>0</v>
+      </c>
+      <c r="N972" t="n">
+        <v>39</v>
+      </c>
+      <c r="O972" t="n">
+        <v>0</v>
+      </c>
+      <c r="P972" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q972" t="n">
+        <v>0</v>
+      </c>
+      <c r="R972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="2" t="n">
+        <v>45562.63541666666</v>
+      </c>
+      <c r="B973" t="n">
+        <v>317</v>
+      </c>
+      <c r="C973" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="D973" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="E973" t="n">
+        <v>317.3500061035156</v>
+      </c>
+      <c r="F973" t="n">
+        <v>317.3500061035156</v>
+      </c>
+      <c r="G973" t="n">
+        <v>14891</v>
+      </c>
+      <c r="H973" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I973" t="n">
+        <v>9</v>
+      </c>
+      <c r="J973" t="n">
+        <v>27</v>
+      </c>
+      <c r="K973" t="n">
+        <v>15</v>
+      </c>
+      <c r="L973" t="n">
+        <v>15</v>
+      </c>
+      <c r="M973" t="n">
+        <v>0</v>
+      </c>
+      <c r="N973" t="n">
+        <v>39</v>
+      </c>
+      <c r="O973" t="n">
+        <v>0</v>
+      </c>
+      <c r="P973" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q973" t="n">
+        <v>0</v>
+      </c>
+      <c r="R973" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R973"/>
+  <dimension ref="A1:R980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54613,7 +54613,7 @@
         <v>39</v>
       </c>
       <c r="O967" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P967" t="n">
         <v>0</v>
@@ -54621,7 +54621,9 @@
       <c r="Q967" t="n">
         <v>0</v>
       </c>
-      <c r="R967" t="inlineStr"/>
+      <c r="R967" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
@@ -54675,7 +54677,9 @@
       <c r="Q968" t="n">
         <v>0</v>
       </c>
-      <c r="R968" t="inlineStr"/>
+      <c r="R968" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
@@ -54729,7 +54733,9 @@
       <c r="Q969" t="n">
         <v>0</v>
       </c>
-      <c r="R969" t="inlineStr"/>
+      <c r="R969" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="970">
       <c r="A970" s="2" t="n">
@@ -54783,7 +54789,9 @@
       <c r="Q970" t="n">
         <v>0</v>
       </c>
-      <c r="R970" t="inlineStr"/>
+      <c r="R970" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
@@ -54837,7 +54845,9 @@
       <c r="Q971" t="n">
         <v>0</v>
       </c>
-      <c r="R971" t="inlineStr"/>
+      <c r="R971" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
@@ -54891,7 +54901,9 @@
       <c r="Q972" t="n">
         <v>0</v>
       </c>
-      <c r="R972" t="inlineStr"/>
+      <c r="R972" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="973">
       <c r="A973" s="2" t="n">
@@ -54945,7 +54957,387 @@
       <c r="Q973" t="n">
         <v>0</v>
       </c>
-      <c r="R973" t="inlineStr"/>
+      <c r="R973" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="2" t="n">
+        <v>45565.38541666666</v>
+      </c>
+      <c r="B974" t="n">
+        <v>318</v>
+      </c>
+      <c r="C974" t="n">
+        <v>319.8999938964844</v>
+      </c>
+      <c r="D974" t="n">
+        <v>313.25</v>
+      </c>
+      <c r="E974" t="n">
+        <v>314.75</v>
+      </c>
+      <c r="F974" t="n">
+        <v>314.75</v>
+      </c>
+      <c r="G974" t="n">
+        <v>0</v>
+      </c>
+      <c r="H974" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I974" t="n">
+        <v>9</v>
+      </c>
+      <c r="J974" t="n">
+        <v>30</v>
+      </c>
+      <c r="K974" t="n">
+        <v>9</v>
+      </c>
+      <c r="L974" t="n">
+        <v>15</v>
+      </c>
+      <c r="M974" t="n">
+        <v>0</v>
+      </c>
+      <c r="N974" t="n">
+        <v>40</v>
+      </c>
+      <c r="O974" t="n">
+        <v>0</v>
+      </c>
+      <c r="P974" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q974" t="n">
+        <v>0</v>
+      </c>
+      <c r="R974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="2" t="n">
+        <v>45565.42708333334</v>
+      </c>
+      <c r="B975" t="n">
+        <v>314.6000061035156</v>
+      </c>
+      <c r="C975" t="n">
+        <v>315.9500122070312</v>
+      </c>
+      <c r="D975" t="n">
+        <v>313.7999877929688</v>
+      </c>
+      <c r="E975" t="n">
+        <v>315</v>
+      </c>
+      <c r="F975" t="n">
+        <v>315</v>
+      </c>
+      <c r="G975" t="n">
+        <v>28931</v>
+      </c>
+      <c r="H975" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I975" t="n">
+        <v>9</v>
+      </c>
+      <c r="J975" t="n">
+        <v>30</v>
+      </c>
+      <c r="K975" t="n">
+        <v>10</v>
+      </c>
+      <c r="L975" t="n">
+        <v>15</v>
+      </c>
+      <c r="M975" t="n">
+        <v>0</v>
+      </c>
+      <c r="N975" t="n">
+        <v>40</v>
+      </c>
+      <c r="O975" t="n">
+        <v>0</v>
+      </c>
+      <c r="P975" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q975" t="n">
+        <v>0</v>
+      </c>
+      <c r="R975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="2" t="n">
+        <v>45565.46875</v>
+      </c>
+      <c r="B976" t="n">
+        <v>315</v>
+      </c>
+      <c r="C976" t="n">
+        <v>315</v>
+      </c>
+      <c r="D976" t="n">
+        <v>313.2000122070312</v>
+      </c>
+      <c r="E976" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="F976" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="G976" t="n">
+        <v>30922</v>
+      </c>
+      <c r="H976" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I976" t="n">
+        <v>9</v>
+      </c>
+      <c r="J976" t="n">
+        <v>30</v>
+      </c>
+      <c r="K976" t="n">
+        <v>11</v>
+      </c>
+      <c r="L976" t="n">
+        <v>15</v>
+      </c>
+      <c r="M976" t="n">
+        <v>0</v>
+      </c>
+      <c r="N976" t="n">
+        <v>40</v>
+      </c>
+      <c r="O976" t="n">
+        <v>0</v>
+      </c>
+      <c r="P976" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q976" t="n">
+        <v>0</v>
+      </c>
+      <c r="R976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="2" t="n">
+        <v>45565.51041666666</v>
+      </c>
+      <c r="B977" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="C977" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="D977" t="n">
+        <v>309.6000061035156</v>
+      </c>
+      <c r="E977" t="n">
+        <v>311.75</v>
+      </c>
+      <c r="F977" t="n">
+        <v>311.75</v>
+      </c>
+      <c r="G977" t="n">
+        <v>65007</v>
+      </c>
+      <c r="H977" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I977" t="n">
+        <v>9</v>
+      </c>
+      <c r="J977" t="n">
+        <v>30</v>
+      </c>
+      <c r="K977" t="n">
+        <v>12</v>
+      </c>
+      <c r="L977" t="n">
+        <v>15</v>
+      </c>
+      <c r="M977" t="n">
+        <v>0</v>
+      </c>
+      <c r="N977" t="n">
+        <v>40</v>
+      </c>
+      <c r="O977" t="n">
+        <v>0</v>
+      </c>
+      <c r="P977" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q977" t="n">
+        <v>0</v>
+      </c>
+      <c r="R977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="2" t="n">
+        <v>45565.55208333334</v>
+      </c>
+      <c r="B978" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="C978" t="n">
+        <v>312</v>
+      </c>
+      <c r="D978" t="n">
+        <v>309.7000122070312</v>
+      </c>
+      <c r="E978" t="n">
+        <v>311.75</v>
+      </c>
+      <c r="F978" t="n">
+        <v>311.75</v>
+      </c>
+      <c r="G978" t="n">
+        <v>28108</v>
+      </c>
+      <c r="H978" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I978" t="n">
+        <v>9</v>
+      </c>
+      <c r="J978" t="n">
+        <v>30</v>
+      </c>
+      <c r="K978" t="n">
+        <v>13</v>
+      </c>
+      <c r="L978" t="n">
+        <v>15</v>
+      </c>
+      <c r="M978" t="n">
+        <v>0</v>
+      </c>
+      <c r="N978" t="n">
+        <v>40</v>
+      </c>
+      <c r="O978" t="n">
+        <v>0</v>
+      </c>
+      <c r="P978" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q978" t="n">
+        <v>2</v>
+      </c>
+      <c r="R978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="2" t="n">
+        <v>45565.59375</v>
+      </c>
+      <c r="B979" t="n">
+        <v>311.7000122070312</v>
+      </c>
+      <c r="C979" t="n">
+        <v>314.9500122070312</v>
+      </c>
+      <c r="D979" t="n">
+        <v>310</v>
+      </c>
+      <c r="E979" t="n">
+        <v>314.5</v>
+      </c>
+      <c r="F979" t="n">
+        <v>314.5</v>
+      </c>
+      <c r="G979" t="n">
+        <v>35684</v>
+      </c>
+      <c r="H979" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I979" t="n">
+        <v>9</v>
+      </c>
+      <c r="J979" t="n">
+        <v>30</v>
+      </c>
+      <c r="K979" t="n">
+        <v>14</v>
+      </c>
+      <c r="L979" t="n">
+        <v>15</v>
+      </c>
+      <c r="M979" t="n">
+        <v>0</v>
+      </c>
+      <c r="N979" t="n">
+        <v>40</v>
+      </c>
+      <c r="O979" t="n">
+        <v>0</v>
+      </c>
+      <c r="P979" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q979" t="n">
+        <v>0</v>
+      </c>
+      <c r="R979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="2" t="n">
+        <v>45565.63541666666</v>
+      </c>
+      <c r="B980" t="n">
+        <v>313.7999877929688</v>
+      </c>
+      <c r="C980" t="n">
+        <v>316.2999877929688</v>
+      </c>
+      <c r="D980" t="n">
+        <v>313.6000061035156</v>
+      </c>
+      <c r="E980" t="n">
+        <v>313.8500061035156</v>
+      </c>
+      <c r="F980" t="n">
+        <v>313.8500061035156</v>
+      </c>
+      <c r="G980" t="n">
+        <v>15119</v>
+      </c>
+      <c r="H980" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I980" t="n">
+        <v>9</v>
+      </c>
+      <c r="J980" t="n">
+        <v>30</v>
+      </c>
+      <c r="K980" t="n">
+        <v>15</v>
+      </c>
+      <c r="L980" t="n">
+        <v>15</v>
+      </c>
+      <c r="M980" t="n">
+        <v>0</v>
+      </c>
+      <c r="N980" t="n">
+        <v>40</v>
+      </c>
+      <c r="O980" t="n">
+        <v>0</v>
+      </c>
+      <c r="P980" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q980" t="n">
+        <v>0</v>
+      </c>
+      <c r="R980" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R980"/>
+  <dimension ref="A1:R987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55013,7 +55013,9 @@
       <c r="Q974" t="n">
         <v>0</v>
       </c>
-      <c r="R974" t="inlineStr"/>
+      <c r="R974" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="975">
       <c r="A975" s="2" t="n">
@@ -55067,7 +55069,9 @@
       <c r="Q975" t="n">
         <v>0</v>
       </c>
-      <c r="R975" t="inlineStr"/>
+      <c r="R975" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
@@ -55121,7 +55125,9 @@
       <c r="Q976" t="n">
         <v>0</v>
       </c>
-      <c r="R976" t="inlineStr"/>
+      <c r="R976" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
@@ -55167,7 +55173,7 @@
         <v>40</v>
       </c>
       <c r="O977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P977" t="n">
         <v>0</v>
@@ -55175,7 +55181,9 @@
       <c r="Q977" t="n">
         <v>0</v>
       </c>
-      <c r="R977" t="inlineStr"/>
+      <c r="R977" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="978">
       <c r="A978" s="2" t="n">
@@ -55229,7 +55237,9 @@
       <c r="Q978" t="n">
         <v>2</v>
       </c>
-      <c r="R978" t="inlineStr"/>
+      <c r="R978" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
@@ -55283,7 +55293,9 @@
       <c r="Q979" t="n">
         <v>0</v>
       </c>
-      <c r="R979" t="inlineStr"/>
+      <c r="R979" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
@@ -55337,7 +55349,387 @@
       <c r="Q980" t="n">
         <v>0</v>
       </c>
-      <c r="R980" t="inlineStr"/>
+      <c r="R980" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="2" t="n">
+        <v>45566.38541666666</v>
+      </c>
+      <c r="B981" t="n">
+        <v>319.75</v>
+      </c>
+      <c r="C981" t="n">
+        <v>324.7999877929688</v>
+      </c>
+      <c r="D981" t="n">
+        <v>317</v>
+      </c>
+      <c r="E981" t="n">
+        <v>321</v>
+      </c>
+      <c r="F981" t="n">
+        <v>321</v>
+      </c>
+      <c r="G981" t="n">
+        <v>57552</v>
+      </c>
+      <c r="H981" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I981" t="n">
+        <v>10</v>
+      </c>
+      <c r="J981" t="n">
+        <v>1</v>
+      </c>
+      <c r="K981" t="n">
+        <v>9</v>
+      </c>
+      <c r="L981" t="n">
+        <v>15</v>
+      </c>
+      <c r="M981" t="n">
+        <v>0</v>
+      </c>
+      <c r="N981" t="n">
+        <v>40</v>
+      </c>
+      <c r="O981" t="n">
+        <v>0</v>
+      </c>
+      <c r="P981" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q981" t="n">
+        <v>0</v>
+      </c>
+      <c r="R981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="2" t="n">
+        <v>45566.42708333334</v>
+      </c>
+      <c r="B982" t="n">
+        <v>321</v>
+      </c>
+      <c r="C982" t="n">
+        <v>321</v>
+      </c>
+      <c r="D982" t="n">
+        <v>317</v>
+      </c>
+      <c r="E982" t="n">
+        <v>319</v>
+      </c>
+      <c r="F982" t="n">
+        <v>319</v>
+      </c>
+      <c r="G982" t="n">
+        <v>14168</v>
+      </c>
+      <c r="H982" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I982" t="n">
+        <v>10</v>
+      </c>
+      <c r="J982" t="n">
+        <v>1</v>
+      </c>
+      <c r="K982" t="n">
+        <v>10</v>
+      </c>
+      <c r="L982" t="n">
+        <v>15</v>
+      </c>
+      <c r="M982" t="n">
+        <v>0</v>
+      </c>
+      <c r="N982" t="n">
+        <v>40</v>
+      </c>
+      <c r="O982" t="n">
+        <v>0</v>
+      </c>
+      <c r="P982" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q982" t="n">
+        <v>0</v>
+      </c>
+      <c r="R982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="2" t="n">
+        <v>45566.46875</v>
+      </c>
+      <c r="B983" t="n">
+        <v>319</v>
+      </c>
+      <c r="C983" t="n">
+        <v>322</v>
+      </c>
+      <c r="D983" t="n">
+        <v>317.75</v>
+      </c>
+      <c r="E983" t="n">
+        <v>319</v>
+      </c>
+      <c r="F983" t="n">
+        <v>319</v>
+      </c>
+      <c r="G983" t="n">
+        <v>27357</v>
+      </c>
+      <c r="H983" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I983" t="n">
+        <v>10</v>
+      </c>
+      <c r="J983" t="n">
+        <v>1</v>
+      </c>
+      <c r="K983" t="n">
+        <v>11</v>
+      </c>
+      <c r="L983" t="n">
+        <v>15</v>
+      </c>
+      <c r="M983" t="n">
+        <v>0</v>
+      </c>
+      <c r="N983" t="n">
+        <v>40</v>
+      </c>
+      <c r="O983" t="n">
+        <v>0</v>
+      </c>
+      <c r="P983" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q983" t="n">
+        <v>0</v>
+      </c>
+      <c r="R983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="2" t="n">
+        <v>45566.51041666666</v>
+      </c>
+      <c r="B984" t="n">
+        <v>319</v>
+      </c>
+      <c r="C984" t="n">
+        <v>319</v>
+      </c>
+      <c r="D984" t="n">
+        <v>316.3999938964844</v>
+      </c>
+      <c r="E984" t="n">
+        <v>317</v>
+      </c>
+      <c r="F984" t="n">
+        <v>317</v>
+      </c>
+      <c r="G984" t="n">
+        <v>18256</v>
+      </c>
+      <c r="H984" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I984" t="n">
+        <v>10</v>
+      </c>
+      <c r="J984" t="n">
+        <v>1</v>
+      </c>
+      <c r="K984" t="n">
+        <v>12</v>
+      </c>
+      <c r="L984" t="n">
+        <v>15</v>
+      </c>
+      <c r="M984" t="n">
+        <v>0</v>
+      </c>
+      <c r="N984" t="n">
+        <v>40</v>
+      </c>
+      <c r="O984" t="n">
+        <v>0</v>
+      </c>
+      <c r="P984" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q984" t="n">
+        <v>0</v>
+      </c>
+      <c r="R984" t="inlineStr"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="2" t="n">
+        <v>45566.55208333334</v>
+      </c>
+      <c r="B985" t="n">
+        <v>317</v>
+      </c>
+      <c r="C985" t="n">
+        <v>317</v>
+      </c>
+      <c r="D985" t="n">
+        <v>316</v>
+      </c>
+      <c r="E985" t="n">
+        <v>316.6499938964844</v>
+      </c>
+      <c r="F985" t="n">
+        <v>316.6499938964844</v>
+      </c>
+      <c r="G985" t="n">
+        <v>15973</v>
+      </c>
+      <c r="H985" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I985" t="n">
+        <v>10</v>
+      </c>
+      <c r="J985" t="n">
+        <v>1</v>
+      </c>
+      <c r="K985" t="n">
+        <v>13</v>
+      </c>
+      <c r="L985" t="n">
+        <v>15</v>
+      </c>
+      <c r="M985" t="n">
+        <v>0</v>
+      </c>
+      <c r="N985" t="n">
+        <v>40</v>
+      </c>
+      <c r="O985" t="n">
+        <v>0</v>
+      </c>
+      <c r="P985" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q985" t="n">
+        <v>0</v>
+      </c>
+      <c r="R985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="2" t="n">
+        <v>45566.59375</v>
+      </c>
+      <c r="B986" t="n">
+        <v>316.6499938964844</v>
+      </c>
+      <c r="C986" t="n">
+        <v>316.6499938964844</v>
+      </c>
+      <c r="D986" t="n">
+        <v>310.5</v>
+      </c>
+      <c r="E986" t="n">
+        <v>310.75</v>
+      </c>
+      <c r="F986" t="n">
+        <v>310.75</v>
+      </c>
+      <c r="G986" t="n">
+        <v>85462</v>
+      </c>
+      <c r="H986" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I986" t="n">
+        <v>10</v>
+      </c>
+      <c r="J986" t="n">
+        <v>1</v>
+      </c>
+      <c r="K986" t="n">
+        <v>14</v>
+      </c>
+      <c r="L986" t="n">
+        <v>15</v>
+      </c>
+      <c r="M986" t="n">
+        <v>0</v>
+      </c>
+      <c r="N986" t="n">
+        <v>40</v>
+      </c>
+      <c r="O986" t="n">
+        <v>0</v>
+      </c>
+      <c r="P986" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q986" t="n">
+        <v>0</v>
+      </c>
+      <c r="R986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="2" t="n">
+        <v>45566.63541666666</v>
+      </c>
+      <c r="B987" t="n">
+        <v>310.75</v>
+      </c>
+      <c r="C987" t="n">
+        <v>315</v>
+      </c>
+      <c r="D987" t="n">
+        <v>310.7000122070312</v>
+      </c>
+      <c r="E987" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="F987" t="n">
+        <v>311.5</v>
+      </c>
+      <c r="G987" t="n">
+        <v>17244</v>
+      </c>
+      <c r="H987" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I987" t="n">
+        <v>10</v>
+      </c>
+      <c r="J987" t="n">
+        <v>1</v>
+      </c>
+      <c r="K987" t="n">
+        <v>15</v>
+      </c>
+      <c r="L987" t="n">
+        <v>15</v>
+      </c>
+      <c r="M987" t="n">
+        <v>0</v>
+      </c>
+      <c r="N987" t="n">
+        <v>40</v>
+      </c>
+      <c r="O987" t="n">
+        <v>0</v>
+      </c>
+      <c r="P987" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q987" t="n">
+        <v>0</v>
+      </c>
+      <c r="R987" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -55405,7 +55405,9 @@
       <c r="Q981" t="n">
         <v>0</v>
       </c>
-      <c r="R981" t="inlineStr"/>
+      <c r="R981" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
@@ -55459,7 +55461,9 @@
       <c r="Q982" t="n">
         <v>0</v>
       </c>
-      <c r="R982" t="inlineStr"/>
+      <c r="R982" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
@@ -55513,7 +55517,9 @@
       <c r="Q983" t="n">
         <v>0</v>
       </c>
-      <c r="R983" t="inlineStr"/>
+      <c r="R983" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
@@ -55567,7 +55573,9 @@
       <c r="Q984" t="n">
         <v>0</v>
       </c>
-      <c r="R984" t="inlineStr"/>
+      <c r="R984" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
@@ -55621,7 +55629,9 @@
       <c r="Q985" t="n">
         <v>0</v>
       </c>
-      <c r="R985" t="inlineStr"/>
+      <c r="R985" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
@@ -55675,7 +55685,9 @@
       <c r="Q986" t="n">
         <v>0</v>
       </c>
-      <c r="R986" t="inlineStr"/>
+      <c r="R986" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
@@ -55729,7 +55741,9 @@
       <c r="Q987" t="n">
         <v>0</v>
       </c>
-      <c r="R987" t="inlineStr"/>
+      <c r="R987" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R987"/>
+  <dimension ref="A1:R994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55397,7 +55397,7 @@
         <v>40</v>
       </c>
       <c r="O981" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P981" t="n">
         <v>0</v>
@@ -55744,6 +55744,384 @@
       <c r="R987" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="2" t="n">
+        <v>45568.38541666666</v>
+      </c>
+      <c r="B988" t="n">
+        <v>310</v>
+      </c>
+      <c r="C988" t="n">
+        <v>319.3999938964844</v>
+      </c>
+      <c r="D988" t="n">
+        <v>306.1000061035156</v>
+      </c>
+      <c r="E988" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="F988" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="G988" t="n">
+        <v>0</v>
+      </c>
+      <c r="H988" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I988" t="n">
+        <v>10</v>
+      </c>
+      <c r="J988" t="n">
+        <v>3</v>
+      </c>
+      <c r="K988" t="n">
+        <v>9</v>
+      </c>
+      <c r="L988" t="n">
+        <v>15</v>
+      </c>
+      <c r="M988" t="n">
+        <v>0</v>
+      </c>
+      <c r="N988" t="n">
+        <v>40</v>
+      </c>
+      <c r="O988" t="n">
+        <v>0</v>
+      </c>
+      <c r="P988" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q988" t="n">
+        <v>0</v>
+      </c>
+      <c r="R988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="2" t="n">
+        <v>45568.42708333334</v>
+      </c>
+      <c r="B989" t="n">
+        <v>315</v>
+      </c>
+      <c r="C989" t="n">
+        <v>316.7000122070312</v>
+      </c>
+      <c r="D989" t="n">
+        <v>312</v>
+      </c>
+      <c r="E989" t="n">
+        <v>312.2000122070312</v>
+      </c>
+      <c r="F989" t="n">
+        <v>312.2000122070312</v>
+      </c>
+      <c r="G989" t="n">
+        <v>20487</v>
+      </c>
+      <c r="H989" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I989" t="n">
+        <v>10</v>
+      </c>
+      <c r="J989" t="n">
+        <v>3</v>
+      </c>
+      <c r="K989" t="n">
+        <v>10</v>
+      </c>
+      <c r="L989" t="n">
+        <v>15</v>
+      </c>
+      <c r="M989" t="n">
+        <v>0</v>
+      </c>
+      <c r="N989" t="n">
+        <v>40</v>
+      </c>
+      <c r="O989" t="n">
+        <v>0</v>
+      </c>
+      <c r="P989" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q989" t="n">
+        <v>0</v>
+      </c>
+      <c r="R989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="2" t="n">
+        <v>45568.46875</v>
+      </c>
+      <c r="B990" t="n">
+        <v>313</v>
+      </c>
+      <c r="C990" t="n">
+        <v>313</v>
+      </c>
+      <c r="D990" t="n">
+        <v>306.1000061035156</v>
+      </c>
+      <c r="E990" t="n">
+        <v>308</v>
+      </c>
+      <c r="F990" t="n">
+        <v>308</v>
+      </c>
+      <c r="G990" t="n">
+        <v>63963</v>
+      </c>
+      <c r="H990" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I990" t="n">
+        <v>10</v>
+      </c>
+      <c r="J990" t="n">
+        <v>3</v>
+      </c>
+      <c r="K990" t="n">
+        <v>11</v>
+      </c>
+      <c r="L990" t="n">
+        <v>15</v>
+      </c>
+      <c r="M990" t="n">
+        <v>0</v>
+      </c>
+      <c r="N990" t="n">
+        <v>40</v>
+      </c>
+      <c r="O990" t="n">
+        <v>0</v>
+      </c>
+      <c r="P990" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q990" t="n">
+        <v>0</v>
+      </c>
+      <c r="R990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="2" t="n">
+        <v>45568.51041666666</v>
+      </c>
+      <c r="B991" t="n">
+        <v>308</v>
+      </c>
+      <c r="C991" t="n">
+        <v>311</v>
+      </c>
+      <c r="D991" t="n">
+        <v>307</v>
+      </c>
+      <c r="E991" t="n">
+        <v>310</v>
+      </c>
+      <c r="F991" t="n">
+        <v>310</v>
+      </c>
+      <c r="G991" t="n">
+        <v>20366</v>
+      </c>
+      <c r="H991" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I991" t="n">
+        <v>10</v>
+      </c>
+      <c r="J991" t="n">
+        <v>3</v>
+      </c>
+      <c r="K991" t="n">
+        <v>12</v>
+      </c>
+      <c r="L991" t="n">
+        <v>15</v>
+      </c>
+      <c r="M991" t="n">
+        <v>0</v>
+      </c>
+      <c r="N991" t="n">
+        <v>40</v>
+      </c>
+      <c r="O991" t="n">
+        <v>0</v>
+      </c>
+      <c r="P991" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q991" t="n">
+        <v>0</v>
+      </c>
+      <c r="R991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="2" t="n">
+        <v>45568.55208333334</v>
+      </c>
+      <c r="B992" t="n">
+        <v>310</v>
+      </c>
+      <c r="C992" t="n">
+        <v>311</v>
+      </c>
+      <c r="D992" t="n">
+        <v>307</v>
+      </c>
+      <c r="E992" t="n">
+        <v>308</v>
+      </c>
+      <c r="F992" t="n">
+        <v>308</v>
+      </c>
+      <c r="G992" t="n">
+        <v>31378</v>
+      </c>
+      <c r="H992" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I992" t="n">
+        <v>10</v>
+      </c>
+      <c r="J992" t="n">
+        <v>3</v>
+      </c>
+      <c r="K992" t="n">
+        <v>13</v>
+      </c>
+      <c r="L992" t="n">
+        <v>15</v>
+      </c>
+      <c r="M992" t="n">
+        <v>0</v>
+      </c>
+      <c r="N992" t="n">
+        <v>40</v>
+      </c>
+      <c r="O992" t="n">
+        <v>0</v>
+      </c>
+      <c r="P992" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q992" t="n">
+        <v>2</v>
+      </c>
+      <c r="R992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="2" t="n">
+        <v>45568.59375</v>
+      </c>
+      <c r="B993" t="n">
+        <v>307.6000061035156</v>
+      </c>
+      <c r="C993" t="n">
+        <v>311</v>
+      </c>
+      <c r="D993" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="E993" t="n">
+        <v>310.0499877929688</v>
+      </c>
+      <c r="F993" t="n">
+        <v>310.0499877929688</v>
+      </c>
+      <c r="G993" t="n">
+        <v>35595</v>
+      </c>
+      <c r="H993" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I993" t="n">
+        <v>10</v>
+      </c>
+      <c r="J993" t="n">
+        <v>3</v>
+      </c>
+      <c r="K993" t="n">
+        <v>14</v>
+      </c>
+      <c r="L993" t="n">
+        <v>15</v>
+      </c>
+      <c r="M993" t="n">
+        <v>0</v>
+      </c>
+      <c r="N993" t="n">
+        <v>40</v>
+      </c>
+      <c r="O993" t="n">
+        <v>0</v>
+      </c>
+      <c r="P993" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q993" t="n">
+        <v>0</v>
+      </c>
+      <c r="R993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="2" t="n">
+        <v>45568.63541666666</v>
+      </c>
+      <c r="B994" t="n">
+        <v>311</v>
+      </c>
+      <c r="C994" t="n">
+        <v>311</v>
+      </c>
+      <c r="D994" t="n">
+        <v>309.6499938964844</v>
+      </c>
+      <c r="E994" t="n">
+        <v>310.7000122070312</v>
+      </c>
+      <c r="F994" t="n">
+        <v>310.7000122070312</v>
+      </c>
+      <c r="G994" t="n">
+        <v>15012</v>
+      </c>
+      <c r="H994" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I994" t="n">
+        <v>10</v>
+      </c>
+      <c r="J994" t="n">
+        <v>3</v>
+      </c>
+      <c r="K994" t="n">
+        <v>15</v>
+      </c>
+      <c r="L994" t="n">
+        <v>15</v>
+      </c>
+      <c r="M994" t="n">
+        <v>0</v>
+      </c>
+      <c r="N994" t="n">
+        <v>40</v>
+      </c>
+      <c r="O994" t="n">
+        <v>0</v>
+      </c>
+      <c r="P994" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q994" t="n">
+        <v>0</v>
+      </c>
+      <c r="R994" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R994"/>
+  <dimension ref="A1:R1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55789,7 +55789,7 @@
         <v>40</v>
       </c>
       <c r="O988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P988" t="n">
         <v>0</v>
@@ -55797,7 +55797,9 @@
       <c r="Q988" t="n">
         <v>0</v>
       </c>
-      <c r="R988" t="inlineStr"/>
+      <c r="R988" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="989">
       <c r="A989" s="2" t="n">
@@ -55851,7 +55853,9 @@
       <c r="Q989" t="n">
         <v>0</v>
       </c>
-      <c r="R989" t="inlineStr"/>
+      <c r="R989" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
@@ -55897,7 +55901,7 @@
         <v>40</v>
       </c>
       <c r="O990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P990" t="n">
         <v>0</v>
@@ -55905,7 +55909,9 @@
       <c r="Q990" t="n">
         <v>0</v>
       </c>
-      <c r="R990" t="inlineStr"/>
+      <c r="R990" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
@@ -55959,7 +55965,9 @@
       <c r="Q991" t="n">
         <v>0</v>
       </c>
-      <c r="R991" t="inlineStr"/>
+      <c r="R991" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="992">
       <c r="A992" s="2" t="n">
@@ -56013,7 +56021,9 @@
       <c r="Q992" t="n">
         <v>2</v>
       </c>
-      <c r="R992" t="inlineStr"/>
+      <c r="R992" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
@@ -56067,7 +56077,9 @@
       <c r="Q993" t="n">
         <v>0</v>
       </c>
-      <c r="R993" t="inlineStr"/>
+      <c r="R993" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
@@ -56121,7 +56133,387 @@
       <c r="Q994" t="n">
         <v>0</v>
       </c>
-      <c r="R994" t="inlineStr"/>
+      <c r="R994" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="2" t="n">
+        <v>45569.38541666666</v>
+      </c>
+      <c r="B995" t="n">
+        <v>314.8999938964844</v>
+      </c>
+      <c r="C995" t="n">
+        <v>316</v>
+      </c>
+      <c r="D995" t="n">
+        <v>308.1000061035156</v>
+      </c>
+      <c r="E995" t="n">
+        <v>313.8500061035156</v>
+      </c>
+      <c r="F995" t="n">
+        <v>313.8500061035156</v>
+      </c>
+      <c r="G995" t="n">
+        <v>0</v>
+      </c>
+      <c r="H995" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I995" t="n">
+        <v>10</v>
+      </c>
+      <c r="J995" t="n">
+        <v>4</v>
+      </c>
+      <c r="K995" t="n">
+        <v>9</v>
+      </c>
+      <c r="L995" t="n">
+        <v>15</v>
+      </c>
+      <c r="M995" t="n">
+        <v>0</v>
+      </c>
+      <c r="N995" t="n">
+        <v>40</v>
+      </c>
+      <c r="O995" t="n">
+        <v>0</v>
+      </c>
+      <c r="P995" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q995" t="n">
+        <v>0</v>
+      </c>
+      <c r="R995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="2" t="n">
+        <v>45569.42708333334</v>
+      </c>
+      <c r="B996" t="n">
+        <v>313.75</v>
+      </c>
+      <c r="C996" t="n">
+        <v>315.75</v>
+      </c>
+      <c r="D996" t="n">
+        <v>311</v>
+      </c>
+      <c r="E996" t="n">
+        <v>314.9500122070312</v>
+      </c>
+      <c r="F996" t="n">
+        <v>314.9500122070312</v>
+      </c>
+      <c r="G996" t="n">
+        <v>66430</v>
+      </c>
+      <c r="H996" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I996" t="n">
+        <v>10</v>
+      </c>
+      <c r="J996" t="n">
+        <v>4</v>
+      </c>
+      <c r="K996" t="n">
+        <v>10</v>
+      </c>
+      <c r="L996" t="n">
+        <v>15</v>
+      </c>
+      <c r="M996" t="n">
+        <v>0</v>
+      </c>
+      <c r="N996" t="n">
+        <v>40</v>
+      </c>
+      <c r="O996" t="n">
+        <v>0</v>
+      </c>
+      <c r="P996" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q996" t="n">
+        <v>0</v>
+      </c>
+      <c r="R996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="2" t="n">
+        <v>45569.46875</v>
+      </c>
+      <c r="B997" t="n">
+        <v>314.9500122070312</v>
+      </c>
+      <c r="C997" t="n">
+        <v>319</v>
+      </c>
+      <c r="D997" t="n">
+        <v>314</v>
+      </c>
+      <c r="E997" t="n">
+        <v>318.8999938964844</v>
+      </c>
+      <c r="F997" t="n">
+        <v>318.8999938964844</v>
+      </c>
+      <c r="G997" t="n">
+        <v>67977</v>
+      </c>
+      <c r="H997" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I997" t="n">
+        <v>10</v>
+      </c>
+      <c r="J997" t="n">
+        <v>4</v>
+      </c>
+      <c r="K997" t="n">
+        <v>11</v>
+      </c>
+      <c r="L997" t="n">
+        <v>15</v>
+      </c>
+      <c r="M997" t="n">
+        <v>0</v>
+      </c>
+      <c r="N997" t="n">
+        <v>40</v>
+      </c>
+      <c r="O997" t="n">
+        <v>0</v>
+      </c>
+      <c r="P997" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>0</v>
+      </c>
+      <c r="R997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="2" t="n">
+        <v>45569.51041666666</v>
+      </c>
+      <c r="B998" t="n">
+        <v>318.8999938964844</v>
+      </c>
+      <c r="C998" t="n">
+        <v>319</v>
+      </c>
+      <c r="D998" t="n">
+        <v>315</v>
+      </c>
+      <c r="E998" t="n">
+        <v>317.7999877929688</v>
+      </c>
+      <c r="F998" t="n">
+        <v>317.7999877929688</v>
+      </c>
+      <c r="G998" t="n">
+        <v>28863</v>
+      </c>
+      <c r="H998" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I998" t="n">
+        <v>10</v>
+      </c>
+      <c r="J998" t="n">
+        <v>4</v>
+      </c>
+      <c r="K998" t="n">
+        <v>12</v>
+      </c>
+      <c r="L998" t="n">
+        <v>15</v>
+      </c>
+      <c r="M998" t="n">
+        <v>0</v>
+      </c>
+      <c r="N998" t="n">
+        <v>40</v>
+      </c>
+      <c r="O998" t="n">
+        <v>0</v>
+      </c>
+      <c r="P998" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>0</v>
+      </c>
+      <c r="R998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="2" t="n">
+        <v>45569.55208333334</v>
+      </c>
+      <c r="B999" t="n">
+        <v>317.9500122070312</v>
+      </c>
+      <c r="C999" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="D999" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="E999" t="n">
+        <v>316</v>
+      </c>
+      <c r="F999" t="n">
+        <v>316</v>
+      </c>
+      <c r="G999" t="n">
+        <v>16250</v>
+      </c>
+      <c r="H999" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I999" t="n">
+        <v>10</v>
+      </c>
+      <c r="J999" t="n">
+        <v>4</v>
+      </c>
+      <c r="K999" t="n">
+        <v>13</v>
+      </c>
+      <c r="L999" t="n">
+        <v>15</v>
+      </c>
+      <c r="M999" t="n">
+        <v>0</v>
+      </c>
+      <c r="N999" t="n">
+        <v>40</v>
+      </c>
+      <c r="O999" t="n">
+        <v>0</v>
+      </c>
+      <c r="P999" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>1</v>
+      </c>
+      <c r="R999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="n">
+        <v>45569.59375</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>308.5</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>309</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>309</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>67664</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2" t="n">
+        <v>45569.63541666666</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>309</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>309</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>308</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>308</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>48263</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1001" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1001"/>
+  <dimension ref="A1:R1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56189,7 +56189,9 @@
       <c r="Q995" t="n">
         <v>0</v>
       </c>
-      <c r="R995" t="inlineStr"/>
+      <c r="R995" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
@@ -56243,7 +56245,9 @@
       <c r="Q996" t="n">
         <v>0</v>
       </c>
-      <c r="R996" t="inlineStr"/>
+      <c r="R996" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
@@ -56297,7 +56301,9 @@
       <c r="Q997" t="n">
         <v>0</v>
       </c>
-      <c r="R997" t="inlineStr"/>
+      <c r="R997" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
@@ -56351,7 +56357,9 @@
       <c r="Q998" t="n">
         <v>0</v>
       </c>
-      <c r="R998" t="inlineStr"/>
+      <c r="R998" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
@@ -56405,7 +56413,9 @@
       <c r="Q999" t="n">
         <v>1</v>
       </c>
-      <c r="R999" t="inlineStr"/>
+      <c r="R999" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
@@ -56459,7 +56469,9 @@
       <c r="Q1000" t="n">
         <v>0</v>
       </c>
-      <c r="R1000" t="inlineStr"/>
+      <c r="R1000" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
@@ -56513,7 +56525,387 @@
       <c r="Q1001" t="n">
         <v>1</v>
       </c>
-      <c r="R1001" t="inlineStr"/>
+      <c r="R1001" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>45572.38541666666</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>315</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>315</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>303.7999877929688</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>306</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>306</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>45572.42708333334</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>304.0499877929688</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>306</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>293.8999938964844</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>296</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>296</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>133539</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>45572.46875</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>306</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>295.0499877929688</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>301.2999877929688</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>301.2999877929688</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>66952</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>45572.51041666666</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>302</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>302</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>300</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>300</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>28263</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>45572.55208333334</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>300</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>303.7000122070312</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>297.1000061035156</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>298</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>298</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>51878</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45572.59375</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>301.5</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>296.1000061035156</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>299.9500122070312</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>299.9500122070312</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>49215</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45572.63541666666</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>299.9500122070312</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>300</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>297.0499877929688</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>298.1000061035156</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>298.1000061035156</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>41651</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1008" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1008"/>
+  <dimension ref="A1:R1022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56581,7 +56581,9 @@
       <c r="Q1002" t="n">
         <v>0</v>
       </c>
-      <c r="R1002" t="inlineStr"/>
+      <c r="R1002" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
@@ -56627,7 +56629,7 @@
         <v>41</v>
       </c>
       <c r="O1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1003" t="n">
         <v>0</v>
@@ -56635,7 +56637,9 @@
       <c r="Q1003" t="n">
         <v>0</v>
       </c>
-      <c r="R1003" t="inlineStr"/>
+      <c r="R1003" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
@@ -56689,7 +56693,9 @@
       <c r="Q1004" t="n">
         <v>0</v>
       </c>
-      <c r="R1004" t="inlineStr"/>
+      <c r="R1004" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
@@ -56743,7 +56749,9 @@
       <c r="Q1005" t="n">
         <v>0</v>
       </c>
-      <c r="R1005" t="inlineStr"/>
+      <c r="R1005" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
@@ -56797,7 +56805,9 @@
       <c r="Q1006" t="n">
         <v>0</v>
       </c>
-      <c r="R1006" t="inlineStr"/>
+      <c r="R1006" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
@@ -56851,7 +56861,9 @@
       <c r="Q1007" t="n">
         <v>0</v>
       </c>
-      <c r="R1007" t="inlineStr"/>
+      <c r="R1007" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
@@ -56905,7 +56917,765 @@
       <c r="Q1008" t="n">
         <v>0</v>
       </c>
-      <c r="R1008" t="inlineStr"/>
+      <c r="R1008" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45573.38541666666</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>298.8999938964844</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>312.8999938964844</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>295.0499877929688</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>311.7999877929688</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>311.7999877929688</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45573.42708333334</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>311.9500122070312</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>311.2999877929688</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>311.2999877929688</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>167371</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>45573.46875</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>311</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>308.1000061035156</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>57263</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>45573.51041666666</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>9596</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>45573.55208333334</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>3210</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>45573.59375</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>9745</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>45573.63541666666</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>3227</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>45574.38541666666</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>320.8999938964844</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>329</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>320.8999938964844</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>329</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>329</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>45574.42708333334</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>329</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>329</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>329</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>329</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>329</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>12231</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45574.46875</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>329</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>329</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>329</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>329</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>329</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>3831</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45574.51041666666</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>329</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>329</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>329</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>329</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>329</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>2877</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45574.55208333334</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>329</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>329</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>329</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>329</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>329</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>5319</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45574.59375</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>329</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>329</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>329</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>329</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>329</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>3285</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45574.63541666666</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>329</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>329</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>329</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>329</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>329</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>731</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1022" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1022"/>
+  <dimension ref="A1:R1029"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="R131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -10550,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="R180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -12510,7 +12510,7 @@
         <v>1</v>
       </c>
       <c r="R215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -16542,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="R287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -18782,7 +18782,7 @@
         <v>0</v>
       </c>
       <c r="R327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -24046,7 +24046,7 @@
         <v>0</v>
       </c>
       <c r="R421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -24718,7 +24718,7 @@
         <v>2</v>
       </c>
       <c r="R433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434">
@@ -26230,7 +26230,7 @@
         <v>2</v>
       </c>
       <c r="R460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -26734,7 +26734,7 @@
         <v>0</v>
       </c>
       <c r="R469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -29142,7 +29142,7 @@
         <v>2</v>
       </c>
       <c r="R512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513">
@@ -30206,7 +30206,7 @@
         <v>2</v>
       </c>
       <c r="R531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532">
@@ -37262,7 +37262,7 @@
         <v>0</v>
       </c>
       <c r="R657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
@@ -38382,7 +38382,7 @@
         <v>0</v>
       </c>
       <c r="R677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -39222,7 +39222,7 @@
         <v>1</v>
       </c>
       <c r="R692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693">
@@ -41126,7 +41126,7 @@
         <v>1</v>
       </c>
       <c r="R726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
@@ -41966,7 +41966,7 @@
         <v>2</v>
       </c>
       <c r="R741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742">
@@ -43086,7 +43086,7 @@
         <v>1</v>
       </c>
       <c r="R761" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762">
@@ -45830,7 +45830,7 @@
         <v>0</v>
       </c>
       <c r="R810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811">
@@ -47790,7 +47790,7 @@
         <v>2</v>
       </c>
       <c r="R845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846">
@@ -48238,7 +48238,7 @@
         <v>1</v>
       </c>
       <c r="R853" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854">
@@ -48294,7 +48294,7 @@
         <v>1</v>
       </c>
       <c r="R854" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855">
@@ -48350,7 +48350,7 @@
         <v>1</v>
       </c>
       <c r="R855" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856">
@@ -48462,7 +48462,7 @@
         <v>2</v>
       </c>
       <c r="R857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858">
@@ -50590,7 +50590,7 @@
         <v>2</v>
       </c>
       <c r="R895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896">
@@ -50646,7 +50646,7 @@
         <v>2</v>
       </c>
       <c r="R896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897">
@@ -50702,7 +50702,7 @@
         <v>2</v>
       </c>
       <c r="R897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898">
@@ -52998,7 +52998,7 @@
         <v>1</v>
       </c>
       <c r="R938" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939">
@@ -53670,7 +53670,7 @@
         <v>2</v>
       </c>
       <c r="R950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951">
@@ -54510,7 +54510,7 @@
         <v>1</v>
       </c>
       <c r="R965" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966">
@@ -56414,7 +56414,7 @@
         <v>1</v>
       </c>
       <c r="R999" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000">
@@ -56973,7 +56973,9 @@
       <c r="Q1009" t="n">
         <v>0</v>
       </c>
-      <c r="R1009" t="inlineStr"/>
+      <c r="R1009" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
@@ -57027,7 +57029,9 @@
       <c r="Q1010" t="n">
         <v>0</v>
       </c>
-      <c r="R1010" t="inlineStr"/>
+      <c r="R1010" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
@@ -57081,7 +57085,9 @@
       <c r="Q1011" t="n">
         <v>0</v>
       </c>
-      <c r="R1011" t="inlineStr"/>
+      <c r="R1011" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
@@ -57135,7 +57141,9 @@
       <c r="Q1012" t="n">
         <v>0</v>
       </c>
-      <c r="R1012" t="inlineStr"/>
+      <c r="R1012" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
@@ -57189,7 +57197,9 @@
       <c r="Q1013" t="n">
         <v>0</v>
       </c>
-      <c r="R1013" t="inlineStr"/>
+      <c r="R1013" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
@@ -57243,7 +57253,9 @@
       <c r="Q1014" t="n">
         <v>1</v>
       </c>
-      <c r="R1014" t="inlineStr"/>
+      <c r="R1014" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
@@ -57297,7 +57309,9 @@
       <c r="Q1015" t="n">
         <v>0</v>
       </c>
-      <c r="R1015" t="inlineStr"/>
+      <c r="R1015" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
@@ -57351,7 +57365,9 @@
       <c r="Q1016" t="n">
         <v>0</v>
       </c>
-      <c r="R1016" t="inlineStr"/>
+      <c r="R1016" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
@@ -57405,7 +57421,9 @@
       <c r="Q1017" t="n">
         <v>0</v>
       </c>
-      <c r="R1017" t="inlineStr"/>
+      <c r="R1017" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
@@ -57459,7 +57477,9 @@
       <c r="Q1018" t="n">
         <v>0</v>
       </c>
-      <c r="R1018" t="inlineStr"/>
+      <c r="R1018" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
@@ -57513,7 +57533,9 @@
       <c r="Q1019" t="n">
         <v>0</v>
       </c>
-      <c r="R1019" t="inlineStr"/>
+      <c r="R1019" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1020">
       <c r="A1020" s="2" t="n">
@@ -57567,7 +57589,9 @@
       <c r="Q1020" t="n">
         <v>0</v>
       </c>
-      <c r="R1020" t="inlineStr"/>
+      <c r="R1020" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" s="2" t="n">
@@ -57621,7 +57645,9 @@
       <c r="Q1021" t="n">
         <v>0</v>
       </c>
-      <c r="R1021" t="inlineStr"/>
+      <c r="R1021" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1022">
       <c r="A1022" s="2" t="n">
@@ -57675,7 +57701,387 @@
       <c r="Q1022" t="n">
         <v>0</v>
       </c>
-      <c r="R1022" t="inlineStr"/>
+      <c r="R1022" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45575.38541666666</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>345.4500122070312</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>322.8999938964844</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>337.1000061035156</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>337.1000061035156</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>323693</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45575.42708333334</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>332.1000061035156</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>335.9500122070312</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>335.9500122070312</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>73596</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45575.46875</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>335.7999877929688</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>338.1000061035156</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>334</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>336.0499877929688</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>336.0499877929688</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>48074</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45575.51041666666</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>336</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>337.8999938964844</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>335.75</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>335.75</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>29097</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45575.55208333334</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>335.0499877929688</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>335.6000061035156</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>332.0499877929688</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>332.9500122070312</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>332.9500122070312</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>34126</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45575.59375</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>332.9500122070312</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>334.25</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>329.5499877929688</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>73929</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45575.63541666666</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>333</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>331</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>331.75</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>331.75</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>26245</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1029"/>
+  <dimension ref="A1:R1036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="R131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -10550,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="R180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -12510,7 +12510,7 @@
         <v>1</v>
       </c>
       <c r="R215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -16542,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="R287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -18782,7 +18782,7 @@
         <v>0</v>
       </c>
       <c r="R327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -24046,7 +24046,7 @@
         <v>0</v>
       </c>
       <c r="R421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -24718,7 +24718,7 @@
         <v>2</v>
       </c>
       <c r="R433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -26230,7 +26230,7 @@
         <v>2</v>
       </c>
       <c r="R460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -26734,7 +26734,7 @@
         <v>0</v>
       </c>
       <c r="R469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -29142,7 +29142,7 @@
         <v>2</v>
       </c>
       <c r="R512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -30206,7 +30206,7 @@
         <v>2</v>
       </c>
       <c r="R531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -37262,7 +37262,7 @@
         <v>0</v>
       </c>
       <c r="R657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658">
@@ -38382,7 +38382,7 @@
         <v>0</v>
       </c>
       <c r="R677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678">
@@ -39222,7 +39222,7 @@
         <v>1</v>
       </c>
       <c r="R692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
@@ -41126,7 +41126,7 @@
         <v>1</v>
       </c>
       <c r="R726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727">
@@ -41966,7 +41966,7 @@
         <v>2</v>
       </c>
       <c r="R741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742">
@@ -43086,7 +43086,7 @@
         <v>1</v>
       </c>
       <c r="R761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762">
@@ -45830,7 +45830,7 @@
         <v>0</v>
       </c>
       <c r="R810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811">
@@ -47790,7 +47790,7 @@
         <v>2</v>
       </c>
       <c r="R845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846">
@@ -48238,7 +48238,7 @@
         <v>1</v>
       </c>
       <c r="R853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854">
@@ -48294,7 +48294,7 @@
         <v>1</v>
       </c>
       <c r="R854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855">
@@ -48350,7 +48350,7 @@
         <v>1</v>
       </c>
       <c r="R855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856">
@@ -48462,7 +48462,7 @@
         <v>2</v>
       </c>
       <c r="R857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858">
@@ -50590,7 +50590,7 @@
         <v>2</v>
       </c>
       <c r="R895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896">
@@ -50646,7 +50646,7 @@
         <v>2</v>
       </c>
       <c r="R896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897">
@@ -50702,7 +50702,7 @@
         <v>2</v>
       </c>
       <c r="R897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898">
@@ -52998,7 +52998,7 @@
         <v>1</v>
       </c>
       <c r="R938" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939">
@@ -53670,7 +53670,7 @@
         <v>2</v>
       </c>
       <c r="R950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951">
@@ -54510,7 +54510,7 @@
         <v>1</v>
       </c>
       <c r="R965" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966">
@@ -56414,7 +56414,7 @@
         <v>1</v>
       </c>
       <c r="R999" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000">
@@ -57749,7 +57749,7 @@
         <v>41</v>
       </c>
       <c r="O1023" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1023" t="n">
         <v>0</v>
@@ -57757,7 +57757,9 @@
       <c r="Q1023" t="n">
         <v>0</v>
       </c>
-      <c r="R1023" t="inlineStr"/>
+      <c r="R1023" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1024">
       <c r="A1024" s="2" t="n">
@@ -57811,7 +57813,9 @@
       <c r="Q1024" t="n">
         <v>0</v>
       </c>
-      <c r="R1024" t="inlineStr"/>
+      <c r="R1024" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1025">
       <c r="A1025" s="2" t="n">
@@ -57865,7 +57869,9 @@
       <c r="Q1025" t="n">
         <v>0</v>
       </c>
-      <c r="R1025" t="inlineStr"/>
+      <c r="R1025" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1026">
       <c r="A1026" s="2" t="n">
@@ -57919,7 +57925,9 @@
       <c r="Q1026" t="n">
         <v>0</v>
       </c>
-      <c r="R1026" t="inlineStr"/>
+      <c r="R1026" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" s="2" t="n">
@@ -57973,7 +57981,9 @@
       <c r="Q1027" t="n">
         <v>0</v>
       </c>
-      <c r="R1027" t="inlineStr"/>
+      <c r="R1027" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1028">
       <c r="A1028" s="2" t="n">
@@ -58027,7 +58037,9 @@
       <c r="Q1028" t="n">
         <v>0</v>
       </c>
-      <c r="R1028" t="inlineStr"/>
+      <c r="R1028" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" s="2" t="n">
@@ -58081,7 +58093,387 @@
       <c r="Q1029" t="n">
         <v>0</v>
       </c>
-      <c r="R1029" t="inlineStr"/>
+      <c r="R1029" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45576.38541666666</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>334.2999877929688</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>334.2999877929688</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>331.1499938964844</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>331.1499938964844</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45576.42708333334</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>331.1499938964844</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>331.4500122070312</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>325.6000061035156</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>327.9500122070312</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>327.9500122070312</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>35977</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45576.46875</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>327.2000122070312</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>327.8500061035156</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>325.5</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>326.5</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>16458</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45576.51041666666</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>326.5499877929688</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>331.1000061035156</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>326.2999877929688</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>328.3500061035156</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>328.3500061035156</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>24692</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45576.55208333334</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>328.9500122070312</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>331.4500122070312</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>327.8999938964844</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>329.0499877929688</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>329.0499877929688</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>23491</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45576.59375</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>329.0499877929688</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>329.1000061035156</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>326.1000061035156</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>326.75</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>326.75</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>22385</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2" t="n">
+        <v>45576.63541666666</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>326.8500061035156</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>328.1000061035156</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>326</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>327.7999877929688</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>327.7999877929688</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>20629</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1036" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1036" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1036" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1036"/>
+  <dimension ref="A1:R1043"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58149,7 +58149,9 @@
       <c r="Q1030" t="n">
         <v>0</v>
       </c>
-      <c r="R1030" t="inlineStr"/>
+      <c r="R1030" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1031">
       <c r="A1031" s="2" t="n">
@@ -58203,7 +58205,9 @@
       <c r="Q1031" t="n">
         <v>0</v>
       </c>
-      <c r="R1031" t="inlineStr"/>
+      <c r="R1031" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1032">
       <c r="A1032" s="2" t="n">
@@ -58257,7 +58261,9 @@
       <c r="Q1032" t="n">
         <v>0</v>
       </c>
-      <c r="R1032" t="inlineStr"/>
+      <c r="R1032" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" s="2" t="n">
@@ -58311,7 +58317,9 @@
       <c r="Q1033" t="n">
         <v>0</v>
       </c>
-      <c r="R1033" t="inlineStr"/>
+      <c r="R1033" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1034">
       <c r="A1034" s="2" t="n">
@@ -58365,7 +58373,9 @@
       <c r="Q1034" t="n">
         <v>0</v>
       </c>
-      <c r="R1034" t="inlineStr"/>
+      <c r="R1034" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1035">
       <c r="A1035" s="2" t="n">
@@ -58419,7 +58429,9 @@
       <c r="Q1035" t="n">
         <v>0</v>
       </c>
-      <c r="R1035" t="inlineStr"/>
+      <c r="R1035" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1036">
       <c r="A1036" s="2" t="n">
@@ -58473,7 +58485,387 @@
       <c r="Q1036" t="n">
         <v>0</v>
       </c>
-      <c r="R1036" t="inlineStr"/>
+      <c r="R1036" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2" t="n">
+        <v>45579.38541666666</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>331.75</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>339.8999938964844</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>327.5</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>336.7000122070312</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>336.7000122070312</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>5279</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1037" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1037" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1037" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1037" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1037" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1037" t="inlineStr"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2" t="n">
+        <v>45579.42708333334</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>336.2000122070312</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>337.6499938964844</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>335.1000061035156</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>337.0499877929688</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>337.0499877929688</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>58036</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1038" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1038" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1038" t="inlineStr"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2" t="n">
+        <v>45579.46875</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>336.7000122070312</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>337.0499877929688</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>332.5499877929688</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>333.9500122070312</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>333.9500122070312</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>43312</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1039" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1039" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1039" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1039" t="inlineStr"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2" t="n">
+        <v>45579.51041666666</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>334</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>337.5499877929688</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>333.6499938964844</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>335.9500122070312</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>335.9500122070312</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>58759</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1040" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1040" t="inlineStr"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2" t="n">
+        <v>45579.55208333334</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>335.8999938964844</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>337</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>335.0499877929688</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>26410</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1041" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1041" t="inlineStr"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2" t="n">
+        <v>45579.59375</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>335.0499877929688</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>335.0499877929688</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>45268</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1042" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2" t="n">
+        <v>45579.63541666666</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>335</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>335.1000061035156</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>332.2000122070312</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>333.5499877929688</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>333.5499877929688</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>69021</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1043" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1043" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1043"/>
+  <dimension ref="A1:R1050"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58533,7 +58533,7 @@
         <v>42</v>
       </c>
       <c r="O1037" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1037" t="n">
         <v>0</v>
@@ -58541,7 +58541,9 @@
       <c r="Q1037" t="n">
         <v>0</v>
       </c>
-      <c r="R1037" t="inlineStr"/>
+      <c r="R1037" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1038">
       <c r="A1038" s="2" t="n">
@@ -58595,7 +58597,9 @@
       <c r="Q1038" t="n">
         <v>0</v>
       </c>
-      <c r="R1038" t="inlineStr"/>
+      <c r="R1038" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1039">
       <c r="A1039" s="2" t="n">
@@ -58649,7 +58653,9 @@
       <c r="Q1039" t="n">
         <v>0</v>
       </c>
-      <c r="R1039" t="inlineStr"/>
+      <c r="R1039" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2" t="n">
@@ -58703,7 +58709,9 @@
       <c r="Q1040" t="n">
         <v>0</v>
       </c>
-      <c r="R1040" t="inlineStr"/>
+      <c r="R1040" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1041">
       <c r="A1041" s="2" t="n">
@@ -58757,7 +58765,9 @@
       <c r="Q1041" t="n">
         <v>0</v>
       </c>
-      <c r="R1041" t="inlineStr"/>
+      <c r="R1041" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1042">
       <c r="A1042" s="2" t="n">
@@ -58811,7 +58821,9 @@
       <c r="Q1042" t="n">
         <v>0</v>
       </c>
-      <c r="R1042" t="inlineStr"/>
+      <c r="R1042" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1043">
       <c r="A1043" s="2" t="n">
@@ -58865,7 +58877,387 @@
       <c r="Q1043" t="n">
         <v>0</v>
       </c>
-      <c r="R1043" t="inlineStr"/>
+      <c r="R1043" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2" t="n">
+        <v>45580.38541666666</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>337.2999877929688</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>338.6000061035156</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>335.1499938964844</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>336.3500061035156</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>336.3500061035156</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1044" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2" t="n">
+        <v>45580.42708333334</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>336</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>337.9500122070312</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>333.6000061035156</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>48280</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1045" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1045" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1045" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45580.46875</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>338</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>335.1499938964844</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>335.1499938964844</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>48599</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45580.51041666666</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>335.25</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>336.8999938964844</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>335.2000122070312</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>335.2000122070312</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>27296</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45580.55208333334</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>334.8500061035156</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>337.4500122070312</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>334.2000122070312</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>334.2999877929688</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>334.2999877929688</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>28000</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45580.59375</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>334.3500061035156</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>337.7000122070312</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>334.2999877929688</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>336.7000122070312</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>336.7000122070312</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>39504</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45580.63541666666</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>336.7000122070312</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>338</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>335.2000122070312</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>336.9500122070312</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>336.9500122070312</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>28167</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1050" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1050"/>
+  <dimension ref="A1:R1057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58933,7 +58933,9 @@
       <c r="Q1044" t="n">
         <v>0</v>
       </c>
-      <c r="R1044" t="inlineStr"/>
+      <c r="R1044" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2" t="n">
@@ -58987,7 +58989,9 @@
       <c r="Q1045" t="n">
         <v>0</v>
       </c>
-      <c r="R1045" t="inlineStr"/>
+      <c r="R1045" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1046">
       <c r="A1046" s="2" t="n">
@@ -59041,7 +59045,9 @@
       <c r="Q1046" t="n">
         <v>0</v>
       </c>
-      <c r="R1046" t="inlineStr"/>
+      <c r="R1046" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
@@ -59095,7 +59101,9 @@
       <c r="Q1047" t="n">
         <v>0</v>
       </c>
-      <c r="R1047" t="inlineStr"/>
+      <c r="R1047" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1048">
       <c r="A1048" s="2" t="n">
@@ -59149,7 +59157,9 @@
       <c r="Q1048" t="n">
         <v>0</v>
       </c>
-      <c r="R1048" t="inlineStr"/>
+      <c r="R1048" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
@@ -59203,7 +59213,9 @@
       <c r="Q1049" t="n">
         <v>0</v>
       </c>
-      <c r="R1049" t="inlineStr"/>
+      <c r="R1049" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
@@ -59257,7 +59269,387 @@
       <c r="Q1050" t="n">
         <v>0</v>
       </c>
-      <c r="R1050" t="inlineStr"/>
+      <c r="R1050" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2" t="n">
+        <v>45581.38541666666</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>336.2999877929688</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>348.4500122070312</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>336.2999877929688</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>345.1000061035156</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>345.1000061035156</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2" t="n">
+        <v>45581.42708333334</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>345.0499877929688</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>345.6000061035156</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>342.1499938964844</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>343.5</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>343.5</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>51373</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2" t="n">
+        <v>45581.46875</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>343.5</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>343.5</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>338.0499877929688</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>339.5499877929688</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>339.5499877929688</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>60295</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>45581.51041666666</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>339.5499877929688</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>340.0499877929688</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>338.6499938964844</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>339.6000061035156</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>339.6000061035156</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>18666</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45581.55208333334</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>339.6499938964844</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>341.75</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>339.6000061035156</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>340.0499877929688</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>340.0499877929688</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>26715</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45581.59375</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>341.2000122070312</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>347</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>340.6499938964844</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>344.7000122070312</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>344.7000122070312</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>96117</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45581.63541666666</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>344.6499938964844</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>345.8500061035156</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>344.1499938964844</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>344.9500122070312</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>344.9500122070312</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>27698</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1057" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1057"/>
+  <dimension ref="A1:R1071"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59325,7 +59325,9 @@
       <c r="Q1051" t="n">
         <v>0</v>
       </c>
-      <c r="R1051" t="inlineStr"/>
+      <c r="R1051" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
@@ -59379,7 +59381,9 @@
       <c r="Q1052" t="n">
         <v>0</v>
       </c>
-      <c r="R1052" t="inlineStr"/>
+      <c r="R1052" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
@@ -59433,7 +59437,9 @@
       <c r="Q1053" t="n">
         <v>0</v>
       </c>
-      <c r="R1053" t="inlineStr"/>
+      <c r="R1053" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
@@ -59487,7 +59493,9 @@
       <c r="Q1054" t="n">
         <v>0</v>
       </c>
-      <c r="R1054" t="inlineStr"/>
+      <c r="R1054" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
@@ -59541,7 +59549,9 @@
       <c r="Q1055" t="n">
         <v>0</v>
       </c>
-      <c r="R1055" t="inlineStr"/>
+      <c r="R1055" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
@@ -59595,7 +59605,9 @@
       <c r="Q1056" t="n">
         <v>0</v>
       </c>
-      <c r="R1056" t="inlineStr"/>
+      <c r="R1056" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
@@ -59649,7 +59661,765 @@
       <c r="Q1057" t="n">
         <v>0</v>
       </c>
-      <c r="R1057" t="inlineStr"/>
+      <c r="R1057" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45582.38541666666</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>348</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>349</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>334.0499877929688</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>334.5499877929688</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>334.5499877929688</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>45582.42708333334</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>335.0499877929688</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>339.5499877929688</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>334.5</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>337.7999877929688</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>337.7999877929688</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>53038</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>45582.46875</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>337.7999877929688</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>337.7999877929688</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>336</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>337.1000061035156</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>337.1000061035156</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>30049</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2" t="n">
+        <v>45582.51041666666</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>337.1000061035156</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>338.2000122070312</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>335.5499877929688</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>337.7999877929688</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>337.7999877929688</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>23340</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2" t="n">
+        <v>45582.55208333334</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>337.7999877929688</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>335</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>335.3500061035156</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>335.3500061035156</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>27733</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>45582.59375</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>335.3500061035156</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>336.9500122070312</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>334.5499877929688</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>334.6000061035156</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>334.6000061035156</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>32552</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>45582.63541666666</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>334.0499877929688</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>336</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>333</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>335.0499877929688</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>335.0499877929688</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>23169</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>45583.38541666666</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>333.9500122070312</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>333.9500122070312</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>321.0499877929688</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>326.8999938964844</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>326.8999938964844</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>45583.42708333334</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>326.8999938964844</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>329.1499938964844</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>325.1000061035156</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>327.1000061035156</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>327.1000061035156</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>39811</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2" t="n">
+        <v>45583.46875</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>326.6000061035156</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>331</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>326.6000061035156</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>328.8500061035156</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>328.8500061035156</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>27949</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2" t="n">
+        <v>45583.51041666666</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>328.8500061035156</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>329</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>326.8500061035156</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>328</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>328</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>25641</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2" t="n">
+        <v>45583.55208333334</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>327.8999938964844</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>328.1000061035156</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>327.5499877929688</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>327.5499877929688</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>26474</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2" t="n">
+        <v>45583.59375</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>327.8999938964844</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>329.4500122070312</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>327.25</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>327.25</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>29383</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>45583.63541666666</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>326.3999938964844</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>327.2000122070312</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>324.6000061035156</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>325</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>325</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>24541</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1071" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1071"/>
+  <dimension ref="A1:R1092"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59717,7 +59717,9 @@
       <c r="Q1058" t="n">
         <v>0</v>
       </c>
-      <c r="R1058" t="inlineStr"/>
+      <c r="R1058" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
@@ -59771,7 +59773,9 @@
       <c r="Q1059" t="n">
         <v>0</v>
       </c>
-      <c r="R1059" t="inlineStr"/>
+      <c r="R1059" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
@@ -59825,7 +59829,9 @@
       <c r="Q1060" t="n">
         <v>0</v>
       </c>
-      <c r="R1060" t="inlineStr"/>
+      <c r="R1060" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
@@ -59879,7 +59885,9 @@
       <c r="Q1061" t="n">
         <v>0</v>
       </c>
-      <c r="R1061" t="inlineStr"/>
+      <c r="R1061" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
@@ -59933,7 +59941,9 @@
       <c r="Q1062" t="n">
         <v>0</v>
       </c>
-      <c r="R1062" t="inlineStr"/>
+      <c r="R1062" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
@@ -59987,7 +59997,9 @@
       <c r="Q1063" t="n">
         <v>0</v>
       </c>
-      <c r="R1063" t="inlineStr"/>
+      <c r="R1063" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
@@ -60041,7 +60053,9 @@
       <c r="Q1064" t="n">
         <v>0</v>
       </c>
-      <c r="R1064" t="inlineStr"/>
+      <c r="R1064" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
@@ -60095,7 +60109,9 @@
       <c r="Q1065" t="n">
         <v>0</v>
       </c>
-      <c r="R1065" t="inlineStr"/>
+      <c r="R1065" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
@@ -60149,7 +60165,9 @@
       <c r="Q1066" t="n">
         <v>0</v>
       </c>
-      <c r="R1066" t="inlineStr"/>
+      <c r="R1066" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
@@ -60203,7 +60221,9 @@
       <c r="Q1067" t="n">
         <v>0</v>
       </c>
-      <c r="R1067" t="inlineStr"/>
+      <c r="R1067" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
@@ -60257,7 +60277,9 @@
       <c r="Q1068" t="n">
         <v>0</v>
       </c>
-      <c r="R1068" t="inlineStr"/>
+      <c r="R1068" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
@@ -60311,7 +60333,9 @@
       <c r="Q1069" t="n">
         <v>2</v>
       </c>
-      <c r="R1069" t="inlineStr"/>
+      <c r="R1069" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
@@ -60365,7 +60389,9 @@
       <c r="Q1070" t="n">
         <v>0</v>
       </c>
-      <c r="R1070" t="inlineStr"/>
+      <c r="R1070" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
@@ -60419,7 +60445,1143 @@
       <c r="Q1071" t="n">
         <v>0</v>
       </c>
-      <c r="R1071" t="inlineStr"/>
+      <c r="R1071" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>45586.38541666666</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>327.8500061035156</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>328.6000061035156</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>317.2000122070312</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>319.3500061035156</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>319.3500061035156</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2" t="n">
+        <v>45586.42708333334</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>319.3500061035156</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>320</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>318.0499877929688</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>319.1000061035156</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>319.1000061035156</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>24329</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2" t="n">
+        <v>45586.46875</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>319.3999938964844</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>319.8500061035156</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>317.2000122070312</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>317.75</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>317.75</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>22255</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2" t="n">
+        <v>45586.51041666666</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>317.75</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>318.7000122070312</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>318.3999938964844</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>318.3999938964844</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>15733</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2" t="n">
+        <v>45586.55208333334</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>318.7000122070312</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>319.7000122070312</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>317.7000122070312</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>318.7000122070312</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>318.7000122070312</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>17690</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2" t="n">
+        <v>45586.59375</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>318.1499938964844</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>319.6499938964844</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>316.6499938964844</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>316.9500122070312</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>316.9500122070312</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>28050</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2" t="n">
+        <v>45586.63541666666</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>316.7999877929688</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>317.4500122070312</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>312</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>313</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>313</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>43785</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2" t="n">
+        <v>45587.38541666666</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>317.2999877929688</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>308</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>309.25</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>309.25</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>59575</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2" t="n">
+        <v>45587.42708333334</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>309</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>311.5499877929688</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>306.0499877929688</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>310.2000122070312</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>310.2000122070312</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>39941</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2" t="n">
+        <v>45587.46875</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>310.1499938964844</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>311.1000061035156</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>305.1000061035156</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>29123</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2" t="n">
+        <v>45587.51041666666</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>306.6499938964844</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>302</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>302.7000122070312</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>302.7000122070312</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>61146</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2" t="n">
+        <v>45587.55208333334</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>302.7000122070312</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>307</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>301.4500122070312</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>307</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>307</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>41050</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1083" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2" t="n">
+        <v>45587.59375</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>307</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>307.7000122070312</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>301.5</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>302</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>302</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>42778</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1084" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2" t="n">
+        <v>45587.63541666666</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>302</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>304.9500122070312</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>301.7000122070312</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>304.7000122070312</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>304.7000122070312</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>34604</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1085" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2" t="n">
+        <v>45588.38541666666</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>302.5499877929688</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>313.4500122070312</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>313.4500122070312</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>313.4500122070312</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2" t="n">
+        <v>45588.42708333334</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>314.3500061035156</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>308.9500122070312</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>311.2999877929688</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>311.2999877929688</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>32374</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2" t="n">
+        <v>45588.46875</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>311.7000122070312</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>310.7999877929688</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>316.2000122070312</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>316.2000122070312</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>56070</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1088" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2" t="n">
+        <v>45588.51041666666</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>316.4500122070312</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>314</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>26245</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1089" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2" t="n">
+        <v>45588.55208333334</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>317</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>6708</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1090" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1090" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2" t="n">
+        <v>45588.59375</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>4388</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1091" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1091" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1091" t="inlineStr"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2" t="n">
+        <v>45588.63541666666</v>
+      </c>
+      <c r="B1092" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="C1092" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>317.6499938964844</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>1565</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1092" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1092" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1092" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1092" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1092"/>
+  <dimension ref="A1:R1099"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60501,7 +60501,9 @@
       <c r="Q1072" t="n">
         <v>0</v>
       </c>
-      <c r="R1072" t="inlineStr"/>
+      <c r="R1072" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
@@ -60555,7 +60557,9 @@
       <c r="Q1073" t="n">
         <v>0</v>
       </c>
-      <c r="R1073" t="inlineStr"/>
+      <c r="R1073" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
@@ -60609,7 +60613,9 @@
       <c r="Q1074" t="n">
         <v>0</v>
       </c>
-      <c r="R1074" t="inlineStr"/>
+      <c r="R1074" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
@@ -60663,7 +60669,9 @@
       <c r="Q1075" t="n">
         <v>0</v>
       </c>
-      <c r="R1075" t="inlineStr"/>
+      <c r="R1075" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
@@ -60717,7 +60725,9 @@
       <c r="Q1076" t="n">
         <v>0</v>
       </c>
-      <c r="R1076" t="inlineStr"/>
+      <c r="R1076" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
@@ -60771,7 +60781,9 @@
       <c r="Q1077" t="n">
         <v>0</v>
       </c>
-      <c r="R1077" t="inlineStr"/>
+      <c r="R1077" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
@@ -60825,7 +60837,9 @@
       <c r="Q1078" t="n">
         <v>0</v>
       </c>
-      <c r="R1078" t="inlineStr"/>
+      <c r="R1078" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
@@ -60879,7 +60893,9 @@
       <c r="Q1079" t="n">
         <v>0</v>
       </c>
-      <c r="R1079" t="inlineStr"/>
+      <c r="R1079" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
@@ -60933,7 +60949,9 @@
       <c r="Q1080" t="n">
         <v>0</v>
       </c>
-      <c r="R1080" t="inlineStr"/>
+      <c r="R1080" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
@@ -60987,7 +61005,9 @@
       <c r="Q1081" t="n">
         <v>0</v>
       </c>
-      <c r="R1081" t="inlineStr"/>
+      <c r="R1081" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
@@ -61041,7 +61061,9 @@
       <c r="Q1082" t="n">
         <v>0</v>
       </c>
-      <c r="R1082" t="inlineStr"/>
+      <c r="R1082" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1083">
       <c r="A1083" s="2" t="n">
@@ -61095,7 +61117,9 @@
       <c r="Q1083" t="n">
         <v>0</v>
       </c>
-      <c r="R1083" t="inlineStr"/>
+      <c r="R1083" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1084">
       <c r="A1084" s="2" t="n">
@@ -61149,7 +61173,9 @@
       <c r="Q1084" t="n">
         <v>0</v>
       </c>
-      <c r="R1084" t="inlineStr"/>
+      <c r="R1084" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1085">
       <c r="A1085" s="2" t="n">
@@ -61203,7 +61229,9 @@
       <c r="Q1085" t="n">
         <v>0</v>
       </c>
-      <c r="R1085" t="inlineStr"/>
+      <c r="R1085" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1086">
       <c r="A1086" s="2" t="n">
@@ -61249,7 +61277,7 @@
         <v>43</v>
       </c>
       <c r="O1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1086" t="n">
         <v>0</v>
@@ -61257,7 +61285,9 @@
       <c r="Q1086" t="n">
         <v>0</v>
       </c>
-      <c r="R1086" t="inlineStr"/>
+      <c r="R1086" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1087">
       <c r="A1087" s="2" t="n">
@@ -61311,7 +61341,9 @@
       <c r="Q1087" t="n">
         <v>0</v>
       </c>
-      <c r="R1087" t="inlineStr"/>
+      <c r="R1087" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1088">
       <c r="A1088" s="2" t="n">
@@ -61365,7 +61397,9 @@
       <c r="Q1088" t="n">
         <v>0</v>
       </c>
-      <c r="R1088" t="inlineStr"/>
+      <c r="R1088" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1089">
       <c r="A1089" s="2" t="n">
@@ -61419,7 +61453,9 @@
       <c r="Q1089" t="n">
         <v>0</v>
       </c>
-      <c r="R1089" t="inlineStr"/>
+      <c r="R1089" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1090">
       <c r="A1090" s="2" t="n">
@@ -61473,7 +61509,9 @@
       <c r="Q1090" t="n">
         <v>0</v>
       </c>
-      <c r="R1090" t="inlineStr"/>
+      <c r="R1090" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1091">
       <c r="A1091" s="2" t="n">
@@ -61527,7 +61565,9 @@
       <c r="Q1091" t="n">
         <v>0</v>
       </c>
-      <c r="R1091" t="inlineStr"/>
+      <c r="R1091" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1092">
       <c r="A1092" s="2" t="n">
@@ -61581,7 +61621,387 @@
       <c r="Q1092" t="n">
         <v>0</v>
       </c>
-      <c r="R1092" t="inlineStr"/>
+      <c r="R1092" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="2" t="n">
+        <v>45589.38541666666</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>323.9500122070312</v>
+      </c>
+      <c r="C1093" t="n">
+        <v>328.3500061035156</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>309.2000122070312</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>312.6000061035156</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>312.6000061035156</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1093" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1093" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1093" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1093" t="inlineStr"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="2" t="n">
+        <v>45589.42708333334</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>313.3999938964844</v>
+      </c>
+      <c r="C1094" t="n">
+        <v>314.3500061035156</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>310.7000122070312</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>313.0499877929688</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>313.0499877929688</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>26401</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1094" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1094" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1094" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1094" t="inlineStr"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2" t="n">
+        <v>45589.46875</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="C1095" t="n">
+        <v>315</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>312.8500061035156</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>314.5</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>314.5</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>16316</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1095" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1095" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1095" t="inlineStr"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2" t="n">
+        <v>45589.51041666666</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>314.3500061035156</v>
+      </c>
+      <c r="C1096" t="n">
+        <v>317.3999938964844</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>314</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>316.6499938964844</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>316.6499938964844</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>15750</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1096" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1096" t="inlineStr"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2" t="n">
+        <v>45589.55208333334</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>316.1499938964844</v>
+      </c>
+      <c r="C1097" t="n">
+        <v>317.8500061035156</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>314</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>314</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>314</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>12675</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1097" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1097" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1097" t="inlineStr"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2" t="n">
+        <v>45589.59375</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>314</v>
+      </c>
+      <c r="C1098" t="n">
+        <v>314.75</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>311.5499877929688</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>314</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>314</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>20033</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1098" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1098" t="inlineStr"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2" t="n">
+        <v>45589.63541666666</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>314.4500122070312</v>
+      </c>
+      <c r="C1099" t="n">
+        <v>315</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>312.8500061035156</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>313.8999938964844</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>313.8999938964844</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>10767</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1099" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1099" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1099"/>
+  <dimension ref="A1:R1113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61669,7 +61669,7 @@
         <v>43</v>
       </c>
       <c r="O1093" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1093" t="n">
         <v>0</v>
@@ -61677,7 +61677,9 @@
       <c r="Q1093" t="n">
         <v>0</v>
       </c>
-      <c r="R1093" t="inlineStr"/>
+      <c r="R1093" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1094">
       <c r="A1094" s="2" t="n">
@@ -61731,7 +61733,9 @@
       <c r="Q1094" t="n">
         <v>0</v>
       </c>
-      <c r="R1094" t="inlineStr"/>
+      <c r="R1094" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1095">
       <c r="A1095" s="2" t="n">
@@ -61785,7 +61789,9 @@
       <c r="Q1095" t="n">
         <v>0</v>
       </c>
-      <c r="R1095" t="inlineStr"/>
+      <c r="R1095" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1096">
       <c r="A1096" s="2" t="n">
@@ -61839,7 +61845,9 @@
       <c r="Q1096" t="n">
         <v>0</v>
       </c>
-      <c r="R1096" t="inlineStr"/>
+      <c r="R1096" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" s="2" t="n">
@@ -61893,7 +61901,9 @@
       <c r="Q1097" t="n">
         <v>1</v>
       </c>
-      <c r="R1097" t="inlineStr"/>
+      <c r="R1097" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1098">
       <c r="A1098" s="2" t="n">
@@ -61947,7 +61957,9 @@
       <c r="Q1098" t="n">
         <v>0</v>
       </c>
-      <c r="R1098" t="inlineStr"/>
+      <c r="R1098" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1099">
       <c r="A1099" s="2" t="n">
@@ -62001,7 +62013,765 @@
       <c r="Q1099" t="n">
         <v>0</v>
       </c>
-      <c r="R1099" t="inlineStr"/>
+      <c r="R1099" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2" t="n">
+        <v>45590.38541666666</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>313.8500061035156</v>
+      </c>
+      <c r="C1100" t="n">
+        <v>316.2000122070312</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>302.0499877929688</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>302.8500061035156</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>302.8500061035156</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1100" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1100" t="inlineStr"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2" t="n">
+        <v>45590.42708333334</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>302.8999938964844</v>
+      </c>
+      <c r="C1101" t="n">
+        <v>305</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>301</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>302.5</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>302.5</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>40948</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1101" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1101" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1101" t="inlineStr"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2" t="n">
+        <v>45590.46875</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>302.5</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>310.2000122070312</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>301.75</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>309.0499877929688</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>309.0499877929688</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>33572</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1102" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1102" t="inlineStr"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2" t="n">
+        <v>45590.51041666666</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>309.1000061035156</v>
+      </c>
+      <c r="C1103" t="n">
+        <v>309.4500122070312</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>305.0499877929688</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>308.5</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>308.5</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>22255</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1103" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1103" t="inlineStr"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2" t="n">
+        <v>45590.55208333334</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>308.7000122070312</v>
+      </c>
+      <c r="C1104" t="n">
+        <v>309.2000122070312</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>305.4500122070312</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>306.1000061035156</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>306.1000061035156</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>16958</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1104" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1104" t="inlineStr"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2" t="n">
+        <v>45590.59375</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>305.6000061035156</v>
+      </c>
+      <c r="C1105" t="n">
+        <v>313</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>301.6000061035156</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>312.6000061035156</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>312.6000061035156</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>78878</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1105" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1105" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1105" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1105" t="inlineStr"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2" t="n">
+        <v>45590.63541666666</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>312.0499877929688</v>
+      </c>
+      <c r="C1106" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>310.0499877929688</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>18961</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1106" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1106" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1106" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1106" t="inlineStr"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2" t="n">
+        <v>45593.38541666666</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>313.7999877929688</v>
+      </c>
+      <c r="C1107" t="n">
+        <v>313.9500122070312</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>301.8500061035156</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>305.8999938964844</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>305.8999938964844</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1107" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1107" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1107" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1107" t="inlineStr"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2" t="n">
+        <v>45593.42708333334</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>305.8999938964844</v>
+      </c>
+      <c r="C1108" t="n">
+        <v>308.7999877929688</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>303</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>306.75</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>306.75</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>64261</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1108" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1108" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1108" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1108" t="inlineStr"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2" t="n">
+        <v>45593.46875</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>305.5499877929688</v>
+      </c>
+      <c r="C1109" t="n">
+        <v>309</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>301.6499938964844</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>306.3999938964844</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>306.3999938964844</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>64804</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1109" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1109" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1109" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1109" t="inlineStr"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2" t="n">
+        <v>45593.51041666666</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>306.3500061035156</v>
+      </c>
+      <c r="C1110" t="n">
+        <v>307.4500122070312</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>305</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>306.9500122070312</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>306.9500122070312</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>27254</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1110" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1110" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1110" t="inlineStr"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2" t="n">
+        <v>45593.55208333334</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>306.9500122070312</v>
+      </c>
+      <c r="C1111" t="n">
+        <v>308.25</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>306</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>306.3500061035156</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>306.3500061035156</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>21128</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1111" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1111" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1111" t="inlineStr"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2" t="n">
+        <v>45593.59375</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>306.8999938964844</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>307.9500122070312</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>303.5</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>305.2000122070312</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>305.2000122070312</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>26462</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1112" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2" t="n">
+        <v>45593.63541666666</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>305.1499938964844</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>306.2000122070312</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>303.75</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>306</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>306</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>17890</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1113"/>
+  <dimension ref="A1:R1127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62069,7 +62069,9 @@
       <c r="Q1100" t="n">
         <v>0</v>
       </c>
-      <c r="R1100" t="inlineStr"/>
+      <c r="R1100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1101">
       <c r="A1101" s="2" t="n">
@@ -62123,7 +62125,9 @@
       <c r="Q1101" t="n">
         <v>0</v>
       </c>
-      <c r="R1101" t="inlineStr"/>
+      <c r="R1101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1102">
       <c r="A1102" s="2" t="n">
@@ -62177,7 +62181,9 @@
       <c r="Q1102" t="n">
         <v>0</v>
       </c>
-      <c r="R1102" t="inlineStr"/>
+      <c r="R1102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1103">
       <c r="A1103" s="2" t="n">
@@ -62231,7 +62237,9 @@
       <c r="Q1103" t="n">
         <v>0</v>
       </c>
-      <c r="R1103" t="inlineStr"/>
+      <c r="R1103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1104">
       <c r="A1104" s="2" t="n">
@@ -62285,7 +62293,9 @@
       <c r="Q1104" t="n">
         <v>2</v>
       </c>
-      <c r="R1104" t="inlineStr"/>
+      <c r="R1104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1105">
       <c r="A1105" s="2" t="n">
@@ -62339,7 +62349,9 @@
       <c r="Q1105" t="n">
         <v>0</v>
       </c>
-      <c r="R1105" t="inlineStr"/>
+      <c r="R1105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" s="2" t="n">
@@ -62393,7 +62405,9 @@
       <c r="Q1106" t="n">
         <v>0</v>
       </c>
-      <c r="R1106" t="inlineStr"/>
+      <c r="R1106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" s="2" t="n">
@@ -62447,7 +62461,9 @@
       <c r="Q1107" t="n">
         <v>0</v>
       </c>
-      <c r="R1107" t="inlineStr"/>
+      <c r="R1107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" s="2" t="n">
@@ -62501,7 +62517,9 @@
       <c r="Q1108" t="n">
         <v>0</v>
       </c>
-      <c r="R1108" t="inlineStr"/>
+      <c r="R1108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1109">
       <c r="A1109" s="2" t="n">
@@ -62555,7 +62573,9 @@
       <c r="Q1109" t="n">
         <v>0</v>
       </c>
-      <c r="R1109" t="inlineStr"/>
+      <c r="R1109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1110">
       <c r="A1110" s="2" t="n">
@@ -62609,7 +62629,9 @@
       <c r="Q1110" t="n">
         <v>0</v>
       </c>
-      <c r="R1110" t="inlineStr"/>
+      <c r="R1110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1111">
       <c r="A1111" s="2" t="n">
@@ -62663,7 +62685,9 @@
       <c r="Q1111" t="n">
         <v>0</v>
       </c>
-      <c r="R1111" t="inlineStr"/>
+      <c r="R1111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1112">
       <c r="A1112" s="2" t="n">
@@ -62717,7 +62741,9 @@
       <c r="Q1112" t="n">
         <v>1</v>
       </c>
-      <c r="R1112" t="inlineStr"/>
+      <c r="R1112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
@@ -62771,7 +62797,765 @@
       <c r="Q1113" t="n">
         <v>0</v>
       </c>
-      <c r="R1113" t="inlineStr"/>
+      <c r="R1113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2" t="n">
+        <v>45594.38541666666</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>308.7999877929688</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>312.8500061035156</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>305.75</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>307.25</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>307.25</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2" t="n">
+        <v>45594.42708333334</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>306.75</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>307.9500122070312</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>304.5</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>306.7000122070312</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>306.7000122070312</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>19131</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>45594.46875</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>306.8500061035156</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>310</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>306.2999877929688</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>309.7999877929688</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>309.7999877929688</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>10194</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2" t="n">
+        <v>45594.51041666666</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>309.1499938964844</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>309.5499877929688</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>307</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>308.8999938964844</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>308.8999938964844</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>8014</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1117" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1117" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2" t="n">
+        <v>45594.55208333334</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>308.8500061035156</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>308.8999938964844</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>305.25</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>306</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>306</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>18313</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1118" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1118" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2" t="n">
+        <v>45594.59375</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>306</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>304</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>69613</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1119" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1119" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1119" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2" t="n">
+        <v>45594.63541666666</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>304.2999877929688</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>307.2999877929688</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>307.2999877929688</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>22672</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1120" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1120" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2" t="n">
+        <v>45595.38541666666</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>307.6499938964844</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>311.75</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>306.8500061035156</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>310.9500122070312</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>310.9500122070312</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1121" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2" t="n">
+        <v>45595.42708333334</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>311.0499877929688</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>314.3999938964844</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>306.6499938964844</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>309.2000122070312</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>309.2000122070312</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>67664</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1122" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1122" t="inlineStr"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>45595.46875</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>309.5</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>309.9500122070312</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>308.2000122070312</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>308.25</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>308.25</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>14418</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>45595.51041666666</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>308.25</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>310</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>308.0499877929688</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>309.5</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>309.5</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>23252</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>45595.55208333334</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>309.5</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>311.2000122070312</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>307.9500122070312</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>307.9500122070312</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>33337</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>45595.59375</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>307.5499877929688</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>307.8500061035156</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>306</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>306</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>38248</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>45595.63541666666</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>306</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>308</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>306</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>307.9500122070312</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>307.9500122070312</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>13812</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1127" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1127"/>
+  <dimension ref="A1:R1134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62853,7 +62853,9 @@
       <c r="Q1114" t="n">
         <v>0</v>
       </c>
-      <c r="R1114" t="inlineStr"/>
+      <c r="R1114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
@@ -62907,7 +62909,9 @@
       <c r="Q1115" t="n">
         <v>0</v>
       </c>
-      <c r="R1115" t="inlineStr"/>
+      <c r="R1115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
@@ -62961,7 +62965,9 @@
       <c r="Q1116" t="n">
         <v>0</v>
       </c>
-      <c r="R1116" t="inlineStr"/>
+      <c r="R1116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
@@ -63015,7 +63021,9 @@
       <c r="Q1117" t="n">
         <v>0</v>
       </c>
-      <c r="R1117" t="inlineStr"/>
+      <c r="R1117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
@@ -63069,7 +63077,9 @@
       <c r="Q1118" t="n">
         <v>0</v>
       </c>
-      <c r="R1118" t="inlineStr"/>
+      <c r="R1118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
@@ -63123,7 +63133,9 @@
       <c r="Q1119" t="n">
         <v>0</v>
       </c>
-      <c r="R1119" t="inlineStr"/>
+      <c r="R1119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
@@ -63177,7 +63189,9 @@
       <c r="Q1120" t="n">
         <v>0</v>
       </c>
-      <c r="R1120" t="inlineStr"/>
+      <c r="R1120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
@@ -63231,7 +63245,9 @@
       <c r="Q1121" t="n">
         <v>0</v>
       </c>
-      <c r="R1121" t="inlineStr"/>
+      <c r="R1121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
@@ -63277,7 +63293,7 @@
         <v>44</v>
       </c>
       <c r="O1122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1122" t="n">
         <v>0</v>
@@ -63285,7 +63301,9 @@
       <c r="Q1122" t="n">
         <v>0</v>
       </c>
-      <c r="R1122" t="inlineStr"/>
+      <c r="R1122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1123">
       <c r="A1123" s="2" t="n">
@@ -63339,7 +63357,9 @@
       <c r="Q1123" t="n">
         <v>0</v>
       </c>
-      <c r="R1123" t="inlineStr"/>
+      <c r="R1123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1124">
       <c r="A1124" s="2" t="n">
@@ -63393,7 +63413,9 @@
       <c r="Q1124" t="n">
         <v>0</v>
       </c>
-      <c r="R1124" t="inlineStr"/>
+      <c r="R1124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1125">
       <c r="A1125" s="2" t="n">
@@ -63447,7 +63469,9 @@
       <c r="Q1125" t="n">
         <v>0</v>
       </c>
-      <c r="R1125" t="inlineStr"/>
+      <c r="R1125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1126">
       <c r="A1126" s="2" t="n">
@@ -63501,7 +63525,9 @@
       <c r="Q1126" t="n">
         <v>0</v>
       </c>
-      <c r="R1126" t="inlineStr"/>
+      <c r="R1126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1127">
       <c r="A1127" s="2" t="n">
@@ -63555,7 +63581,387 @@
       <c r="Q1127" t="n">
         <v>0</v>
       </c>
-      <c r="R1127" t="inlineStr"/>
+      <c r="R1127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>45596.38541666666</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>307.8999938964844</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>310.3999938964844</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>305.1000061035156</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>306.2999877929688</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>306.2999877929688</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>45596.42708333334</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>306.1000061035156</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>306.2999877929688</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>304</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>305.25</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>305.25</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>45973</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>45596.46875</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>305.2999877929688</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>306.1000061035156</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>304</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>304.3999938964844</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>304.3999938964844</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>25127</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>45596.51041666666</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>304.3999938964844</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>304.2000122070312</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>304.8999938964844</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>304.8999938964844</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>23204</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2" t="n">
+        <v>45596.55208333334</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>304.8999938964844</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>307.3500061035156</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>304.5</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>306.7000122070312</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>306.7000122070312</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>21589</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2" t="n">
+        <v>45596.59375</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>306.2000122070312</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>307.7999877929688</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>305.75</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>30706</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2" t="n">
+        <v>45596.63541666666</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>311.8500061035156</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>307.5</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>311.3999938964844</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>311.3999938964844</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>39388</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1134"/>
+  <dimension ref="A1:R1148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63637,7 +63637,9 @@
       <c r="Q1128" t="n">
         <v>0</v>
       </c>
-      <c r="R1128" t="inlineStr"/>
+      <c r="R1128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1129">
       <c r="A1129" s="2" t="n">
@@ -63683,7 +63685,7 @@
         <v>44</v>
       </c>
       <c r="O1129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1129" t="n">
         <v>0</v>
@@ -63691,7 +63693,9 @@
       <c r="Q1129" t="n">
         <v>0</v>
       </c>
-      <c r="R1129" t="inlineStr"/>
+      <c r="R1129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1130">
       <c r="A1130" s="2" t="n">
@@ -63737,7 +63741,7 @@
         <v>44</v>
       </c>
       <c r="O1130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1130" t="n">
         <v>0</v>
@@ -63745,7 +63749,9 @@
       <c r="Q1130" t="n">
         <v>0</v>
       </c>
-      <c r="R1130" t="inlineStr"/>
+      <c r="R1130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1131">
       <c r="A1131" s="2" t="n">
@@ -63799,7 +63805,9 @@
       <c r="Q1131" t="n">
         <v>0</v>
       </c>
-      <c r="R1131" t="inlineStr"/>
+      <c r="R1131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1132">
       <c r="A1132" s="2" t="n">
@@ -63853,7 +63861,9 @@
       <c r="Q1132" t="n">
         <v>0</v>
       </c>
-      <c r="R1132" t="inlineStr"/>
+      <c r="R1132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1133">
       <c r="A1133" s="2" t="n">
@@ -63907,7 +63917,9 @@
       <c r="Q1133" t="n">
         <v>0</v>
       </c>
-      <c r="R1133" t="inlineStr"/>
+      <c r="R1133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1134">
       <c r="A1134" s="2" t="n">
@@ -63961,7 +63973,765 @@
       <c r="Q1134" t="n">
         <v>0</v>
       </c>
-      <c r="R1134" t="inlineStr"/>
+      <c r="R1134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2" t="n">
+        <v>45600.38541666666</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>324.4500122070312</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>334.0499877929688</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>315.1000061035156</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>330.3500061035156</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>330.3500061035156</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2" t="n">
+        <v>45600.42708333334</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>330.3999938964844</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>333.7999877929688</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>323.5499877929688</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>325.8999938964844</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>325.8999938964844</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>114122</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1136" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2" t="n">
+        <v>45600.46875</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>325.8999938964844</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>334</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>325.0499877929688</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>333.6000061035156</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>333.6000061035156</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>65087</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1137" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2" t="n">
+        <v>45600.51041666666</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>340</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>333.0499877929688</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>338.1000061035156</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>338.1000061035156</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>168610</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1138" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2" t="n">
+        <v>45600.55208333334</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>338.0499877929688</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>340</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>333</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>333.9500122070312</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>333.9500122070312</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>73619</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1139" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2" t="n">
+        <v>45600.59375</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>333.9500122070312</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>335.8500061035156</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>329.8999938964844</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>332.3999938964844</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>332.3999938964844</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>121896</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2" t="n">
+        <v>45600.63541666666</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>332.2999877929688</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>334.1499938964844</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>331.2999877929688</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>332.3999938964844</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>332.3999938964844</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>47078</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45601.38541666666</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>336.7000122070312</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>344.4500122070312</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>335.5</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>343.1000061035156</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>343.1000061035156</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45601.42708333334</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>343.3999938964844</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>345.2999877929688</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>340.75</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>343.25</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>343.25</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>133280</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45601.46875</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>343.2000122070312</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>343.5</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>338.4500122070312</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>340.8500061035156</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>340.8500061035156</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>54375</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45601.51041666666</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>341.0499877929688</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>341.8500061035156</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>338.8500061035156</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>340.6000061035156</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>340.6000061035156</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>37014</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45601.55208333334</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>339.5</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>342</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>339.1000061035156</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>40075</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45601.59375</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>341.7000122070312</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>345.4500122070312</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>341.2999877929688</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>344.8999938964844</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>344.8999938964844</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>99170</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45601.63541666666</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>344.1000061035156</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>344.9500122070312</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>343</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>344.9500122070312</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>344.9500122070312</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>42185</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1148"/>
+  <dimension ref="A1:R1162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64029,7 +64029,9 @@
       <c r="Q1135" t="n">
         <v>0</v>
       </c>
-      <c r="R1135" t="inlineStr"/>
+      <c r="R1135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1136">
       <c r="A1136" s="2" t="n">
@@ -64083,7 +64085,9 @@
       <c r="Q1136" t="n">
         <v>0</v>
       </c>
-      <c r="R1136" t="inlineStr"/>
+      <c r="R1136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1137">
       <c r="A1137" s="2" t="n">
@@ -64137,7 +64141,9 @@
       <c r="Q1137" t="n">
         <v>0</v>
       </c>
-      <c r="R1137" t="inlineStr"/>
+      <c r="R1137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" s="2" t="n">
@@ -64191,7 +64197,9 @@
       <c r="Q1138" t="n">
         <v>0</v>
       </c>
-      <c r="R1138" t="inlineStr"/>
+      <c r="R1138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1139">
       <c r="A1139" s="2" t="n">
@@ -64245,7 +64253,9 @@
       <c r="Q1139" t="n">
         <v>0</v>
       </c>
-      <c r="R1139" t="inlineStr"/>
+      <c r="R1139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1140">
       <c r="A1140" s="2" t="n">
@@ -64299,7 +64309,9 @@
       <c r="Q1140" t="n">
         <v>1</v>
       </c>
-      <c r="R1140" t="inlineStr"/>
+      <c r="R1140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1141">
       <c r="A1141" s="2" t="n">
@@ -64353,7 +64365,9 @@
       <c r="Q1141" t="n">
         <v>1</v>
       </c>
-      <c r="R1141" t="inlineStr"/>
+      <c r="R1141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1142">
       <c r="A1142" s="2" t="n">
@@ -64407,7 +64421,9 @@
       <c r="Q1142" t="n">
         <v>0</v>
       </c>
-      <c r="R1142" t="inlineStr"/>
+      <c r="R1142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1143">
       <c r="A1143" s="2" t="n">
@@ -64461,7 +64477,9 @@
       <c r="Q1143" t="n">
         <v>0</v>
       </c>
-      <c r="R1143" t="inlineStr"/>
+      <c r="R1143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1144">
       <c r="A1144" s="2" t="n">
@@ -64515,7 +64533,9 @@
       <c r="Q1144" t="n">
         <v>0</v>
       </c>
-      <c r="R1144" t="inlineStr"/>
+      <c r="R1144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1145">
       <c r="A1145" s="2" t="n">
@@ -64569,7 +64589,9 @@
       <c r="Q1145" t="n">
         <v>0</v>
       </c>
-      <c r="R1145" t="inlineStr"/>
+      <c r="R1145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1146">
       <c r="A1146" s="2" t="n">
@@ -64623,7 +64645,9 @@
       <c r="Q1146" t="n">
         <v>0</v>
       </c>
-      <c r="R1146" t="inlineStr"/>
+      <c r="R1146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1147">
       <c r="A1147" s="2" t="n">
@@ -64677,7 +64701,9 @@
       <c r="Q1147" t="n">
         <v>0</v>
       </c>
-      <c r="R1147" t="inlineStr"/>
+      <c r="R1147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" s="2" t="n">
@@ -64731,7 +64757,765 @@
       <c r="Q1148" t="n">
         <v>0</v>
       </c>
-      <c r="R1148" t="inlineStr"/>
+      <c r="R1148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45602.38541666666</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>348.8999938964844</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>359</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>346</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>358.8999938964844</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>358.8999938964844</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45602.42708333334</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>358.3500061035156</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>360.9500122070312</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>354.3500061035156</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>357.8500061035156</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>357.8500061035156</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>623561</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45602.46875</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>357.8500061035156</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>360.9500122070312</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>356</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>360</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>360</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>225451</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45602.51041666666</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>359.2999877929688</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>359.8999938964844</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>352.25</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>354.1000061035156</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>354.1000061035156</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>161715</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45602.55208333334</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>354.1000061035156</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>357.5499877929688</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>354.75</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>354.75</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>109286</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45602.59375</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>354.5499877929688</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>355.4500122070312</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>353</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>354.0499877929688</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>354.0499877929688</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>87053</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45602.63541666666</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>354</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>360</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>353.3999938964844</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>356.2999877929688</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>356.2999877929688</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>76007</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45603.38541666666</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>359.8500061035156</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>374.1000061035156</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>358.3999938964844</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>374.1000061035156</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>374.1000061035156</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45603.42708333334</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>374.1000061035156</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>374.1000061035156</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>368.0499877929688</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>371</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>371</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>310937</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45603.46875</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>370.8999938964844</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>371</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>367.0499877929688</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>367.7999877929688</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>367.7999877929688</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>88862</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45603.51041666666</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>367.7999877929688</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>370.3500061035156</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>367.1499938964844</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>370</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>370</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>78594</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45603.55208333334</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>370</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>371.4500122070312</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>367.8999938964844</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>369.75</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>369.75</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>109390</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45603.59375</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>369.75</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>370</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>365.6000061035156</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>369.6000061035156</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>369.6000061035156</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>111943</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45603.63541666666</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>369.8999938964844</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>370</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>367.5499877929688</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>368.6499938964844</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>368.6499938964844</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>75377</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1162"/>
+  <dimension ref="A1:R1176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64813,7 +64813,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1150">
       <c r="A1150" s="2" t="n">
@@ -64867,7 +64869,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64921,7 +64925,9 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1152">
       <c r="A1152" s="2" t="n">
@@ -64975,7 +64981,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65029,7 +65037,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65083,7 +65093,9 @@
       <c r="Q1154" t="n">
         <v>0</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65137,7 +65149,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65191,7 +65205,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65245,7 +65261,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65299,7 +65317,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65353,7 +65373,9 @@
       <c r="Q1159" t="n">
         <v>0</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65407,7 +65429,9 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1161">
       <c r="A1161" s="2" t="n">
@@ -65461,7 +65485,9 @@
       <c r="Q1161" t="n">
         <v>0</v>
       </c>
-      <c r="R1161" t="inlineStr"/>
+      <c r="R1161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" s="2" t="n">
@@ -65515,7 +65541,765 @@
       <c r="Q1162" t="n">
         <v>0</v>
       </c>
-      <c r="R1162" t="inlineStr"/>
+      <c r="R1162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45604.38541666666</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>372.9500122070312</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>374.3999938964844</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>360</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>364.8500061035156</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>364.8500061035156</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45604.42708333334</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>364.6499938964844</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>366.2000122070312</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>360.5499877929688</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>364.5</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>364.5</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>102768</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45604.46875</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>365</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>365</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>355.4500122070312</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>81312</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45604.51041666666</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>356.1000061035156</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>358.8999938964844</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>352.8500061035156</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>358</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>358</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>91181</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45604.55208333334</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>357.9500122070312</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>358</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>354.0499877929688</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>356.3500061035156</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>356.3500061035156</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>38889</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45604.59375</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>356.8999938964844</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>358</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>353.6000061035156</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>354.3500061035156</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>354.3500061035156</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>93635</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45604.63541666666</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>354.5499877929688</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>355.7999877929688</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>352.3999938964844</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>352.3999938964844</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>352.3999938964844</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>53392</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2" t="n">
+        <v>45607.38541666666</v>
+      </c>
+      <c r="B1170" t="n">
+        <v>352</v>
+      </c>
+      <c r="C1170" t="n">
+        <v>352</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>342.0499877929688</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>345.6000061035156</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>345.6000061035156</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1170" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1170" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1170" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1170" t="inlineStr"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45607.42708333334</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>346.1499938964844</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>364.2000122070312</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>343.7999877929688</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>358.5</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>358.5</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>183252</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45607.46875</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>359.2000122070312</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>363.2000122070312</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>356.6499938964844</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>358.75</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>358.75</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>77028</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45607.51041666666</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>359</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>359.9500122070312</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>355.7999877929688</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>358.75</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>358.75</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>43812</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45607.55208333334</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>358.75</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>360</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>352</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>352</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>352</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>59024</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45607.59375</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>351.9500122070312</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>354.7999877929688</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>349</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>350</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>350</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>45285</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45607.63541666666</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>350.1000061035156</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>352.3999938964844</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>348</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>350</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>350</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>31749</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1176"/>
+  <dimension ref="A1:R1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65597,7 +65597,9 @@
       <c r="Q1163" t="n">
         <v>0</v>
       </c>
-      <c r="R1163" t="inlineStr"/>
+      <c r="R1163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1164">
       <c r="A1164" s="2" t="n">
@@ -65651,7 +65653,9 @@
       <c r="Q1164" t="n">
         <v>0</v>
       </c>
-      <c r="R1164" t="inlineStr"/>
+      <c r="R1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -65705,7 +65709,9 @@
       <c r="Q1165" t="n">
         <v>0</v>
       </c>
-      <c r="R1165" t="inlineStr"/>
+      <c r="R1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -65759,7 +65765,9 @@
       <c r="Q1166" t="n">
         <v>0</v>
       </c>
-      <c r="R1166" t="inlineStr"/>
+      <c r="R1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -65813,7 +65821,9 @@
       <c r="Q1167" t="n">
         <v>0</v>
       </c>
-      <c r="R1167" t="inlineStr"/>
+      <c r="R1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -65867,7 +65877,9 @@
       <c r="Q1168" t="n">
         <v>0</v>
       </c>
-      <c r="R1168" t="inlineStr"/>
+      <c r="R1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -65921,7 +65933,9 @@
       <c r="Q1169" t="n">
         <v>0</v>
       </c>
-      <c r="R1169" t="inlineStr"/>
+      <c r="R1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -65967,7 +65981,7 @@
         <v>46</v>
       </c>
       <c r="O1170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1170" t="n">
         <v>0</v>
@@ -65975,7 +65989,9 @@
       <c r="Q1170" t="n">
         <v>0</v>
       </c>
-      <c r="R1170" t="inlineStr"/>
+      <c r="R1170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1171">
       <c r="A1171" s="2" t="n">
@@ -66029,7 +66045,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -66083,7 +66101,9 @@
       <c r="Q1172" t="n">
         <v>0</v>
       </c>
-      <c r="R1172" t="inlineStr"/>
+      <c r="R1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -66137,7 +66157,9 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -66191,7 +66213,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66245,7 +66269,9 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -66299,7 +66325,765 @@
       <c r="Q1176" t="n">
         <v>0</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45608.38541666666</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>354.9500122070312</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>359.9500122070312</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>351.8999938964844</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>354.75</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>354.75</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45608.42708333334</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>355</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>356.3999938964844</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>350.3500061035156</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>352.7000122070312</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>352.7000122070312</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>29746</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45608.46875</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>352.3500061035156</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>353.7999877929688</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>351.0499877929688</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>352.0499877929688</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>352.0499877929688</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>32736</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45608.51041666666</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>352.0499877929688</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>352.4500122070312</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>348</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>348</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>348</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>20187</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45608.55208333334</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>348</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>348.2000122070312</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>341</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>342.5</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>342.5</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>51848</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45608.59375</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>342.7999877929688</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>343.75</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>338.2999877929688</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>339.75</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>339.75</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>50492</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45608.63541666666</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>339.8500061035156</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>345.7999877929688</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>337.6000061035156</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>342</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>342</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>36979</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45609.38541666666</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>334.1000061035156</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>338.9500122070312</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>325.8500061035156</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>325.8500061035156</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45609.42708333334</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>325.4500122070312</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>331.7999877929688</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>323</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>328</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>328</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>82723</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45609.46875</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>328</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>328.75</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>326.6000061035156</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>326.6000061035156</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>36168</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45609.51041666666</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>325.2000122070312</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>327.4500122070312</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>326.25</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>326.25</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>51375</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45609.55208333334</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>326.25</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>329.8999938964844</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>325.0499877929688</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>326.75</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>326.75</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>33518</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2" t="n">
+        <v>45609.59375</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>326.0499877929688</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>326.75</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>322.3500061035156</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>322.75</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>322.75</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>68256</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2" t="n">
+        <v>45609.63541666666</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>322.75</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>322.3500061035156</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>322.7000122070312</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>322.7000122070312</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>49194</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1190" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1190"/>
+  <dimension ref="A1:R1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66381,7 +66381,9 @@
       <c r="Q1177" t="n">
         <v>0</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66435,7 +66437,9 @@
       <c r="Q1178" t="n">
         <v>0</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
@@ -66489,7 +66493,9 @@
       <c r="Q1179" t="n">
         <v>0</v>
       </c>
-      <c r="R1179" t="inlineStr"/>
+      <c r="R1179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
@@ -66543,7 +66549,9 @@
       <c r="Q1180" t="n">
         <v>0</v>
       </c>
-      <c r="R1180" t="inlineStr"/>
+      <c r="R1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -66597,7 +66605,9 @@
       <c r="Q1181" t="n">
         <v>1</v>
       </c>
-      <c r="R1181" t="inlineStr"/>
+      <c r="R1181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
@@ -66651,7 +66661,9 @@
       <c r="Q1182" t="n">
         <v>0</v>
       </c>
-      <c r="R1182" t="inlineStr"/>
+      <c r="R1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -66705,7 +66717,9 @@
       <c r="Q1183" t="n">
         <v>0</v>
       </c>
-      <c r="R1183" t="inlineStr"/>
+      <c r="R1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -66759,7 +66773,9 @@
       <c r="Q1184" t="n">
         <v>0</v>
       </c>
-      <c r="R1184" t="inlineStr"/>
+      <c r="R1184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
@@ -66813,7 +66829,9 @@
       <c r="Q1185" t="n">
         <v>0</v>
       </c>
-      <c r="R1185" t="inlineStr"/>
+      <c r="R1185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
@@ -66867,7 +66885,9 @@
       <c r="Q1186" t="n">
         <v>0</v>
       </c>
-      <c r="R1186" t="inlineStr"/>
+      <c r="R1186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" s="2" t="n">
@@ -66921,7 +66941,9 @@
       <c r="Q1187" t="n">
         <v>0</v>
       </c>
-      <c r="R1187" t="inlineStr"/>
+      <c r="R1187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
@@ -66975,7 +66997,9 @@
       <c r="Q1188" t="n">
         <v>0</v>
       </c>
-      <c r="R1188" t="inlineStr"/>
+      <c r="R1188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1189">
       <c r="A1189" s="2" t="n">
@@ -67029,7 +67053,9 @@
       <c r="Q1189" t="n">
         <v>0</v>
       </c>
-      <c r="R1189" t="inlineStr"/>
+      <c r="R1189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
@@ -67083,7 +67109,387 @@
       <c r="Q1190" t="n">
         <v>0</v>
       </c>
-      <c r="R1190" t="inlineStr"/>
+      <c r="R1190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2" t="n">
+        <v>45610.38541666666</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2" t="n">
+        <v>45610.42708333334</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>16568</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2" t="n">
+        <v>45610.46875</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>9235</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="2" t="n">
+        <v>45610.51041666666</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>6242</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1194" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1194" t="inlineStr"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="2" t="n">
+        <v>45610.55208333334</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>8482</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1195" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1195" t="inlineStr"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="2" t="n">
+        <v>45610.59375</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>12889</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1196" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1196" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1196" t="inlineStr"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="2" t="n">
+        <v>45610.63541666666</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>306.6000061035156</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>4161</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1197" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1197" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1197"/>
+  <dimension ref="A1:R1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67165,7 +67165,9 @@
       <c r="Q1191" t="n">
         <v>0</v>
       </c>
-      <c r="R1191" t="inlineStr"/>
+      <c r="R1191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1192">
       <c r="A1192" s="2" t="n">
@@ -67219,7 +67221,9 @@
       <c r="Q1192" t="n">
         <v>0</v>
       </c>
-      <c r="R1192" t="inlineStr"/>
+      <c r="R1192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
@@ -67273,7 +67277,9 @@
       <c r="Q1193" t="n">
         <v>0</v>
       </c>
-      <c r="R1193" t="inlineStr"/>
+      <c r="R1193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
@@ -67327,7 +67333,9 @@
       <c r="Q1194" t="n">
         <v>0</v>
       </c>
-      <c r="R1194" t="inlineStr"/>
+      <c r="R1194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
@@ -67381,7 +67389,9 @@
       <c r="Q1195" t="n">
         <v>0</v>
       </c>
-      <c r="R1195" t="inlineStr"/>
+      <c r="R1195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
@@ -67435,7 +67445,9 @@
       <c r="Q1196" t="n">
         <v>0</v>
       </c>
-      <c r="R1196" t="inlineStr"/>
+      <c r="R1196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
@@ -67489,7 +67501,387 @@
       <c r="Q1197" t="n">
         <v>0</v>
       </c>
-      <c r="R1197" t="inlineStr"/>
+      <c r="R1197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="2" t="n">
+        <v>45614.38541666666</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1198" t="inlineStr"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="2" t="n">
+        <v>45614.42708333334</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>12966</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1199" t="inlineStr"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="2" t="n">
+        <v>45614.46875</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>8213</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="2" t="n">
+        <v>45614.51041666666</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>10637</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="2" t="n">
+        <v>45614.55208333334</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>10112</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2" t="n">
+        <v>45614.59375</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>8592</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2" t="n">
+        <v>45614.63541666666</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>2602</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1204" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1204"/>
+  <dimension ref="A1:R1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67557,7 +67557,9 @@
       <c r="Q1198" t="n">
         <v>0</v>
       </c>
-      <c r="R1198" t="inlineStr"/>
+      <c r="R1198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
@@ -67611,7 +67613,9 @@
       <c r="Q1199" t="n">
         <v>0</v>
       </c>
-      <c r="R1199" t="inlineStr"/>
+      <c r="R1199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
@@ -67665,7 +67669,9 @@
       <c r="Q1200" t="n">
         <v>0</v>
       </c>
-      <c r="R1200" t="inlineStr"/>
+      <c r="R1200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
@@ -67719,7 +67725,9 @@
       <c r="Q1201" t="n">
         <v>0</v>
       </c>
-      <c r="R1201" t="inlineStr"/>
+      <c r="R1201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
@@ -67773,7 +67781,9 @@
       <c r="Q1202" t="n">
         <v>0</v>
       </c>
-      <c r="R1202" t="inlineStr"/>
+      <c r="R1202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
@@ -67827,7 +67837,9 @@
       <c r="Q1203" t="n">
         <v>0</v>
       </c>
-      <c r="R1203" t="inlineStr"/>
+      <c r="R1203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
@@ -67881,7 +67893,387 @@
       <c r="Q1204" t="n">
         <v>0</v>
       </c>
-      <c r="R1204" t="inlineStr"/>
+      <c r="R1204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2" t="n">
+        <v>45615.38541666666</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>276.75</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>285.0499877929688</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>276.75</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>283.8999938964844</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>283.8999938964844</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>1420686</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1205" t="inlineStr"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2" t="n">
+        <v>45615.42708333334</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>283.8500061035156</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>284.25</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>278</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>278.7000122070312</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>278.7000122070312</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>231880</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2" t="n">
+        <v>45615.46875</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>278.7000122070312</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>281.75</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>278.1000061035156</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>278.5499877929688</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>278.5499877929688</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>236445</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1207" t="inlineStr"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2" t="n">
+        <v>45615.51041666666</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>278.8999938964844</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>280.6000061035156</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>278.25</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>279.5499877929688</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>279.5499877929688</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>72842</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1208" t="inlineStr"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2" t="n">
+        <v>45615.55208333334</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>279.6499938964844</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>283</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>279</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>279.4500122070312</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>279.4500122070312</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>121733</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1209" t="inlineStr"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2" t="n">
+        <v>45615.59375</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>276.75</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>276.75</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>276.75</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>137421</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="2" t="n">
+        <v>45615.63541666666</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>276.75</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>276.75</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>276.75</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>276.75</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>276.75</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>14564</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1211"/>
+  <dimension ref="A1:R1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67949,7 +67949,9 @@
       <c r="Q1205" t="n">
         <v>0</v>
       </c>
-      <c r="R1205" t="inlineStr"/>
+      <c r="R1205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
@@ -68003,7 +68005,9 @@
       <c r="Q1206" t="n">
         <v>0</v>
       </c>
-      <c r="R1206" t="inlineStr"/>
+      <c r="R1206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
@@ -68057,7 +68061,9 @@
       <c r="Q1207" t="n">
         <v>0</v>
       </c>
-      <c r="R1207" t="inlineStr"/>
+      <c r="R1207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
@@ -68111,7 +68117,9 @@
       <c r="Q1208" t="n">
         <v>0</v>
       </c>
-      <c r="R1208" t="inlineStr"/>
+      <c r="R1208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
@@ -68165,7 +68173,9 @@
       <c r="Q1209" t="n">
         <v>0</v>
       </c>
-      <c r="R1209" t="inlineStr"/>
+      <c r="R1209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1210">
       <c r="A1210" s="2" t="n">
@@ -68219,7 +68229,9 @@
       <c r="Q1210" t="n">
         <v>0</v>
       </c>
-      <c r="R1210" t="inlineStr"/>
+      <c r="R1210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
@@ -68273,7 +68285,387 @@
       <c r="Q1211" t="n">
         <v>0</v>
       </c>
-      <c r="R1211" t="inlineStr"/>
+      <c r="R1211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2" t="n">
+        <v>45617.38541666666</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>268.8999938964844</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>271.6499938964844</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>266.9500122070312</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>266.9500122070312</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1212" t="inlineStr"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2" t="n">
+        <v>45617.42708333334</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>263.7999877929688</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>266.7999877929688</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>266.7999877929688</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>105251</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1213" t="inlineStr"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="2" t="n">
+        <v>45617.46875</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>266.7999877929688</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>268.5499877929688</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>265</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>265.3500061035156</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>265.3500061035156</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>55227</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2" t="n">
+        <v>45617.51041666666</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>265.3500061035156</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>102858</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1215" t="inlineStr"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2" t="n">
+        <v>45617.55208333334</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>32120</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2" t="n">
+        <v>45617.59375</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>16375</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1217" t="inlineStr"/>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2" t="n">
+        <v>45617.63541666666</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>13874</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1218" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1218"/>
+  <dimension ref="A1:R1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68341,7 +68341,9 @@
       <c r="Q1212" t="n">
         <v>0</v>
       </c>
-      <c r="R1212" t="inlineStr"/>
+      <c r="R1212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1213">
       <c r="A1213" s="2" t="n">
@@ -68395,7 +68397,9 @@
       <c r="Q1213" t="n">
         <v>0</v>
       </c>
-      <c r="R1213" t="inlineStr"/>
+      <c r="R1213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
@@ -68449,7 +68453,9 @@
       <c r="Q1214" t="n">
         <v>0</v>
       </c>
-      <c r="R1214" t="inlineStr"/>
+      <c r="R1214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
@@ -68503,7 +68509,9 @@
       <c r="Q1215" t="n">
         <v>0</v>
       </c>
-      <c r="R1215" t="inlineStr"/>
+      <c r="R1215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1216">
       <c r="A1216" s="2" t="n">
@@ -68557,7 +68565,9 @@
       <c r="Q1216" t="n">
         <v>0</v>
       </c>
-      <c r="R1216" t="inlineStr"/>
+      <c r="R1216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
@@ -68611,7 +68621,9 @@
       <c r="Q1217" t="n">
         <v>0</v>
       </c>
-      <c r="R1217" t="inlineStr"/>
+      <c r="R1217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1218">
       <c r="A1218" s="2" t="n">
@@ -68665,7 +68677,765 @@
       <c r="Q1218" t="n">
         <v>0</v>
       </c>
-      <c r="R1218" t="inlineStr"/>
+      <c r="R1218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2" t="n">
+        <v>45618.38541666666</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>261</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>273</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>258.0499877929688</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>265.6000061035156</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>265.6000061035156</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2" t="n">
+        <v>45618.42708333334</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>266.3500061035156</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>272.8500061035156</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>264.5499877929688</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>272.75</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>272.75</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>78433</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1220" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1220" t="inlineStr"/>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="2" t="n">
+        <v>45618.46875</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>272.3500061035156</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>274</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>268</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>269.2999877929688</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>269.2999877929688</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>78447</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1221" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1221" t="inlineStr"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="2" t="n">
+        <v>45618.51041666666</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>268.9500122070312</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>269.6000061035156</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>267</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>268.6000061035156</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>268.6000061035156</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>48291</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1222" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1222" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1222" t="inlineStr"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="2" t="n">
+        <v>45618.55208333334</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>268.25</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>271.8999938964844</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>271</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>271</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>61117</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1223" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1223" t="inlineStr"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="2" t="n">
+        <v>45618.59375</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>271.3500061035156</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>268.0499877929688</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>269.7000122070312</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>269.7000122070312</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>58548</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1224" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1224" t="inlineStr"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="2" t="n">
+        <v>45618.63541666666</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>269.6499938964844</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>273.6000061035156</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>268.8500061035156</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>271.2000122070312</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>271.2000122070312</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>63992</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1225" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1225" t="inlineStr"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="2" t="n">
+        <v>45621.38541666666</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>271</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>271.7000122070312</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>271.7000122070312</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1226" t="inlineStr"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="2" t="n">
+        <v>45621.42708333334</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>271.75</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>274.3500061035156</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>42414</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1227" t="inlineStr"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="2" t="n">
+        <v>45621.46875</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>272.2000122070312</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>272</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>272.75</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>272.75</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>20975</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1228" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="2" t="n">
+        <v>45621.51041666666</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>272.75</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>272.75</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>267.1499938964844</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>269.1499938964844</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>269.1499938964844</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>73667</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="2" t="n">
+        <v>45621.55208333334</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>269.1499938964844</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>265.25</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>267</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>267</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>36983</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1230" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1230" t="inlineStr"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="2" t="n">
+        <v>45621.59375</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>267</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>267.3500061035156</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>263.0499877929688</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>263.9500122070312</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>263.9500122070312</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>55870</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1231" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1231" t="inlineStr"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="2" t="n">
+        <v>45621.63541666666</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>263.9500122070312</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>265.3999938964844</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>263.7000122070312</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>265.3999938964844</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>265.3999938964844</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>25477</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1232" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1232" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1232"/>
+  <dimension ref="A1:R1246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68733,7 +68733,9 @@
       <c r="Q1219" t="n">
         <v>0</v>
       </c>
-      <c r="R1219" t="inlineStr"/>
+      <c r="R1219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
@@ -68787,7 +68789,9 @@
       <c r="Q1220" t="n">
         <v>0</v>
       </c>
-      <c r="R1220" t="inlineStr"/>
+      <c r="R1220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1221">
       <c r="A1221" s="2" t="n">
@@ -68841,7 +68845,9 @@
       <c r="Q1221" t="n">
         <v>0</v>
       </c>
-      <c r="R1221" t="inlineStr"/>
+      <c r="R1221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
@@ -68895,7 +68901,9 @@
       <c r="Q1222" t="n">
         <v>0</v>
       </c>
-      <c r="R1222" t="inlineStr"/>
+      <c r="R1222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1223">
       <c r="A1223" s="2" t="n">
@@ -68949,7 +68957,9 @@
       <c r="Q1223" t="n">
         <v>0</v>
       </c>
-      <c r="R1223" t="inlineStr"/>
+      <c r="R1223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
@@ -69003,7 +69013,9 @@
       <c r="Q1224" t="n">
         <v>0</v>
       </c>
-      <c r="R1224" t="inlineStr"/>
+      <c r="R1224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
@@ -69057,7 +69069,9 @@
       <c r="Q1225" t="n">
         <v>0</v>
       </c>
-      <c r="R1225" t="inlineStr"/>
+      <c r="R1225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1226">
       <c r="A1226" s="2" t="n">
@@ -69103,7 +69117,7 @@
         <v>48</v>
       </c>
       <c r="O1226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1226" t="n">
         <v>0</v>
@@ -69111,7 +69125,9 @@
       <c r="Q1226" t="n">
         <v>0</v>
       </c>
-      <c r="R1226" t="inlineStr"/>
+      <c r="R1226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1227">
       <c r="A1227" s="2" t="n">
@@ -69165,7 +69181,9 @@
       <c r="Q1227" t="n">
         <v>0</v>
       </c>
-      <c r="R1227" t="inlineStr"/>
+      <c r="R1227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
@@ -69219,7 +69237,9 @@
       <c r="Q1228" t="n">
         <v>0</v>
       </c>
-      <c r="R1228" t="inlineStr"/>
+      <c r="R1228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
@@ -69273,7 +69293,9 @@
       <c r="Q1229" t="n">
         <v>0</v>
       </c>
-      <c r="R1229" t="inlineStr"/>
+      <c r="R1229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
@@ -69327,7 +69349,9 @@
       <c r="Q1230" t="n">
         <v>1</v>
       </c>
-      <c r="R1230" t="inlineStr"/>
+      <c r="R1230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
@@ -69381,7 +69405,9 @@
       <c r="Q1231" t="n">
         <v>0</v>
       </c>
-      <c r="R1231" t="inlineStr"/>
+      <c r="R1231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1232">
       <c r="A1232" s="2" t="n">
@@ -69435,7 +69461,765 @@
       <c r="Q1232" t="n">
         <v>0</v>
       </c>
-      <c r="R1232" t="inlineStr"/>
+      <c r="R1232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="2" t="n">
+        <v>45622.38541666666</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>267.2000122070312</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>269.4500122070312</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>263.1000061035156</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>97484</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="2" t="n">
+        <v>45622.42708333334</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>267.1499938964844</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>262.7999877929688</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>265.3500061035156</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>265.3500061035156</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>43232</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="2" t="n">
+        <v>45622.46875</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>265.3500061035156</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>265.8999938964844</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>263.7999877929688</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>24636</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1235" t="inlineStr"/>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="2" t="n">
+        <v>45622.51041666666</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>265</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>263.3500061035156</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>263.9500122070312</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>263.9500122070312</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>25227</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1236" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1236" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="2" t="n">
+        <v>45622.55208333334</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>263.9500122070312</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>267.75</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>263.5499877929688</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>267.1000061035156</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>267.1000061035156</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>20147</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1237" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1237" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="2" t="n">
+        <v>45622.59375</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>267.2000122070312</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>271.3999938964844</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>267</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>54572</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1238" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1238" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="2" t="n">
+        <v>45622.63541666666</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>268.9500122070312</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>268.9500122070312</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>267.1000061035156</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>19190</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1239" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1239" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2" t="n">
+        <v>45623.38541666666</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>271.7999877929688</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>271.7999877929688</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>265.3500061035156</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>268.2999877929688</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>268.2999877929688</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1240" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1240" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1240" t="inlineStr"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="2" t="n">
+        <v>45623.42708333334</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>268.1000061035156</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>269.7999877929688</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>267.3500061035156</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>269.4500122070312</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>269.4500122070312</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>29249</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1241" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1241" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1241" t="inlineStr"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="2" t="n">
+        <v>45623.46875</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>269.4500122070312</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>271</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>267</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>268.25</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>268.25</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>59879</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1242" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1242" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="2" t="n">
+        <v>45623.51041666666</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>268.3500061035156</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>268.4500122070312</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>266.4500122070312</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>40057</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1243" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1243" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="2" t="n">
+        <v>45623.55208333334</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>267.2999877929688</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>267.6499938964844</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>266.0499877929688</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>266.6000061035156</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>266.6000061035156</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>30542</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1244" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1244" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1244" t="inlineStr"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="2" t="n">
+        <v>45623.59375</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>266.6000061035156</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>267.8500061035156</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>266.2000122070312</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>267.4500122070312</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>267.4500122070312</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>53268</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1245" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1245" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1245" t="inlineStr"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="2" t="n">
+        <v>45623.63541666666</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>267.3999938964844</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>267.0499877929688</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>21693</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1246" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1246" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1246" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1246"/>
+  <dimension ref="A1:R1260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69517,7 +69517,9 @@
       <c r="Q1233" t="n">
         <v>0</v>
       </c>
-      <c r="R1233" t="inlineStr"/>
+      <c r="R1233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
@@ -69571,7 +69573,9 @@
       <c r="Q1234" t="n">
         <v>0</v>
       </c>
-      <c r="R1234" t="inlineStr"/>
+      <c r="R1234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
@@ -69625,7 +69629,9 @@
       <c r="Q1235" t="n">
         <v>0</v>
       </c>
-      <c r="R1235" t="inlineStr"/>
+      <c r="R1235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1236">
       <c r="A1236" s="2" t="n">
@@ -69679,7 +69685,9 @@
       <c r="Q1236" t="n">
         <v>0</v>
       </c>
-      <c r="R1236" t="inlineStr"/>
+      <c r="R1236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
@@ -69733,7 +69741,9 @@
       <c r="Q1237" t="n">
         <v>0</v>
       </c>
-      <c r="R1237" t="inlineStr"/>
+      <c r="R1237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
@@ -69787,7 +69797,9 @@
       <c r="Q1238" t="n">
         <v>0</v>
       </c>
-      <c r="R1238" t="inlineStr"/>
+      <c r="R1238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
@@ -69841,7 +69853,9 @@
       <c r="Q1239" t="n">
         <v>0</v>
       </c>
-      <c r="R1239" t="inlineStr"/>
+      <c r="R1239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1240">
       <c r="A1240" s="2" t="n">
@@ -69895,7 +69909,9 @@
       <c r="Q1240" t="n">
         <v>0</v>
       </c>
-      <c r="R1240" t="inlineStr"/>
+      <c r="R1240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1241">
       <c r="A1241" s="2" t="n">
@@ -69949,7 +69965,9 @@
       <c r="Q1241" t="n">
         <v>0</v>
       </c>
-      <c r="R1241" t="inlineStr"/>
+      <c r="R1241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1242">
       <c r="A1242" s="2" t="n">
@@ -70003,7 +70021,9 @@
       <c r="Q1242" t="n">
         <v>0</v>
       </c>
-      <c r="R1242" t="inlineStr"/>
+      <c r="R1242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1243">
       <c r="A1243" s="2" t="n">
@@ -70057,7 +70077,9 @@
       <c r="Q1243" t="n">
         <v>0</v>
       </c>
-      <c r="R1243" t="inlineStr"/>
+      <c r="R1243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1244">
       <c r="A1244" s="2" t="n">
@@ -70111,7 +70133,9 @@
       <c r="Q1244" t="n">
         <v>0</v>
       </c>
-      <c r="R1244" t="inlineStr"/>
+      <c r="R1244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1245">
       <c r="A1245" s="2" t="n">
@@ -70165,7 +70189,9 @@
       <c r="Q1245" t="n">
         <v>0</v>
       </c>
-      <c r="R1245" t="inlineStr"/>
+      <c r="R1245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1246">
       <c r="A1246" s="2" t="n">
@@ -70219,7 +70245,765 @@
       <c r="Q1246" t="n">
         <v>0</v>
       </c>
-      <c r="R1246" t="inlineStr"/>
+      <c r="R1246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="2" t="n">
+        <v>45624.38541666666</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>269</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>280.7000122070312</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>280.2999877929688</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>280.2999877929688</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1247" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1247" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="2" t="n">
+        <v>45624.42708333334</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>280.2999877929688</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>276.5499877929688</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>278.75</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>278.75</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>184618</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1248" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="2" t="n">
+        <v>45624.46875</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>279.8999938964844</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>278</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>59788</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1249" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="2" t="n">
+        <v>45624.51041666666</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>7563</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1250" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="2" t="n">
+        <v>45624.55208333334</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>3102</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1251" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1251" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2" t="n">
+        <v>45624.59375</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>14493</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1252" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1252" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1252" t="inlineStr"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="2" t="n">
+        <v>45624.63541666666</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>280.75</v>
+      </c>
+      <c r="G1253" t="n">
+        <v>4692</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1253" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1253" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1253" t="inlineStr"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="2" t="n">
+        <v>45625.38541666666</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>285.9500122070312</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>288.2999877929688</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>278.25</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>279.5499877929688</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>279.5499877929688</v>
+      </c>
+      <c r="G1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1254" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1254" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1254" t="inlineStr"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="2" t="n">
+        <v>45625.42708333334</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>279.6000061035156</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>282.3999938964844</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>277.6000061035156</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>278</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>278</v>
+      </c>
+      <c r="G1255" t="n">
+        <v>58562</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1255" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1255" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1255" t="inlineStr"/>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="2" t="n">
+        <v>45625.46875</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>278</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>276.5499877929688</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="G1256" t="n">
+        <v>28228</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1256" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1256" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="2" t="n">
+        <v>45625.51041666666</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>276.5499877929688</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>277.7999877929688</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>277.7999877929688</v>
+      </c>
+      <c r="G1257" t="n">
+        <v>17680</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1257" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1257" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1257" t="inlineStr"/>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="2" t="n">
+        <v>45625.55208333334</v>
+      </c>
+      <c r="B1258" t="n">
+        <v>278.1000061035156</v>
+      </c>
+      <c r="C1258" t="n">
+        <v>278.25</v>
+      </c>
+      <c r="D1258" t="n">
+        <v>276.4500122070312</v>
+      </c>
+      <c r="E1258" t="n">
+        <v>277.4500122070312</v>
+      </c>
+      <c r="F1258" t="n">
+        <v>277.4500122070312</v>
+      </c>
+      <c r="G1258" t="n">
+        <v>40963</v>
+      </c>
+      <c r="H1258" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1258" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1258" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1258" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1258" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1258" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1258" t="inlineStr"/>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="2" t="n">
+        <v>45625.59375</v>
+      </c>
+      <c r="B1259" t="n">
+        <v>277.6000061035156</v>
+      </c>
+      <c r="C1259" t="n">
+        <v>278.3999938964844</v>
+      </c>
+      <c r="D1259" t="n">
+        <v>276.7999877929688</v>
+      </c>
+      <c r="E1259" t="n">
+        <v>277.6499938964844</v>
+      </c>
+      <c r="F1259" t="n">
+        <v>277.6499938964844</v>
+      </c>
+      <c r="G1259" t="n">
+        <v>36905</v>
+      </c>
+      <c r="H1259" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1259" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1259" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1259" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1259" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1259" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1259" t="inlineStr"/>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="2" t="n">
+        <v>45625.63541666666</v>
+      </c>
+      <c r="B1260" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="C1260" t="n">
+        <v>278</v>
+      </c>
+      <c r="D1260" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="E1260" t="n">
+        <v>277</v>
+      </c>
+      <c r="F1260" t="n">
+        <v>277</v>
+      </c>
+      <c r="G1260" t="n">
+        <v>30264</v>
+      </c>
+      <c r="H1260" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1260" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1260" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1260" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1260" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1260" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1260" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1260"/>
+  <dimension ref="A1:R1274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70301,7 +70301,9 @@
       <c r="Q1247" t="n">
         <v>0</v>
       </c>
-      <c r="R1247" t="inlineStr"/>
+      <c r="R1247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1248">
       <c r="A1248" s="2" t="n">
@@ -70355,7 +70357,9 @@
       <c r="Q1248" t="n">
         <v>0</v>
       </c>
-      <c r="R1248" t="inlineStr"/>
+      <c r="R1248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1249">
       <c r="A1249" s="2" t="n">
@@ -70409,7 +70413,9 @@
       <c r="Q1249" t="n">
         <v>0</v>
       </c>
-      <c r="R1249" t="inlineStr"/>
+      <c r="R1249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1250">
       <c r="A1250" s="2" t="n">
@@ -70463,7 +70469,9 @@
       <c r="Q1250" t="n">
         <v>0</v>
       </c>
-      <c r="R1250" t="inlineStr"/>
+      <c r="R1250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1251">
       <c r="A1251" s="2" t="n">
@@ -70517,7 +70525,9 @@
       <c r="Q1251" t="n">
         <v>0</v>
       </c>
-      <c r="R1251" t="inlineStr"/>
+      <c r="R1251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1252">
       <c r="A1252" s="2" t="n">
@@ -70571,7 +70581,9 @@
       <c r="Q1252" t="n">
         <v>0</v>
       </c>
-      <c r="R1252" t="inlineStr"/>
+      <c r="R1252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1253">
       <c r="A1253" s="2" t="n">
@@ -70625,7 +70637,9 @@
       <c r="Q1253" t="n">
         <v>0</v>
       </c>
-      <c r="R1253" t="inlineStr"/>
+      <c r="R1253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1254">
       <c r="A1254" s="2" t="n">
@@ -70671,7 +70685,7 @@
         <v>48</v>
       </c>
       <c r="O1254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1254" t="n">
         <v>0</v>
@@ -70679,7 +70693,9 @@
       <c r="Q1254" t="n">
         <v>0</v>
       </c>
-      <c r="R1254" t="inlineStr"/>
+      <c r="R1254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1255">
       <c r="A1255" s="2" t="n">
@@ -70733,7 +70749,9 @@
       <c r="Q1255" t="n">
         <v>0</v>
       </c>
-      <c r="R1255" t="inlineStr"/>
+      <c r="R1255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1256">
       <c r="A1256" s="2" t="n">
@@ -70787,7 +70805,9 @@
       <c r="Q1256" t="n">
         <v>0</v>
       </c>
-      <c r="R1256" t="inlineStr"/>
+      <c r="R1256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1257">
       <c r="A1257" s="2" t="n">
@@ -70841,7 +70861,9 @@
       <c r="Q1257" t="n">
         <v>0</v>
       </c>
-      <c r="R1257" t="inlineStr"/>
+      <c r="R1257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1258">
       <c r="A1258" s="2" t="n">
@@ -70895,7 +70917,9 @@
       <c r="Q1258" t="n">
         <v>0</v>
       </c>
-      <c r="R1258" t="inlineStr"/>
+      <c r="R1258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1259">
       <c r="A1259" s="2" t="n">
@@ -70949,7 +70973,9 @@
       <c r="Q1259" t="n">
         <v>0</v>
       </c>
-      <c r="R1259" t="inlineStr"/>
+      <c r="R1259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1260">
       <c r="A1260" s="2" t="n">
@@ -71003,7 +71029,765 @@
       <c r="Q1260" t="n">
         <v>0</v>
       </c>
-      <c r="R1260" t="inlineStr"/>
+      <c r="R1260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="2" t="n">
+        <v>45628.38541666666</v>
+      </c>
+      <c r="B1261" t="n">
+        <v>276.9500122070312</v>
+      </c>
+      <c r="C1261" t="n">
+        <v>279.0499877929688</v>
+      </c>
+      <c r="D1261" t="n">
+        <v>271.2000122070312</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="G1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1261" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1261" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1261" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1261" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1261" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1261" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1261" t="inlineStr"/>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="2" t="n">
+        <v>45628.42708333334</v>
+      </c>
+      <c r="B1262" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="C1262" t="n">
+        <v>284</v>
+      </c>
+      <c r="D1262" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>283.4500122070312</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>283.4500122070312</v>
+      </c>
+      <c r="G1262" t="n">
+        <v>92002</v>
+      </c>
+      <c r="H1262" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1262" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1262" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1262" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1262" t="inlineStr"/>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="2" t="n">
+        <v>45628.46875</v>
+      </c>
+      <c r="B1263" t="n">
+        <v>283.6499938964844</v>
+      </c>
+      <c r="C1263" t="n">
+        <v>283.6499938964844</v>
+      </c>
+      <c r="D1263" t="n">
+        <v>280.3500061035156</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>281.1499938964844</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>281.1499938964844</v>
+      </c>
+      <c r="G1263" t="n">
+        <v>41847</v>
+      </c>
+      <c r="H1263" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1263" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1263" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1263" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1263" t="inlineStr"/>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="2" t="n">
+        <v>45628.51041666666</v>
+      </c>
+      <c r="B1264" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>281.7999877929688</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>279.1000061035156</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="G1264" t="n">
+        <v>23452</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1264" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1264" t="inlineStr"/>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="2" t="n">
+        <v>45628.55208333334</v>
+      </c>
+      <c r="B1265" t="n">
+        <v>279.75</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>280.3999938964844</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>279.2000122070312</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>279.8500061035156</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>279.8500061035156</v>
+      </c>
+      <c r="G1265" t="n">
+        <v>30178</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1265" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1265" t="inlineStr"/>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2" t="n">
+        <v>45628.59375</v>
+      </c>
+      <c r="B1266" t="n">
+        <v>279.7000122070312</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>280.0499877929688</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>278.8500061035156</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>279.3999938964844</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>279.3999938964844</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>43299</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1266" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1266" t="inlineStr"/>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2" t="n">
+        <v>45628.63541666666</v>
+      </c>
+      <c r="B1267" t="n">
+        <v>279.3999938964844</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>280</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>279</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>280</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>280</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>23971</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1267" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1267" t="inlineStr"/>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="2" t="n">
+        <v>45629.38541666666</v>
+      </c>
+      <c r="B1268" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>286.7000122070312</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>280.1000061035156</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>286.6000061035156</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>286.6000061035156</v>
+      </c>
+      <c r="G1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1268" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1268" t="inlineStr"/>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2" t="n">
+        <v>45629.42708333334</v>
+      </c>
+      <c r="B1269" t="n">
+        <v>286.6000061035156</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>293.3999938964844</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>285.3999938964844</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>292.6000061035156</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>292.6000061035156</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>158004</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1269" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1269" t="inlineStr"/>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2" t="n">
+        <v>45629.46875</v>
+      </c>
+      <c r="B1270" t="n">
+        <v>292.6000061035156</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>293</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>288.6499938964844</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>289.2000122070312</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>289.2000122070312</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>72548</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1270" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1270" t="inlineStr"/>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="2" t="n">
+        <v>45629.51041666666</v>
+      </c>
+      <c r="B1271" t="n">
+        <v>289.2000122070312</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>289.5499877929688</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>286.5499877929688</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>287.75</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>287.75</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>39428</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1271" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1271" t="inlineStr"/>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="2" t="n">
+        <v>45629.55208333334</v>
+      </c>
+      <c r="B1272" t="n">
+        <v>287.7000122070312</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>289.0499877929688</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>287.7999877929688</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>287.7999877929688</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>41362</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1272" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1272" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1272" t="inlineStr"/>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2" t="n">
+        <v>45629.59375</v>
+      </c>
+      <c r="B1273" t="n">
+        <v>287.7000122070312</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>289</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>287</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>288.7000122070312</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>288.7000122070312</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>28359</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1273" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1273" t="inlineStr"/>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2" t="n">
+        <v>45629.63541666666</v>
+      </c>
+      <c r="B1274" t="n">
+        <v>288.7000122070312</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>290</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>288</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>289.8999938964844</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>289.8999938964844</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>20045</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1274" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1274" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1274"/>
+  <dimension ref="A1:R1288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71085,7 +71085,9 @@
       <c r="Q1261" t="n">
         <v>0</v>
       </c>
-      <c r="R1261" t="inlineStr"/>
+      <c r="R1261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1262">
       <c r="A1262" s="2" t="n">
@@ -71139,7 +71141,9 @@
       <c r="Q1262" t="n">
         <v>0</v>
       </c>
-      <c r="R1262" t="inlineStr"/>
+      <c r="R1262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1263">
       <c r="A1263" s="2" t="n">
@@ -71193,7 +71197,9 @@
       <c r="Q1263" t="n">
         <v>0</v>
       </c>
-      <c r="R1263" t="inlineStr"/>
+      <c r="R1263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1264">
       <c r="A1264" s="2" t="n">
@@ -71247,7 +71253,9 @@
       <c r="Q1264" t="n">
         <v>0</v>
       </c>
-      <c r="R1264" t="inlineStr"/>
+      <c r="R1264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1265">
       <c r="A1265" s="2" t="n">
@@ -71301,7 +71309,9 @@
       <c r="Q1265" t="n">
         <v>0</v>
       </c>
-      <c r="R1265" t="inlineStr"/>
+      <c r="R1265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1266">
       <c r="A1266" s="2" t="n">
@@ -71355,7 +71365,9 @@
       <c r="Q1266" t="n">
         <v>0</v>
       </c>
-      <c r="R1266" t="inlineStr"/>
+      <c r="R1266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1267">
       <c r="A1267" s="2" t="n">
@@ -71409,7 +71421,9 @@
       <c r="Q1267" t="n">
         <v>0</v>
       </c>
-      <c r="R1267" t="inlineStr"/>
+      <c r="R1267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1268">
       <c r="A1268" s="2" t="n">
@@ -71463,7 +71477,9 @@
       <c r="Q1268" t="n">
         <v>0</v>
       </c>
-      <c r="R1268" t="inlineStr"/>
+      <c r="R1268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1269">
       <c r="A1269" s="2" t="n">
@@ -71517,7 +71533,9 @@
       <c r="Q1269" t="n">
         <v>0</v>
       </c>
-      <c r="R1269" t="inlineStr"/>
+      <c r="R1269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1270">
       <c r="A1270" s="2" t="n">
@@ -71571,7 +71589,9 @@
       <c r="Q1270" t="n">
         <v>0</v>
       </c>
-      <c r="R1270" t="inlineStr"/>
+      <c r="R1270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1271">
       <c r="A1271" s="2" t="n">
@@ -71625,7 +71645,9 @@
       <c r="Q1271" t="n">
         <v>0</v>
       </c>
-      <c r="R1271" t="inlineStr"/>
+      <c r="R1271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1272">
       <c r="A1272" s="2" t="n">
@@ -71679,7 +71701,9 @@
       <c r="Q1272" t="n">
         <v>1</v>
       </c>
-      <c r="R1272" t="inlineStr"/>
+      <c r="R1272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1273">
       <c r="A1273" s="2" t="n">
@@ -71733,7 +71757,9 @@
       <c r="Q1273" t="n">
         <v>0</v>
       </c>
-      <c r="R1273" t="inlineStr"/>
+      <c r="R1273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1274">
       <c r="A1274" s="2" t="n">
@@ -71787,7 +71813,765 @@
       <c r="Q1274" t="n">
         <v>0</v>
       </c>
-      <c r="R1274" t="inlineStr"/>
+      <c r="R1274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2" t="n">
+        <v>45630.38541666666</v>
+      </c>
+      <c r="B1275" t="n">
+        <v>294.6000061035156</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>295.2000122070312</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>288.6000061035156</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>293.3999938964844</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>293.3999938964844</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1275" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1275" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1275" t="inlineStr"/>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="2" t="n">
+        <v>45630.42708333334</v>
+      </c>
+      <c r="B1276" t="n">
+        <v>293.3500061035156</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>293.75</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>290.2000122070312</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>56536</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1276" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1276" t="inlineStr"/>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2" t="n">
+        <v>45630.46875</v>
+      </c>
+      <c r="B1277" t="n">
+        <v>290.3999938964844</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>291</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>288</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>289.5499877929688</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>289.5499877929688</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>38307</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1277" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1277" t="inlineStr"/>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2" t="n">
+        <v>45630.51041666666</v>
+      </c>
+      <c r="B1278" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>290.7000122070312</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>288.8500061035156</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>289.3500061035156</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>289.3500061035156</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>15451</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1278" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1278" t="inlineStr"/>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2" t="n">
+        <v>45630.55208333334</v>
+      </c>
+      <c r="B1279" t="n">
+        <v>289.7999877929688</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>290.5</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>289.0499877929688</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>289.5499877929688</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>289.5499877929688</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>18325</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1279" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1279" t="inlineStr"/>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2" t="n">
+        <v>45630.59375</v>
+      </c>
+      <c r="B1280" t="n">
+        <v>289.6499938964844</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>290</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>289</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>22884</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1280" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1280" t="inlineStr"/>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2" t="n">
+        <v>45630.63541666666</v>
+      </c>
+      <c r="B1281" t="n">
+        <v>290</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>290</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>289.25</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>289.8500061035156</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>35053</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1281" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1281" t="inlineStr"/>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="2" t="n">
+        <v>45631.38541666666</v>
+      </c>
+      <c r="B1282" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>292.2000122070312</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>286.7000122070312</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>288</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>288</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1282" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1282" t="inlineStr"/>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2" t="n">
+        <v>45631.42708333334</v>
+      </c>
+      <c r="B1283" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>289.2000122070312</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>285</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>48789</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1283" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1283" t="inlineStr"/>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2" t="n">
+        <v>45631.46875</v>
+      </c>
+      <c r="B1284" t="n">
+        <v>286.25</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>287.75</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>285.0499877929688</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>287.1000061035156</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>287.1000061035156</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>35933</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1284" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1284" t="inlineStr"/>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2" t="n">
+        <v>45631.51041666666</v>
+      </c>
+      <c r="B1285" t="n">
+        <v>287</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>287.75</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>287.5499877929688</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>287.5499877929688</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>26636</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1285" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1285" t="inlineStr"/>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2" t="n">
+        <v>45631.55208333334</v>
+      </c>
+      <c r="B1286" t="n">
+        <v>287.5499877929688</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>288.6000061035156</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>286.5499877929688</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>288.3500061035156</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>288.3500061035156</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>18226</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1286" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1286" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1286" t="inlineStr"/>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2" t="n">
+        <v>45631.59375</v>
+      </c>
+      <c r="B1287" t="n">
+        <v>288.3500061035156</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>288.3500061035156</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>286</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>287.5499877929688</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>287.5499877929688</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>30014</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1287" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1287" t="inlineStr"/>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2" t="n">
+        <v>45631.63541666666</v>
+      </c>
+      <c r="B1288" t="n">
+        <v>287.5499877929688</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>287.8500061035156</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>286.3999938964844</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>286.5499877929688</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>286.5499877929688</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>22669</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1288" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1288" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1288"/>
+  <dimension ref="A1:R1302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71869,7 +71869,9 @@
       <c r="Q1275" t="n">
         <v>0</v>
       </c>
-      <c r="R1275" t="inlineStr"/>
+      <c r="R1275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1276">
       <c r="A1276" s="2" t="n">
@@ -71923,7 +71925,9 @@
       <c r="Q1276" t="n">
         <v>0</v>
       </c>
-      <c r="R1276" t="inlineStr"/>
+      <c r="R1276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1277">
       <c r="A1277" s="2" t="n">
@@ -71977,7 +71981,9 @@
       <c r="Q1277" t="n">
         <v>0</v>
       </c>
-      <c r="R1277" t="inlineStr"/>
+      <c r="R1277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1278">
       <c r="A1278" s="2" t="n">
@@ -72031,7 +72037,9 @@
       <c r="Q1278" t="n">
         <v>0</v>
       </c>
-      <c r="R1278" t="inlineStr"/>
+      <c r="R1278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1279">
       <c r="A1279" s="2" t="n">
@@ -72085,7 +72093,9 @@
       <c r="Q1279" t="n">
         <v>0</v>
       </c>
-      <c r="R1279" t="inlineStr"/>
+      <c r="R1279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" s="2" t="n">
@@ -72139,7 +72149,9 @@
       <c r="Q1280" t="n">
         <v>0</v>
       </c>
-      <c r="R1280" t="inlineStr"/>
+      <c r="R1280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1281">
       <c r="A1281" s="2" t="n">
@@ -72193,7 +72205,9 @@
       <c r="Q1281" t="n">
         <v>0</v>
       </c>
-      <c r="R1281" t="inlineStr"/>
+      <c r="R1281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1282">
       <c r="A1282" s="2" t="n">
@@ -72247,7 +72261,9 @@
       <c r="Q1282" t="n">
         <v>0</v>
       </c>
-      <c r="R1282" t="inlineStr"/>
+      <c r="R1282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1283">
       <c r="A1283" s="2" t="n">
@@ -72301,7 +72317,9 @@
       <c r="Q1283" t="n">
         <v>0</v>
       </c>
-      <c r="R1283" t="inlineStr"/>
+      <c r="R1283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1284">
       <c r="A1284" s="2" t="n">
@@ -72355,7 +72373,9 @@
       <c r="Q1284" t="n">
         <v>0</v>
       </c>
-      <c r="R1284" t="inlineStr"/>
+      <c r="R1284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1285">
       <c r="A1285" s="2" t="n">
@@ -72409,7 +72429,9 @@
       <c r="Q1285" t="n">
         <v>0</v>
       </c>
-      <c r="R1285" t="inlineStr"/>
+      <c r="R1285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" s="2" t="n">
@@ -72463,7 +72485,9 @@
       <c r="Q1286" t="n">
         <v>2</v>
       </c>
-      <c r="R1286" t="inlineStr"/>
+      <c r="R1286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1287">
       <c r="A1287" s="2" t="n">
@@ -72517,7 +72541,9 @@
       <c r="Q1287" t="n">
         <v>0</v>
       </c>
-      <c r="R1287" t="inlineStr"/>
+      <c r="R1287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1288">
       <c r="A1288" s="2" t="n">
@@ -72571,7 +72597,765 @@
       <c r="Q1288" t="n">
         <v>0</v>
       </c>
-      <c r="R1288" t="inlineStr"/>
+      <c r="R1288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2" t="n">
+        <v>45632.38541666666</v>
+      </c>
+      <c r="B1289" t="n">
+        <v>287.1499938964844</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>290.6000061035156</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>281</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>281.0499877929688</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>281.0499877929688</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1289" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1289" t="inlineStr"/>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2" t="n">
+        <v>45632.42708333334</v>
+      </c>
+      <c r="B1290" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>284.4500122070312</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>279.8999938964844</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>282.1000061035156</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>282.1000061035156</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>68170</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1290" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1290" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1290" t="inlineStr"/>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2" t="n">
+        <v>45632.46875</v>
+      </c>
+      <c r="B1291" t="n">
+        <v>282.1000061035156</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>284.3500061035156</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>281.6499938964844</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>283.25</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>283.25</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>40578</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1291" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1291" t="inlineStr"/>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2" t="n">
+        <v>45632.51041666666</v>
+      </c>
+      <c r="B1292" t="n">
+        <v>283.5499877929688</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>285.3500061035156</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>282.5499877929688</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>22508</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1292" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1292" t="inlineStr"/>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2" t="n">
+        <v>45632.55208333334</v>
+      </c>
+      <c r="B1293" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>285.4500122070312</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>284.0499877929688</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>284.6000061035156</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>284.6000061035156</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>20210</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1293" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1293" t="inlineStr"/>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2" t="n">
+        <v>45632.59375</v>
+      </c>
+      <c r="B1294" t="n">
+        <v>285</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>285.7000122070312</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>284.1499938964844</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>35982</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1294" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1294" t="inlineStr"/>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2" t="n">
+        <v>45632.63541666666</v>
+      </c>
+      <c r="B1295" t="n">
+        <v>285.25</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>285.7000122070312</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>284.1499938964844</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>284.8500061035156</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>284.8500061035156</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>25178</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1295" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1295" t="inlineStr"/>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2" t="n">
+        <v>45635.38541666666</v>
+      </c>
+      <c r="B1296" t="n">
+        <v>288.8999938964844</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>290.3500061035156</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>282.5</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1296" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1296" t="inlineStr"/>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2" t="n">
+        <v>45635.42708333334</v>
+      </c>
+      <c r="B1297" t="n">
+        <v>282.8999938964844</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>284.8999938964844</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>282.8500061035156</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>283.0499877929688</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>283.0499877929688</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>38037</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1297" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1297" t="inlineStr"/>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>45635.46875</v>
+      </c>
+      <c r="B1298" t="n">
+        <v>283.2000122070312</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>285.4500122070312</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>283.2000122070312</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>284.6000061035156</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>284.6000061035156</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>21434</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1298" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1298" t="inlineStr"/>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
+        <v>45635.51041666666</v>
+      </c>
+      <c r="B1299" t="n">
+        <v>284.6000061035156</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>285</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>282.6000061035156</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>282.7000122070312</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>282.7000122070312</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>22230</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1299" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1299" t="inlineStr"/>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2" t="n">
+        <v>45635.55208333334</v>
+      </c>
+      <c r="B1300" t="n">
+        <v>282.8999938964844</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>285.3500061035156</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>282.25</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>284.4500122070312</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>284.4500122070312</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>30782</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1300" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1300" t="inlineStr"/>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2" t="n">
+        <v>45635.59375</v>
+      </c>
+      <c r="B1301" t="n">
+        <v>284.8500061035156</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>284.8500061035156</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>281.3999938964844</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>282.7000122070312</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>282.7000122070312</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>45273</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1301" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1301" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1301" t="inlineStr"/>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="2" t="n">
+        <v>45635.63541666666</v>
+      </c>
+      <c r="B1302" t="n">
+        <v>283.2999877929688</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>284.2000122070312</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>281.6000061035156</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>282.9500122070312</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>282.9500122070312</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>25476</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1302" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1302" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1302"/>
+  <dimension ref="A1:R1316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72653,7 +72653,9 @@
       <c r="Q1289" t="n">
         <v>0</v>
       </c>
-      <c r="R1289" t="inlineStr"/>
+      <c r="R1289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1290">
       <c r="A1290" s="2" t="n">
@@ -72707,7 +72709,9 @@
       <c r="Q1290" t="n">
         <v>0</v>
       </c>
-      <c r="R1290" t="inlineStr"/>
+      <c r="R1290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1291">
       <c r="A1291" s="2" t="n">
@@ -72761,7 +72765,9 @@
       <c r="Q1291" t="n">
         <v>0</v>
       </c>
-      <c r="R1291" t="inlineStr"/>
+      <c r="R1291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1292">
       <c r="A1292" s="2" t="n">
@@ -72815,7 +72821,9 @@
       <c r="Q1292" t="n">
         <v>0</v>
       </c>
-      <c r="R1292" t="inlineStr"/>
+      <c r="R1292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1293">
       <c r="A1293" s="2" t="n">
@@ -72869,7 +72877,9 @@
       <c r="Q1293" t="n">
         <v>0</v>
       </c>
-      <c r="R1293" t="inlineStr"/>
+      <c r="R1293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1294">
       <c r="A1294" s="2" t="n">
@@ -72923,7 +72933,9 @@
       <c r="Q1294" t="n">
         <v>0</v>
       </c>
-      <c r="R1294" t="inlineStr"/>
+      <c r="R1294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1295">
       <c r="A1295" s="2" t="n">
@@ -72977,7 +72989,9 @@
       <c r="Q1295" t="n">
         <v>0</v>
       </c>
-      <c r="R1295" t="inlineStr"/>
+      <c r="R1295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1296">
       <c r="A1296" s="2" t="n">
@@ -73031,7 +73045,9 @@
       <c r="Q1296" t="n">
         <v>0</v>
       </c>
-      <c r="R1296" t="inlineStr"/>
+      <c r="R1296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1297">
       <c r="A1297" s="2" t="n">
@@ -73085,7 +73101,9 @@
       <c r="Q1297" t="n">
         <v>0</v>
       </c>
-      <c r="R1297" t="inlineStr"/>
+      <c r="R1297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1298">
       <c r="A1298" s="2" t="n">
@@ -73139,7 +73157,9 @@
       <c r="Q1298" t="n">
         <v>0</v>
       </c>
-      <c r="R1298" t="inlineStr"/>
+      <c r="R1298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1299">
       <c r="A1299" s="2" t="n">
@@ -73193,7 +73213,9 @@
       <c r="Q1299" t="n">
         <v>0</v>
       </c>
-      <c r="R1299" t="inlineStr"/>
+      <c r="R1299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1300">
       <c r="A1300" s="2" t="n">
@@ -73247,7 +73269,9 @@
       <c r="Q1300" t="n">
         <v>0</v>
       </c>
-      <c r="R1300" t="inlineStr"/>
+      <c r="R1300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1301">
       <c r="A1301" s="2" t="n">
@@ -73301,7 +73325,9 @@
       <c r="Q1301" t="n">
         <v>1</v>
       </c>
-      <c r="R1301" t="inlineStr"/>
+      <c r="R1301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1302">
       <c r="A1302" s="2" t="n">
@@ -73355,7 +73381,765 @@
       <c r="Q1302" t="n">
         <v>0</v>
       </c>
-      <c r="R1302" t="inlineStr"/>
+      <c r="R1302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2" t="n">
+        <v>45636.38541666666</v>
+      </c>
+      <c r="B1303" t="n">
+        <v>282.9500122070312</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>285</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>277</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1303" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1303" t="inlineStr"/>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="2" t="n">
+        <v>45636.42708333334</v>
+      </c>
+      <c r="B1304" t="n">
+        <v>277.3999938964844</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>279.25</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>276.1499938964844</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>278.8999938964844</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>278.8999938964844</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>64128</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1304" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1304" t="inlineStr"/>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2" t="n">
+        <v>45636.46875</v>
+      </c>
+      <c r="B1305" t="n">
+        <v>279.1000061035156</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>279.3500061035156</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>276.0499877929688</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>39932</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1305" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1305" t="inlineStr"/>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2" t="n">
+        <v>45636.51041666666</v>
+      </c>
+      <c r="B1306" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>276</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>22290</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1306" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1306" t="inlineStr"/>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2" t="n">
+        <v>45636.55208333334</v>
+      </c>
+      <c r="B1307" t="n">
+        <v>276.6499938964844</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>277.2999877929688</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>275.8500061035156</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>277.0499877929688</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>277.0499877929688</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>22071</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1307" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1307" t="inlineStr"/>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2" t="n">
+        <v>45636.59375</v>
+      </c>
+      <c r="B1308" t="n">
+        <v>277.0499877929688</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>278.2000122070312</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>275</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>277.9500122070312</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>277.9500122070312</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>43267</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1308" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1308" t="inlineStr"/>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2" t="n">
+        <v>45636.63541666666</v>
+      </c>
+      <c r="B1309" t="n">
+        <v>277.3999938964844</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>278</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>276.8999938964844</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>277.7999877929688</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>277.7999877929688</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>20385</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1309" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1309" t="inlineStr"/>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2" t="n">
+        <v>45637.38541666666</v>
+      </c>
+      <c r="B1310" t="n">
+        <v>277.6000061035156</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>284.3999938964844</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>284</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>284</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1310" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1310" t="inlineStr"/>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2" t="n">
+        <v>45637.42708333334</v>
+      </c>
+      <c r="B1311" t="n">
+        <v>284</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>284.1000061035156</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>282.1000061035156</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>282.4500122070312</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>282.4500122070312</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>31043</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1311" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1311" t="inlineStr"/>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>45637.46875</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>282.6000061035156</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>282.75</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>279.3999938964844</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>280.7000122070312</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>280.7000122070312</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>31392</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1312" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>45637.51041666666</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>280.2000122070312</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>280.2000122070312</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>276.6499938964844</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>277.7000122070312</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>277.7000122070312</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>50797</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1313" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>45637.55208333334</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>277.4500122070312</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>277.75</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>275</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>29283</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1314" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>45637.59375</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>277</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>277.75</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>276.3999938964844</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>276.75</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>276.75</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>36094</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1315" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>45637.63541666666</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>276.9500122070312</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>277.4500122070312</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>276.5499877929688</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>277</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>277</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>16859</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1316" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1316" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1316"/>
+  <dimension ref="A1:R1330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73437,7 +73437,9 @@
       <c r="Q1303" t="n">
         <v>0</v>
       </c>
-      <c r="R1303" t="inlineStr"/>
+      <c r="R1303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1304">
       <c r="A1304" s="2" t="n">
@@ -73491,7 +73493,9 @@
       <c r="Q1304" t="n">
         <v>0</v>
       </c>
-      <c r="R1304" t="inlineStr"/>
+      <c r="R1304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1305">
       <c r="A1305" s="2" t="n">
@@ -73545,7 +73549,9 @@
       <c r="Q1305" t="n">
         <v>0</v>
       </c>
-      <c r="R1305" t="inlineStr"/>
+      <c r="R1305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1306">
       <c r="A1306" s="2" t="n">
@@ -73599,7 +73605,9 @@
       <c r="Q1306" t="n">
         <v>0</v>
       </c>
-      <c r="R1306" t="inlineStr"/>
+      <c r="R1306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1307">
       <c r="A1307" s="2" t="n">
@@ -73653,7 +73661,9 @@
       <c r="Q1307" t="n">
         <v>0</v>
       </c>
-      <c r="R1307" t="inlineStr"/>
+      <c r="R1307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1308">
       <c r="A1308" s="2" t="n">
@@ -73707,7 +73717,9 @@
       <c r="Q1308" t="n">
         <v>0</v>
       </c>
-      <c r="R1308" t="inlineStr"/>
+      <c r="R1308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1309">
       <c r="A1309" s="2" t="n">
@@ -73761,7 +73773,9 @@
       <c r="Q1309" t="n">
         <v>0</v>
       </c>
-      <c r="R1309" t="inlineStr"/>
+      <c r="R1309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1310">
       <c r="A1310" s="2" t="n">
@@ -73815,7 +73829,9 @@
       <c r="Q1310" t="n">
         <v>0</v>
       </c>
-      <c r="R1310" t="inlineStr"/>
+      <c r="R1310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1311">
       <c r="A1311" s="2" t="n">
@@ -73869,7 +73885,9 @@
       <c r="Q1311" t="n">
         <v>0</v>
       </c>
-      <c r="R1311" t="inlineStr"/>
+      <c r="R1311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1312">
       <c r="A1312" s="2" t="n">
@@ -73923,7 +73941,9 @@
       <c r="Q1312" t="n">
         <v>0</v>
       </c>
-      <c r="R1312" t="inlineStr"/>
+      <c r="R1312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1313">
       <c r="A1313" s="2" t="n">
@@ -73977,7 +73997,9 @@
       <c r="Q1313" t="n">
         <v>0</v>
       </c>
-      <c r="R1313" t="inlineStr"/>
+      <c r="R1313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1314">
       <c r="A1314" s="2" t="n">
@@ -74031,7 +74053,9 @@
       <c r="Q1314" t="n">
         <v>0</v>
       </c>
-      <c r="R1314" t="inlineStr"/>
+      <c r="R1314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1315">
       <c r="A1315" s="2" t="n">
@@ -74085,7 +74109,9 @@
       <c r="Q1315" t="n">
         <v>0</v>
       </c>
-      <c r="R1315" t="inlineStr"/>
+      <c r="R1315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1316">
       <c r="A1316" s="2" t="n">
@@ -74139,7 +74165,765 @@
       <c r="Q1316" t="n">
         <v>0</v>
       </c>
-      <c r="R1316" t="inlineStr"/>
+      <c r="R1316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2" t="n">
+        <v>45638.38541666666</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>277</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>279</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>274.1499938964844</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>275</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>275</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1317" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="n">
+        <v>45638.42708333334</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>275.0499877929688</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>277.8999938964844</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>274.8500061035156</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>276.1000061035156</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>276.1000061035156</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>28718</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1318" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="n">
+        <v>45638.46875</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>276.7999877929688</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>277.5</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>275.0499877929688</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>275.0499877929688</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>23296</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1319" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="n">
+        <v>45638.51041666666</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>275</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>274.7000122070312</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>15415</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1320" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>45638.55208333334</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>275.6499938964844</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>276.1000061035156</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>274.7000122070312</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>275.75</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>275.75</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>13458</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1321" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45638.59375</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>275.75</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>275.7999877929688</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>274</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>274.2999877929688</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>274.2999877929688</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>19108</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45638.63541666666</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>274.0499877929688</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>275.6000061035156</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>274</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>274.4500122070312</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>274.4500122070312</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>11184</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45639.38541666666</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>274</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>274.9500122070312</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>270.1000061035156</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>270.8500061035156</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>270.8500061035156</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1324" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45639.42708333334</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>274.5499877929688</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>269.2000122070312</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>274</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>274</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>38763</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45639.46875</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>273.8999938964844</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>277.2000122070312</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>277.2000122070312</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>48515</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45639.51041666666</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>277.2000122070312</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>277.7000122070312</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>274.0499877929688</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>275.5499877929688</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>275.5499877929688</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>26334</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45639.55208333334</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>276.3500061035156</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>273.7999877929688</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>41068</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45639.59375</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>274.4500122070312</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>276</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>273.3500061035156</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>275.3999938964844</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>275.3999938964844</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>52747</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45639.63541666666</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>275.3999938964844</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>275.3999938964844</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>273.6000061035156</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>274.6000061035156</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>274.6000061035156</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>26032</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1330"/>
+  <dimension ref="A1:R1344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74221,7 +74221,9 @@
       <c r="Q1317" t="n">
         <v>0</v>
       </c>
-      <c r="R1317" t="inlineStr"/>
+      <c r="R1317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1318">
       <c r="A1318" s="2" t="n">
@@ -74275,7 +74277,9 @@
       <c r="Q1318" t="n">
         <v>0</v>
       </c>
-      <c r="R1318" t="inlineStr"/>
+      <c r="R1318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1319">
       <c r="A1319" s="2" t="n">
@@ -74329,7 +74333,9 @@
       <c r="Q1319" t="n">
         <v>0</v>
       </c>
-      <c r="R1319" t="inlineStr"/>
+      <c r="R1319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1320">
       <c r="A1320" s="2" t="n">
@@ -74383,7 +74389,9 @@
       <c r="Q1320" t="n">
         <v>0</v>
       </c>
-      <c r="R1320" t="inlineStr"/>
+      <c r="R1320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1321">
       <c r="A1321" s="2" t="n">
@@ -74437,7 +74445,9 @@
       <c r="Q1321" t="n">
         <v>0</v>
       </c>
-      <c r="R1321" t="inlineStr"/>
+      <c r="R1321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1322">
       <c r="A1322" s="2" t="n">
@@ -74491,7 +74501,9 @@
       <c r="Q1322" t="n">
         <v>0</v>
       </c>
-      <c r="R1322" t="inlineStr"/>
+      <c r="R1322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1323">
       <c r="A1323" s="2" t="n">
@@ -74545,7 +74557,9 @@
       <c r="Q1323" t="n">
         <v>0</v>
       </c>
-      <c r="R1323" t="inlineStr"/>
+      <c r="R1323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1324">
       <c r="A1324" s="2" t="n">
@@ -74599,7 +74613,9 @@
       <c r="Q1324" t="n">
         <v>0</v>
       </c>
-      <c r="R1324" t="inlineStr"/>
+      <c r="R1324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1325">
       <c r="A1325" s="2" t="n">
@@ -74653,7 +74669,9 @@
       <c r="Q1325" t="n">
         <v>0</v>
       </c>
-      <c r="R1325" t="inlineStr"/>
+      <c r="R1325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1326">
       <c r="A1326" s="2" t="n">
@@ -74707,7 +74725,9 @@
       <c r="Q1326" t="n">
         <v>0</v>
       </c>
-      <c r="R1326" t="inlineStr"/>
+      <c r="R1326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1327">
       <c r="A1327" s="2" t="n">
@@ -74761,7 +74781,9 @@
       <c r="Q1327" t="n">
         <v>0</v>
       </c>
-      <c r="R1327" t="inlineStr"/>
+      <c r="R1327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1328">
       <c r="A1328" s="2" t="n">
@@ -74815,7 +74837,9 @@
       <c r="Q1328" t="n">
         <v>0</v>
       </c>
-      <c r="R1328" t="inlineStr"/>
+      <c r="R1328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1329">
       <c r="A1329" s="2" t="n">
@@ -74869,7 +74893,9 @@
       <c r="Q1329" t="n">
         <v>0</v>
       </c>
-      <c r="R1329" t="inlineStr"/>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1330">
       <c r="A1330" s="2" t="n">
@@ -74923,7 +74949,765 @@
       <c r="Q1330" t="n">
         <v>0</v>
       </c>
-      <c r="R1330" t="inlineStr"/>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45642.38541666666</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>275.1499938964844</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>281.6000061035156</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>269.9500122070312</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>269.9500122070312</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45642.42708333334</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>269.5499877929688</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>270</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>268.75</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>56137</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45642.46875</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>269.1499938964844</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>270</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>268</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>269</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>269</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>34126</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45642.51041666666</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>269</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>276.5</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>274.5499877929688</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>274.5499877929688</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>77854</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45642.55208333334</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>274.9500122070312</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>276</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>271</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>272.6499938964844</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>272.6499938964844</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>72576</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45642.59375</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>272.3999938964844</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>273.3999938964844</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>269.4500122070312</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>270.7000122070312</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>270.7000122070312</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>40326</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45642.63541666666</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>270.3999938964844</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>271.5499877929688</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>270.2999877929688</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>22034</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45643.38541666666</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>271.8999938964844</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>276.6499938964844</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>271</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>273.4500122070312</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>273.4500122070312</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45643.42708333334</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>273.4500122070312</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>274.7000122070312</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>272.1000061035156</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>274.0499877929688</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>274.0499877929688</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>31010</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45643.46875</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>274.4500122070312</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>274.5</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>273</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>273.3999938964844</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>273.3999938964844</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>15165</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45643.51041666666</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>273.3999938964844</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>274.3999938964844</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>273.0499877929688</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>273.4500122070312</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>273.4500122070312</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>13064</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45643.55208333334</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>273</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>273.3999938964844</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>270.7999877929688</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>271.1000061035156</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>271.1000061035156</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>40155</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45643.59375</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>271.1000061035156</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>272.1499938964844</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>270.7000122070312</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>272.1499938964844</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>272.1499938964844</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>16707</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45643.63541666666</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>272.25</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>273.6000061035156</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>271.7000122070312</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>272.5</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>16084</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1344"/>
+  <dimension ref="A1:R1358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75005,7 +75005,9 @@
       <c r="Q1331" t="n">
         <v>0</v>
       </c>
-      <c r="R1331" t="inlineStr"/>
+      <c r="R1331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1332">
       <c r="A1332" s="2" t="n">
@@ -75059,7 +75061,9 @@
       <c r="Q1332" t="n">
         <v>0</v>
       </c>
-      <c r="R1332" t="inlineStr"/>
+      <c r="R1332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" s="2" t="n">
@@ -75113,7 +75117,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" s="2" t="n">
@@ -75167,7 +75173,9 @@
       <c r="Q1334" t="n">
         <v>0</v>
       </c>
-      <c r="R1334" t="inlineStr"/>
+      <c r="R1334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" s="2" t="n">
@@ -75221,7 +75229,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="2" t="n">
@@ -75275,7 +75285,9 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" s="2" t="n">
@@ -75329,7 +75341,9 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" s="2" t="n">
@@ -75383,7 +75397,9 @@
       <c r="Q1338" t="n">
         <v>0</v>
       </c>
-      <c r="R1338" t="inlineStr"/>
+      <c r="R1338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" s="2" t="n">
@@ -75437,7 +75453,9 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" s="2" t="n">
@@ -75491,7 +75509,9 @@
       <c r="Q1340" t="n">
         <v>0</v>
       </c>
-      <c r="R1340" t="inlineStr"/>
+      <c r="R1340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" s="2" t="n">
@@ -75545,7 +75565,9 @@
       <c r="Q1341" t="n">
         <v>0</v>
       </c>
-      <c r="R1341" t="inlineStr"/>
+      <c r="R1341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" s="2" t="n">
@@ -75599,7 +75621,9 @@
       <c r="Q1342" t="n">
         <v>2</v>
       </c>
-      <c r="R1342" t="inlineStr"/>
+      <c r="R1342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" s="2" t="n">
@@ -75653,7 +75677,9 @@
       <c r="Q1343" t="n">
         <v>0</v>
       </c>
-      <c r="R1343" t="inlineStr"/>
+      <c r="R1343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" s="2" t="n">
@@ -75707,7 +75733,765 @@
       <c r="Q1344" t="n">
         <v>1</v>
       </c>
-      <c r="R1344" t="inlineStr"/>
+      <c r="R1344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45644.38541666666</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>275</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>275</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>269.2000122070312</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>269.4500122070312</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>269.4500122070312</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45644.42708333334</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>269.4500122070312</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>269.7000122070312</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>267</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>267.5499877929688</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>267.5499877929688</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>67790</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45644.46875</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>267.1499938964844</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>267.5499877929688</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>264.6499938964844</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>265</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>265</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>67741</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45644.51041666666</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>264.9500122070312</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>266</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>265.4500122070312</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>265.4500122070312</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>50074</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45644.55208333334</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>265.1499938964844</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>266.0499877929688</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>264.6000061035156</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>265.2999877929688</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>265.2999877929688</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>40879</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45644.59375</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>265.6000061035156</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>266.7999877929688</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>266.1000061035156</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>266.1000061035156</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>51441</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45644.63541666666</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>266.1499938964844</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>268.1000061035156</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>265.1499938964844</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>266.4500122070312</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>266.4500122070312</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>28126</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45645.38541666666</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>269.4500122070312</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>262</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>267.8500061035156</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>267.8500061035156</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45645.42708333334</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>267.8500061035156</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>269.3500061035156</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>266.5499877929688</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>268</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>268</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>32926</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45645.46875</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>268</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>270</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>266.3999938964844</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>267.2000122070312</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>267.2000122070312</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>27484</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45645.51041666666</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>267.25</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>267.25</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>265.0499877929688</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>265.9500122070312</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>265.9500122070312</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>20785</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45645.55208333334</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>266.0499877929688</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>266.8500061035156</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>264.2999877929688</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>265.7000122070312</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>265.7000122070312</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>27849</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45645.59375</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>265.7000122070312</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>267.5</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>265</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>267.4500122070312</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>267.4500122070312</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>28711</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45645.63541666666</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>267.3500061035156</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>273</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>267.3500061035156</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>273</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>273</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>36344</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1358"/>
+  <dimension ref="A1:R1372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75789,7 +75789,9 @@
       <c r="Q1345" t="n">
         <v>0</v>
       </c>
-      <c r="R1345" t="inlineStr"/>
+      <c r="R1345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" s="2" t="n">
@@ -75843,7 +75845,9 @@
       <c r="Q1346" t="n">
         <v>0</v>
       </c>
-      <c r="R1346" t="inlineStr"/>
+      <c r="R1346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" s="2" t="n">
@@ -75897,7 +75901,9 @@
       <c r="Q1347" t="n">
         <v>0</v>
       </c>
-      <c r="R1347" t="inlineStr"/>
+      <c r="R1347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" s="2" t="n">
@@ -75951,7 +75957,9 @@
       <c r="Q1348" t="n">
         <v>0</v>
       </c>
-      <c r="R1348" t="inlineStr"/>
+      <c r="R1348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" s="2" t="n">
@@ -76005,7 +76013,9 @@
       <c r="Q1349" t="n">
         <v>0</v>
       </c>
-      <c r="R1349" t="inlineStr"/>
+      <c r="R1349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" s="2" t="n">
@@ -76059,7 +76069,9 @@
       <c r="Q1350" t="n">
         <v>0</v>
       </c>
-      <c r="R1350" t="inlineStr"/>
+      <c r="R1350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1351">
       <c r="A1351" s="2" t="n">
@@ -76113,7 +76125,9 @@
       <c r="Q1351" t="n">
         <v>0</v>
       </c>
-      <c r="R1351" t="inlineStr"/>
+      <c r="R1351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" s="2" t="n">
@@ -76159,7 +76173,7 @@
         <v>51</v>
       </c>
       <c r="O1352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1352" t="n">
         <v>0</v>
@@ -76167,7 +76181,9 @@
       <c r="Q1352" t="n">
         <v>0</v>
       </c>
-      <c r="R1352" t="inlineStr"/>
+      <c r="R1352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1353">
       <c r="A1353" s="2" t="n">
@@ -76221,7 +76237,9 @@
       <c r="Q1353" t="n">
         <v>0</v>
       </c>
-      <c r="R1353" t="inlineStr"/>
+      <c r="R1353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1354">
       <c r="A1354" s="2" t="n">
@@ -76275,7 +76293,9 @@
       <c r="Q1354" t="n">
         <v>0</v>
       </c>
-      <c r="R1354" t="inlineStr"/>
+      <c r="R1354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1355">
       <c r="A1355" s="2" t="n">
@@ -76329,7 +76349,9 @@
       <c r="Q1355" t="n">
         <v>0</v>
       </c>
-      <c r="R1355" t="inlineStr"/>
+      <c r="R1355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1356">
       <c r="A1356" s="2" t="n">
@@ -76383,7 +76405,9 @@
       <c r="Q1356" t="n">
         <v>0</v>
       </c>
-      <c r="R1356" t="inlineStr"/>
+      <c r="R1356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" s="2" t="n">
@@ -76437,7 +76461,9 @@
       <c r="Q1357" t="n">
         <v>0</v>
       </c>
-      <c r="R1357" t="inlineStr"/>
+      <c r="R1357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" s="2" t="n">
@@ -76483,7 +76509,7 @@
         <v>51</v>
       </c>
       <c r="O1358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1358" t="n">
         <v>0</v>
@@ -76491,7 +76517,737 @@
       <c r="Q1358" t="n">
         <v>0</v>
       </c>
-      <c r="R1358" t="inlineStr"/>
+      <c r="R1358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45646.38541666666</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>272.8999938964844</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>272.8999938964844</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>265.3500061035156</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>267.1000061035156</v>
+      </c>
+      <c r="F1359" t="inlineStr"/>
+      <c r="G1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45646.42708333334</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>267.1000061035156</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>264.3500061035156</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>266.5499877929688</v>
+      </c>
+      <c r="F1360" t="inlineStr"/>
+      <c r="G1360" t="n">
+        <v>40185</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45646.46875</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>266.5499877929688</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>266.9500122070312</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>265.7999877929688</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>266.3999938964844</v>
+      </c>
+      <c r="F1361" t="inlineStr"/>
+      <c r="G1361" t="n">
+        <v>10660</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45646.51041666666</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>266.3999938964844</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>266.3999938964844</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>264</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>264.3999938964844</v>
+      </c>
+      <c r="F1362" t="inlineStr"/>
+      <c r="G1362" t="n">
+        <v>21350</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45646.55208333334</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>263.1499938964844</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>263.3500061035156</v>
+      </c>
+      <c r="F1363" t="inlineStr"/>
+      <c r="G1363" t="n">
+        <v>20807</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45646.59375</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>263.1000061035156</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>263.9500122070312</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>261.1000061035156</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>261.5499877929688</v>
+      </c>
+      <c r="F1364" t="inlineStr"/>
+      <c r="G1364" t="n">
+        <v>42744</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45646.63541666666</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>261.5499877929688</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>263.7999877929688</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>261.0499877929688</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>263</v>
+      </c>
+      <c r="F1365" t="inlineStr"/>
+      <c r="G1365" t="n">
+        <v>20740</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45649.38541666666</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>262.1499938964844</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>256</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>257.6499938964844</v>
+      </c>
+      <c r="F1366" t="inlineStr"/>
+      <c r="G1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45649.42708333334</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>257.6499938964844</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>260</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>255.6499938964844</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>257.6000061035156</v>
+      </c>
+      <c r="F1367" t="inlineStr"/>
+      <c r="G1367" t="n">
+        <v>32349</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45649.46875</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>258</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>258.8999938964844</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>255.6000061035156</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>256.0499877929688</v>
+      </c>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="n">
+        <v>33517</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45649.51041666666</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>255.5500030517578</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>256.7999877929688</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>254.5500030517578</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>255</v>
+      </c>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="n">
+        <v>35889</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45649.55208333334</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>255</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>257</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>254.8000030517578</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>255.6999969482422</v>
+      </c>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="n">
+        <v>24705</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45649.59375</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>255.6999969482422</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>257.4500122070312</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>255</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>255.3000030517578</v>
+      </c>
+      <c r="F1371" t="inlineStr"/>
+      <c r="G1371" t="n">
+        <v>19807</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45649.63541666666</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>255.0500030517578</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>255.5500030517578</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>255.5500030517578</v>
+      </c>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="n">
+        <v>17997</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1372" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1372"/>
+  <dimension ref="A1:R1379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76571,7 +76571,9 @@
       <c r="Q1359" t="n">
         <v>0</v>
       </c>
-      <c r="R1359" t="inlineStr"/>
+      <c r="R1359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1360">
       <c r="A1360" s="2" t="n">
@@ -76623,7 +76625,9 @@
       <c r="Q1360" t="n">
         <v>0</v>
       </c>
-      <c r="R1360" t="inlineStr"/>
+      <c r="R1360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1361">
       <c r="A1361" s="2" t="n">
@@ -76675,7 +76679,9 @@
       <c r="Q1361" t="n">
         <v>0</v>
       </c>
-      <c r="R1361" t="inlineStr"/>
+      <c r="R1361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" s="2" t="n">
@@ -76727,7 +76733,9 @@
       <c r="Q1362" t="n">
         <v>0</v>
       </c>
-      <c r="R1362" t="inlineStr"/>
+      <c r="R1362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" s="2" t="n">
@@ -76779,7 +76787,9 @@
       <c r="Q1363" t="n">
         <v>1</v>
       </c>
-      <c r="R1363" t="inlineStr"/>
+      <c r="R1363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" s="2" t="n">
@@ -76831,7 +76841,9 @@
       <c r="Q1364" t="n">
         <v>0</v>
       </c>
-      <c r="R1364" t="inlineStr"/>
+      <c r="R1364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" s="2" t="n">
@@ -76883,7 +76895,9 @@
       <c r="Q1365" t="n">
         <v>0</v>
       </c>
-      <c r="R1365" t="inlineStr"/>
+      <c r="R1365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" s="2" t="n">
@@ -76935,7 +76949,9 @@
       <c r="Q1366" t="n">
         <v>0</v>
       </c>
-      <c r="R1366" t="inlineStr"/>
+      <c r="R1366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" s="2" t="n">
@@ -76987,7 +77003,9 @@
       <c r="Q1367" t="n">
         <v>0</v>
       </c>
-      <c r="R1367" t="inlineStr"/>
+      <c r="R1367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1368">
       <c r="A1368" s="2" t="n">
@@ -77039,7 +77057,9 @@
       <c r="Q1368" t="n">
         <v>0</v>
       </c>
-      <c r="R1368" t="inlineStr"/>
+      <c r="R1368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" s="2" t="n">
@@ -77091,7 +77111,9 @@
       <c r="Q1369" t="n">
         <v>2</v>
       </c>
-      <c r="R1369" t="inlineStr"/>
+      <c r="R1369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" s="2" t="n">
@@ -77143,7 +77165,9 @@
       <c r="Q1370" t="n">
         <v>0</v>
       </c>
-      <c r="R1370" t="inlineStr"/>
+      <c r="R1370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1371">
       <c r="A1371" s="2" t="n">
@@ -77195,7 +77219,9 @@
       <c r="Q1371" t="n">
         <v>0</v>
       </c>
-      <c r="R1371" t="inlineStr"/>
+      <c r="R1371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" s="2" t="n">
@@ -77247,7 +77273,373 @@
       <c r="Q1372" t="n">
         <v>0</v>
       </c>
-      <c r="R1372" t="inlineStr"/>
+      <c r="R1372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45650.38541666666</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>255.9499969482422</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>263.9500122070312</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>255.1000061035156</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>261.3999938964844</v>
+      </c>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45650.42708333334</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>260.8500061035156</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>267</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>260.6000061035156</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>264.7000122070312</v>
+      </c>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="n">
+        <v>42540</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45650.46875</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>264.7000122070312</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>266.8500061035156</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>262</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>262.25</v>
+      </c>
+      <c r="F1375" t="inlineStr"/>
+      <c r="G1375" t="n">
+        <v>28723</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45650.51041666666</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>262.2999877929688</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>263</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>261</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>262.1499938964844</v>
+      </c>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="n">
+        <v>12474</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45650.55208333334</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>262.1499938964844</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>263.1000061035156</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>260.8999938964844</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>261.0499877929688</v>
+      </c>
+      <c r="F1377" t="inlineStr"/>
+      <c r="G1377" t="n">
+        <v>14534</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45650.59375</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>261.0499877929688</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>261.8500061035156</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="n">
+        <v>18605</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45650.63541666666</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>264</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>260.2000122070312</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>260.9500122070312</v>
+      </c>
+      <c r="F1379" t="inlineStr"/>
+      <c r="G1379" t="n">
+        <v>15430</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1379" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1379"/>
+  <dimension ref="A1:R1393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77265,7 +77265,7 @@
         <v>52</v>
       </c>
       <c r="O1372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1372" t="n">
         <v>0</v>
@@ -77327,7 +77327,9 @@
       <c r="Q1373" t="n">
         <v>0</v>
       </c>
-      <c r="R1373" t="inlineStr"/>
+      <c r="R1373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1374">
       <c r="A1374" s="2" t="n">
@@ -77379,7 +77381,9 @@
       <c r="Q1374" t="n">
         <v>0</v>
       </c>
-      <c r="R1374" t="inlineStr"/>
+      <c r="R1374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1375">
       <c r="A1375" s="2" t="n">
@@ -77431,7 +77435,9 @@
       <c r="Q1375" t="n">
         <v>0</v>
       </c>
-      <c r="R1375" t="inlineStr"/>
+      <c r="R1375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1376">
       <c r="A1376" s="2" t="n">
@@ -77483,7 +77489,9 @@
       <c r="Q1376" t="n">
         <v>0</v>
       </c>
-      <c r="R1376" t="inlineStr"/>
+      <c r="R1376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1377">
       <c r="A1377" s="2" t="n">
@@ -77535,7 +77543,9 @@
       <c r="Q1377" t="n">
         <v>0</v>
       </c>
-      <c r="R1377" t="inlineStr"/>
+      <c r="R1377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1378">
       <c r="A1378" s="2" t="n">
@@ -77587,7 +77597,9 @@
       <c r="Q1378" t="n">
         <v>0</v>
       </c>
-      <c r="R1378" t="inlineStr"/>
+      <c r="R1378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1379">
       <c r="A1379" s="2" t="n">
@@ -77639,7 +77651,737 @@
       <c r="Q1379" t="n">
         <v>0</v>
       </c>
-      <c r="R1379" t="inlineStr"/>
+      <c r="R1379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45652.38541666666</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>262.4500122070312</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>267.6000061035156</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>261.6000061035156</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>261.6000061035156</v>
+      </c>
+      <c r="F1380" t="inlineStr"/>
+      <c r="G1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1380" t="inlineStr"/>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45652.42708333334</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>261.9500122070312</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>263.7999877929688</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>261.7999877929688</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="F1381" t="inlineStr"/>
+      <c r="G1381" t="n">
+        <v>11363</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1381" t="inlineStr"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45652.46875</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>262.3999938964844</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>260.75</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>261</v>
+      </c>
+      <c r="F1382" t="inlineStr"/>
+      <c r="G1382" t="n">
+        <v>15644</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1382" t="inlineStr"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45652.51041666666</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>260.7000122070312</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>262.2000122070312</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>255.25</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>255.75</v>
+      </c>
+      <c r="F1383" t="inlineStr"/>
+      <c r="G1383" t="n">
+        <v>35763</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1383" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1383" t="inlineStr"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45652.55208333334</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>255.8000030517578</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>256.7000122070312</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>255</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>255.6000061035156</v>
+      </c>
+      <c r="F1384" t="inlineStr"/>
+      <c r="G1384" t="n">
+        <v>57419</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1384" t="inlineStr"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45652.59375</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>255.5500030517578</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>256.25</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>254.25</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>255.8000030517578</v>
+      </c>
+      <c r="F1385" t="inlineStr"/>
+      <c r="G1385" t="n">
+        <v>45801</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1385" t="inlineStr"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45652.63541666666</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>256</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>258.5</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>255.6499938964844</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>258.1000061035156</v>
+      </c>
+      <c r="F1386" t="inlineStr"/>
+      <c r="G1386" t="n">
+        <v>26424</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1386" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1386" t="inlineStr"/>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45653.38541666666</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>257.3999938964844</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>258.3999938964844</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>254.5</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>254.8500061035156</v>
+      </c>
+      <c r="F1387" t="inlineStr"/>
+      <c r="G1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1387" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1387" t="inlineStr"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45653.42708333334</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>255.1999969482422</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>255.75</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>254.3999938964844</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>255.3500061035156</v>
+      </c>
+      <c r="F1388" t="inlineStr"/>
+      <c r="G1388" t="n">
+        <v>13880</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1388" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1388" t="inlineStr"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45653.46875</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>255.1999969482422</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>256.5499877929688</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>254.6999969482422</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>255.6999969482422</v>
+      </c>
+      <c r="F1389" t="inlineStr"/>
+      <c r="G1389" t="n">
+        <v>22145</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1389" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1389" t="inlineStr"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45653.51041666666</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>255.6999969482422</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>255.75</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>254.0500030517578</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>254.5500030517578</v>
+      </c>
+      <c r="F1390" t="inlineStr"/>
+      <c r="G1390" t="n">
+        <v>17971</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1390" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1390" t="inlineStr"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45653.55208333334</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>254.5500030517578</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>255.3000030517578</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>254.1499938964844</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>254.4499969482422</v>
+      </c>
+      <c r="F1391" t="inlineStr"/>
+      <c r="G1391" t="n">
+        <v>10040</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1391" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1391" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1391" t="inlineStr"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45653.59375</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>254.4499969482422</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>255.1000061035156</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>254</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>254.1999969482422</v>
+      </c>
+      <c r="F1392" t="inlineStr"/>
+      <c r="G1392" t="n">
+        <v>23505</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1392" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1392" t="inlineStr"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45653.63541666666</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>254</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>254.8000030517578</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>254</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>254</v>
+      </c>
+      <c r="F1393" t="inlineStr"/>
+      <c r="G1393" t="n">
+        <v>11377</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1393" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1393" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1393"/>
+  <dimension ref="A1:R1407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5451,7 +5451,7 @@
         <v>2</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R89" t="n">
         <v>2</v>
@@ -77705,7 +77705,9 @@
       <c r="Q1380" t="n">
         <v>0</v>
       </c>
-      <c r="R1380" t="inlineStr"/>
+      <c r="R1380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1381">
       <c r="A1381" s="2" t="n">
@@ -77757,7 +77759,9 @@
       <c r="Q1381" t="n">
         <v>0</v>
       </c>
-      <c r="R1381" t="inlineStr"/>
+      <c r="R1381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1382">
       <c r="A1382" s="2" t="n">
@@ -77809,7 +77813,9 @@
       <c r="Q1382" t="n">
         <v>0</v>
       </c>
-      <c r="R1382" t="inlineStr"/>
+      <c r="R1382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1383">
       <c r="A1383" s="2" t="n">
@@ -77861,7 +77867,9 @@
       <c r="Q1383" t="n">
         <v>1</v>
       </c>
-      <c r="R1383" t="inlineStr"/>
+      <c r="R1383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1384">
       <c r="A1384" s="2" t="n">
@@ -77913,7 +77921,9 @@
       <c r="Q1384" t="n">
         <v>0</v>
       </c>
-      <c r="R1384" t="inlineStr"/>
+      <c r="R1384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1385">
       <c r="A1385" s="2" t="n">
@@ -77965,7 +77975,9 @@
       <c r="Q1385" t="n">
         <v>0</v>
       </c>
-      <c r="R1385" t="inlineStr"/>
+      <c r="R1385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1386">
       <c r="A1386" s="2" t="n">
@@ -78017,7 +78029,9 @@
       <c r="Q1386" t="n">
         <v>0</v>
       </c>
-      <c r="R1386" t="inlineStr"/>
+      <c r="R1386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1387">
       <c r="A1387" s="2" t="n">
@@ -78069,7 +78083,9 @@
       <c r="Q1387" t="n">
         <v>0</v>
       </c>
-      <c r="R1387" t="inlineStr"/>
+      <c r="R1387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1388">
       <c r="A1388" s="2" t="n">
@@ -78121,7 +78137,9 @@
       <c r="Q1388" t="n">
         <v>0</v>
       </c>
-      <c r="R1388" t="inlineStr"/>
+      <c r="R1388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1389">
       <c r="A1389" s="2" t="n">
@@ -78173,7 +78191,9 @@
       <c r="Q1389" t="n">
         <v>0</v>
       </c>
-      <c r="R1389" t="inlineStr"/>
+      <c r="R1389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1390">
       <c r="A1390" s="2" t="n">
@@ -78225,7 +78245,9 @@
       <c r="Q1390" t="n">
         <v>0</v>
       </c>
-      <c r="R1390" t="inlineStr"/>
+      <c r="R1390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1391">
       <c r="A1391" s="2" t="n">
@@ -78277,7 +78299,9 @@
       <c r="Q1391" t="n">
         <v>2</v>
       </c>
-      <c r="R1391" t="inlineStr"/>
+      <c r="R1391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1392">
       <c r="A1392" s="2" t="n">
@@ -78329,7 +78353,9 @@
       <c r="Q1392" t="n">
         <v>0</v>
       </c>
-      <c r="R1392" t="inlineStr"/>
+      <c r="R1392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
@@ -78381,7 +78407,737 @@
       <c r="Q1393" t="n">
         <v>0</v>
       </c>
-      <c r="R1393" t="inlineStr"/>
+      <c r="R1393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45656.38541666666</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>254.1999969482422</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>256.5499877929688</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>251.0500030517578</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>253.1999969482422</v>
+      </c>
+      <c r="F1394" t="inlineStr"/>
+      <c r="G1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1394" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1394" t="inlineStr"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45656.42708333334</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>253.25</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>253.75</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>251.5500030517578</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>252</v>
+      </c>
+      <c r="F1395" t="inlineStr"/>
+      <c r="G1395" t="n">
+        <v>30193</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1395" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1395" t="inlineStr"/>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2" t="n">
+        <v>45656.46875</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>251.6999969482422</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>253.3000030517578</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>250.5500030517578</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>251.8999938964844</v>
+      </c>
+      <c r="F1396" t="inlineStr"/>
+      <c r="G1396" t="n">
+        <v>27109</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1396" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1396" t="inlineStr"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2" t="n">
+        <v>45656.51041666666</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>251.8999938964844</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>251.8999938964844</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>248</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>249.25</v>
+      </c>
+      <c r="F1397" t="inlineStr"/>
+      <c r="G1397" t="n">
+        <v>48013</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1397" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1397" t="inlineStr"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2" t="n">
+        <v>45656.55208333334</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>249</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>249.9499969482422</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>247.1499938964844</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>248.9499969482422</v>
+      </c>
+      <c r="F1398" t="inlineStr"/>
+      <c r="G1398" t="n">
+        <v>55011</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1398" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1398" t="inlineStr"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="n">
+        <v>45656.59375</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>248.75</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>249.8500061035156</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>247.8999938964844</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="F1399" t="inlineStr"/>
+      <c r="G1399" t="n">
+        <v>31535</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1399" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1399" t="inlineStr"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2" t="n">
+        <v>45656.63541666666</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>246.8000030517578</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>247.5500030517578</v>
+      </c>
+      <c r="F1400" t="inlineStr"/>
+      <c r="G1400" t="n">
+        <v>16754</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1400" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1400" t="inlineStr"/>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2" t="n">
+        <v>45657.38541666666</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>246.8999938964844</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>249.9499969482422</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>244.9499969482422</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>246.3999938964844</v>
+      </c>
+      <c r="F1401" t="inlineStr"/>
+      <c r="G1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1401" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1401" t="inlineStr"/>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="2" t="n">
+        <v>45657.42708333334</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>246.25</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>249.8500061035156</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>246.1000061035156</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>249.6999969482422</v>
+      </c>
+      <c r="F1402" t="inlineStr"/>
+      <c r="G1402" t="n">
+        <v>25125</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1402" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1402" t="inlineStr"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2" t="n">
+        <v>45657.46875</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>249.6499938964844</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>249.8000030517578</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>246.3999938964844</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>247.3500061035156</v>
+      </c>
+      <c r="F1403" t="inlineStr"/>
+      <c r="G1403" t="n">
+        <v>18846</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1403" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1403" t="inlineStr"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="2" t="n">
+        <v>45657.51041666666</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>247.3500061035156</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>249.8999938964844</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>247.0500030517578</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>249.6499938964844</v>
+      </c>
+      <c r="F1404" t="inlineStr"/>
+      <c r="G1404" t="n">
+        <v>14143</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1404" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1404" t="inlineStr"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2" t="n">
+        <v>45657.55208333334</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>249.6499938964844</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>251.4499969482422</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>249.1000061035156</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>251.3000030517578</v>
+      </c>
+      <c r="F1405" t="inlineStr"/>
+      <c r="G1405" t="n">
+        <v>28900</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1405" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1405" t="inlineStr"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2" t="n">
+        <v>45657.59375</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>251.3000030517578</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>251.3999938964844</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>247.3000030517578</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>248.1000061035156</v>
+      </c>
+      <c r="F1406" t="inlineStr"/>
+      <c r="G1406" t="n">
+        <v>64957</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1406" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1406" t="inlineStr"/>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="2" t="n">
+        <v>45657.63541666666</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>248.0500030517578</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>249</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>246</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>247</v>
+      </c>
+      <c r="F1407" t="inlineStr"/>
+      <c r="G1407" t="n">
+        <v>104081</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1407" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1407" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1407"/>
+  <dimension ref="A1:R1421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78461,7 +78461,9 @@
       <c r="Q1394" t="n">
         <v>0</v>
       </c>
-      <c r="R1394" t="inlineStr"/>
+      <c r="R1394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1395">
       <c r="A1395" s="2" t="n">
@@ -78513,7 +78515,9 @@
       <c r="Q1395" t="n">
         <v>0</v>
       </c>
-      <c r="R1395" t="inlineStr"/>
+      <c r="R1395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1396">
       <c r="A1396" s="2" t="n">
@@ -78565,7 +78569,9 @@
       <c r="Q1396" t="n">
         <v>0</v>
       </c>
-      <c r="R1396" t="inlineStr"/>
+      <c r="R1396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1397">
       <c r="A1397" s="2" t="n">
@@ -78617,7 +78623,9 @@
       <c r="Q1397" t="n">
         <v>0</v>
       </c>
-      <c r="R1397" t="inlineStr"/>
+      <c r="R1397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1398">
       <c r="A1398" s="2" t="n">
@@ -78669,7 +78677,9 @@
       <c r="Q1398" t="n">
         <v>0</v>
       </c>
-      <c r="R1398" t="inlineStr"/>
+      <c r="R1398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1399">
       <c r="A1399" s="2" t="n">
@@ -78721,7 +78731,9 @@
       <c r="Q1399" t="n">
         <v>0</v>
       </c>
-      <c r="R1399" t="inlineStr"/>
+      <c r="R1399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1400">
       <c r="A1400" s="2" t="n">
@@ -78773,7 +78785,9 @@
       <c r="Q1400" t="n">
         <v>0</v>
       </c>
-      <c r="R1400" t="inlineStr"/>
+      <c r="R1400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" s="2" t="n">
@@ -78825,7 +78839,9 @@
       <c r="Q1401" t="n">
         <v>0</v>
       </c>
-      <c r="R1401" t="inlineStr"/>
+      <c r="R1401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1402">
       <c r="A1402" s="2" t="n">
@@ -78877,7 +78893,9 @@
       <c r="Q1402" t="n">
         <v>0</v>
       </c>
-      <c r="R1402" t="inlineStr"/>
+      <c r="R1402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1403">
       <c r="A1403" s="2" t="n">
@@ -78929,7 +78947,9 @@
       <c r="Q1403" t="n">
         <v>0</v>
       </c>
-      <c r="R1403" t="inlineStr"/>
+      <c r="R1403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1404">
       <c r="A1404" s="2" t="n">
@@ -78981,7 +79001,9 @@
       <c r="Q1404" t="n">
         <v>0</v>
       </c>
-      <c r="R1404" t="inlineStr"/>
+      <c r="R1404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1405">
       <c r="A1405" s="2" t="n">
@@ -79033,7 +79055,9 @@
       <c r="Q1405" t="n">
         <v>0</v>
       </c>
-      <c r="R1405" t="inlineStr"/>
+      <c r="R1405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1406">
       <c r="A1406" s="2" t="n">
@@ -79085,7 +79109,9 @@
       <c r="Q1406" t="n">
         <v>0</v>
       </c>
-      <c r="R1406" t="inlineStr"/>
+      <c r="R1406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1407">
       <c r="A1407" s="2" t="n">
@@ -79137,7 +79163,737 @@
       <c r="Q1407" t="n">
         <v>0</v>
       </c>
-      <c r="R1407" t="inlineStr"/>
+      <c r="R1407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="2" t="n">
+        <v>45658.38541666666</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>247.3000030517578</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>247.9499969482422</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>245.2200012207031</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>246.6300048828125</v>
+      </c>
+      <c r="F1408" t="inlineStr"/>
+      <c r="G1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1408" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1408" t="inlineStr"/>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="2" t="n">
+        <v>45658.42708333334</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>246.4900054931641</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>248.8999938964844</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>244.2299957275391</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>248.1399993896484</v>
+      </c>
+      <c r="F1409" t="inlineStr"/>
+      <c r="G1409" t="n">
+        <v>32240</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1409" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1409" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="2" t="n">
+        <v>45658.46875</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>248.1399993896484</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>248.9100036621094</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>247.1699981689453</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>248.9100036621094</v>
+      </c>
+      <c r="F1410" t="inlineStr"/>
+      <c r="G1410" t="n">
+        <v>16188</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1410" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="2" t="n">
+        <v>45658.51041666666</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>249</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>253.3899993896484</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>248.2200012207031</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>250.5299987792969</v>
+      </c>
+      <c r="F1411" t="inlineStr"/>
+      <c r="G1411" t="n">
+        <v>35858</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1411" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="2" t="n">
+        <v>45658.55208333334</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>250.6199951171875</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>251.9499969482422</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>249.8300018310547</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>251.5800018310547</v>
+      </c>
+      <c r="F1412" t="inlineStr"/>
+      <c r="G1412" t="n">
+        <v>19928</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1412" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1412" t="inlineStr"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="2" t="n">
+        <v>45658.59375</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>251.8500061035156</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>251.9199981689453</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>251.1100006103516</v>
+      </c>
+      <c r="F1413" t="inlineStr"/>
+      <c r="G1413" t="n">
+        <v>17868</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1413" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="2" t="n">
+        <v>45658.63541666666</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>251.0299987792969</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>253.8000030517578</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>250.5800018310547</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>251.4700012207031</v>
+      </c>
+      <c r="F1414" t="inlineStr"/>
+      <c r="G1414" t="n">
+        <v>21103</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1414" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="2" t="n">
+        <v>45659.38541666666</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>253.3999938964844</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>255.7599945068359</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>248.6100006103516</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>250.8600006103516</v>
+      </c>
+      <c r="F1415" t="inlineStr"/>
+      <c r="G1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1415" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1415" t="inlineStr"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="2" t="n">
+        <v>45659.42708333334</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>250.9600067138672</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>252.2899932861328</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>248.9900054931641</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>250.7400054931641</v>
+      </c>
+      <c r="F1416" t="inlineStr"/>
+      <c r="G1416" t="n">
+        <v>56290</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1416" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1416" t="inlineStr"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="2" t="n">
+        <v>45659.46875</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>250.6300048828125</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>252.4100036621094</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>249.2299957275391</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>249.8699951171875</v>
+      </c>
+      <c r="F1417" t="inlineStr"/>
+      <c r="G1417" t="n">
+        <v>36100</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1417" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="2" t="n">
+        <v>45659.51041666666</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>249.8000030517578</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>252.25</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>249.6999969482422</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>252</v>
+      </c>
+      <c r="F1418" t="inlineStr"/>
+      <c r="G1418" t="n">
+        <v>18026</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1418" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="2" t="n">
+        <v>45659.55208333334</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>252</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>254</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>250.9900054931641</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="F1419" t="inlineStr"/>
+      <c r="G1419" t="n">
+        <v>46008</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1419" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="2" t="n">
+        <v>45659.59375</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>251.3600006103516</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>252.2400054931641</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>250.1000061035156</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>250.8500061035156</v>
+      </c>
+      <c r="F1420" t="inlineStr"/>
+      <c r="G1420" t="n">
+        <v>37855</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1420" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1420" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="2" t="n">
+        <v>45659.63541666666</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>251</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>252</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>250.1999969482422</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>251.75</v>
+      </c>
+      <c r="F1421" t="inlineStr"/>
+      <c r="G1421" t="n">
+        <v>24195</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1421" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1421" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1421"/>
+  <dimension ref="A1:R1435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79217,7 +79217,9 @@
       <c r="Q1408" t="n">
         <v>0</v>
       </c>
-      <c r="R1408" t="inlineStr"/>
+      <c r="R1408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1409">
       <c r="A1409" s="2" t="n">
@@ -79269,7 +79271,9 @@
       <c r="Q1409" t="n">
         <v>0</v>
       </c>
-      <c r="R1409" t="inlineStr"/>
+      <c r="R1409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1410">
       <c r="A1410" s="2" t="n">
@@ -79321,7 +79325,9 @@
       <c r="Q1410" t="n">
         <v>0</v>
       </c>
-      <c r="R1410" t="inlineStr"/>
+      <c r="R1410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1411">
       <c r="A1411" s="2" t="n">
@@ -79373,7 +79379,9 @@
       <c r="Q1411" t="n">
         <v>0</v>
       </c>
-      <c r="R1411" t="inlineStr"/>
+      <c r="R1411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1412">
       <c r="A1412" s="2" t="n">
@@ -79425,7 +79433,9 @@
       <c r="Q1412" t="n">
         <v>0</v>
       </c>
-      <c r="R1412" t="inlineStr"/>
+      <c r="R1412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1413">
       <c r="A1413" s="2" t="n">
@@ -79477,7 +79487,9 @@
       <c r="Q1413" t="n">
         <v>0</v>
       </c>
-      <c r="R1413" t="inlineStr"/>
+      <c r="R1413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1414">
       <c r="A1414" s="2" t="n">
@@ -79529,7 +79541,9 @@
       <c r="Q1414" t="n">
         <v>0</v>
       </c>
-      <c r="R1414" t="inlineStr"/>
+      <c r="R1414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1415">
       <c r="A1415" s="2" t="n">
@@ -79581,7 +79595,9 @@
       <c r="Q1415" t="n">
         <v>0</v>
       </c>
-      <c r="R1415" t="inlineStr"/>
+      <c r="R1415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1416">
       <c r="A1416" s="2" t="n">
@@ -79633,7 +79649,9 @@
       <c r="Q1416" t="n">
         <v>0</v>
       </c>
-      <c r="R1416" t="inlineStr"/>
+      <c r="R1416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1417">
       <c r="A1417" s="2" t="n">
@@ -79685,7 +79703,9 @@
       <c r="Q1417" t="n">
         <v>0</v>
       </c>
-      <c r="R1417" t="inlineStr"/>
+      <c r="R1417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1418">
       <c r="A1418" s="2" t="n">
@@ -79737,7 +79757,9 @@
       <c r="Q1418" t="n">
         <v>0</v>
       </c>
-      <c r="R1418" t="inlineStr"/>
+      <c r="R1418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1419">
       <c r="A1419" s="2" t="n">
@@ -79789,7 +79811,9 @@
       <c r="Q1419" t="n">
         <v>0</v>
       </c>
-      <c r="R1419" t="inlineStr"/>
+      <c r="R1419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1420">
       <c r="A1420" s="2" t="n">
@@ -79841,7 +79865,9 @@
       <c r="Q1420" t="n">
         <v>1</v>
       </c>
-      <c r="R1420" t="inlineStr"/>
+      <c r="R1420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1421">
       <c r="A1421" s="2" t="n">
@@ -79893,7 +79919,737 @@
       <c r="Q1421" t="n">
         <v>0</v>
       </c>
-      <c r="R1421" t="inlineStr"/>
+      <c r="R1421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="2" t="n">
+        <v>45660.38541666666</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>252.9900054931641</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>261.510009765625</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>252.2200012207031</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>253.8200073242188</v>
+      </c>
+      <c r="F1422" t="inlineStr"/>
+      <c r="G1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1422" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1422" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1422" t="inlineStr"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2" t="n">
+        <v>45660.42708333334</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>253.6999969482422</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>254.6999969482422</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>252.3999938964844</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>254.6999969482422</v>
+      </c>
+      <c r="F1423" t="inlineStr"/>
+      <c r="G1423" t="n">
+        <v>39920</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1423" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1423" t="inlineStr"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2" t="n">
+        <v>45660.46875</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>254.7100067138672</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>255.1399993896484</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>253.25</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>254.8999938964844</v>
+      </c>
+      <c r="F1424" t="inlineStr"/>
+      <c r="G1424" t="n">
+        <v>34927</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1424" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2" t="n">
+        <v>45660.51041666666</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>254.8999938964844</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>255</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>253.8399963378906</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>254.2899932861328</v>
+      </c>
+      <c r="F1425" t="inlineStr"/>
+      <c r="G1425" t="n">
+        <v>14953</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1425" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1425" t="inlineStr"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2" t="n">
+        <v>45660.55208333334</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>254.0700073242188</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>255</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>253.3500061035156</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>253.8000030517578</v>
+      </c>
+      <c r="F1426" t="inlineStr"/>
+      <c r="G1426" t="n">
+        <v>15551</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1426" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2" t="n">
+        <v>45660.59375</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>253.75</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>253.8000030517578</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>252</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>252.9100036621094</v>
+      </c>
+      <c r="F1427" t="inlineStr"/>
+      <c r="G1427" t="n">
+        <v>31837</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1427" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1427" t="inlineStr"/>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2" t="n">
+        <v>45660.63541666666</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>252.8600006103516</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>253.8200073242188</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>252.2599945068359</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>253</v>
+      </c>
+      <c r="F1428" t="inlineStr"/>
+      <c r="G1428" t="n">
+        <v>24259</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1428" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1428" t="inlineStr"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="2" t="n">
+        <v>45663.38541666666</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>256</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>258</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>247.1100006103516</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>247.8899993896484</v>
+      </c>
+      <c r="F1429" t="inlineStr"/>
+      <c r="G1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1429" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1429" t="inlineStr"/>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2" t="n">
+        <v>45663.42708333334</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>247.8000030517578</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>248.1799926757812</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>240.25</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>242.0500030517578</v>
+      </c>
+      <c r="F1430" t="inlineStr"/>
+      <c r="G1430" t="n">
+        <v>78150</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1430" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1430" t="inlineStr"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2" t="n">
+        <v>45663.46875</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>241.7799987792969</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>246.75</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>241</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>243.8999938964844</v>
+      </c>
+      <c r="F1431" t="inlineStr"/>
+      <c r="G1431" t="n">
+        <v>51927</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1431" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2" t="n">
+        <v>45663.51041666666</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>243.9499969482422</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>245.3699951171875</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>242.3000030517578</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>243.3300018310547</v>
+      </c>
+      <c r="F1432" t="inlineStr"/>
+      <c r="G1432" t="n">
+        <v>23100</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1432" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1432" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1432" t="inlineStr"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2" t="n">
+        <v>45663.55208333334</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>243.4499969482422</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>243.4499969482422</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>240.25</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>240.3300018310547</v>
+      </c>
+      <c r="F1433" t="inlineStr"/>
+      <c r="G1433" t="n">
+        <v>46609</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1433" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1433" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1433" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1433" t="inlineStr"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2" t="n">
+        <v>45663.59375</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>240.6000061035156</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>241.3000030517578</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>240.1100006103516</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>240.1100006103516</v>
+      </c>
+      <c r="F1434" t="inlineStr"/>
+      <c r="G1434" t="n">
+        <v>46488</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1434" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1434" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1434" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1434" t="inlineStr"/>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2" t="n">
+        <v>45663.63541666666</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>240.1100006103516</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>240.1100006103516</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>240.1100006103516</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>240.1100006103516</v>
+      </c>
+      <c r="F1435" t="inlineStr"/>
+      <c r="G1435" t="n">
+        <v>7042</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1435" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1435" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1435" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1435" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1435"/>
+  <dimension ref="A1:R1449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,7 +7803,7 @@
         <v>2</v>
       </c>
       <c r="Q131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R131" t="n">
         <v>2</v>
@@ -79973,7 +79973,9 @@
       <c r="Q1422" t="n">
         <v>0</v>
       </c>
-      <c r="R1422" t="inlineStr"/>
+      <c r="R1422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1423">
       <c r="A1423" s="2" t="n">
@@ -80025,7 +80027,9 @@
       <c r="Q1423" t="n">
         <v>0</v>
       </c>
-      <c r="R1423" t="inlineStr"/>
+      <c r="R1423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1424">
       <c r="A1424" s="2" t="n">
@@ -80077,7 +80081,9 @@
       <c r="Q1424" t="n">
         <v>0</v>
       </c>
-      <c r="R1424" t="inlineStr"/>
+      <c r="R1424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1425">
       <c r="A1425" s="2" t="n">
@@ -80129,7 +80135,9 @@
       <c r="Q1425" t="n">
         <v>0</v>
       </c>
-      <c r="R1425" t="inlineStr"/>
+      <c r="R1425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1426">
       <c r="A1426" s="2" t="n">
@@ -80181,7 +80189,9 @@
       <c r="Q1426" t="n">
         <v>0</v>
       </c>
-      <c r="R1426" t="inlineStr"/>
+      <c r="R1426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1427">
       <c r="A1427" s="2" t="n">
@@ -80233,7 +80243,9 @@
       <c r="Q1427" t="n">
         <v>0</v>
       </c>
-      <c r="R1427" t="inlineStr"/>
+      <c r="R1427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1428">
       <c r="A1428" s="2" t="n">
@@ -80285,7 +80297,9 @@
       <c r="Q1428" t="n">
         <v>0</v>
       </c>
-      <c r="R1428" t="inlineStr"/>
+      <c r="R1428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1429">
       <c r="A1429" s="2" t="n">
@@ -80337,7 +80351,9 @@
       <c r="Q1429" t="n">
         <v>0</v>
       </c>
-      <c r="R1429" t="inlineStr"/>
+      <c r="R1429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1430">
       <c r="A1430" s="2" t="n">
@@ -80389,7 +80405,9 @@
       <c r="Q1430" t="n">
         <v>0</v>
       </c>
-      <c r="R1430" t="inlineStr"/>
+      <c r="R1430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1431">
       <c r="A1431" s="2" t="n">
@@ -80441,7 +80459,9 @@
       <c r="Q1431" t="n">
         <v>0</v>
       </c>
-      <c r="R1431" t="inlineStr"/>
+      <c r="R1431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1432">
       <c r="A1432" s="2" t="n">
@@ -80493,7 +80513,9 @@
       <c r="Q1432" t="n">
         <v>0</v>
       </c>
-      <c r="R1432" t="inlineStr"/>
+      <c r="R1432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1433">
       <c r="A1433" s="2" t="n">
@@ -80545,7 +80567,9 @@
       <c r="Q1433" t="n">
         <v>2</v>
       </c>
-      <c r="R1433" t="inlineStr"/>
+      <c r="R1433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" s="2" t="n">
@@ -80597,7 +80621,9 @@
       <c r="Q1434" t="n">
         <v>0</v>
       </c>
-      <c r="R1434" t="inlineStr"/>
+      <c r="R1434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1435">
       <c r="A1435" s="2" t="n">
@@ -80649,7 +80675,737 @@
       <c r="Q1435" t="n">
         <v>0</v>
       </c>
-      <c r="R1435" t="inlineStr"/>
+      <c r="R1435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2" t="n">
+        <v>45664.38541666666</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>242.4499969482422</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>243.25</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>236.3399963378906</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>238.5700073242188</v>
+      </c>
+      <c r="F1436" t="inlineStr"/>
+      <c r="G1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1436" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1436" t="inlineStr"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2" t="n">
+        <v>45664.42708333334</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>239.5800018310547</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>237.5399932861328</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>237.8300018310547</v>
+      </c>
+      <c r="F1437" t="inlineStr"/>
+      <c r="G1437" t="n">
+        <v>43229</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1437" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1437" t="inlineStr"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2" t="n">
+        <v>45664.46875</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>238.1600036621094</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>239.1699981689453</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>237.25</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>237.25</v>
+      </c>
+      <c r="F1438" t="inlineStr"/>
+      <c r="G1438" t="n">
+        <v>29284</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1438" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1438" t="inlineStr"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="2" t="n">
+        <v>45664.51041666666</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>237.25</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>238.2700042724609</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>236.2100067138672</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>238</v>
+      </c>
+      <c r="F1439" t="inlineStr"/>
+      <c r="G1439" t="n">
+        <v>21304</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1439" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1439" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1439" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1439" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1439" t="inlineStr"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="2" t="n">
+        <v>45664.55208333334</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>238</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>238.9400024414062</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>237.0099945068359</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="F1440" t="inlineStr"/>
+      <c r="G1440" t="n">
+        <v>23475</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1440" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1440" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1440" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1440" t="inlineStr"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="2" t="n">
+        <v>45664.59375</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>238.3999938964844</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>239.2599945068359</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>238</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>238.1499938964844</v>
+      </c>
+      <c r="F1441" t="inlineStr"/>
+      <c r="G1441" t="n">
+        <v>40556</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1441" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1441" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1441" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1441" t="inlineStr"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="2" t="n">
+        <v>45664.63541666666</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>238.3000030517578</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>238</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>238.1900024414062</v>
+      </c>
+      <c r="F1442" t="inlineStr"/>
+      <c r="G1442" t="n">
+        <v>17342</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1442" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1442" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1442" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1442" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1442" t="inlineStr"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="2" t="n">
+        <v>45665.38541666666</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="F1443" t="inlineStr"/>
+      <c r="G1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1443" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1443" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1443" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1443" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1443" t="inlineStr"/>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="2" t="n">
+        <v>45665.42708333334</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="F1444" t="inlineStr"/>
+      <c r="G1444" t="n">
+        <v>6801</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1444" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1444" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1444" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1444" t="inlineStr"/>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="2" t="n">
+        <v>45665.46875</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="F1445" t="inlineStr"/>
+      <c r="G1445" t="n">
+        <v>5734</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1445" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1445" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1445" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1445" t="inlineStr"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="2" t="n">
+        <v>45665.51041666666</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="F1446" t="inlineStr"/>
+      <c r="G1446" t="n">
+        <v>4655</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1446" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1446" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1446" t="inlineStr"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="2" t="n">
+        <v>45665.55208333334</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="F1447" t="inlineStr"/>
+      <c r="G1447" t="n">
+        <v>1683</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1447" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1447" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1447" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1447" t="inlineStr"/>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="2" t="n">
+        <v>45665.59375</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="F1448" t="inlineStr"/>
+      <c r="G1448" t="n">
+        <v>1482</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1448" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1448" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1448" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1448" t="inlineStr"/>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="2" t="n">
+        <v>45665.63541666666</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>250.0899963378906</v>
+      </c>
+      <c r="F1449" t="inlineStr"/>
+      <c r="G1449" t="n">
+        <v>1394</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1449" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1449" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1449" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1449" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1449"/>
+  <dimension ref="A1:R1463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80729,7 +80729,9 @@
       <c r="Q1436" t="n">
         <v>0</v>
       </c>
-      <c r="R1436" t="inlineStr"/>
+      <c r="R1436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1437">
       <c r="A1437" s="2" t="n">
@@ -80781,7 +80783,9 @@
       <c r="Q1437" t="n">
         <v>0</v>
       </c>
-      <c r="R1437" t="inlineStr"/>
+      <c r="R1437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1438">
       <c r="A1438" s="2" t="n">
@@ -80833,7 +80837,9 @@
       <c r="Q1438" t="n">
         <v>0</v>
       </c>
-      <c r="R1438" t="inlineStr"/>
+      <c r="R1438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1439">
       <c r="A1439" s="2" t="n">
@@ -80885,7 +80891,9 @@
       <c r="Q1439" t="n">
         <v>0</v>
       </c>
-      <c r="R1439" t="inlineStr"/>
+      <c r="R1439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1440">
       <c r="A1440" s="2" t="n">
@@ -80937,7 +80945,9 @@
       <c r="Q1440" t="n">
         <v>0</v>
       </c>
-      <c r="R1440" t="inlineStr"/>
+      <c r="R1440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1441">
       <c r="A1441" s="2" t="n">
@@ -80989,7 +80999,9 @@
       <c r="Q1441" t="n">
         <v>0</v>
       </c>
-      <c r="R1441" t="inlineStr"/>
+      <c r="R1441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1442">
       <c r="A1442" s="2" t="n">
@@ -81041,7 +81053,9 @@
       <c r="Q1442" t="n">
         <v>0</v>
       </c>
-      <c r="R1442" t="inlineStr"/>
+      <c r="R1442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1443">
       <c r="A1443" s="2" t="n">
@@ -81093,7 +81107,9 @@
       <c r="Q1443" t="n">
         <v>0</v>
       </c>
-      <c r="R1443" t="inlineStr"/>
+      <c r="R1443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1444">
       <c r="A1444" s="2" t="n">
@@ -81145,7 +81161,9 @@
       <c r="Q1444" t="n">
         <v>0</v>
       </c>
-      <c r="R1444" t="inlineStr"/>
+      <c r="R1444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1445">
       <c r="A1445" s="2" t="n">
@@ -81197,7 +81215,9 @@
       <c r="Q1445" t="n">
         <v>0</v>
       </c>
-      <c r="R1445" t="inlineStr"/>
+      <c r="R1445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1446">
       <c r="A1446" s="2" t="n">
@@ -81249,7 +81269,9 @@
       <c r="Q1446" t="n">
         <v>0</v>
       </c>
-      <c r="R1446" t="inlineStr"/>
+      <c r="R1446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1447">
       <c r="A1447" s="2" t="n">
@@ -81301,7 +81323,9 @@
       <c r="Q1447" t="n">
         <v>0</v>
       </c>
-      <c r="R1447" t="inlineStr"/>
+      <c r="R1447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" s="2" t="n">
@@ -81353,7 +81377,9 @@
       <c r="Q1448" t="n">
         <v>0</v>
       </c>
-      <c r="R1448" t="inlineStr"/>
+      <c r="R1448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1449">
       <c r="A1449" s="2" t="n">
@@ -81405,7 +81431,737 @@
       <c r="Q1449" t="n">
         <v>0</v>
       </c>
-      <c r="R1449" t="inlineStr"/>
+      <c r="R1449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="2" t="n">
+        <v>45666.38541666666</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="F1450" t="inlineStr"/>
+      <c r="G1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1450" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1450" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1450" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1450" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1450" t="inlineStr"/>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="2" t="n">
+        <v>45666.42708333334</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="F1451" t="inlineStr"/>
+      <c r="G1451" t="n">
+        <v>5532</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1451" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1451" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1451" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1451" t="inlineStr"/>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="2" t="n">
+        <v>45666.46875</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="F1452" t="inlineStr"/>
+      <c r="G1452" t="n">
+        <v>2912</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1452" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1452" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1452" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1452" t="inlineStr"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="2" t="n">
+        <v>45666.51041666666</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="F1453" t="inlineStr"/>
+      <c r="G1453" t="n">
+        <v>1562</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1453" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1453" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1453" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1453" t="inlineStr"/>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="2" t="n">
+        <v>45666.55208333334</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="F1454" t="inlineStr"/>
+      <c r="G1454" t="n">
+        <v>2805</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1454" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1454" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1454" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1454" t="inlineStr"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="2" t="n">
+        <v>45666.59375</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="F1455" t="inlineStr"/>
+      <c r="G1455" t="n">
+        <v>3952</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1455" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1455" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1455" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1455" t="inlineStr"/>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="2" t="n">
+        <v>45666.63541666666</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="F1456" t="inlineStr"/>
+      <c r="G1456" t="n">
+        <v>831</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1456" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1456" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1456" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1456" t="inlineStr"/>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="2" t="n">
+        <v>45667.38541666666</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>275.7099914550781</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>275.7099914550781</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>252.1999969482422</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>260</v>
+      </c>
+      <c r="F1457" t="inlineStr"/>
+      <c r="G1457" t="n">
+        <v>725928</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1457" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1457" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1457" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1457" t="inlineStr"/>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="2" t="n">
+        <v>45667.42708333334</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>260</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>269.9800109863281</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>255.3000030517578</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>269</v>
+      </c>
+      <c r="F1458" t="inlineStr"/>
+      <c r="G1458" t="n">
+        <v>209870</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1458" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1458" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1458" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1458" t="inlineStr"/>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="2" t="n">
+        <v>45667.46875</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>268.7999877929688</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>268.7999877929688</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>262</v>
+      </c>
+      <c r="F1459" t="inlineStr"/>
+      <c r="G1459" t="n">
+        <v>111081</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1459" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1459" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1459" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1459" t="inlineStr"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="2" t="n">
+        <v>45667.51041666666</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>261.6099853515625</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>263</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>259.0899963378906</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>259.0899963378906</v>
+      </c>
+      <c r="F1460" t="inlineStr"/>
+      <c r="G1460" t="n">
+        <v>36657</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1460" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1460" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1460" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1460" t="inlineStr"/>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="2" t="n">
+        <v>45667.55208333334</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>259.1300048828125</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>261.2999877929688</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>255.4499969482422</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>255.9900054931641</v>
+      </c>
+      <c r="F1461" t="inlineStr"/>
+      <c r="G1461" t="n">
+        <v>51367</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1461" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1461" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1461" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1461" t="inlineStr"/>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="2" t="n">
+        <v>45667.59375</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>255.6600036621094</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>261.010009765625</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>255</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>257.6300048828125</v>
+      </c>
+      <c r="F1462" t="inlineStr"/>
+      <c r="G1462" t="n">
+        <v>63252</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1462" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1462" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1462" t="inlineStr"/>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="2" t="n">
+        <v>45667.63541666666</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>257.010009765625</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>257.8999938964844</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>254.1499938964844</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>256.010009765625</v>
+      </c>
+      <c r="F1463" t="inlineStr"/>
+      <c r="G1463" t="n">
+        <v>56121</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1463" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1463" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1463" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1463" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1463" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1463"/>
+  <dimension ref="A1:R1470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81485,7 +81485,9 @@
       <c r="Q1450" t="n">
         <v>1</v>
       </c>
-      <c r="R1450" t="inlineStr"/>
+      <c r="R1450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1451">
       <c r="A1451" s="2" t="n">
@@ -81537,7 +81539,9 @@
       <c r="Q1451" t="n">
         <v>0</v>
       </c>
-      <c r="R1451" t="inlineStr"/>
+      <c r="R1451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1452">
       <c r="A1452" s="2" t="n">
@@ -81589,7 +81593,9 @@
       <c r="Q1452" t="n">
         <v>0</v>
       </c>
-      <c r="R1452" t="inlineStr"/>
+      <c r="R1452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" s="2" t="n">
@@ -81641,7 +81647,9 @@
       <c r="Q1453" t="n">
         <v>0</v>
       </c>
-      <c r="R1453" t="inlineStr"/>
+      <c r="R1453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1454">
       <c r="A1454" s="2" t="n">
@@ -81693,7 +81701,9 @@
       <c r="Q1454" t="n">
         <v>0</v>
       </c>
-      <c r="R1454" t="inlineStr"/>
+      <c r="R1454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1455">
       <c r="A1455" s="2" t="n">
@@ -81745,7 +81755,9 @@
       <c r="Q1455" t="n">
         <v>0</v>
       </c>
-      <c r="R1455" t="inlineStr"/>
+      <c r="R1455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1456">
       <c r="A1456" s="2" t="n">
@@ -81797,7 +81809,9 @@
       <c r="Q1456" t="n">
         <v>0</v>
       </c>
-      <c r="R1456" t="inlineStr"/>
+      <c r="R1456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1457">
       <c r="A1457" s="2" t="n">
@@ -81841,7 +81855,7 @@
         <v>2</v>
       </c>
       <c r="O1457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1457" t="n">
         <v>0</v>
@@ -81849,7 +81863,9 @@
       <c r="Q1457" t="n">
         <v>0</v>
       </c>
-      <c r="R1457" t="inlineStr"/>
+      <c r="R1457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1458">
       <c r="A1458" s="2" t="n">
@@ -81901,7 +81917,9 @@
       <c r="Q1458" t="n">
         <v>0</v>
       </c>
-      <c r="R1458" t="inlineStr"/>
+      <c r="R1458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1459">
       <c r="A1459" s="2" t="n">
@@ -81953,7 +81971,9 @@
       <c r="Q1459" t="n">
         <v>0</v>
       </c>
-      <c r="R1459" t="inlineStr"/>
+      <c r="R1459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1460">
       <c r="A1460" s="2" t="n">
@@ -82005,7 +82025,9 @@
       <c r="Q1460" t="n">
         <v>0</v>
       </c>
-      <c r="R1460" t="inlineStr"/>
+      <c r="R1460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1461">
       <c r="A1461" s="2" t="n">
@@ -82057,7 +82079,9 @@
       <c r="Q1461" t="n">
         <v>0</v>
       </c>
-      <c r="R1461" t="inlineStr"/>
+      <c r="R1461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1462">
       <c r="A1462" s="2" t="n">
@@ -82109,7 +82133,9 @@
       <c r="Q1462" t="n">
         <v>0</v>
       </c>
-      <c r="R1462" t="inlineStr"/>
+      <c r="R1462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1463">
       <c r="A1463" s="2" t="n">
@@ -82161,7 +82187,373 @@
       <c r="Q1463" t="n">
         <v>0</v>
       </c>
-      <c r="R1463" t="inlineStr"/>
+      <c r="R1463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="2" t="n">
+        <v>45670.38541666666</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>251.1300048828125</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>252.8000030517578</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>245.4299926757812</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>246.2200012207031</v>
+      </c>
+      <c r="F1464" t="inlineStr"/>
+      <c r="G1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1464" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1464" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1464" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1464" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1464" t="inlineStr"/>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="2" t="n">
+        <v>45670.42708333334</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>246.9499969482422</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>249.9900054931641</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>244.1000061035156</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>244.6999969482422</v>
+      </c>
+      <c r="F1465" t="inlineStr"/>
+      <c r="G1465" t="n">
+        <v>61553</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1465" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1465" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1465" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1465" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1465" t="inlineStr"/>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="2" t="n">
+        <v>45670.46875</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>244.6900024414062</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>245.0700073242188</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="F1466" t="inlineStr"/>
+      <c r="G1466" t="n">
+        <v>39362</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1466" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1466" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1466" t="inlineStr"/>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="2" t="n">
+        <v>45670.51041666666</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="F1467" t="inlineStr"/>
+      <c r="G1467" t="n">
+        <v>6326</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1467" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1467" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1467" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1467" t="inlineStr"/>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="2" t="n">
+        <v>45670.55208333334</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="F1468" t="inlineStr"/>
+      <c r="G1468" t="n">
+        <v>4956</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1468" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1468" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1468" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1468" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1468" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1468" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1468" t="inlineStr"/>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="2" t="n">
+        <v>45670.59375</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="F1469" t="inlineStr"/>
+      <c r="G1469" t="n">
+        <v>8123</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1469" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1469" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1469" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1469" t="inlineStr"/>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="2" t="n">
+        <v>45670.63541666666</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>243.1999969482422</v>
+      </c>
+      <c r="F1470" t="inlineStr"/>
+      <c r="G1470" t="n">
+        <v>6393</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1470" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1470" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1470" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1470" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1470"/>
+  <dimension ref="A1:R1484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82241,7 +82241,9 @@
       <c r="Q1464" t="n">
         <v>0</v>
       </c>
-      <c r="R1464" t="inlineStr"/>
+      <c r="R1464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1465">
       <c r="A1465" s="2" t="n">
@@ -82293,7 +82295,9 @@
       <c r="Q1465" t="n">
         <v>0</v>
       </c>
-      <c r="R1465" t="inlineStr"/>
+      <c r="R1465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1466">
       <c r="A1466" s="2" t="n">
@@ -82345,7 +82349,9 @@
       <c r="Q1466" t="n">
         <v>0</v>
       </c>
-      <c r="R1466" t="inlineStr"/>
+      <c r="R1466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1467">
       <c r="A1467" s="2" t="n">
@@ -82397,7 +82403,9 @@
       <c r="Q1467" t="n">
         <v>0</v>
       </c>
-      <c r="R1467" t="inlineStr"/>
+      <c r="R1467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1468">
       <c r="A1468" s="2" t="n">
@@ -82449,7 +82457,9 @@
       <c r="Q1468" t="n">
         <v>2</v>
       </c>
-      <c r="R1468" t="inlineStr"/>
+      <c r="R1468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1469">
       <c r="A1469" s="2" t="n">
@@ -82501,7 +82511,9 @@
       <c r="Q1469" t="n">
         <v>0</v>
       </c>
-      <c r="R1469" t="inlineStr"/>
+      <c r="R1469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" s="2" t="n">
@@ -82553,7 +82565,737 @@
       <c r="Q1470" t="n">
         <v>0</v>
       </c>
-      <c r="R1470" t="inlineStr"/>
+      <c r="R1470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="2" t="n">
+        <v>45671.38541666666</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>242</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>247.75</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>238.5599975585938</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>244.2200012207031</v>
+      </c>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1471" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1471" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1471" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1471" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1471" t="inlineStr"/>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="2" t="n">
+        <v>45671.42708333334</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>244.5800018310547</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>246.7299957275391</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>241.2100067138672</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>244.3000030517578</v>
+      </c>
+      <c r="F1472" t="inlineStr"/>
+      <c r="G1472" t="n">
+        <v>30162</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1472" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1472" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1472" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1472" t="inlineStr"/>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="2" t="n">
+        <v>45671.46875</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>244.7100067138672</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>245.2700042724609</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>243</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>243.4700012207031</v>
+      </c>
+      <c r="F1473" t="inlineStr"/>
+      <c r="G1473" t="n">
+        <v>18402</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1473" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1473" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1473" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1473" t="inlineStr"/>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="2" t="n">
+        <v>45671.51041666666</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>243.1600036621094</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>244.0099945068359</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>242</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>242.3399963378906</v>
+      </c>
+      <c r="F1474" t="inlineStr"/>
+      <c r="G1474" t="n">
+        <v>11968</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1474" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1474" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1474" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1474" t="inlineStr"/>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="2" t="n">
+        <v>45671.55208333334</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>242.3500061035156</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>240</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>240.8099975585938</v>
+      </c>
+      <c r="F1475" t="inlineStr"/>
+      <c r="G1475" t="n">
+        <v>23464</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1475" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1475" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1475" t="inlineStr"/>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="2" t="n">
+        <v>45671.59375</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>241.0599975585938</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>241.25</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>239</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>239.1000061035156</v>
+      </c>
+      <c r="F1476" t="inlineStr"/>
+      <c r="G1476" t="n">
+        <v>108629</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1476" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1476" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1476" t="inlineStr"/>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="2" t="n">
+        <v>45671.63541666666</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>239.4499969482422</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>241.2700042724609</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>239.1799926757812</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>240.1000061035156</v>
+      </c>
+      <c r="F1477" t="inlineStr"/>
+      <c r="G1477" t="n">
+        <v>37726</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1477" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1477" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1477" t="inlineStr"/>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="2" t="n">
+        <v>45672.38541666666</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>244.6000061035156</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>245.8300018310547</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>240.4100036621094</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>243.3699951171875</v>
+      </c>
+      <c r="F1478" t="inlineStr"/>
+      <c r="G1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1478" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1478" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1478" t="inlineStr"/>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="2" t="n">
+        <v>45672.42708333334</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>243.6699981689453</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>245</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>241.1600036621094</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>241.3099975585938</v>
+      </c>
+      <c r="F1479" t="inlineStr"/>
+      <c r="G1479" t="n">
+        <v>26976</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1479" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1479" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1479" t="inlineStr"/>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="2" t="n">
+        <v>45672.46875</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>241.3099975585938</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>241.9100036621094</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>239.2400054931641</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>240.2299957275391</v>
+      </c>
+      <c r="F1480" t="inlineStr"/>
+      <c r="G1480" t="n">
+        <v>54259</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1480" t="inlineStr"/>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="2" t="n">
+        <v>45672.51041666666</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>240.2299957275391</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>240.7400054931641</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>239</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>239.8999938964844</v>
+      </c>
+      <c r="F1481" t="inlineStr"/>
+      <c r="G1481" t="n">
+        <v>19853</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1481" t="inlineStr"/>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="2" t="n">
+        <v>45672.55208333334</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>239.6399993896484</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>239.8000030517578</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>236.1499938964844</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>236.25</v>
+      </c>
+      <c r="F1482" t="inlineStr"/>
+      <c r="G1482" t="n">
+        <v>51636</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1482" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1482" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1482" t="inlineStr"/>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="2" t="n">
+        <v>45672.59375</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>236.25</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>237.1300048828125</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>236</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>236.3999938964844</v>
+      </c>
+      <c r="F1483" t="inlineStr"/>
+      <c r="G1483" t="n">
+        <v>25400</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1483" t="inlineStr"/>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="2" t="n">
+        <v>45672.63541666666</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>236.3999938964844</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>238.9400024414062</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>236.3999938964844</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>238</v>
+      </c>
+      <c r="F1484" t="inlineStr"/>
+      <c r="G1484" t="n">
+        <v>9753</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1484" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1484"/>
+  <dimension ref="A1:R1498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="Q180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R180" t="n">
         <v>0</v>
@@ -82619,7 +82619,9 @@
       <c r="Q1471" t="n">
         <v>0</v>
       </c>
-      <c r="R1471" t="inlineStr"/>
+      <c r="R1471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1472">
       <c r="A1472" s="2" t="n">
@@ -82671,7 +82673,9 @@
       <c r="Q1472" t="n">
         <v>0</v>
       </c>
-      <c r="R1472" t="inlineStr"/>
+      <c r="R1472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1473">
       <c r="A1473" s="2" t="n">
@@ -82723,7 +82727,9 @@
       <c r="Q1473" t="n">
         <v>0</v>
       </c>
-      <c r="R1473" t="inlineStr"/>
+      <c r="R1473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" s="2" t="n">
@@ -82775,7 +82781,9 @@
       <c r="Q1474" t="n">
         <v>0</v>
       </c>
-      <c r="R1474" t="inlineStr"/>
+      <c r="R1474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" s="2" t="n">
@@ -82827,7 +82835,9 @@
       <c r="Q1475" t="n">
         <v>0</v>
       </c>
-      <c r="R1475" t="inlineStr"/>
+      <c r="R1475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" s="2" t="n">
@@ -82879,7 +82889,9 @@
       <c r="Q1476" t="n">
         <v>0</v>
       </c>
-      <c r="R1476" t="inlineStr"/>
+      <c r="R1476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" s="2" t="n">
@@ -82931,7 +82943,9 @@
       <c r="Q1477" t="n">
         <v>0</v>
       </c>
-      <c r="R1477" t="inlineStr"/>
+      <c r="R1477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" s="2" t="n">
@@ -82983,7 +82997,9 @@
       <c r="Q1478" t="n">
         <v>0</v>
       </c>
-      <c r="R1478" t="inlineStr"/>
+      <c r="R1478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1479">
       <c r="A1479" s="2" t="n">
@@ -83035,7 +83051,9 @@
       <c r="Q1479" t="n">
         <v>0</v>
       </c>
-      <c r="R1479" t="inlineStr"/>
+      <c r="R1479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" s="2" t="n">
@@ -83087,7 +83105,9 @@
       <c r="Q1480" t="n">
         <v>0</v>
       </c>
-      <c r="R1480" t="inlineStr"/>
+      <c r="R1480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1481">
       <c r="A1481" s="2" t="n">
@@ -83139,7 +83159,9 @@
       <c r="Q1481" t="n">
         <v>0</v>
       </c>
-      <c r="R1481" t="inlineStr"/>
+      <c r="R1481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" s="2" t="n">
@@ -83191,7 +83213,9 @@
       <c r="Q1482" t="n">
         <v>1</v>
       </c>
-      <c r="R1482" t="inlineStr"/>
+      <c r="R1482" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1483">
       <c r="A1483" s="2" t="n">
@@ -83243,7 +83267,9 @@
       <c r="Q1483" t="n">
         <v>0</v>
       </c>
-      <c r="R1483" t="inlineStr"/>
+      <c r="R1483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1484">
       <c r="A1484" s="2" t="n">
@@ -83295,7 +83321,737 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="2" t="n">
+        <v>45673.38541666666</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>244.9299926757812</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>246.2700042724609</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>241.7899932861328</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>242</v>
+      </c>
+      <c r="F1485" t="inlineStr"/>
+      <c r="G1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1485" t="inlineStr"/>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="2" t="n">
+        <v>45673.42708333334</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>242</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>242.9499969482422</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>239.0500030517578</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>239.0800018310547</v>
+      </c>
+      <c r="F1486" t="inlineStr"/>
+      <c r="G1486" t="n">
+        <v>26960</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1486" t="inlineStr"/>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45673.46875</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>239.1000061035156</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>239.2400054931641</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>237.3099975585938</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>237.6000061035156</v>
+      </c>
+      <c r="F1487" t="inlineStr"/>
+      <c r="G1487" t="n">
+        <v>33261</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45673.51041666666</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>237.4799957275391</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>237.8300018310547</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>236.3200073242188</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>236.5700073242188</v>
+      </c>
+      <c r="F1488" t="inlineStr"/>
+      <c r="G1488" t="n">
+        <v>28403</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45673.55208333334</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>236.5599975585938</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>237</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>236.25</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>236.8399963378906</v>
+      </c>
+      <c r="F1489" t="inlineStr"/>
+      <c r="G1489" t="n">
+        <v>30734</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45673.59375</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>236.8399963378906</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>237</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>236.8999938964844</v>
+      </c>
+      <c r="F1490" t="inlineStr"/>
+      <c r="G1490" t="n">
+        <v>32079</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45673.63541666666</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>236.9900054931641</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>237.1199951171875</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>236.6100006103516</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>236.9900054931641</v>
+      </c>
+      <c r="F1491" t="inlineStr"/>
+      <c r="G1491" t="n">
+        <v>29797</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45674.38541666666</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>237</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>237</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>233.0200042724609</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>234.2799987792969</v>
+      </c>
+      <c r="F1492" t="inlineStr"/>
+      <c r="G1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45674.42708333334</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>234.5899963378906</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>234.9799957275391</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>233</v>
+      </c>
+      <c r="F1493" t="inlineStr"/>
+      <c r="G1493" t="n">
+        <v>47772</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45674.46875</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>233</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>238.1900024414062</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>232</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>238.0099945068359</v>
+      </c>
+      <c r="F1494" t="inlineStr"/>
+      <c r="G1494" t="n">
+        <v>50192</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45674.51041666666</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>240.9499969482422</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>234.3999938964844</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>235</v>
+      </c>
+      <c r="F1495" t="inlineStr"/>
+      <c r="G1495" t="n">
+        <v>86394</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45674.55208333334</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>235</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>244.6799926757812</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>232.0099945068359</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>244.6799926757812</v>
+      </c>
+      <c r="F1496" t="inlineStr"/>
+      <c r="G1496" t="n">
+        <v>92760</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45674.59375</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>244.3899993896484</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>248.7899932861328</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>242.6600036621094</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>248.7899932861328</v>
+      </c>
+      <c r="F1497" t="inlineStr"/>
+      <c r="G1497" t="n">
+        <v>366613</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45674.63541666666</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>248.7899932861328</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>248.7899932861328</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>248.5599975585938</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>248.7799987792969</v>
+      </c>
+      <c r="F1498" t="inlineStr"/>
+      <c r="G1498" t="n">
+        <v>31346</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1498"/>
+  <dimension ref="A1:R1519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83375,7 +83375,9 @@
       <c r="Q1485" t="n">
         <v>0</v>
       </c>
-      <c r="R1485" t="inlineStr"/>
+      <c r="R1485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1486">
       <c r="A1486" s="2" t="n">
@@ -83427,7 +83429,9 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1487">
       <c r="A1487" s="2" t="n">
@@ -83479,7 +83483,9 @@
       <c r="Q1487" t="n">
         <v>0</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83531,7 +83537,9 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" s="2" t="n">
@@ -83583,7 +83591,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83635,7 +83645,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83687,7 +83699,9 @@
       <c r="Q1491" t="n">
         <v>0</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1492">
       <c r="A1492" s="2" t="n">
@@ -83739,7 +83753,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -83791,7 +83807,9 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -83835,7 +83853,7 @@
         <v>3</v>
       </c>
       <c r="O1494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1494" t="n">
         <v>0</v>
@@ -83843,7 +83861,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -83895,7 +83915,9 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1496">
       <c r="A1496" s="2" t="n">
@@ -83947,7 +83969,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -83999,7 +84023,9 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
@@ -84051,7 +84077,1101 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45677.38541666666</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>251.3999938964844</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>254.4900054931641</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>246</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>246.3200073242188</v>
+      </c>
+      <c r="F1499" t="inlineStr"/>
+      <c r="G1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45677.42708333334</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>246.3999938964844</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>248.0299987792969</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>246.3099975585938</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>246.8999938964844</v>
+      </c>
+      <c r="F1500" t="inlineStr"/>
+      <c r="G1500" t="n">
+        <v>38452</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45677.46875</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>246.8999938964844</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>247.9299926757812</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>243.1199951171875</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>243.7299957275391</v>
+      </c>
+      <c r="F1501" t="inlineStr"/>
+      <c r="G1501" t="n">
+        <v>32799</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45677.51041666666</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>243.7100067138672</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>250.6999969482422</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>243.6199951171875</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>249.5099945068359</v>
+      </c>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="n">
+        <v>51818</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45677.55208333334</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>249.3000030517578</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>249.8300018310547</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>246.0200042724609</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>246.0200042724609</v>
+      </c>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="n">
+        <v>31569</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45677.59375</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>246.2599945068359</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>249.1999969482422</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>245.2299957275391</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="n">
+        <v>43500</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45677.63541666666</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>249.8999938964844</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>247</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>248.3899993896484</v>
+      </c>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="n">
+        <v>33519</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45678.38541666666</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>249.7599945068359</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>255.0099945068359</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>247</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>250.4799957275391</v>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45678.42708333334</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>251</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>251.3699951171875</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>247.4199981689453</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>247.8300018310547</v>
+      </c>
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="n">
+        <v>25473</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45678.46875</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>247.8899993896484</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>251.8500061035156</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>247</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>248.0500030517578</v>
+      </c>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="n">
+        <v>40341</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45678.51041666666</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>248.3999938964844</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>248.6399993896484</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>247.2599945068359</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>247.8300018310547</v>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="n">
+        <v>14544</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45678.55208333334</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>247.6199951171875</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>248</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>244.3099975585938</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>244.8600006103516</v>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="n">
+        <v>26813</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45678.59375</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>244.8200073242188</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>245</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>244</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>244.2899932861328</v>
+      </c>
+      <c r="F1511" t="inlineStr"/>
+      <c r="G1511" t="n">
+        <v>23015</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45678.63541666666</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>244.3099975585938</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>245</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>244</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>244</v>
+      </c>
+      <c r="F1512" t="inlineStr"/>
+      <c r="G1512" t="n">
+        <v>27466</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45679.38541666666</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>245.8899993896484</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>245.8999938964844</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>239.0500030517578</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>240.1399993896484</v>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45679.42708333334</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>240</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>240.7200012207031</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>236</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>236.2799987792969</v>
+      </c>
+      <c r="F1514" t="inlineStr"/>
+      <c r="G1514" t="n">
+        <v>51565</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45679.46875</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>236.0099945068359</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>236.3999938964844</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>233</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>234</v>
+      </c>
+      <c r="F1515" t="inlineStr"/>
+      <c r="G1515" t="n">
+        <v>46205</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45679.51041666666</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>234.0700073242188</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>235.3600006103516</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>232.4400024414062</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>234.2700042724609</v>
+      </c>
+      <c r="F1516" t="inlineStr"/>
+      <c r="G1516" t="n">
+        <v>49974</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45679.55208333334</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>234.2599945068359</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>235</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>233.0500030517578</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>234.9900054931641</v>
+      </c>
+      <c r="F1517" t="inlineStr"/>
+      <c r="G1517" t="n">
+        <v>25452</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45679.59375</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>234.3699951171875</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>239.8600006103516</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>234.3699951171875</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>239.2799987792969</v>
+      </c>
+      <c r="F1518" t="inlineStr"/>
+      <c r="G1518" t="n">
+        <v>25567</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45679.63541666666</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>239.2799987792969</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>242.7100067138672</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>236</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>236.0500030517578</v>
+      </c>
+      <c r="F1519" t="inlineStr"/>
+      <c r="G1519" t="n">
+        <v>29736</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1519"/>
+  <dimension ref="A1:R1533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12507,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="Q215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R215" t="n">
         <v>0</v>
@@ -84131,7 +84131,9 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
@@ -84183,7 +84185,9 @@
       <c r="Q1500" t="n">
         <v>0</v>
       </c>
-      <c r="R1500" t="inlineStr"/>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" s="2" t="n">
@@ -84235,7 +84239,9 @@
       <c r="Q1501" t="n">
         <v>0</v>
       </c>
-      <c r="R1501" t="inlineStr"/>
+      <c r="R1501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1502">
       <c r="A1502" s="2" t="n">
@@ -84287,7 +84293,9 @@
       <c r="Q1502" t="n">
         <v>0</v>
       </c>
-      <c r="R1502" t="inlineStr"/>
+      <c r="R1502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
@@ -84339,7 +84347,9 @@
       <c r="Q1503" t="n">
         <v>0</v>
       </c>
-      <c r="R1503" t="inlineStr"/>
+      <c r="R1503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
@@ -84391,7 +84401,9 @@
       <c r="Q1504" t="n">
         <v>0</v>
       </c>
-      <c r="R1504" t="inlineStr"/>
+      <c r="R1504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1505">
       <c r="A1505" s="2" t="n">
@@ -84443,7 +84455,9 @@
       <c r="Q1505" t="n">
         <v>1</v>
       </c>
-      <c r="R1505" t="inlineStr"/>
+      <c r="R1505" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
@@ -84495,7 +84509,9 @@
       <c r="Q1506" t="n">
         <v>0</v>
       </c>
-      <c r="R1506" t="inlineStr"/>
+      <c r="R1506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1507">
       <c r="A1507" s="2" t="n">
@@ -84547,7 +84563,9 @@
       <c r="Q1507" t="n">
         <v>0</v>
       </c>
-      <c r="R1507" t="inlineStr"/>
+      <c r="R1507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1508">
       <c r="A1508" s="2" t="n">
@@ -84599,7 +84617,9 @@
       <c r="Q1508" t="n">
         <v>0</v>
       </c>
-      <c r="R1508" t="inlineStr"/>
+      <c r="R1508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
@@ -84651,7 +84671,9 @@
       <c r="Q1509" t="n">
         <v>0</v>
       </c>
-      <c r="R1509" t="inlineStr"/>
+      <c r="R1509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1510">
       <c r="A1510" s="2" t="n">
@@ -84703,7 +84725,9 @@
       <c r="Q1510" t="n">
         <v>0</v>
       </c>
-      <c r="R1510" t="inlineStr"/>
+      <c r="R1510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" s="2" t="n">
@@ -84755,7 +84779,9 @@
       <c r="Q1511" t="n">
         <v>0</v>
       </c>
-      <c r="R1511" t="inlineStr"/>
+      <c r="R1511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" s="2" t="n">
@@ -84807,7 +84833,9 @@
       <c r="Q1512" t="n">
         <v>0</v>
       </c>
-      <c r="R1512" t="inlineStr"/>
+      <c r="R1512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1513">
       <c r="A1513" s="2" t="n">
@@ -84859,7 +84887,9 @@
       <c r="Q1513" t="n">
         <v>0</v>
       </c>
-      <c r="R1513" t="inlineStr"/>
+      <c r="R1513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1514">
       <c r="A1514" s="2" t="n">
@@ -84911,7 +84941,9 @@
       <c r="Q1514" t="n">
         <v>0</v>
       </c>
-      <c r="R1514" t="inlineStr"/>
+      <c r="R1514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" s="2" t="n">
@@ -84963,7 +84995,9 @@
       <c r="Q1515" t="n">
         <v>0</v>
       </c>
-      <c r="R1515" t="inlineStr"/>
+      <c r="R1515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
@@ -85015,7 +85049,9 @@
       <c r="Q1516" t="n">
         <v>0</v>
       </c>
-      <c r="R1516" t="inlineStr"/>
+      <c r="R1516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1517">
       <c r="A1517" s="2" t="n">
@@ -85067,7 +85103,9 @@
       <c r="Q1517" t="n">
         <v>0</v>
       </c>
-      <c r="R1517" t="inlineStr"/>
+      <c r="R1517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1518">
       <c r="A1518" s="2" t="n">
@@ -85119,7 +85157,9 @@
       <c r="Q1518" t="n">
         <v>0</v>
       </c>
-      <c r="R1518" t="inlineStr"/>
+      <c r="R1518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1519">
       <c r="A1519" s="2" t="n">
@@ -85171,7 +85211,737 @@
       <c r="Q1519" t="n">
         <v>0</v>
       </c>
-      <c r="R1519" t="inlineStr"/>
+      <c r="R1519" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45680.38541666666</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>236.7100067138672</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>240</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>234.9700012207031</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>237.8000030517578</v>
+      </c>
+      <c r="F1520" t="inlineStr"/>
+      <c r="G1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45680.42708333334</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>238</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>240</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>238</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>239.1499938964844</v>
+      </c>
+      <c r="F1521" t="inlineStr"/>
+      <c r="G1521" t="n">
+        <v>26337</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45680.46875</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>239.1600036621094</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>240</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>237.2400054931641</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>237.25</v>
+      </c>
+      <c r="F1522" t="inlineStr"/>
+      <c r="G1522" t="n">
+        <v>13629</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45680.51041666666</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>237.1799926757812</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>238.7599945068359</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>236.4799957275391</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>237.0500030517578</v>
+      </c>
+      <c r="F1523" t="inlineStr"/>
+      <c r="G1523" t="n">
+        <v>12889</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45680.55208333334</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>237.0500030517578</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>237.8200073242188</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>237</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>237.1399993896484</v>
+      </c>
+      <c r="F1524" t="inlineStr"/>
+      <c r="G1524" t="n">
+        <v>7460</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45680.59375</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>237.1399993896484</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>237.1600036621094</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>232</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>232.4900054931641</v>
+      </c>
+      <c r="F1525" t="inlineStr"/>
+      <c r="G1525" t="n">
+        <v>83260</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45680.63541666666</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>232.4799957275391</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>232.8899993896484</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>231</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>232.8899993896484</v>
+      </c>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="n">
+        <v>36954</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45681.38541666666</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>233.9799957275391</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>237.4900054931641</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>226.7299957275391</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>229.7799987792969</v>
+      </c>
+      <c r="F1527" t="inlineStr"/>
+      <c r="G1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="inlineStr"/>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2" t="n">
+        <v>45681.42708333334</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>229.3800048828125</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>230.1600036621094</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>228.6799926757812</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>229.2700042724609</v>
+      </c>
+      <c r="F1528" t="inlineStr"/>
+      <c r="G1528" t="n">
+        <v>29394</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1528" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1528" t="inlineStr"/>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="2" t="n">
+        <v>45681.46875</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>229.2700042724609</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>228.6000061035156</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="F1529" t="inlineStr"/>
+      <c r="G1529" t="n">
+        <v>217549</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1529" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1529" t="inlineStr"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="2" t="n">
+        <v>45681.51041666666</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="F1530" t="inlineStr"/>
+      <c r="G1530" t="n">
+        <v>38223</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1530" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1530" t="inlineStr"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2" t="n">
+        <v>45681.55208333334</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="F1531" t="inlineStr"/>
+      <c r="G1531" t="n">
+        <v>15749</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1531" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1531" t="inlineStr"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2" t="n">
+        <v>45681.59375</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="F1532" t="inlineStr"/>
+      <c r="G1532" t="n">
+        <v>10338</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1532" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1532" t="inlineStr"/>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="2" t="n">
+        <v>45681.63541666666</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>243.9900054931641</v>
+      </c>
+      <c r="F1533" t="inlineStr"/>
+      <c r="G1533" t="n">
+        <v>17197</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1533" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1533" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1533" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1533"/>
+  <dimension ref="A1:R1540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85265,7 +85265,9 @@
       <c r="Q1520" t="n">
         <v>0</v>
       </c>
-      <c r="R1520" t="inlineStr"/>
+      <c r="R1520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1521">
       <c r="A1521" s="2" t="n">
@@ -85317,7 +85319,9 @@
       <c r="Q1521" t="n">
         <v>0</v>
       </c>
-      <c r="R1521" t="inlineStr"/>
+      <c r="R1521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1522">
       <c r="A1522" s="2" t="n">
@@ -85369,7 +85373,9 @@
       <c r="Q1522" t="n">
         <v>0</v>
       </c>
-      <c r="R1522" t="inlineStr"/>
+      <c r="R1522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1523">
       <c r="A1523" s="2" t="n">
@@ -85421,7 +85427,9 @@
       <c r="Q1523" t="n">
         <v>0</v>
       </c>
-      <c r="R1523" t="inlineStr"/>
+      <c r="R1523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1524">
       <c r="A1524" s="2" t="n">
@@ -85473,7 +85481,9 @@
       <c r="Q1524" t="n">
         <v>0</v>
       </c>
-      <c r="R1524" t="inlineStr"/>
+      <c r="R1524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1525">
       <c r="A1525" s="2" t="n">
@@ -85525,7 +85535,9 @@
       <c r="Q1525" t="n">
         <v>0</v>
       </c>
-      <c r="R1525" t="inlineStr"/>
+      <c r="R1525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1526">
       <c r="A1526" s="2" t="n">
@@ -85577,7 +85589,9 @@
       <c r="Q1526" t="n">
         <v>0</v>
       </c>
-      <c r="R1526" t="inlineStr"/>
+      <c r="R1526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1527">
       <c r="A1527" s="2" t="n">
@@ -85621,7 +85635,7 @@
         <v>4</v>
       </c>
       <c r="O1527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1527" t="n">
         <v>0</v>
@@ -85629,7 +85643,9 @@
       <c r="Q1527" t="n">
         <v>0</v>
       </c>
-      <c r="R1527" t="inlineStr"/>
+      <c r="R1527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1528">
       <c r="A1528" s="2" t="n">
@@ -85681,7 +85697,9 @@
       <c r="Q1528" t="n">
         <v>0</v>
       </c>
-      <c r="R1528" t="inlineStr"/>
+      <c r="R1528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1529">
       <c r="A1529" s="2" t="n">
@@ -85733,7 +85751,9 @@
       <c r="Q1529" t="n">
         <v>0</v>
       </c>
-      <c r="R1529" t="inlineStr"/>
+      <c r="R1529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1530">
       <c r="A1530" s="2" t="n">
@@ -85785,7 +85805,9 @@
       <c r="Q1530" t="n">
         <v>0</v>
       </c>
-      <c r="R1530" t="inlineStr"/>
+      <c r="R1530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" s="2" t="n">
@@ -85837,7 +85859,9 @@
       <c r="Q1531" t="n">
         <v>0</v>
       </c>
-      <c r="R1531" t="inlineStr"/>
+      <c r="R1531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1532">
       <c r="A1532" s="2" t="n">
@@ -85889,7 +85913,9 @@
       <c r="Q1532" t="n">
         <v>0</v>
       </c>
-      <c r="R1532" t="inlineStr"/>
+      <c r="R1532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1533">
       <c r="A1533" s="2" t="n">
@@ -85941,7 +85967,373 @@
       <c r="Q1533" t="n">
         <v>0</v>
       </c>
-      <c r="R1533" t="inlineStr"/>
+      <c r="R1533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="2" t="n">
+        <v>45684.38541666666</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>244.2700042724609</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>244.2700042724609</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>231.7899932861328</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>231.7899932861328</v>
+      </c>
+      <c r="F1534" t="inlineStr"/>
+      <c r="G1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1534" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1534" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1534" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1534" t="inlineStr"/>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2" t="n">
+        <v>45684.42708333334</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>231.7899932861328</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>231.7899932861328</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>231.7899932861328</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>231.7899932861328</v>
+      </c>
+      <c r="F1535" t="inlineStr"/>
+      <c r="G1535" t="n">
+        <v>19277</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1535" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1535" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1535" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1535" t="inlineStr"/>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2" t="n">
+        <v>45684.46875</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>231.7899932861328</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>238.8000030517578</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>231.7899932861328</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>238.8000030517578</v>
+      </c>
+      <c r="F1536" t="inlineStr"/>
+      <c r="G1536" t="n">
+        <v>184511</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1536" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1536" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1536" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1536" t="inlineStr"/>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="2" t="n">
+        <v>45684.51041666666</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>238.8000030517578</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>236.1000061035156</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>248.3200073242188</v>
+      </c>
+      <c r="F1537" t="inlineStr"/>
+      <c r="G1537" t="n">
+        <v>285338</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1537" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1537" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1537" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1537" t="inlineStr"/>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="2" t="n">
+        <v>45684.55208333334</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>247.7400054931641</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>248.4499969482422</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>240</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>241.0299987792969</v>
+      </c>
+      <c r="F1538" t="inlineStr"/>
+      <c r="G1538" t="n">
+        <v>94402</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1538" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1538" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1538" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1538" t="inlineStr"/>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="2" t="n">
+        <v>45684.59375</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>241.0299987792969</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>243</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>236.1300048828125</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>239.3999938964844</v>
+      </c>
+      <c r="F1539" t="inlineStr"/>
+      <c r="G1539" t="n">
+        <v>75808</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1539" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1539" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1539" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1539" t="inlineStr"/>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="2" t="n">
+        <v>45684.63541666666</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>238.4499969482422</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>241.0099945068359</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>236.2200012207031</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>240</v>
+      </c>
+      <c r="F1540" t="inlineStr"/>
+      <c r="G1540" t="n">
+        <v>48767</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1540" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1540" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1540" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1540" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1540"/>
+  <dimension ref="A1:R1554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86021,7 +86021,9 @@
       <c r="Q1534" t="n">
         <v>0</v>
       </c>
-      <c r="R1534" t="inlineStr"/>
+      <c r="R1534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1535">
       <c r="A1535" s="2" t="n">
@@ -86073,7 +86075,9 @@
       <c r="Q1535" t="n">
         <v>0</v>
       </c>
-      <c r="R1535" t="inlineStr"/>
+      <c r="R1535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1536">
       <c r="A1536" s="2" t="n">
@@ -86125,7 +86129,9 @@
       <c r="Q1536" t="n">
         <v>0</v>
       </c>
-      <c r="R1536" t="inlineStr"/>
+      <c r="R1536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1537">
       <c r="A1537" s="2" t="n">
@@ -86169,7 +86175,7 @@
         <v>5</v>
       </c>
       <c r="O1537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1537" t="n">
         <v>0</v>
@@ -86177,7 +86183,9 @@
       <c r="Q1537" t="n">
         <v>0</v>
       </c>
-      <c r="R1537" t="inlineStr"/>
+      <c r="R1537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1538">
       <c r="A1538" s="2" t="n">
@@ -86229,7 +86237,9 @@
       <c r="Q1538" t="n">
         <v>0</v>
       </c>
-      <c r="R1538" t="inlineStr"/>
+      <c r="R1538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1539">
       <c r="A1539" s="2" t="n">
@@ -86281,7 +86291,9 @@
       <c r="Q1539" t="n">
         <v>0</v>
       </c>
-      <c r="R1539" t="inlineStr"/>
+      <c r="R1539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1540">
       <c r="A1540" s="2" t="n">
@@ -86333,7 +86345,737 @@
       <c r="Q1540" t="n">
         <v>0</v>
       </c>
-      <c r="R1540" t="inlineStr"/>
+      <c r="R1540" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="2" t="n">
+        <v>45685.38541666666</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>242.7599945068359</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>247.1799926757812</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>231.8000030517578</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>233.8099975585938</v>
+      </c>
+      <c r="F1541" t="inlineStr"/>
+      <c r="G1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1541" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1541" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1541" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1541" t="inlineStr"/>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="2" t="n">
+        <v>45685.42708333334</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>231.8000030517578</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>234.9900054931641</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>230</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>230.5700073242188</v>
+      </c>
+      <c r="F1542" t="inlineStr"/>
+      <c r="G1542" t="n">
+        <v>98483</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1542" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1542" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1542" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1542" t="inlineStr"/>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="2" t="n">
+        <v>45685.46875</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>230.5800018310547</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>237.8300018310547</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>229.6999969482422</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>237.0700073242188</v>
+      </c>
+      <c r="F1543" t="inlineStr"/>
+      <c r="G1543" t="n">
+        <v>73776</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1543" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1543" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1543" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1543" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1543" t="inlineStr"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="2" t="n">
+        <v>45685.51041666666</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>236.8099975585938</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>247</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>232.8999938964844</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>242.25</v>
+      </c>
+      <c r="F1544" t="inlineStr"/>
+      <c r="G1544" t="n">
+        <v>90945</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1544" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1544" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1544" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1544" t="inlineStr"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="2" t="n">
+        <v>45685.55208333334</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>242.4600067138672</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>243.3800048828125</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>238.0599975585938</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>240.0399932861328</v>
+      </c>
+      <c r="F1545" t="inlineStr"/>
+      <c r="G1545" t="n">
+        <v>60355</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1545" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1545" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1545" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1545" t="inlineStr"/>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="2" t="n">
+        <v>45685.59375</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>240.0200042724609</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>241.3999938964844</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>235.7400054931641</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>236.6699981689453</v>
+      </c>
+      <c r="F1546" t="inlineStr"/>
+      <c r="G1546" t="n">
+        <v>33918</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1546" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1546" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1546" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1546" t="inlineStr"/>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="2" t="n">
+        <v>45685.63541666666</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>236.6699981689453</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>238</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>235.8999938964844</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>236.1100006103516</v>
+      </c>
+      <c r="F1547" t="inlineStr"/>
+      <c r="G1547" t="n">
+        <v>19151</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1547" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1547" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1547" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1547" t="inlineStr"/>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="2" t="n">
+        <v>45686.38541666666</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>235</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>243.8399963378906</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>235</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>237.7100067138672</v>
+      </c>
+      <c r="F1548" t="inlineStr"/>
+      <c r="G1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1548" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1548" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1548" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1548" t="inlineStr"/>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="2" t="n">
+        <v>45686.42708333334</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>237.9100036621094</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>240.9199981689453</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>236.75</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>236.7599945068359</v>
+      </c>
+      <c r="F1549" t="inlineStr"/>
+      <c r="G1549" t="n">
+        <v>46289</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1549" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1549" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1549" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1549" t="inlineStr"/>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="2" t="n">
+        <v>45686.46875</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>237</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>237.9900054931641</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>235.6100006103516</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>236.8600006103516</v>
+      </c>
+      <c r="F1550" t="inlineStr"/>
+      <c r="G1550" t="n">
+        <v>47100</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1550" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1550" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1550" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1550" t="inlineStr"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="2" t="n">
+        <v>45686.51041666666</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>236.8699951171875</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>237.6199951171875</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>235</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>235.1799926757812</v>
+      </c>
+      <c r="F1551" t="inlineStr"/>
+      <c r="G1551" t="n">
+        <v>40483</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1551" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1551" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1551" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1551" t="inlineStr"/>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="2" t="n">
+        <v>45686.55208333334</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>235</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>238.0299987792969</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>234.25</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>236.3099975585938</v>
+      </c>
+      <c r="F1552" t="inlineStr"/>
+      <c r="G1552" t="n">
+        <v>50104</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1552" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1552" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1552" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1552" t="inlineStr"/>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>236.2899932861328</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>238.3399963378906</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>235.8000030517578</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>236.3099975585938</v>
+      </c>
+      <c r="F1553" t="inlineStr"/>
+      <c r="G1553" t="n">
+        <v>50529</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1553" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1553" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1553" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1553" t="inlineStr"/>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="2" t="n">
+        <v>45686.63541666666</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>236.3000030517578</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>237</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>235.5</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>236.3500061035156</v>
+      </c>
+      <c r="F1554" t="inlineStr"/>
+      <c r="G1554" t="n">
+        <v>28970</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1554" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1554" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1554" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1554" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1554" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1554"/>
+  <dimension ref="A1:R1568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86399,7 +86399,9 @@
       <c r="Q1541" t="n">
         <v>0</v>
       </c>
-      <c r="R1541" t="inlineStr"/>
+      <c r="R1541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1542">
       <c r="A1542" s="2" t="n">
@@ -86451,7 +86453,9 @@
       <c r="Q1542" t="n">
         <v>0</v>
       </c>
-      <c r="R1542" t="inlineStr"/>
+      <c r="R1542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1543">
       <c r="A1543" s="2" t="n">
@@ -86503,7 +86507,9 @@
       <c r="Q1543" t="n">
         <v>0</v>
       </c>
-      <c r="R1543" t="inlineStr"/>
+      <c r="R1543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1544">
       <c r="A1544" s="2" t="n">
@@ -86555,7 +86561,9 @@
       <c r="Q1544" t="n">
         <v>0</v>
       </c>
-      <c r="R1544" t="inlineStr"/>
+      <c r="R1544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1545">
       <c r="A1545" s="2" t="n">
@@ -86607,7 +86615,9 @@
       <c r="Q1545" t="n">
         <v>0</v>
       </c>
-      <c r="R1545" t="inlineStr"/>
+      <c r="R1545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1546">
       <c r="A1546" s="2" t="n">
@@ -86659,7 +86669,9 @@
       <c r="Q1546" t="n">
         <v>0</v>
       </c>
-      <c r="R1546" t="inlineStr"/>
+      <c r="R1546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1547">
       <c r="A1547" s="2" t="n">
@@ -86711,7 +86723,9 @@
       <c r="Q1547" t="n">
         <v>0</v>
       </c>
-      <c r="R1547" t="inlineStr"/>
+      <c r="R1547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1548">
       <c r="A1548" s="2" t="n">
@@ -86763,7 +86777,9 @@
       <c r="Q1548" t="n">
         <v>0</v>
       </c>
-      <c r="R1548" t="inlineStr"/>
+      <c r="R1548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1549">
       <c r="A1549" s="2" t="n">
@@ -86815,7 +86831,9 @@
       <c r="Q1549" t="n">
         <v>0</v>
       </c>
-      <c r="R1549" t="inlineStr"/>
+      <c r="R1549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1550">
       <c r="A1550" s="2" t="n">
@@ -86867,7 +86885,9 @@
       <c r="Q1550" t="n">
         <v>0</v>
       </c>
-      <c r="R1550" t="inlineStr"/>
+      <c r="R1550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1551">
       <c r="A1551" s="2" t="n">
@@ -86919,7 +86939,9 @@
       <c r="Q1551" t="n">
         <v>0</v>
       </c>
-      <c r="R1551" t="inlineStr"/>
+      <c r="R1551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1552">
       <c r="A1552" s="2" t="n">
@@ -86971,7 +86993,9 @@
       <c r="Q1552" t="n">
         <v>0</v>
       </c>
-      <c r="R1552" t="inlineStr"/>
+      <c r="R1552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1553">
       <c r="A1553" s="2" t="n">
@@ -87023,7 +87047,9 @@
       <c r="Q1553" t="n">
         <v>0</v>
       </c>
-      <c r="R1553" t="inlineStr"/>
+      <c r="R1553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" s="2" t="n">
@@ -87075,7 +87101,737 @@
       <c r="Q1554" t="n">
         <v>1</v>
       </c>
-      <c r="R1554" t="inlineStr"/>
+      <c r="R1554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="2" t="n">
+        <v>45687.38541666666</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>240</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>248.1600036621094</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>238.5700073242188</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>245.9900054931641</v>
+      </c>
+      <c r="F1555" t="inlineStr"/>
+      <c r="G1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1555" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1555" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1555" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1555" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1555" t="inlineStr"/>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="2" t="n">
+        <v>45687.42708333334</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>246.0500030517578</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>246.0500030517578</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>240.1999969482422</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>241.6000061035156</v>
+      </c>
+      <c r="F1556" t="inlineStr"/>
+      <c r="G1556" t="n">
+        <v>43672</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1556" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1556" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1556" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1556" t="inlineStr"/>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="2" t="n">
+        <v>45687.46875</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>241.6000061035156</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>241.6000061035156</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>240</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>240.0200042724609</v>
+      </c>
+      <c r="F1557" t="inlineStr"/>
+      <c r="G1557" t="n">
+        <v>19729</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1557" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1557" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1557" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1557" t="inlineStr"/>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="2" t="n">
+        <v>45687.51041666666</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>240.0099945068359</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>241.9900054931641</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>239.0299987792969</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>239.1199951171875</v>
+      </c>
+      <c r="F1558" t="inlineStr"/>
+      <c r="G1558" t="n">
+        <v>18813</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1558" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1558" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1558" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1558" t="inlineStr"/>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="2" t="n">
+        <v>45687.55208333334</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>239.1199951171875</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>235.1000061035156</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>235.5500030517578</v>
+      </c>
+      <c r="F1559" t="inlineStr"/>
+      <c r="G1559" t="n">
+        <v>41919</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1559" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1559" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1559" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1559" t="inlineStr"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>235.5200042724609</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>237.8099975585938</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>235</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>235.8500061035156</v>
+      </c>
+      <c r="F1560" t="inlineStr"/>
+      <c r="G1560" t="n">
+        <v>24283</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1560" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1560" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1560" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1560" t="inlineStr"/>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="2" t="n">
+        <v>45687.63541666666</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>235.4700012207031</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>239.3999938964844</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>235.0099945068359</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>236.6900024414062</v>
+      </c>
+      <c r="F1561" t="inlineStr"/>
+      <c r="G1561" t="n">
+        <v>24763</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1561" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1561" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1561" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1561" t="inlineStr"/>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="2" t="n">
+        <v>45688.38541666666</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>240</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>240.9900054931641</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>237.0200042724609</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>239.6999969482422</v>
+      </c>
+      <c r="F1562" t="inlineStr"/>
+      <c r="G1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1562" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1562" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1562" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1562" t="inlineStr"/>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="2" t="n">
+        <v>45688.42708333334</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>239.6999969482422</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>242.6100006103516</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>241.5500030517578</v>
+      </c>
+      <c r="F1563" t="inlineStr"/>
+      <c r="G1563" t="n">
+        <v>39518</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1563" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1563" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1563" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1563" t="inlineStr"/>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="2" t="n">
+        <v>45688.46875</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>241.2299957275391</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>241.8899993896484</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>239.4100036621094</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="F1564" t="inlineStr"/>
+      <c r="G1564" t="n">
+        <v>21664</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1564" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1564" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1564" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1564" t="inlineStr"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="2" t="n">
+        <v>45688.51041666666</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>242.3899993896484</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>240.0099945068359</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>241.3500061035156</v>
+      </c>
+      <c r="F1565" t="inlineStr"/>
+      <c r="G1565" t="n">
+        <v>33524</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1565" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1565" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1565" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1565" t="inlineStr"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="2" t="n">
+        <v>45688.55208333334</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>241.0800018310547</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>242.1999969482422</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>240.6000061035156</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>240.9499969482422</v>
+      </c>
+      <c r="F1566" t="inlineStr"/>
+      <c r="G1566" t="n">
+        <v>13574</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1566" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1566" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1566" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1566" t="inlineStr"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="2" t="n">
+        <v>45688.59375</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>240.9499969482422</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>247</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>240.6799926757812</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>245.3000030517578</v>
+      </c>
+      <c r="F1567" t="inlineStr"/>
+      <c r="G1567" t="n">
+        <v>54701</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1567" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1567" t="inlineStr"/>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="2" t="n">
+        <v>45688.63541666666</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>245.3000030517578</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>245.8099975585938</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>244.75</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>245.3200073242188</v>
+      </c>
+      <c r="F1568" t="inlineStr"/>
+      <c r="G1568" t="n">
+        <v>20377</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1568" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1568" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1568"/>
+  <dimension ref="A1:R1582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87155,7 +87155,9 @@
       <c r="Q1555" t="n">
         <v>0</v>
       </c>
-      <c r="R1555" t="inlineStr"/>
+      <c r="R1555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1556">
       <c r="A1556" s="2" t="n">
@@ -87207,7 +87209,9 @@
       <c r="Q1556" t="n">
         <v>0</v>
       </c>
-      <c r="R1556" t="inlineStr"/>
+      <c r="R1556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1557">
       <c r="A1557" s="2" t="n">
@@ -87259,7 +87263,9 @@
       <c r="Q1557" t="n">
         <v>0</v>
       </c>
-      <c r="R1557" t="inlineStr"/>
+      <c r="R1557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1558">
       <c r="A1558" s="2" t="n">
@@ -87311,7 +87317,9 @@
       <c r="Q1558" t="n">
         <v>0</v>
       </c>
-      <c r="R1558" t="inlineStr"/>
+      <c r="R1558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1559">
       <c r="A1559" s="2" t="n">
@@ -87363,7 +87371,9 @@
       <c r="Q1559" t="n">
         <v>0</v>
       </c>
-      <c r="R1559" t="inlineStr"/>
+      <c r="R1559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1560">
       <c r="A1560" s="2" t="n">
@@ -87415,7 +87425,9 @@
       <c r="Q1560" t="n">
         <v>0</v>
       </c>
-      <c r="R1560" t="inlineStr"/>
+      <c r="R1560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1561">
       <c r="A1561" s="2" t="n">
@@ -87467,7 +87479,9 @@
       <c r="Q1561" t="n">
         <v>0</v>
       </c>
-      <c r="R1561" t="inlineStr"/>
+      <c r="R1561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1562">
       <c r="A1562" s="2" t="n">
@@ -87519,7 +87533,9 @@
       <c r="Q1562" t="n">
         <v>0</v>
       </c>
-      <c r="R1562" t="inlineStr"/>
+      <c r="R1562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1563">
       <c r="A1563" s="2" t="n">
@@ -87571,7 +87587,9 @@
       <c r="Q1563" t="n">
         <v>0</v>
       </c>
-      <c r="R1563" t="inlineStr"/>
+      <c r="R1563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1564">
       <c r="A1564" s="2" t="n">
@@ -87623,7 +87641,9 @@
       <c r="Q1564" t="n">
         <v>0</v>
       </c>
-      <c r="R1564" t="inlineStr"/>
+      <c r="R1564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" s="2" t="n">
@@ -87675,7 +87695,9 @@
       <c r="Q1565" t="n">
         <v>0</v>
       </c>
-      <c r="R1565" t="inlineStr"/>
+      <c r="R1565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1566">
       <c r="A1566" s="2" t="n">
@@ -87727,7 +87749,9 @@
       <c r="Q1566" t="n">
         <v>2</v>
       </c>
-      <c r="R1566" t="inlineStr"/>
+      <c r="R1566" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" s="2" t="n">
@@ -87771,7 +87795,7 @@
         <v>5</v>
       </c>
       <c r="O1567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1567" t="n">
         <v>0</v>
@@ -87779,7 +87803,9 @@
       <c r="Q1567" t="n">
         <v>0</v>
       </c>
-      <c r="R1567" t="inlineStr"/>
+      <c r="R1567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1568">
       <c r="A1568" s="2" t="n">
@@ -87831,7 +87857,737 @@
       <c r="Q1568" t="n">
         <v>0</v>
       </c>
-      <c r="R1568" t="inlineStr"/>
+      <c r="R1568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="2" t="n">
+        <v>45691.38541666666</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>239</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>239</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>233.3399963378906</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>235.5099945068359</v>
+      </c>
+      <c r="F1569" t="inlineStr"/>
+      <c r="G1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1569" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1569" t="inlineStr"/>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="2" t="n">
+        <v>45691.42708333334</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>235.3600006103516</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>235.3600006103516</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>231.2400054931641</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>232.7400054931641</v>
+      </c>
+      <c r="F1570" t="inlineStr"/>
+      <c r="G1570" t="n">
+        <v>64532</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1570" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1570" t="inlineStr"/>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="2" t="n">
+        <v>45691.46875</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>232.6699981689453</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>233.4100036621094</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>231.7599945068359</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>233.4100036621094</v>
+      </c>
+      <c r="F1571" t="inlineStr"/>
+      <c r="G1571" t="n">
+        <v>22103</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1571" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1571" t="inlineStr"/>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="2" t="n">
+        <v>45691.51041666666</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>233.6399993896484</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>233.8500061035156</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>230.5599975585938</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>232.3300018310547</v>
+      </c>
+      <c r="F1572" t="inlineStr"/>
+      <c r="G1572" t="n">
+        <v>33247</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1572" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1572" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1572" t="inlineStr"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="2" t="n">
+        <v>45691.55208333334</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>232.4100036621094</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>233</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>231.6999969482422</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>232.1499938964844</v>
+      </c>
+      <c r="F1573" t="inlineStr"/>
+      <c r="G1573" t="n">
+        <v>14085</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1573" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1573" t="inlineStr"/>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="n">
+        <v>45691.59375</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>232.1199951171875</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>234.3899993896484</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>232.1199951171875</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>233.7899932861328</v>
+      </c>
+      <c r="F1574" t="inlineStr"/>
+      <c r="G1574" t="n">
+        <v>29478</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1574" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1574" t="inlineStr"/>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="n">
+        <v>45691.63541666666</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>233.8800048828125</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>242.8999938964844</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>232.2100067138672</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>237</v>
+      </c>
+      <c r="F1575" t="inlineStr"/>
+      <c r="G1575" t="n">
+        <v>22121</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1575" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1575" t="inlineStr"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="n">
+        <v>45692.38541666666</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>242</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>242</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>235.3999938964844</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>237.4199981689453</v>
+      </c>
+      <c r="F1576" t="inlineStr"/>
+      <c r="G1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1576" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1576" t="inlineStr"/>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="n">
+        <v>45692.42708333334</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>237.4199981689453</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>239.1300048828125</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>234.4299926757812</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>234.6999969482422</v>
+      </c>
+      <c r="F1577" t="inlineStr"/>
+      <c r="G1577" t="n">
+        <v>37503</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1577" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1577" t="inlineStr"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45692.46875</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>235.1399993896484</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>235.4900054931641</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>233.6499938964844</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>234.1199951171875</v>
+      </c>
+      <c r="F1578" t="inlineStr"/>
+      <c r="G1578" t="n">
+        <v>27122</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1578" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1578" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1578" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1578" t="inlineStr"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45692.51041666666</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>234.1199951171875</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>234.8899993896484</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>233.5800018310547</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>234.8899993896484</v>
+      </c>
+      <c r="F1579" t="inlineStr"/>
+      <c r="G1579" t="n">
+        <v>18397</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1579" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1579" t="inlineStr"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45692.55208333334</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>234.4700012207031</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>236.1100006103516</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>234.2299957275391</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>235.0099945068359</v>
+      </c>
+      <c r="F1580" t="inlineStr"/>
+      <c r="G1580" t="n">
+        <v>26846</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1580" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1580" t="inlineStr"/>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45692.59375</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>235.1300048828125</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>236.6999969482422</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>235</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>235.1799926757812</v>
+      </c>
+      <c r="F1581" t="inlineStr"/>
+      <c r="G1581" t="n">
+        <v>25490</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1581" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1581" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1581" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1581" t="inlineStr"/>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="n">
+        <v>45692.63541666666</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>235.7799987792969</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>236.8000030517578</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>234.2299957275391</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>235.6499938964844</v>
+      </c>
+      <c r="F1582" t="inlineStr"/>
+      <c r="G1582" t="n">
+        <v>30059</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1582" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1582" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1582" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1582" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1582"/>
+  <dimension ref="A1:R1604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16539,7 +16539,7 @@
         <v>1</v>
       </c>
       <c r="Q287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R287" t="n">
         <v>1</v>
@@ -87863,23 +87863,23 @@
     </row>
     <row r="1569">
       <c r="A1569" s="2" t="n">
-        <v>45691.38541666666</v>
+        <v>45689.63541666666</v>
       </c>
       <c r="B1569" t="n">
-        <v>239</v>
+        <v>240.4900054931641</v>
       </c>
       <c r="C1569" t="n">
-        <v>239</v>
+        <v>240.4900054931641</v>
       </c>
       <c r="D1569" t="n">
-        <v>233.3399963378906</v>
+        <v>240.4900054931641</v>
       </c>
       <c r="E1569" t="n">
-        <v>235.5099945068359</v>
+        <v>240.4900054931641</v>
       </c>
       <c r="F1569" t="inlineStr"/>
       <c r="G1569" t="n">
-        <v>0</v>
+        <v>23625</v>
       </c>
       <c r="H1569" t="n">
         <v>2025</v>
@@ -87888,10 +87888,10 @@
         <v>2</v>
       </c>
       <c r="J1569" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1569" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L1569" t="n">
         <v>15</v>
@@ -87900,7 +87900,7 @@
         <v>0</v>
       </c>
       <c r="N1569" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O1569" t="n">
         <v>0</v>
@@ -87915,23 +87915,23 @@
     </row>
     <row r="1570">
       <c r="A1570" s="2" t="n">
-        <v>45691.42708333334</v>
+        <v>45691.38541666666</v>
       </c>
       <c r="B1570" t="n">
-        <v>235.3600006103516</v>
+        <v>239</v>
       </c>
       <c r="C1570" t="n">
-        <v>235.3600006103516</v>
+        <v>239</v>
       </c>
       <c r="D1570" t="n">
-        <v>231.2400054931641</v>
+        <v>233.3399963378906</v>
       </c>
       <c r="E1570" t="n">
-        <v>232.7400054931641</v>
+        <v>235.5099945068359</v>
       </c>
       <c r="F1570" t="inlineStr"/>
       <c r="G1570" t="n">
-        <v>64532</v>
+        <v>0</v>
       </c>
       <c r="H1570" t="n">
         <v>2025</v>
@@ -87943,7 +87943,7 @@
         <v>3</v>
       </c>
       <c r="K1570" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1570" t="n">
         <v>15</v>
@@ -87963,27 +87963,29 @@
       <c r="Q1570" t="n">
         <v>0</v>
       </c>
-      <c r="R1570" t="inlineStr"/>
+      <c r="R1570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1571">
       <c r="A1571" s="2" t="n">
-        <v>45691.46875</v>
+        <v>45691.42708333334</v>
       </c>
       <c r="B1571" t="n">
-        <v>232.6699981689453</v>
+        <v>235.3600006103516</v>
       </c>
       <c r="C1571" t="n">
-        <v>233.4100036621094</v>
+        <v>235.3600006103516</v>
       </c>
       <c r="D1571" t="n">
-        <v>231.7599945068359</v>
+        <v>231.2400054931641</v>
       </c>
       <c r="E1571" t="n">
-        <v>233.4100036621094</v>
+        <v>232.7400054931641</v>
       </c>
       <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="n">
-        <v>22103</v>
+        <v>64532</v>
       </c>
       <c r="H1571" t="n">
         <v>2025</v>
@@ -87995,7 +87997,7 @@
         <v>3</v>
       </c>
       <c r="K1571" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1571" t="n">
         <v>15</v>
@@ -88015,27 +88017,29 @@
       <c r="Q1571" t="n">
         <v>0</v>
       </c>
-      <c r="R1571" t="inlineStr"/>
+      <c r="R1571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1572">
       <c r="A1572" s="2" t="n">
-        <v>45691.51041666666</v>
+        <v>45691.46875</v>
       </c>
       <c r="B1572" t="n">
-        <v>233.6399993896484</v>
+        <v>232.6699981689453</v>
       </c>
       <c r="C1572" t="n">
-        <v>233.8500061035156</v>
+        <v>233.4100036621094</v>
       </c>
       <c r="D1572" t="n">
-        <v>230.5599975585938</v>
+        <v>231.7599945068359</v>
       </c>
       <c r="E1572" t="n">
-        <v>232.3300018310547</v>
+        <v>233.4100036621094</v>
       </c>
       <c r="F1572" t="inlineStr"/>
       <c r="G1572" t="n">
-        <v>33247</v>
+        <v>22103</v>
       </c>
       <c r="H1572" t="n">
         <v>2025</v>
@@ -88047,7 +88051,7 @@
         <v>3</v>
       </c>
       <c r="K1572" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1572" t="n">
         <v>15</v>
@@ -88059,7 +88063,7 @@
         <v>6</v>
       </c>
       <c r="O1572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1572" t="n">
         <v>0</v>
@@ -88067,27 +88071,29 @@
       <c r="Q1572" t="n">
         <v>0</v>
       </c>
-      <c r="R1572" t="inlineStr"/>
+      <c r="R1572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1573">
       <c r="A1573" s="2" t="n">
-        <v>45691.55208333334</v>
+        <v>45691.51041666666</v>
       </c>
       <c r="B1573" t="n">
-        <v>232.4100036621094</v>
+        <v>233.6399993896484</v>
       </c>
       <c r="C1573" t="n">
-        <v>233</v>
+        <v>233.8500061035156</v>
       </c>
       <c r="D1573" t="n">
-        <v>231.6999969482422</v>
+        <v>230.5599975585938</v>
       </c>
       <c r="E1573" t="n">
-        <v>232.1499938964844</v>
+        <v>232.3300018310547</v>
       </c>
       <c r="F1573" t="inlineStr"/>
       <c r="G1573" t="n">
-        <v>14085</v>
+        <v>33247</v>
       </c>
       <c r="H1573" t="n">
         <v>2025</v>
@@ -88099,7 +88105,7 @@
         <v>3</v>
       </c>
       <c r="K1573" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L1573" t="n">
         <v>15</v>
@@ -88111,7 +88117,7 @@
         <v>6</v>
       </c>
       <c r="O1573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1573" t="n">
         <v>0</v>
@@ -88119,27 +88125,29 @@
       <c r="Q1573" t="n">
         <v>0</v>
       </c>
-      <c r="R1573" t="inlineStr"/>
+      <c r="R1573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1574">
       <c r="A1574" s="2" t="n">
-        <v>45691.59375</v>
+        <v>45691.55208333334</v>
       </c>
       <c r="B1574" t="n">
-        <v>232.1199951171875</v>
+        <v>232.4100036621094</v>
       </c>
       <c r="C1574" t="n">
-        <v>234.3899993896484</v>
+        <v>233</v>
       </c>
       <c r="D1574" t="n">
-        <v>232.1199951171875</v>
+        <v>231.6999969482422</v>
       </c>
       <c r="E1574" t="n">
-        <v>233.7899932861328</v>
+        <v>232.1499938964844</v>
       </c>
       <c r="F1574" t="inlineStr"/>
       <c r="G1574" t="n">
-        <v>29478</v>
+        <v>14085</v>
       </c>
       <c r="H1574" t="n">
         <v>2025</v>
@@ -88151,7 +88159,7 @@
         <v>3</v>
       </c>
       <c r="K1574" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L1574" t="n">
         <v>15</v>
@@ -88171,27 +88179,29 @@
       <c r="Q1574" t="n">
         <v>0</v>
       </c>
-      <c r="R1574" t="inlineStr"/>
+      <c r="R1574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1575">
       <c r="A1575" s="2" t="n">
-        <v>45691.63541666666</v>
+        <v>45691.59375</v>
       </c>
       <c r="B1575" t="n">
-        <v>233.8800048828125</v>
+        <v>232.1199951171875</v>
       </c>
       <c r="C1575" t="n">
-        <v>242.8999938964844</v>
+        <v>234.3899993896484</v>
       </c>
       <c r="D1575" t="n">
-        <v>232.2100067138672</v>
+        <v>232.1199951171875</v>
       </c>
       <c r="E1575" t="n">
-        <v>237</v>
+        <v>233.7899932861328</v>
       </c>
       <c r="F1575" t="inlineStr"/>
       <c r="G1575" t="n">
-        <v>22121</v>
+        <v>29478</v>
       </c>
       <c r="H1575" t="n">
         <v>2025</v>
@@ -88203,7 +88213,7 @@
         <v>3</v>
       </c>
       <c r="K1575" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1575" t="n">
         <v>15</v>
@@ -88223,27 +88233,29 @@
       <c r="Q1575" t="n">
         <v>0</v>
       </c>
-      <c r="R1575" t="inlineStr"/>
+      <c r="R1575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1576">
       <c r="A1576" s="2" t="n">
-        <v>45692.38541666666</v>
+        <v>45691.63541666666</v>
       </c>
       <c r="B1576" t="n">
-        <v>242</v>
+        <v>233.8800048828125</v>
       </c>
       <c r="C1576" t="n">
-        <v>242</v>
+        <v>242.8999938964844</v>
       </c>
       <c r="D1576" t="n">
-        <v>235.3999938964844</v>
+        <v>232.2100067138672</v>
       </c>
       <c r="E1576" t="n">
-        <v>237.4199981689453</v>
+        <v>237</v>
       </c>
       <c r="F1576" t="inlineStr"/>
       <c r="G1576" t="n">
-        <v>0</v>
+        <v>22121</v>
       </c>
       <c r="H1576" t="n">
         <v>2025</v>
@@ -88252,10 +88264,10 @@
         <v>2</v>
       </c>
       <c r="J1576" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1576" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L1576" t="n">
         <v>15</v>
@@ -88275,27 +88287,29 @@
       <c r="Q1576" t="n">
         <v>0</v>
       </c>
-      <c r="R1576" t="inlineStr"/>
+      <c r="R1576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1577">
       <c r="A1577" s="2" t="n">
-        <v>45692.42708333334</v>
+        <v>45692.38541666666</v>
       </c>
       <c r="B1577" t="n">
+        <v>242</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>242</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>235.3999938964844</v>
+      </c>
+      <c r="E1577" t="n">
         <v>237.4199981689453</v>
-      </c>
-      <c r="C1577" t="n">
-        <v>239.1300048828125</v>
-      </c>
-      <c r="D1577" t="n">
-        <v>234.4299926757812</v>
-      </c>
-      <c r="E1577" t="n">
-        <v>234.6999969482422</v>
       </c>
       <c r="F1577" t="inlineStr"/>
       <c r="G1577" t="n">
-        <v>37503</v>
+        <v>0</v>
       </c>
       <c r="H1577" t="n">
         <v>2025</v>
@@ -88307,7 +88321,7 @@
         <v>4</v>
       </c>
       <c r="K1577" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1577" t="n">
         <v>15</v>
@@ -88327,27 +88341,29 @@
       <c r="Q1577" t="n">
         <v>0</v>
       </c>
-      <c r="R1577" t="inlineStr"/>
+      <c r="R1577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1578">
       <c r="A1578" s="2" t="n">
-        <v>45692.46875</v>
+        <v>45692.42708333334</v>
       </c>
       <c r="B1578" t="n">
-        <v>235.1399993896484</v>
+        <v>237.4199981689453</v>
       </c>
       <c r="C1578" t="n">
-        <v>235.4900054931641</v>
+        <v>239.1300048828125</v>
       </c>
       <c r="D1578" t="n">
-        <v>233.6499938964844</v>
+        <v>234.4299926757812</v>
       </c>
       <c r="E1578" t="n">
-        <v>234.1199951171875</v>
+        <v>234.6999969482422</v>
       </c>
       <c r="F1578" t="inlineStr"/>
       <c r="G1578" t="n">
-        <v>27122</v>
+        <v>37503</v>
       </c>
       <c r="H1578" t="n">
         <v>2025</v>
@@ -88359,7 +88375,7 @@
         <v>4</v>
       </c>
       <c r="K1578" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1578" t="n">
         <v>15</v>
@@ -88379,27 +88395,29 @@
       <c r="Q1578" t="n">
         <v>2</v>
       </c>
-      <c r="R1578" t="inlineStr"/>
+      <c r="R1578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1579">
       <c r="A1579" s="2" t="n">
-        <v>45692.51041666666</v>
+        <v>45692.46875</v>
       </c>
       <c r="B1579" t="n">
+        <v>235.1399993896484</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>235.4900054931641</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>233.6499938964844</v>
+      </c>
+      <c r="E1579" t="n">
         <v>234.1199951171875</v>
-      </c>
-      <c r="C1579" t="n">
-        <v>234.8899993896484</v>
-      </c>
-      <c r="D1579" t="n">
-        <v>233.5800018310547</v>
-      </c>
-      <c r="E1579" t="n">
-        <v>234.8899993896484</v>
       </c>
       <c r="F1579" t="inlineStr"/>
       <c r="G1579" t="n">
-        <v>18397</v>
+        <v>27122</v>
       </c>
       <c r="H1579" t="n">
         <v>2025</v>
@@ -88411,7 +88429,7 @@
         <v>4</v>
       </c>
       <c r="K1579" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1579" t="n">
         <v>15</v>
@@ -88431,27 +88449,29 @@
       <c r="Q1579" t="n">
         <v>0</v>
       </c>
-      <c r="R1579" t="inlineStr"/>
+      <c r="R1579" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1580">
       <c r="A1580" s="2" t="n">
-        <v>45692.55208333334</v>
+        <v>45692.51041666666</v>
       </c>
       <c r="B1580" t="n">
-        <v>234.4700012207031</v>
+        <v>234.1199951171875</v>
       </c>
       <c r="C1580" t="n">
-        <v>236.1100006103516</v>
+        <v>234.8899993896484</v>
       </c>
       <c r="D1580" t="n">
-        <v>234.2299957275391</v>
+        <v>233.5800018310547</v>
       </c>
       <c r="E1580" t="n">
-        <v>235.0099945068359</v>
+        <v>234.8899993896484</v>
       </c>
       <c r="F1580" t="inlineStr"/>
       <c r="G1580" t="n">
-        <v>26846</v>
+        <v>18397</v>
       </c>
       <c r="H1580" t="n">
         <v>2025</v>
@@ -88463,7 +88483,7 @@
         <v>4</v>
       </c>
       <c r="K1580" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L1580" t="n">
         <v>15</v>
@@ -88483,27 +88503,29 @@
       <c r="Q1580" t="n">
         <v>0</v>
       </c>
-      <c r="R1580" t="inlineStr"/>
+      <c r="R1580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1581">
       <c r="A1581" s="2" t="n">
-        <v>45692.59375</v>
+        <v>45692.55208333334</v>
       </c>
       <c r="B1581" t="n">
-        <v>235.1300048828125</v>
+        <v>234.4700012207031</v>
       </c>
       <c r="C1581" t="n">
-        <v>236.6999969482422</v>
+        <v>236.1100006103516</v>
       </c>
       <c r="D1581" t="n">
-        <v>235</v>
+        <v>234.2299957275391</v>
       </c>
       <c r="E1581" t="n">
-        <v>235.1799926757812</v>
+        <v>235.0099945068359</v>
       </c>
       <c r="F1581" t="inlineStr"/>
       <c r="G1581" t="n">
-        <v>25490</v>
+        <v>26846</v>
       </c>
       <c r="H1581" t="n">
         <v>2025</v>
@@ -88515,7 +88537,7 @@
         <v>4</v>
       </c>
       <c r="K1581" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L1581" t="n">
         <v>15</v>
@@ -88535,27 +88557,29 @@
       <c r="Q1581" t="n">
         <v>0</v>
       </c>
-      <c r="R1581" t="inlineStr"/>
+      <c r="R1581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1582">
       <c r="A1582" s="2" t="n">
-        <v>45692.63541666666</v>
+        <v>45692.59375</v>
       </c>
       <c r="B1582" t="n">
-        <v>235.7799987792969</v>
+        <v>235.1300048828125</v>
       </c>
       <c r="C1582" t="n">
-        <v>236.8000030517578</v>
+        <v>236.6999969482422</v>
       </c>
       <c r="D1582" t="n">
-        <v>234.2299957275391</v>
+        <v>235</v>
       </c>
       <c r="E1582" t="n">
-        <v>235.6499938964844</v>
+        <v>235.1799926757812</v>
       </c>
       <c r="F1582" t="inlineStr"/>
       <c r="G1582" t="n">
-        <v>30059</v>
+        <v>25490</v>
       </c>
       <c r="H1582" t="n">
         <v>2025</v>
@@ -88567,7 +88591,7 @@
         <v>4</v>
       </c>
       <c r="K1582" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1582" t="n">
         <v>15</v>
@@ -88587,7 +88611,1155 @@
       <c r="Q1582" t="n">
         <v>0</v>
       </c>
-      <c r="R1582" t="inlineStr"/>
+      <c r="R1582" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="n">
+        <v>45692.63541666666</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>235.7799987792969</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>236.8000030517578</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>234.2299957275391</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>235.6499938964844</v>
+      </c>
+      <c r="F1583" t="inlineStr"/>
+      <c r="G1583" t="n">
+        <v>30059</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1583" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1583" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1583" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="n">
+        <v>45693.38541666666</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>236.8999938964844</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>240.8800048828125</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>236.8999938964844</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>237.8500061035156</v>
+      </c>
+      <c r="F1584" t="inlineStr"/>
+      <c r="G1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1584" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1584" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1584" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1584" t="inlineStr"/>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="n">
+        <v>45693.42708333334</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>238.0500030517578</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>237</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>238.7899932861328</v>
+      </c>
+      <c r="F1585" t="inlineStr"/>
+      <c r="G1585" t="n">
+        <v>47547</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1585" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1585" t="inlineStr"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="n">
+        <v>45693.46875</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>238.2899932861328</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>241.3500061035156</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>238.2200012207031</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>239.8999938964844</v>
+      </c>
+      <c r="F1586" t="inlineStr"/>
+      <c r="G1586" t="n">
+        <v>27791</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1586" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1586" t="inlineStr"/>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="2" t="n">
+        <v>45693.51041666666</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>239.8999938964844</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>240.9799957275391</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>238.6100006103516</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>239.0099945068359</v>
+      </c>
+      <c r="F1587" t="inlineStr"/>
+      <c r="G1587" t="n">
+        <v>38793</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1587" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1587" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1587" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1587" t="inlineStr"/>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="2" t="n">
+        <v>45693.55208333334</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>239.1600036621094</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>247.4199981689453</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>239.0099945068359</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>246.2700042724609</v>
+      </c>
+      <c r="F1588" t="inlineStr"/>
+      <c r="G1588" t="n">
+        <v>128688</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1588" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1588" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1588" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1588" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1588" t="inlineStr"/>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="2" t="n">
+        <v>45693.59375</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>245.9700012207031</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>246.7899932861328</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>242.2100067138672</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>242.9600067138672</v>
+      </c>
+      <c r="F1589" t="inlineStr"/>
+      <c r="G1589" t="n">
+        <v>43378</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1589" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1589" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1589" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1589" t="inlineStr"/>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="2" t="n">
+        <v>45693.63541666666</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>243</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>245.7400054931641</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>242.3000030517578</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>245.6000061035156</v>
+      </c>
+      <c r="F1590" t="inlineStr"/>
+      <c r="G1590" t="n">
+        <v>22374</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1590" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1590" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1590" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1590" t="inlineStr"/>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="2" t="n">
+        <v>45694.38541666666</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>220</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>227.9600067138672</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>221.6199951171875</v>
+      </c>
+      <c r="F1591" t="inlineStr"/>
+      <c r="G1591" t="n">
+        <v>1018023</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1591" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1591" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1591" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1591" t="inlineStr"/>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="2" t="n">
+        <v>45694.42708333334</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>221.9400024414062</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>223.8000030517578</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>220.6300048828125</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>221.75</v>
+      </c>
+      <c r="F1592" t="inlineStr"/>
+      <c r="G1592" t="n">
+        <v>213006</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1592" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1592" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1592" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1592" t="inlineStr"/>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="2" t="n">
+        <v>45694.46875</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>221.3000030517578</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>221.6799926757812</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="F1593" t="inlineStr"/>
+      <c r="G1593" t="n">
+        <v>183498</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1593" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1593" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1593" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1593" t="inlineStr"/>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="2" t="n">
+        <v>45694.51041666666</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="F1594" t="inlineStr"/>
+      <c r="G1594" t="n">
+        <v>30506</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1594" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1594" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1594" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1594" t="inlineStr"/>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="2" t="n">
+        <v>45694.55208333334</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="F1595" t="inlineStr"/>
+      <c r="G1595" t="n">
+        <v>14882</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1595" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1595" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1595" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1595" t="inlineStr"/>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2" t="n">
+        <v>45694.59375</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="F1596" t="inlineStr"/>
+      <c r="G1596" t="n">
+        <v>17848</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1596" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1596" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1596" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1596" t="inlineStr"/>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="2" t="n">
+        <v>45694.63541666666</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>219.7100067138672</v>
+      </c>
+      <c r="F1597" t="inlineStr"/>
+      <c r="G1597" t="n">
+        <v>26201</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1597" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1597" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1597" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1597" t="inlineStr"/>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="2" t="n">
+        <v>45695.38541666666</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>212</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>216.1600036621094</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>206.5200042724609</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>208.5399932861328</v>
+      </c>
+      <c r="F1598" t="inlineStr"/>
+      <c r="G1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1598" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1598" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1598" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1598" t="inlineStr"/>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="2" t="n">
+        <v>45695.42708333334</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>208.4499969482422</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>209.6100006103516</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>205.0899963378906</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>209</v>
+      </c>
+      <c r="F1599" t="inlineStr"/>
+      <c r="G1599" t="n">
+        <v>141657</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1599" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1599" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1599" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1599" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1599" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1599" t="inlineStr"/>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="2" t="n">
+        <v>45695.46875</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>209</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>210.8800048828125</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>205.8200073242188</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>206</v>
+      </c>
+      <c r="F1600" t="inlineStr"/>
+      <c r="G1600" t="n">
+        <v>121101</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1600" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1600" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1600" t="inlineStr"/>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="2" t="n">
+        <v>45695.51041666666</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>206</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>207.3999938964844</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>203.8000030517578</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>204.4400024414062</v>
+      </c>
+      <c r="F1601" t="inlineStr"/>
+      <c r="G1601" t="n">
+        <v>112947</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1601" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1601" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1601" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1601" t="inlineStr"/>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="2" t="n">
+        <v>45695.55208333334</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>204.1399993896484</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>204.6000061035156</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>200.1499938964844</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>200.5</v>
+      </c>
+      <c r="F1602" t="inlineStr"/>
+      <c r="G1602" t="n">
+        <v>297630</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1602" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1602" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1602" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1602" t="inlineStr"/>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="2" t="n">
+        <v>45695.59375</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>200.4199981689453</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>200.7299957275391</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>199.0099945068359</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>199.9799957275391</v>
+      </c>
+      <c r="F1603" t="inlineStr"/>
+      <c r="G1603" t="n">
+        <v>234026</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1603" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1603" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1603" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1603" t="inlineStr"/>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="2" t="n">
+        <v>45695.63541666666</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>199.7100067138672</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>200.5</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>199.5500030517578</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>200.1499938964844</v>
+      </c>
+      <c r="F1604" t="inlineStr"/>
+      <c r="G1604" t="n">
+        <v>84548</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1604" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1604" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1604" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1604" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1604"/>
+  <dimension ref="A1:R1618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87911,7 +87911,9 @@
       <c r="Q1569" t="n">
         <v>0</v>
       </c>
-      <c r="R1569" t="inlineStr"/>
+      <c r="R1569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1570">
       <c r="A1570" s="2" t="n">
@@ -88396,7 +88398,7 @@
         <v>2</v>
       </c>
       <c r="R1578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1579">
@@ -88450,7 +88452,7 @@
         <v>0</v>
       </c>
       <c r="R1579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580">
@@ -88719,7 +88721,9 @@
       <c r="Q1584" t="n">
         <v>1</v>
       </c>
-      <c r="R1584" t="inlineStr"/>
+      <c r="R1584" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1585">
       <c r="A1585" s="2" t="n">
@@ -88771,7 +88775,9 @@
       <c r="Q1585" t="n">
         <v>0</v>
       </c>
-      <c r="R1585" t="inlineStr"/>
+      <c r="R1585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1586">
       <c r="A1586" s="2" t="n">
@@ -88823,7 +88829,9 @@
       <c r="Q1586" t="n">
         <v>0</v>
       </c>
-      <c r="R1586" t="inlineStr"/>
+      <c r="R1586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1587">
       <c r="A1587" s="2" t="n">
@@ -88875,7 +88883,9 @@
       <c r="Q1587" t="n">
         <v>0</v>
       </c>
-      <c r="R1587" t="inlineStr"/>
+      <c r="R1587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1588">
       <c r="A1588" s="2" t="n">
@@ -88927,7 +88937,9 @@
       <c r="Q1588" t="n">
         <v>0</v>
       </c>
-      <c r="R1588" t="inlineStr"/>
+      <c r="R1588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1589">
       <c r="A1589" s="2" t="n">
@@ -88979,7 +88991,9 @@
       <c r="Q1589" t="n">
         <v>0</v>
       </c>
-      <c r="R1589" t="inlineStr"/>
+      <c r="R1589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1590">
       <c r="A1590" s="2" t="n">
@@ -89031,7 +89045,9 @@
       <c r="Q1590" t="n">
         <v>0</v>
       </c>
-      <c r="R1590" t="inlineStr"/>
+      <c r="R1590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1591">
       <c r="A1591" s="2" t="n">
@@ -89083,7 +89099,9 @@
       <c r="Q1591" t="n">
         <v>0</v>
       </c>
-      <c r="R1591" t="inlineStr"/>
+      <c r="R1591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1592">
       <c r="A1592" s="2" t="n">
@@ -89135,7 +89153,9 @@
       <c r="Q1592" t="n">
         <v>0</v>
       </c>
-      <c r="R1592" t="inlineStr"/>
+      <c r="R1592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1593">
       <c r="A1593" s="2" t="n">
@@ -89187,7 +89207,9 @@
       <c r="Q1593" t="n">
         <v>0</v>
       </c>
-      <c r="R1593" t="inlineStr"/>
+      <c r="R1593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1594">
       <c r="A1594" s="2" t="n">
@@ -89239,7 +89261,9 @@
       <c r="Q1594" t="n">
         <v>0</v>
       </c>
-      <c r="R1594" t="inlineStr"/>
+      <c r="R1594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1595">
       <c r="A1595" s="2" t="n">
@@ -89291,7 +89315,9 @@
       <c r="Q1595" t="n">
         <v>0</v>
       </c>
-      <c r="R1595" t="inlineStr"/>
+      <c r="R1595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1596">
       <c r="A1596" s="2" t="n">
@@ -89343,7 +89369,9 @@
       <c r="Q1596" t="n">
         <v>0</v>
       </c>
-      <c r="R1596" t="inlineStr"/>
+      <c r="R1596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1597">
       <c r="A1597" s="2" t="n">
@@ -89395,7 +89423,9 @@
       <c r="Q1597" t="n">
         <v>0</v>
       </c>
-      <c r="R1597" t="inlineStr"/>
+      <c r="R1597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1598">
       <c r="A1598" s="2" t="n">
@@ -89447,7 +89477,9 @@
       <c r="Q1598" t="n">
         <v>0</v>
       </c>
-      <c r="R1598" t="inlineStr"/>
+      <c r="R1598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1599">
       <c r="A1599" s="2" t="n">
@@ -89499,7 +89531,9 @@
       <c r="Q1599" t="n">
         <v>2</v>
       </c>
-      <c r="R1599" t="inlineStr"/>
+      <c r="R1599" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1600">
       <c r="A1600" s="2" t="n">
@@ -89551,7 +89585,9 @@
       <c r="Q1600" t="n">
         <v>0</v>
       </c>
-      <c r="R1600" t="inlineStr"/>
+      <c r="R1600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1601">
       <c r="A1601" s="2" t="n">
@@ -89603,7 +89639,9 @@
       <c r="Q1601" t="n">
         <v>0</v>
       </c>
-      <c r="R1601" t="inlineStr"/>
+      <c r="R1601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1602">
       <c r="A1602" s="2" t="n">
@@ -89655,7 +89693,9 @@
       <c r="Q1602" t="n">
         <v>0</v>
       </c>
-      <c r="R1602" t="inlineStr"/>
+      <c r="R1602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" s="2" t="n">
@@ -89707,7 +89747,9 @@
       <c r="Q1603" t="n">
         <v>0</v>
       </c>
-      <c r="R1603" t="inlineStr"/>
+      <c r="R1603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1604">
       <c r="A1604" s="2" t="n">
@@ -89759,7 +89801,737 @@
       <c r="Q1604" t="n">
         <v>0</v>
       </c>
-      <c r="R1604" t="inlineStr"/>
+      <c r="R1604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="2" t="n">
+        <v>45698.38541666666</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>200</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>200.4799957275391</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>190.0299987792969</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>190.1300048828125</v>
+      </c>
+      <c r="F1605" t="inlineStr"/>
+      <c r="G1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1605" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1605" t="inlineStr"/>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="2" t="n">
+        <v>45698.42708333334</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>190.3000030517578</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>191.3000030517578</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>189.1600036621094</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>190.1199951171875</v>
+      </c>
+      <c r="F1606" t="inlineStr"/>
+      <c r="G1606" t="n">
+        <v>115226</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1606" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1606" t="inlineStr"/>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="2" t="n">
+        <v>45698.46875</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>190.4199981689453</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>190.4199981689453</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>187.4700012207031</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>188.1199951171875</v>
+      </c>
+      <c r="F1607" t="inlineStr"/>
+      <c r="G1607" t="n">
+        <v>56199</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1607" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1607" t="inlineStr"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="2" t="n">
+        <v>45698.51041666666</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>188.1100006103516</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>190.3000030517578</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>187.5200042724609</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>189.4199981689453</v>
+      </c>
+      <c r="F1608" t="inlineStr"/>
+      <c r="G1608" t="n">
+        <v>32754</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1608" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1608" t="inlineStr"/>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="2" t="n">
+        <v>45698.55208333334</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>189.2200012207031</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>191.8699951171875</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>189.2100067138672</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>191.0200042724609</v>
+      </c>
+      <c r="F1609" t="inlineStr"/>
+      <c r="G1609" t="n">
+        <v>39385</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1609" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1609" t="inlineStr"/>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2" t="n">
+        <v>45698.59375</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>191.3000030517578</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>194.8500061035156</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>190.1300048828125</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>192.4499969482422</v>
+      </c>
+      <c r="F1610" t="inlineStr"/>
+      <c r="G1610" t="n">
+        <v>76268</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1610" t="inlineStr"/>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2" t="n">
+        <v>45698.63541666666</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>192.4700012207031</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>192.4700012207031</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>194</v>
+      </c>
+      <c r="F1611" t="inlineStr"/>
+      <c r="G1611" t="n">
+        <v>29092</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1611" t="inlineStr"/>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="2" t="n">
+        <v>45699.38541666666</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>194</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>195.25</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="F1612" t="inlineStr"/>
+      <c r="G1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1612" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1612" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1612" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1612" t="inlineStr"/>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45699.42708333334</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>184.5099945068359</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>185.1499938964844</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="F1613" t="inlineStr"/>
+      <c r="G1613" t="n">
+        <v>53973</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2" t="n">
+        <v>45699.46875</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="F1614" t="inlineStr"/>
+      <c r="G1614" t="n">
+        <v>25157</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1614" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1614" t="inlineStr"/>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2" t="n">
+        <v>45699.51041666666</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="F1615" t="inlineStr"/>
+      <c r="G1615" t="n">
+        <v>8483</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1615" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1615" t="inlineStr"/>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2" t="n">
+        <v>45699.55208333334</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="F1616" t="inlineStr"/>
+      <c r="G1616" t="n">
+        <v>17161</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1616" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1616" t="inlineStr"/>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="2" t="n">
+        <v>45699.59375</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="F1617" t="inlineStr"/>
+      <c r="G1617" t="n">
+        <v>12741</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1617" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1617" t="inlineStr"/>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2" t="n">
+        <v>45699.63541666666</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>184.4799957275391</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="F1618" t="inlineStr"/>
+      <c r="G1618" t="n">
+        <v>23474</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1618" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1618" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/EXICOM.NS.xlsx
+++ b/stock_historical_data/60m/EXICOM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1618"/>
+  <dimension ref="A1:R1632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89855,7 +89855,9 @@
       <c r="Q1605" t="n">
         <v>0</v>
       </c>
-      <c r="R1605" t="inlineStr"/>
+      <c r="R1605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1606">
       <c r="A1606" s="2" t="n">
@@ -89907,7 +89909,9 @@
       <c r="Q1606" t="n">
         <v>0</v>
       </c>
-      <c r="R1606" t="inlineStr"/>
+      <c r="R1606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1607">
       <c r="A1607" s="2" t="n">
@@ -89959,7 +89963,9 @@
       <c r="Q1607" t="n">
         <v>0</v>
       </c>
-      <c r="R1607" t="inlineStr"/>
+      <c r="R1607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
@@ -90011,7 +90017,9 @@
       <c r="Q1608" t="n">
         <v>0</v>
       </c>
-      <c r="R1608" t="inlineStr"/>
+      <c r="R1608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1609">
       <c r="A1609" s="2" t="n">
@@ -90063,7 +90071,9 @@
       <c r="Q1609" t="n">
         <v>0</v>
       </c>
-      <c r="R1609" t="inlineStr"/>
+      <c r="R1609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1610">
       <c r="A1610" s="2" t="n">
@@ -90115,7 +90125,9 @@
       <c r="Q1610" t="n">
         <v>0</v>
       </c>
-      <c r="R1610" t="inlineStr"/>
+      <c r="R1610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1611">
       <c r="A1611" s="2" t="n">
@@ -90167,7 +90179,9 @@
       <c r="Q1611" t="n">
         <v>0</v>
       </c>
-      <c r="R1611" t="inlineStr"/>
+      <c r="R1611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1612">
       <c r="A1612" s="2" t="n">
@@ -90219,7 +90233,9 @@
       <c r="Q1612" t="n">
         <v>0</v>
       </c>
-      <c r="R1612" t="inlineStr"/>
+      <c r="R1612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1613">
       <c r="A1613" s="2" t="n">
@@ -90271,7 +90287,9 @@
       <c r="Q1613" t="n">
         <v>0</v>
       </c>
-      <c r="R1613" t="inlineStr"/>
+      <c r="R1613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
@@ -90323,7 +90341,9 @@
       <c r="Q1614" t="n">
         <v>0</v>
       </c>
-      <c r="R1614" t="inlineStr"/>
+      <c r="R1614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1615">
       <c r="A1615" s="2" t="n">
@@ -90375,7 +90395,9 @@
       <c r="Q1615" t="n">
         <v>0</v>
       </c>
-      <c r="R1615" t="inlineStr"/>
+      <c r="R1615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1616">
       <c r="A1616" s="2" t="n">
@@ -90427,7 +90449,9 @@
       <c r="Q1616" t="n">
         <v>0</v>
       </c>
-      <c r="R1616" t="inlineStr"/>
+      <c r="R1616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1617">
       <c r="A1617" s="2" t="n">
@@ -90479,7 +90503,9 @@
       <c r="Q1617" t="n">
         <v>0</v>
       </c>
-      <c r="R1617" t="inlineStr"/>
+      <c r="R1617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1618">
       <c r="A1618" s="2" t="n">
@@ -90531,7 +90557,737 @@
       <c r="Q1618" t="n">
         <v>0</v>
       </c>
-      <c r="R1618" t="inlineStr"/>
+      <c r="R1618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="2" t="n">
+        <v>45700.38541666666</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>182</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>183.0700073242188</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>175.0399932861328</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="F1619" t="inlineStr"/>
+      <c r="G1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1619" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1619" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1619" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1619" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1619" t="inlineStr"/>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="2" t="n">
+        <v>45700.42708333334</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>182.6399993896484</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>175.1000061035156</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>180.9900054931641</v>
+      </c>
+      <c r="F1620" t="inlineStr"/>
+      <c r="G1620" t="n">
+        <v>101060</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1620" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1620" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1620" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1620" t="inlineStr"/>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="2" t="n">
+        <v>45700.46875</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>180.3500061035156</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>183.1999969482422</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>178.5200042724609</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>180.8899993896484</v>
+      </c>
+      <c r="F1621" t="inlineStr"/>
+      <c r="G1621" t="n">
+        <v>64160</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1621" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1621" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1621" t="inlineStr"/>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="2" t="n">
+        <v>45700.51041666666</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>180.9900054931641</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>183.1999969482422</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>178.6100006103516</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="F1622" t="inlineStr"/>
+      <c r="G1622" t="n">
+        <v>30495</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1622" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1622" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1622" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1622" t="inlineStr"/>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="2" t="n">
+        <v>45700.55208333334</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>181.9900054931641</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>177.25</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>178.9900054931641</v>
+      </c>
+      <c r="F1623" t="inlineStr"/>
+      <c r="G1623" t="n">
+        <v>39217</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1623" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1623" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1623" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1623" t="inlineStr"/>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="2" t="n">
+        <v>45700.59375</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>178.8899993896484</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>179.4900054931641</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>176</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>179.1499938964844</v>
+      </c>
+      <c r="F1624" t="inlineStr"/>
+      <c r="G1624" t="n">
+        <v>52483</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1624" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1624" t="inlineStr"/>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="2" t="n">
+        <v>45700.63541666666</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>179.6900024414062</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>182</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>179.0299987792969</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>179.3800048828125</v>
+      </c>
+      <c r="F1625" t="inlineStr"/>
+      <c r="G1625" t="n">
+        <v>17315</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1625" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1625" t="inlineStr"/>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2" t="n">
+        <v>45701.38541666666</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>178</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>188.3399963378906</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>178</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>186.0599975585938</v>
+      </c>
+      <c r="F1626" t="inlineStr"/>
+      <c r="G1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1626" t="inlineStr"/>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45701.42708333334</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>186.3699951171875</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>187.9799957275391</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>184.3099975585938</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>187.3899993896484</v>
+      </c>
+      <c r="F1627" t="inlineStr"/>
+      <c r="G1627" t="n">
+        <v>55183</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1627" t="inlineStr"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45701.46875</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>187.6699981689453</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>188.3399963378906</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>186.6999969482422</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>187.9799957275391</v>
+      </c>
+      <c r="F1628" t="inlineStr"/>
+      <c r="G1628" t="n">
+        <v>62906</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1628" t="inlineStr"/>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45701.51041666666</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>187.9700012207031</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>187.9700012207031</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>185</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>185.5200042724609</v>
+      </c>
+      <c r="F1629" t="inlineStr"/>
+      <c r="G1629" t="n">
+        <v>39805</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45701.55208333334</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>185</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>185.3800048828125</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>182</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>182.4900054931641</v>
+      </c>
+      <c r="F1630" t="inlineStr"/>
+      <c r="G1630" t="n">
+        <v>37136</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1630" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1630" t="inlineStr"/>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45701.59375</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>182.4799957275391</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>183.9799957275391</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>180.4199981689453</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>182.5700073242188</v>
+      </c>
+      <c r="F1631" t="inlineStr"/>
+      <c r="G1631" t="n">
+        <v>44279</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45701.63541666666</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>183.4499969482422</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>184</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>182.8699951171875</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>183.7400054931641</v>
+      </c>
+      <c r="F1632" t="inlineStr"/>
+      <c r="G1632" t="n">
+        <v>13372</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1632" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
